--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C73B10A-0EA7-1E41-A546-EB34AE2986C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA87F33-D734-C548-B949-91281C3A6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Card Metadata" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="67">
   <si>
     <t>Year</t>
   </si>
@@ -112,9 +112,6 @@
     <t>RCDTS</t>
   </si>
   <si>
-    <t>Student Attendance Rates</t>
-  </si>
-  <si>
     <t>Chronic Truancy Rate</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
   </si>
   <si>
     <t>Male, Female, White, Black or African American, Hispanic or Latino, Asian, Native Hawaiian or Other Pacific Islander, American Indian or Alaska Native, Two or More Races, EL</t>
-  </si>
-  <si>
-    <t>SCHOOL TYPE CODE (0,1,2,C)</t>
   </si>
   <si>
     <t>Type</t>
@@ -320,14 +314,20 @@
     <t>District Type</t>
   </si>
   <si>
-    <t>DISTRICT TYPE CODE (0,1,2,9)</t>
+    <t>School Type</t>
+  </si>
+  <si>
+    <t>SCHOOL TYPE NAME</t>
+  </si>
+  <si>
+    <t>DISTRICT TYPE NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +367,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,14 +388,8 @@
         <bgColor rgb="FF145F82"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0E4F5"/>
-        <bgColor rgb="FFC0E4F5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -407,43 +408,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="23">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -462,6 +577,11 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -480,13 +600,11 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -505,6 +623,11 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -523,6 +646,11 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -541,6 +669,11 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -559,6 +692,78 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -588,37 +793,51 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:L18" totalsRowShown="0">
-  <autoFilter ref="A1:L18" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS"/>
-    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{E5282FA6-7738-8E4D-8060-A0BD0586BA84}" name="District Type" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rates"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Chronic Truancy Rate"/>
-    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:M18" totalsRowShown="0" dataDxfId="22">
+  <autoFilter ref="A1:M18" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Chronic Truancy Rate" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}" name="Table4" displayName="Table4" ref="A1:G167" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="A1:G167" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}" name="Table4" displayName="Table4" ref="A1:G173" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:G173" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="District Type"/>
+        <filter val="DISTRICT TYPE NAME"/>
+        <filter val="School Type"/>
+        <filter val="SCHOOL TYPE NAME"/>
+        <filter val="Type"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:G173">
+    <sortCondition ref="A1:A173"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DD0B638C-4311-0744-95CB-52513DBACE2D}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{26FE4BE8-2ADC-0040-8E5B-EA972212A95A}" name="Metric"/>
-    <tableColumn id="8" xr3:uid="{984FE9E5-361E-E545-BFFF-3676884E1EAD}" name="Original Metric (If crosswalk metric is renamed)"/>
-    <tableColumn id="3" xr3:uid="{8EF9737C-A9DE-0A48-9B2F-401E5EA742D8}" name="Sheet"/>
-    <tableColumn id="4" xr3:uid="{2119FFA8-90C3-2144-BEEB-57BE3C6A7B00}" name="Disaggregated"/>
-    <tableColumn id="5" xr3:uid="{62C718C5-486E-094E-8810-20C1D37680C7}" name="Disaggregation Details"/>
-    <tableColumn id="6" xr3:uid="{4EF92C22-A542-7E4C-8C50-06CBA414F7AD}" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{DD0B638C-4311-0744-95CB-52513DBACE2D}" name="Year" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{26FE4BE8-2ADC-0040-8E5B-EA972212A95A}" name="Metric" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{984FE9E5-361E-E545-BFFF-3676884E1EAD}" name="Original Metric (If crosswalk metric is renamed)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8EF9737C-A9DE-0A48-9B2F-401E5EA742D8}" name="Sheet" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2119FFA8-90C3-2144-BEEB-57BE3C6A7B00}" name="Disaggregated" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{62C718C5-486E-094E-8810-20C1D37680C7}" name="Disaggregation Details" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{4EF92C22-A542-7E4C-8C50-06CBA414F7AD}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1254,11 +1473,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" activeCellId="1" sqref="H2:H17 A2:A17"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1266,641 +1485,674 @@
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2023</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2015</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2014</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2013</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2012</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2010</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2009</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2008</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>30</v>
       </c>
-      <c r="K17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1914,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="150" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView zoomScale="150" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1926,7 +2178,7 @@
     <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.6640625" customWidth="1"/>
-    <col min="7" max="7" width="130.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1934,98 +2186,93 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2023</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2023</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
+        <v>2008</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -2033,148 +2280,152 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2023</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
+        <v>2008</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2022</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -2182,64 +2433,64 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2022</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
+        <v>2009</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2247,148 +2498,152 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2020</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2020</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
+        <v>2010</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="b">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2020</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2396,92 +2651,87 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2011</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2011</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2011</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2011</v>
+      </c>
+      <c r="B36" t="s">
         <v>46</v>
       </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2020</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2020</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2019</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2019</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2019</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2489,55 +2739,64 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2019</v>
-      </c>
-      <c r="B37" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2011</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
         <v>49</v>
       </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2019</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -2545,86 +2804,87 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2018</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="4"/>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2018</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
+        <v>2012</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -2632,163 +2892,152 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2018</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
+        <v>2012</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2013</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>39</v>
       </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2017</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2017</v>
-      </c>
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="4"/>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2017</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
+        <v>2013</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -2796,58 +3045,64 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2016</v>
-      </c>
-      <c r="B57" t="s">
-        <v>30</v>
+        <v>2013</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2013</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" t="b">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>2016</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -2855,95 +3110,87 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2014</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2014</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>2016</v>
-      </c>
-      <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2015</v>
-      </c>
-      <c r="B64" t="s">
-        <v>30</v>
-      </c>
+      <c r="C64" s="4"/>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2015</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
+        <v>2014</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -2951,64 +3198,64 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2015</v>
-      </c>
-      <c r="B67" t="s">
-        <v>29</v>
+        <v>2014</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>56</v>
-      </c>
-      <c r="G69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B70" t="s">
         <v>43</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -3019,151 +3266,149 @@
         <v>2014</v>
       </c>
       <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2015</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2015</v>
+      </c>
+      <c r="B73" t="s">
         <v>30</v>
       </c>
-      <c r="D71" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2014</v>
-      </c>
-      <c r="B72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2014</v>
-      </c>
-      <c r="B73" t="s">
-        <v>48</v>
-      </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2014</v>
-      </c>
-      <c r="B74" t="s">
-        <v>29</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="4"/>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2014</v>
-      </c>
-      <c r="B75" t="s">
-        <v>45</v>
+        <v>2015</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>56</v>
-      </c>
-      <c r="G76" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2014</v>
-      </c>
-      <c r="B77" t="s">
-        <v>43</v>
+        <v>2015</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="G78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
@@ -3171,95 +3416,87 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2016</v>
+      </c>
+      <c r="B82" t="s">
         <v>29</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
         <v>39</v>
       </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2013</v>
-      </c>
-      <c r="B82" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>56</v>
-      </c>
-      <c r="G83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2016</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2013</v>
-      </c>
-      <c r="B84" t="s">
-        <v>43</v>
-      </c>
+      <c r="C84" s="4"/>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2012</v>
-      </c>
-      <c r="B85" t="s">
-        <v>30</v>
+        <v>2016</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -3267,151 +3504,152 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2012</v>
-      </c>
-      <c r="B87" t="s">
-        <v>48</v>
+        <v>2016</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>56</v>
-      </c>
-      <c r="G90" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2011</v>
-      </c>
-      <c r="B94" t="s">
-        <v>48</v>
-      </c>
+        <v>2017</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="4"/>
       <c r="D94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>2011</v>
-      </c>
-      <c r="B95" t="s">
-        <v>29</v>
+        <v>2017</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -3419,67 +3657,64 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>2011</v>
-      </c>
-      <c r="B97" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2017</v>
+      </c>
+      <c r="B98" t="s">
         <v>51</v>
       </c>
-      <c r="D97" t="s">
-        <v>39</v>
-      </c>
-      <c r="E97" t="b">
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" t="b">
         <v>1</v>
       </c>
-      <c r="F97" t="s">
-        <v>56</v>
-      </c>
-      <c r="G97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>2011</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="F98" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2017</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2017</v>
+      </c>
+      <c r="B100" t="s">
         <v>43</v>
       </c>
-      <c r="D98" t="s">
-        <v>39</v>
-      </c>
-      <c r="E98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>2010</v>
-      </c>
-      <c r="B99" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" t="s">
-        <v>39</v>
-      </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>2010</v>
-      </c>
-      <c r="B100" t="s">
-        <v>31</v>
-      </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -3487,340 +3722,331 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
-      </c>
-      <c r="C104" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
-        <v>56</v>
-      </c>
-      <c r="G104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2018</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2018</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2018</v>
+      </c>
+      <c r="B111" t="s">
         <v>48</v>
       </c>
-      <c r="D108" t="s">
-        <v>39</v>
-      </c>
-      <c r="E108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>2009</v>
-      </c>
-      <c r="B109" t="s">
-        <v>29</v>
-      </c>
-      <c r="D109" t="s">
-        <v>39</v>
-      </c>
-      <c r="E109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>2009</v>
-      </c>
-      <c r="B110" t="s">
-        <v>45</v>
-      </c>
-      <c r="D110" t="s">
-        <v>39</v>
-      </c>
-      <c r="E110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>2009</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>53</v>
       </c>
-      <c r="C111" t="s">
-        <v>51</v>
-      </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="s">
+        <v>54</v>
+      </c>
+      <c r="G111" t="s">
         <v>56</v>
-      </c>
-      <c r="G111" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="G113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D116" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
-      </c>
-      <c r="F118" t="s">
-        <v>56</v>
-      </c>
-      <c r="G118" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>2008</v>
-      </c>
-      <c r="B119" t="s">
-        <v>43</v>
+        <v>2018</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B122" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
@@ -3828,569 +4054,595 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
+        <v>2019</v>
+      </c>
+      <c r="B123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>2020</v>
       </c>
-      <c r="B123" t="s">
-        <v>61</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="B124" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>54</v>
+      </c>
+      <c r="G124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2020</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
         <v>36</v>
       </c>
-      <c r="E123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124">
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2020</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2020</v>
+      </c>
+      <c r="B127" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2020</v>
+      </c>
+      <c r="B128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2020</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>2019</v>
       </c>
-      <c r="B124" t="s">
-        <v>61</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="B130" t="s">
+        <v>42</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2020</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2020</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2020</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2019</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D134" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2021</v>
+      </c>
+      <c r="B135" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2021</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
         <v>36</v>
       </c>
-      <c r="E124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>2018</v>
-      </c>
-      <c r="B125" t="s">
-        <v>61</v>
-      </c>
-      <c r="D125" t="s">
-        <v>36</v>
-      </c>
-      <c r="E125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>2017</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" t="s">
-        <v>39</v>
-      </c>
-      <c r="E126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>2016</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="7"/>
-      <c r="D127" t="s">
-        <v>39</v>
-      </c>
-      <c r="E127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>2015</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" t="s">
-        <v>39</v>
-      </c>
-      <c r="E128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>2014</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" t="s">
-        <v>39</v>
-      </c>
-      <c r="E129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>2013</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" t="s">
-        <v>39</v>
-      </c>
-      <c r="E130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>2012</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="D131" t="s">
-        <v>39</v>
-      </c>
-      <c r="E131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>2011</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" t="s">
-        <v>39</v>
-      </c>
-      <c r="E132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>2010</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C133" s="7"/>
-      <c r="D133" t="s">
-        <v>39</v>
-      </c>
-      <c r="E133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>2009</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" t="s">
-        <v>39</v>
-      </c>
-      <c r="E134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>2008</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C135" s="7"/>
-      <c r="D135" t="s">
-        <v>39</v>
-      </c>
-      <c r="E135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>2023</v>
-      </c>
-      <c r="B136" t="s">
-        <v>64</v>
-      </c>
-      <c r="D136" t="s">
-        <v>36</v>
-      </c>
-      <c r="E136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2021</v>
       </c>
       <c r="B138" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2021</v>
+      </c>
+      <c r="B139" t="s">
+        <v>62</v>
+      </c>
+      <c r="D139" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2021</v>
+      </c>
+      <c r="B140" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2020</v>
+      </c>
+      <c r="B141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2021</v>
+      </c>
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2021</v>
+      </c>
+      <c r="B143" t="s">
+        <v>44</v>
+      </c>
+      <c r="D143" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2021</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" t="s">
+        <v>35</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2020</v>
+      </c>
+      <c r="B145" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2022</v>
+      </c>
+      <c r="B146" t="s">
+        <v>50</v>
+      </c>
+      <c r="D146" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>54</v>
+      </c>
+      <c r="G146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2022</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2022</v>
+      </c>
+      <c r="B148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" t="s">
+        <v>35</v>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2022</v>
+      </c>
+      <c r="B149" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2022</v>
+      </c>
+      <c r="B150" t="s">
+        <v>62</v>
+      </c>
+      <c r="D150" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2022</v>
+      </c>
+      <c r="B151" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2020</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D138" t="s">
-        <v>36</v>
-      </c>
-      <c r="E138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>2020</v>
-      </c>
-      <c r="B139" t="s">
-        <v>64</v>
-      </c>
-      <c r="D139" t="s">
-        <v>36</v>
-      </c>
-      <c r="E139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>2019</v>
-      </c>
-      <c r="B140" t="s">
-        <v>64</v>
-      </c>
-      <c r="D140" t="s">
-        <v>36</v>
-      </c>
-      <c r="E140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>2018</v>
-      </c>
-      <c r="B141" t="s">
-        <v>64</v>
-      </c>
-      <c r="D141" t="s">
-        <v>36</v>
-      </c>
-      <c r="E141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>2017</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D142" t="s">
-        <v>39</v>
-      </c>
-      <c r="E142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>2016</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D143" t="s">
-        <v>39</v>
-      </c>
-      <c r="E143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>2015</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D144" t="s">
-        <v>39</v>
-      </c>
-      <c r="E144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>2014</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D145" t="s">
-        <v>39</v>
-      </c>
-      <c r="E145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>2013</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D146" t="s">
-        <v>39</v>
-      </c>
-      <c r="E146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>2012</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D147" t="s">
-        <v>39</v>
-      </c>
-      <c r="E147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>2011</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D148" t="s">
-        <v>39</v>
-      </c>
-      <c r="E148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>2010</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D149" t="s">
-        <v>39</v>
-      </c>
-      <c r="E149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>2009</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D150" t="s">
-        <v>39</v>
-      </c>
-      <c r="E150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>2008</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D151" t="s">
-        <v>39</v>
-      </c>
-      <c r="E151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>2023</v>
-      </c>
-      <c r="B152" t="s">
-        <v>65</v>
-      </c>
       <c r="D152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2022</v>
       </c>
       <c r="B153" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
+        <v>35</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2022</v>
+      </c>
+      <c r="B154" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2022</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" t="s">
+        <v>35</v>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2021</v>
+      </c>
+      <c r="B156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2023</v>
+      </c>
+      <c r="B157" t="s">
+        <v>50</v>
+      </c>
+      <c r="D157" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>54</v>
+      </c>
+      <c r="G157" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2023</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
         <v>36</v>
       </c>
-      <c r="E153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>2021</v>
-      </c>
-      <c r="B154" t="s">
-        <v>65</v>
-      </c>
-      <c r="D154" t="s">
-        <v>36</v>
-      </c>
-      <c r="E154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>2020</v>
-      </c>
-      <c r="B155" t="s">
-        <v>65</v>
-      </c>
-      <c r="D155" t="s">
-        <v>36</v>
-      </c>
-      <c r="E155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>2019</v>
-      </c>
-      <c r="B156" t="s">
-        <v>65</v>
-      </c>
-      <c r="D156" t="s">
-        <v>36</v>
-      </c>
-      <c r="E156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>2018</v>
-      </c>
-      <c r="B157" t="s">
-        <v>65</v>
-      </c>
-      <c r="D157" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>2017</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D158" t="s">
-        <v>39</v>
-      </c>
-      <c r="E158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>2016</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>66</v>
+        <v>2023</v>
+      </c>
+      <c r="B159" t="s">
+        <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>2015</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>66</v>
+        <v>2023</v>
+      </c>
+      <c r="B160" t="s">
+        <v>59</v>
       </c>
       <c r="D160" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>2014</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>66</v>
+        <v>2023</v>
+      </c>
+      <c r="B161" t="s">
+        <v>62</v>
       </c>
       <c r="D161" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>2013</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>66</v>
+        <v>2023</v>
+      </c>
+      <c r="B162" t="s">
+        <v>47</v>
       </c>
       <c r="D162" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
@@ -4398,55 +4650,55 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>2012</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>66</v>
+        <v>2021</v>
+      </c>
+      <c r="B163" t="s">
+        <v>42</v>
       </c>
       <c r="D163" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>2011</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>66</v>
+        <v>2023</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>2010</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>66</v>
+        <v>2023</v>
+      </c>
+      <c r="B165" t="s">
+        <v>44</v>
       </c>
       <c r="D165" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>2009</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>66</v>
+        <v>2023</v>
+      </c>
+      <c r="B166" t="s">
+        <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
@@ -4454,15 +4706,99 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>2008</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>66</v>
+        <v>2021</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D167" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>35</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169" t="s">
+        <v>35</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D173" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4475,6 +4811,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
@@ -4483,15 +4828,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4758,26 +5094,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA87F33-D734-C548-B949-91281C3A6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF73BFB7-98ED-8A4A-8BA9-0AB2FD030F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="77">
   <si>
     <t>Year</t>
   </si>
@@ -321,6 +321,141 @@
   </si>
   <si>
     <t>DISTRICT TYPE NAME</t>
+  </si>
+  <si>
+    <t>Total Teacher FTE</t>
+  </si>
+  <si>
+    <t>TOTAL TEACH FTE COUNT- DISTRICT</t>
+  </si>
+  <si>
+    <t>TOTAL TEACH FTE COUNT- DISTRICT - Coming Soon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disaggregation follows format: "% Teachers - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disaggregation follows format: "% of Teachers - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disaggregation follows format: "% </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TEACHER - DISTRICT"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disaggregation follows format: "% </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TEACH - DISTRICT"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disaggregation follows format: "% </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TEACHER - DISTRICT - Coming Soon"</t>
+    </r>
+  </si>
+  <si>
+    <t>Teacher Retention Rate</t>
+  </si>
+  <si>
+    <t>TEACHER RETENTION RATE (SCHOOL)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -471,11 +606,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -531,6 +670,20 @@
           <color theme="4" tint="0.39997558519241921"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -793,43 +946,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:M18" totalsRowShown="0" dataDxfId="22">
-  <autoFilter ref="A1:M18" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Chronic Truancy Rate" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:O18" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:O18" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O18">
+    <sortCondition ref="A1:A18"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Chronic Truancy Rate" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}" name="Table4" displayName="Table4" ref="A1:G173" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:G173" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="District Type"/>
-        <filter val="DISTRICT TYPE NAME"/>
-        <filter val="School Type"/>
-        <filter val="SCHOOL TYPE NAME"/>
-        <filter val="Type"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:G173">
-    <sortCondition ref="A1:A173"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}" name="Table4" displayName="Table4" ref="A1:G199" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:G199" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DD0B638C-4311-0744-95CB-52513DBACE2D}" name="Year" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{26FE4BE8-2ADC-0040-8E5B-EA972212A95A}" name="Metric" dataDxfId="5"/>
@@ -1473,11 +1618,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1495,9 +1640,11 @@
     <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1537,256 +1684,250 @@
       <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>28</v>
@@ -1819,10 +1960,16 @@
       <c r="L8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>28</v>
@@ -1855,10 +2002,16 @@
       <c r="L9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>28</v>
@@ -1891,10 +2044,16 @@
       <c r="L10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -1927,224 +2086,296 @@
       <c r="L11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2166,15 +2397,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A158" zoomScale="150" zoomScaleNormal="167" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A162" sqref="A162"/>
+      <selection pane="topRight" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.6640625" customWidth="1"/>
@@ -2204,7 +2437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -2221,7 +2454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -2235,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -2250,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -2264,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -2292,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -2315,7 +2548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -2329,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -2357,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -2374,7 +2607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2009</v>
       </c>
@@ -2388,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -2403,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2009</v>
       </c>
@@ -2417,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -2445,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -2468,7 +2701,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2009</v>
       </c>
@@ -2482,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -2510,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -2527,7 +2760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -2541,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -2556,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -2570,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -2598,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2010</v>
       </c>
@@ -2621,7 +2854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2010</v>
       </c>
@@ -2635,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -2663,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2011</v>
       </c>
@@ -2680,7 +2913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -2694,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -2709,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -2723,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -2751,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -2774,7 +3007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -2788,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2011</v>
       </c>
@@ -2816,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2012</v>
       </c>
@@ -2833,7 +3066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2012</v>
       </c>
@@ -2847,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2012</v>
       </c>
@@ -2862,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2012</v>
       </c>
@@ -2876,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2012</v>
       </c>
@@ -2904,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2012</v>
       </c>
@@ -2927,7 +3160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2012</v>
       </c>
@@ -2941,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2012</v>
       </c>
@@ -2969,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2013</v>
       </c>
@@ -2986,7 +3219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2013</v>
       </c>
@@ -3000,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2013</v>
       </c>
@@ -3015,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2013</v>
       </c>
@@ -3029,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2013</v>
       </c>
@@ -3057,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2013</v>
       </c>
@@ -3080,7 +3313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2013</v>
       </c>
@@ -3094,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2013</v>
       </c>
@@ -3122,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2014</v>
       </c>
@@ -3139,7 +3372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2014</v>
       </c>
@@ -3153,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2014</v>
       </c>
@@ -3168,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2014</v>
       </c>
@@ -3182,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2014</v>
       </c>
@@ -3210,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2014</v>
       </c>
@@ -3233,7 +3466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2014</v>
       </c>
@@ -3247,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2014</v>
       </c>
@@ -3275,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -3292,7 +3525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -3306,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -3321,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -3335,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -3363,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -3386,7 +3619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2015</v>
       </c>
@@ -3400,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2015</v>
       </c>
@@ -3428,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2016</v>
       </c>
@@ -3445,7 +3678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2016</v>
       </c>
@@ -3459,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -3474,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -3488,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2016</v>
       </c>
@@ -3516,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2016</v>
       </c>
@@ -3539,7 +3772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -3553,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2016</v>
       </c>
@@ -3581,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2017</v>
       </c>
@@ -3598,7 +3831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2017</v>
       </c>
@@ -3612,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2017</v>
       </c>
@@ -3627,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2017</v>
       </c>
@@ -3641,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2017</v>
       </c>
@@ -3669,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2017</v>
       </c>
@@ -3692,7 +3925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2017</v>
       </c>
@@ -3706,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2017</v>
       </c>
@@ -3734,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2018</v>
       </c>
@@ -3751,7 +3984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2018</v>
       </c>
@@ -3765,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2018</v>
       </c>
@@ -3779,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2018</v>
       </c>
@@ -3793,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2018</v>
       </c>
@@ -3821,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2018</v>
       </c>
@@ -3835,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2018</v>
       </c>
@@ -3849,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2018</v>
       </c>
@@ -3866,7 +4099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2018</v>
       </c>
@@ -3903,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2019</v>
       </c>
@@ -3923,7 +4156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2019</v>
       </c>
@@ -3940,7 +4173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2019</v>
       </c>
@@ -3954,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2019</v>
       </c>
@@ -3968,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2019</v>
       </c>
@@ -3982,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2019</v>
       </c>
@@ -4010,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2019</v>
       </c>
@@ -4024,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2019</v>
       </c>
@@ -4038,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2019</v>
       </c>
@@ -4066,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2020</v>
       </c>
@@ -4086,7 +4319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2020</v>
       </c>
@@ -4103,7 +4336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2020</v>
       </c>
@@ -4117,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2020</v>
       </c>
@@ -4131,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2020</v>
       </c>
@@ -4145,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2020</v>
       </c>
@@ -4173,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2020</v>
       </c>
@@ -4187,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2020</v>
       </c>
@@ -4201,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2020</v>
       </c>
@@ -4229,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -4249,7 +4482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -4266,7 +4499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -4280,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -4294,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -4308,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2021</v>
       </c>
@@ -4336,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2021</v>
       </c>
@@ -4350,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -4364,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -4392,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2022</v>
       </c>
@@ -4412,7 +4645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2022</v>
       </c>
@@ -4429,7 +4662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2022</v>
       </c>
@@ -4443,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2022</v>
       </c>
@@ -4457,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2022</v>
       </c>
@@ -4471,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2022</v>
       </c>
@@ -4499,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2022</v>
       </c>
@@ -4513,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2022</v>
       </c>
@@ -4527,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2022</v>
       </c>
@@ -4555,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2023</v>
       </c>
@@ -4575,7 +4808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2023</v>
       </c>
@@ -4592,7 +4825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2023</v>
       </c>
@@ -4606,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2023</v>
       </c>
@@ -4620,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2023</v>
       </c>
@@ -4634,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2023</v>
       </c>
@@ -4648,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2021</v>
       </c>
@@ -4662,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2023</v>
       </c>
@@ -4676,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2023</v>
       </c>
@@ -4690,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2023</v>
       </c>
@@ -4704,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2021</v>
       </c>
@@ -4718,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>2022</v>
       </c>
@@ -4732,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>2022</v>
       </c>
@@ -4746,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>2022</v>
       </c>
@@ -4760,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>2023</v>
       </c>
@@ -4774,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>2023</v>
       </c>
@@ -4788,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>2023</v>
       </c>
@@ -4799,6 +5032,467 @@
         <v>35</v>
       </c>
       <c r="E173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2008</v>
+      </c>
+      <c r="B174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>38</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>54</v>
+      </c>
+      <c r="G174" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>2009</v>
+      </c>
+      <c r="B175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>38</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>54</v>
+      </c>
+      <c r="G175" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>2010</v>
+      </c>
+      <c r="B176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>38</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>54</v>
+      </c>
+      <c r="G176" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>2011</v>
+      </c>
+      <c r="B177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>38</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>54</v>
+      </c>
+      <c r="G177" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2012</v>
+      </c>
+      <c r="B178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>38</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>54</v>
+      </c>
+      <c r="G178" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2013</v>
+      </c>
+      <c r="B179" t="s">
+        <v>69</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" t="s">
+        <v>38</v>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>54</v>
+      </c>
+      <c r="G179" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>2014</v>
+      </c>
+      <c r="B180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>38</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>54</v>
+      </c>
+      <c r="G180" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>2015</v>
+      </c>
+      <c r="B181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>38</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>54</v>
+      </c>
+      <c r="G181" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>2016</v>
+      </c>
+      <c r="B182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>38</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>54</v>
+      </c>
+      <c r="G182" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2017</v>
+      </c>
+      <c r="B183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>54</v>
+      </c>
+      <c r="G183" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2018</v>
+      </c>
+      <c r="B184" t="s">
+        <v>67</v>
+      </c>
+      <c r="D184" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>2019</v>
+      </c>
+      <c r="B185" t="s">
+        <v>67</v>
+      </c>
+      <c r="D185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>54</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>2020</v>
+      </c>
+      <c r="B186" t="s">
+        <v>67</v>
+      </c>
+      <c r="D186" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>54</v>
+      </c>
+      <c r="G186" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>2021</v>
+      </c>
+      <c r="B187" t="s">
+        <v>67</v>
+      </c>
+      <c r="D187" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>54</v>
+      </c>
+      <c r="G187" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>2022</v>
+      </c>
+      <c r="B188" t="s">
+        <v>67</v>
+      </c>
+      <c r="D188" t="s">
+        <v>35</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>54</v>
+      </c>
+      <c r="G188" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2023</v>
+      </c>
+      <c r="B189" t="s">
+        <v>67</v>
+      </c>
+      <c r="D189" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>54</v>
+      </c>
+      <c r="G189" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>2014</v>
+      </c>
+      <c r="B190" t="s">
+        <v>76</v>
+      </c>
+      <c r="D190" t="s">
+        <v>35</v>
+      </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>2015</v>
+      </c>
+      <c r="B191" t="s">
+        <v>76</v>
+      </c>
+      <c r="D191" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>2016</v>
+      </c>
+      <c r="B192" t="s">
+        <v>76</v>
+      </c>
+      <c r="D192" t="s">
+        <v>35</v>
+      </c>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>2017</v>
+      </c>
+      <c r="B193" t="s">
+        <v>76</v>
+      </c>
+      <c r="D193" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>2018</v>
+      </c>
+      <c r="B194" t="s">
+        <v>75</v>
+      </c>
+      <c r="D194" t="s">
+        <v>35</v>
+      </c>
+      <c r="E194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>2019</v>
+      </c>
+      <c r="B195" t="s">
+        <v>75</v>
+      </c>
+      <c r="D195" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>2020</v>
+      </c>
+      <c r="B196" t="s">
+        <v>75</v>
+      </c>
+      <c r="D196" t="s">
+        <v>35</v>
+      </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>2021</v>
+      </c>
+      <c r="B197" t="s">
+        <v>75</v>
+      </c>
+      <c r="D197" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>2022</v>
+      </c>
+      <c r="B198" t="s">
+        <v>75</v>
+      </c>
+      <c r="D198" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>2023</v>
+      </c>
+      <c r="B199" t="s">
+        <v>75</v>
+      </c>
+      <c r="D199" t="s">
+        <v>35</v>
+      </c>
+      <c r="E199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4820,17 +5514,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B598B773ED9FC644B8B740EB3205C8DA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6cfe95817d5870f6c066b2c32ab5fb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xmlns:ns3="d5cc9fc5-cf59-440a-a506-890d57680064" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a231614a4bf4996e6f4146316e2aaf8" ns2:_="" ns3:_="">
     <xsd:import namespace="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
@@ -5093,6 +5776,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
   <ds:schemaRefs>
@@ -5102,23 +5796,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
-    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B298AB6-2F6D-497E-AD9E-0F97ABEC8463}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5135,4 +5812,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF73BFB7-98ED-8A4A-8BA9-0AB2FD030F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF8A3EC-6921-454F-A422-84606B881754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="80">
   <si>
     <t>Year</t>
   </si>
@@ -112,9 +112,6 @@
     <t>RCDTS</t>
   </si>
   <si>
-    <t>Chronic Truancy Rate</t>
-  </si>
-  <si>
     <t>Chronic Absenteeism</t>
   </si>
   <si>
@@ -193,20 +190,71 @@
     <t># Student Enrollment</t>
   </si>
   <si>
-    <t>SCHOOL ENROLLMENT</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Student Enrollment - Total</t>
   </si>
   <si>
     <t>Unfilled</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNTY </t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>District Type</t>
+  </si>
+  <si>
+    <t>School Type</t>
+  </si>
+  <si>
+    <t>SCHOOL TYPE NAME</t>
+  </si>
+  <si>
+    <t>DISTRICT TYPE NAME</t>
+  </si>
+  <si>
+    <t>Total Teacher FTE</t>
+  </si>
+  <si>
+    <t>TOTAL TEACH FTE COUNT- DISTRICT</t>
+  </si>
+  <si>
+    <t>TOTAL TEACH FTE COUNT- DISTRICT - Coming Soon</t>
+  </si>
+  <si>
+    <t>Teacher Retention Rate</t>
+  </si>
+  <si>
+    <t>TEACHER RETENTION RATE (SCHOOL)</t>
+  </si>
+  <si>
+    <t>Disaggregation Format</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Disaggregation follows format: "% Student Enrollment - </t>
+      <t xml:space="preserve">ATTENDANCE RATE SCHOOL % - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SCHOOL - </t>
     </r>
     <r>
       <rPr>
@@ -223,14 +271,70 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"</t>
+      <t xml:space="preserve"> %</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Disaggregation follows format: "Student Enrollment - </t>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TEACH - DISTRICT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chronic Absenteeism - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Student Attendance Rate - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Student Enrollment - </t>
     </r>
     <r>
       <rPr>
@@ -247,17 +351,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> %"</t>
+      <t xml:space="preserve"> %</t>
     </r>
   </si>
   <si>
-    <t>Original Metric (If crosswalk metric is renamed)</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Disaggregation follows format: "SCHOOL - </t>
+      <t xml:space="preserve">% of Teachers - </t>
     </r>
     <r>
       <rPr>
@@ -269,71 +371,10 @@
       </rPr>
       <t>demo</t>
     </r>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> %" except for special demographics, ["I.E.P.", "L.E.P.", "LOW-INCOME", "HOMELESS"], which follow format: "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>special demo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SCHOOL %" </t>
-    </r>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNTY </t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>District Type</t>
-  </si>
-  <si>
-    <t>School Type</t>
-  </si>
-  <si>
-    <t>SCHOOL TYPE NAME</t>
-  </si>
-  <si>
-    <t>DISTRICT TYPE NAME</t>
-  </si>
-  <si>
-    <t>Total Teacher FTE</t>
-  </si>
-  <si>
-    <t>TOTAL TEACH FTE COUNT- DISTRICT</t>
-  </si>
-  <si>
-    <t>TOTAL TEACH FTE COUNT- DISTRICT - Coming Soon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Disaggregation follows format: "% Teachers - </t>
+      <t xml:space="preserve">% Student Enrollment - </t>
     </r>
     <r>
       <rPr>
@@ -345,19 +386,10 @@
       </rPr>
       <t>demo</t>
     </r>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Disaggregation follows format: "% of Teachers - </t>
+      <t xml:space="preserve">% Teachers - </t>
     </r>
     <r>
       <rPr>
@@ -369,19 +401,16 @@
       </rPr>
       <t>demo</t>
     </r>
+  </si>
+  <si>
+    <t>Special Format</t>
+  </si>
+  <si>
+    <t>Original Metric</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Disaggregation follows format: "% </t>
+      <t xml:space="preserve">% </t>
     </r>
     <r>
       <rPr>
@@ -398,14 +427,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> TEACHER - DISTRICT"</t>
+      <t xml:space="preserve"> TEACHER - DISTRICT</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Disaggregation follows format: "% </t>
+      <t xml:space="preserve">% </t>
     </r>
     <r>
       <rPr>
@@ -422,15 +452,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> TEACH - DISTRICT"</t>
+      <t xml:space="preserve"> TEACHER - DISTRICT - Coming Soon</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Disaggregation follows format: "% </t>
-    </r>
     <r>
       <rPr>
         <i/>
@@ -439,23 +467,18 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DEMO</t>
+      <t>demo</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> TEACHER - DISTRICT - Coming Soon"</t>
+      <t xml:space="preserve"> SCHOOL %</t>
     </r>
-  </si>
-  <si>
-    <t>Teacher Retention Rate</t>
-  </si>
-  <si>
-    <t>TEACHER RETENTION RATE (SCHOOL)</t>
   </si>
 </sst>
 </file>
@@ -498,15 +521,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -600,16 +623,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,11 +672,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -946,10 +963,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:O18" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:O18" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O18">
-    <sortCondition ref="A1:A18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:O17" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:O17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
+    <sortCondition ref="A1:A17"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="23"/>
@@ -963,7 +980,7 @@
     <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="15"/>
     <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="14"/>
     <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Chronic Truancy Rate" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="12"/>
     <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="11"/>
     <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="10"/>
     <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="9"/>
@@ -973,16 +990,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}" name="Table4" displayName="Table4" ref="A1:G199" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:G199" xr:uid="{07EA3C7D-22C7-3142-BED0-4051FC9CF2E2}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DD0B638C-4311-0744-95CB-52513DBACE2D}" name="Year" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{26FE4BE8-2ADC-0040-8E5B-EA972212A95A}" name="Metric" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{984FE9E5-361E-E545-BFFF-3676884E1EAD}" name="Original Metric (If crosswalk metric is renamed)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{8EF9737C-A9DE-0A48-9B2F-401E5EA742D8}" name="Sheet" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2119FFA8-90C3-2144-BEEB-57BE3C6A7B00}" name="Disaggregated" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{62C718C5-486E-094E-8810-20C1D37680C7}" name="Disaggregation Details" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4EF92C22-A542-7E4C-8C50-06CBA414F7AD}" name="Notes" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H199" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H199" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{6FC8DE02-1AAB-8248-8E52-B299C7FFB44A}" name="Disaggregation Format"/>
+    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1618,11 +1636,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P2" sqref="P2"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1652,43 +1670,43 @@
         <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1696,38 +1714,38 @@
         <v>2008</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
         <v>61</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1735,38 +1753,38 @@
         <v>2009</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1774,38 +1792,38 @@
         <v>2010</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1813,38 +1831,38 @@
         <v>2011</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
         <v>61</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1852,38 +1870,38 @@
         <v>2012</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
         <v>61</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1891,38 +1909,38 @@
         <v>2013</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1930,41 +1948,41 @@
         <v>2014</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>68</v>
-      </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1972,41 +1990,41 @@
         <v>2015</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>68</v>
-      </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2014,41 +2032,41 @@
         <v>2016</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>68</v>
-      </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2056,41 +2074,41 @@
         <v>2017</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>68</v>
-      </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -2101,43 +2119,43 @@
         <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
         <v>63</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2148,43 +2166,43 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2195,43 +2213,43 @@
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2242,43 +2260,43 @@
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" t="s">
         <v>63</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2289,43 +2307,43 @@
         <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" t="s">
         <v>63</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2336,54 +2354,44 @@
         <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2397,1740 +2405,1970 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="150" zoomScaleNormal="167" workbookViewId="0">
+    <sheetView topLeftCell="A132" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A162" sqref="A162"/>
-      <selection pane="topRight" activeCell="C179" sqref="C179"/>
+      <selection pane="topRight" activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" customWidth="1"/>
-    <col min="7" max="7" width="68" customWidth="1"/>
+    <col min="6" max="6" width="161.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2008</v>
+        <v>2022</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2008</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2022</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2009</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2009</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2009</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2009</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2009</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2009</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2009</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2009</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2009</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2010</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2010</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2010</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2010</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2010</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
+        <v>2011</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2015</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2016</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2019</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2020</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2022</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2023</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2008</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2009</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>2010</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2010</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2010</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2010</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2010</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>2011</v>
       </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2011</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2011</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2011</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2011</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2011</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2011</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2011</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2011</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2011</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2012</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2012</v>
-      </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2012</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="4"/>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>2013</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2014</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2015</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2016</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2017</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2018</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2020</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2021</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2022</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2009</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2010</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2011</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>2012</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2012</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2012</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2012</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2012</v>
-      </c>
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2012</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2012</v>
-      </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2013</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2013</v>
-      </c>
-      <c r="B53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2013</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>2013</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>2013</v>
-      </c>
-      <c r="B56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>2013</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>2013</v>
-      </c>
-      <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>2013</v>
-      </c>
-      <c r="B59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>2013</v>
-      </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2013</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2014</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
+        <v>2015</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2016</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2017</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2018</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2019</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2021</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2022</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2023</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2008</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2009</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2010</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2011</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2012</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2013</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>2014</v>
       </c>
-      <c r="B63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2014</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2014</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>2014</v>
-      </c>
-      <c r="B66" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>2014</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>2014</v>
-      </c>
-      <c r="B68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" t="s">
-        <v>54</v>
-      </c>
-      <c r="G68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>2014</v>
-      </c>
-      <c r="B69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>2014</v>
-      </c>
-      <c r="B70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2014</v>
-      </c>
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2015</v>
-      </c>
-      <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2015</v>
-      </c>
-      <c r="B73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2015</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2015</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2015</v>
-      </c>
-      <c r="B76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2015</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>2015</v>
-      </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>54</v>
-      </c>
-      <c r="G78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2015</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2017</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2018</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2019</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2020</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2021</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2022</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2023</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2008</v>
+      </c>
+      <c r="B88" t="s">
         <v>43</v>
       </c>
-      <c r="D80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2015</v>
-      </c>
-      <c r="B81" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2016</v>
-      </c>
-      <c r="B82" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2016</v>
-      </c>
-      <c r="B83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2016</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>2016</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>2016</v>
-      </c>
-      <c r="B86" t="s">
-        <v>46</v>
-      </c>
-      <c r="D86" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>2016</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D87" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>2016</v>
-      </c>
-      <c r="B88" t="s">
-        <v>51</v>
-      </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>54</v>
-      </c>
-      <c r="G88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="C89" t="s">
+        <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="B90" t="s">
         <v>43</v>
       </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
       <c r="D90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
+        <v>2011</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2012</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2013</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2014</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2015</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>2016</v>
       </c>
-      <c r="B91" t="s">
-        <v>65</v>
-      </c>
-      <c r="D91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>2017</v>
-      </c>
-      <c r="B92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>2017</v>
-      </c>
-      <c r="B93" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>2017</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>2017</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>2017</v>
-      </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2017</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>66</v>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
       </c>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" t="s">
-        <v>54</v>
-      </c>
-      <c r="G98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="C99" t="s">
+        <v>43</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B100" t="s">
         <v>43</v>
       </c>
+      <c r="C100" t="s">
+        <v>43</v>
+      </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C101" t="s">
+        <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="C102" t="s">
+        <v>43</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="C103" t="s">
+        <v>43</v>
       </c>
       <c r="D103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C104" t="s">
+        <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="C105" t="s">
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="C106" t="s">
+        <v>58</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="C107" t="s">
+        <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="C108" t="s">
+        <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="C109" t="s">
+        <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="C110" t="s">
+        <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E110" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
-        <v>54</v>
-      </c>
-      <c r="G111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="C112" t="s">
+        <v>58</v>
       </c>
       <c r="D112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
@@ -4138,39 +4376,36 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B113" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>58</v>
       </c>
       <c r="D113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E113" t="b">
-        <v>1</v>
-      </c>
-      <c r="F113" t="s">
-        <v>54</v>
-      </c>
-      <c r="G113" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4178,10 +4413,13 @@
         <v>2019</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
@@ -4189,13 +4427,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
@@ -4203,13 +4444,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
@@ -4217,13 +4461,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B118" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
@@ -4231,13 +4478,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>2018</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>64</v>
+        <v>2023</v>
+      </c>
+      <c r="B119" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
@@ -4248,10 +4498,13 @@
         <v>2019</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
@@ -4259,13 +4512,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
@@ -4273,13 +4529,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
@@ -4287,13 +4546,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
@@ -4301,213 +4563,303 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B124" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
-      </c>
-      <c r="F124" t="s">
-        <v>54</v>
-      </c>
-      <c r="G124" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="B125" t="s">
         <v>25</v>
       </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="G125" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B127" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="B128" t="s">
-        <v>62</v>
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>38</v>
+      </c>
+      <c r="G130" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>2019</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>64</v>
+        <v>2017</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>38</v>
+      </c>
+      <c r="G134" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C136" t="s">
+        <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
-      </c>
-      <c r="F136" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
@@ -4515,13 +4867,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="B138" t="s">
-        <v>59</v>
+        <v>26</v>
+      </c>
+      <c r="C138" t="s">
+        <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
@@ -4529,13 +4884,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="C139" t="s">
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
@@ -4543,13 +4901,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="B140" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="C140" t="s">
+        <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
@@ -4557,13 +4918,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="B141" t="s">
-        <v>63</v>
+        <v>26</v>
+      </c>
+      <c r="C141" t="s">
+        <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
@@ -4571,13 +4935,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
@@ -4585,13 +4952,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="C143" t="s">
+        <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
@@ -4599,898 +4969,1173 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B144" t="s">
         <v>26</v>
       </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
       <c r="D144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
+        <v>2017</v>
+      </c>
+      <c r="B145" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2018</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" t="s">
+        <v>34</v>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2019</v>
+      </c>
+      <c r="B147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148">
         <v>2020</v>
       </c>
-      <c r="B145" t="s">
-        <v>42</v>
-      </c>
-      <c r="D145" t="s">
-        <v>35</v>
-      </c>
-      <c r="E145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>2022</v>
-      </c>
-      <c r="B146" t="s">
-        <v>50</v>
-      </c>
-      <c r="D146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" t="b">
-        <v>1</v>
-      </c>
-      <c r="F146" t="s">
-        <v>54</v>
-      </c>
-      <c r="G146" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>2022</v>
-      </c>
-      <c r="B147" t="s">
-        <v>25</v>
-      </c>
-      <c r="D147" t="s">
-        <v>35</v>
-      </c>
-      <c r="E147" t="b">
-        <v>1</v>
-      </c>
-      <c r="F147" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>2022</v>
-      </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B149" t="s">
-        <v>59</v>
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2022</v>
       </c>
       <c r="B150" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B151" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>34</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2008</v>
+      </c>
+      <c r="B152" t="s">
         <v>47</v>
       </c>
-      <c r="D151" t="s">
-        <v>35</v>
-      </c>
-      <c r="E151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>2020</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>64</v>
+      <c r="C152" t="s">
+        <v>48</v>
       </c>
       <c r="D152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>51</v>
+      </c>
+      <c r="G152" t="s">
+        <v>67</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="C153" t="s">
+        <v>48</v>
       </c>
       <c r="D153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>51</v>
+      </c>
+      <c r="G153" t="s">
+        <v>67</v>
+      </c>
+      <c r="H153" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="B154" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C154" t="s">
+        <v>48</v>
       </c>
       <c r="D154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>51</v>
+      </c>
+      <c r="G154" t="s">
+        <v>67</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="C155" t="s">
+        <v>48</v>
       </c>
       <c r="D155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>51</v>
+      </c>
+      <c r="G155" t="s">
+        <v>67</v>
+      </c>
+      <c r="H155" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="B156" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="C156" t="s">
+        <v>48</v>
       </c>
       <c r="D156" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s">
+        <v>67</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="B157" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C157" t="s">
+        <v>48</v>
       </c>
       <c r="D157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G157" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="B158" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="C158" t="s">
+        <v>48</v>
       </c>
       <c r="D158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G158" t="s">
+        <v>67</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="C159" t="s">
+        <v>48</v>
       </c>
       <c r="D159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>51</v>
+      </c>
+      <c r="G159" t="s">
+        <v>67</v>
+      </c>
+      <c r="H159" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="B160" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="C160" t="s">
+        <v>48</v>
       </c>
       <c r="D160" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>51</v>
+      </c>
+      <c r="G160" t="s">
+        <v>67</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="B161" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="C161" t="s">
+        <v>48</v>
       </c>
       <c r="D161" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>51</v>
+      </c>
+      <c r="G161" t="s">
+        <v>67</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B162" t="s">
         <v>47</v>
       </c>
+      <c r="C162" t="s">
+        <v>50</v>
+      </c>
       <c r="D162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>51</v>
+      </c>
+      <c r="G162" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
+        <v>2019</v>
+      </c>
+      <c r="B163" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>51</v>
+      </c>
+      <c r="G163" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2020</v>
+      </c>
+      <c r="B164" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" t="s">
+        <v>34</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>51</v>
+      </c>
+      <c r="G164" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165">
         <v>2021</v>
       </c>
-      <c r="B163" t="s">
-        <v>42</v>
-      </c>
-      <c r="D163" t="s">
-        <v>35</v>
-      </c>
-      <c r="E163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="B165" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" t="s">
+        <v>34</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>51</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2022</v>
+      </c>
+      <c r="B166" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>51</v>
+      </c>
+      <c r="G166" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167">
         <v>2023</v>
       </c>
-      <c r="B164" t="s">
-        <v>23</v>
-      </c>
-      <c r="D164" t="s">
-        <v>35</v>
-      </c>
-      <c r="E164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>2023</v>
-      </c>
-      <c r="B165" t="s">
-        <v>44</v>
-      </c>
-      <c r="D165" t="s">
-        <v>35</v>
-      </c>
-      <c r="E165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>2023</v>
-      </c>
-      <c r="B166" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" t="s">
-        <v>35</v>
-      </c>
-      <c r="E166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="B167" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" t="s">
+        <v>34</v>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>51</v>
+      </c>
+      <c r="G167" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B168" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D168" t="s">
+        <v>34</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B169" t="s">
+        <v>63</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D169" t="s">
+        <v>34</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B170" t="s">
+        <v>63</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B171" t="s">
+        <v>63</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" t="s">
+        <v>34</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B172" t="s">
+        <v>63</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B173" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>34</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2020</v>
+      </c>
+      <c r="B174" t="s">
+        <v>63</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>34</v>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175">
         <v>2021</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D167" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="7">
+      <c r="B175" t="s">
+        <v>63</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>34</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176">
         <v>2022</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B176" t="s">
         <v>63</v>
       </c>
-      <c r="D168" t="s">
-        <v>35</v>
-      </c>
-      <c r="E168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D169" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D170" t="s">
-        <v>35</v>
-      </c>
-      <c r="E170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="7">
-        <v>2023</v>
-      </c>
-      <c r="B171" s="11" t="s">
+      <c r="C176" t="s">
         <v>63</v>
       </c>
-      <c r="D171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="7">
-        <v>2023</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D172" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D173" t="s">
-        <v>35</v>
-      </c>
-      <c r="E173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>2008</v>
-      </c>
-      <c r="B174" t="s">
-        <v>68</v>
-      </c>
-      <c r="D174" t="s">
-        <v>38</v>
-      </c>
-      <c r="E174" t="b">
-        <v>1</v>
-      </c>
-      <c r="F174" t="s">
-        <v>54</v>
-      </c>
-      <c r="G174" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>2009</v>
-      </c>
-      <c r="B175" t="s">
-        <v>68</v>
-      </c>
-      <c r="D175" t="s">
-        <v>38</v>
-      </c>
-      <c r="E175" t="b">
-        <v>1</v>
-      </c>
-      <c r="F175" t="s">
-        <v>54</v>
-      </c>
-      <c r="G175" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>2010</v>
-      </c>
-      <c r="B176" t="s">
-        <v>68</v>
-      </c>
       <c r="D176" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E176" t="b">
-        <v>1</v>
-      </c>
-      <c r="F176" t="s">
-        <v>54</v>
-      </c>
-      <c r="G176" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="B177" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
       </c>
       <c r="D177" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
-      </c>
-      <c r="F177" t="s">
-        <v>54</v>
-      </c>
-      <c r="G177" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B178" t="s">
+        <v>60</v>
+      </c>
+      <c r="C178" t="s">
+        <v>61</v>
+      </c>
+      <c r="D178" t="s">
+        <v>37</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>51</v>
+      </c>
+      <c r="G178" t="s">
         <v>68</v>
-      </c>
-      <c r="D178" t="s">
-        <v>38</v>
-      </c>
-      <c r="E178" t="b">
-        <v>1</v>
-      </c>
-      <c r="F178" t="s">
-        <v>54</v>
-      </c>
-      <c r="G178" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B179" t="s">
-        <v>69</v>
-      </c>
-      <c r="C179" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C179" t="s">
+        <v>61</v>
+      </c>
       <c r="D179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B180" t="s">
+        <v>60</v>
+      </c>
+      <c r="C180" t="s">
+        <v>61</v>
+      </c>
+      <c r="D180" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>51</v>
+      </c>
+      <c r="G180" t="s">
         <v>68</v>
-      </c>
-      <c r="D180" t="s">
-        <v>38</v>
-      </c>
-      <c r="E180" t="b">
-        <v>1</v>
-      </c>
-      <c r="F180" t="s">
-        <v>54</v>
-      </c>
-      <c r="G180" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B181" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="C181" t="s">
+        <v>61</v>
       </c>
       <c r="D181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G181" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B182" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="C182" t="s">
+        <v>61</v>
       </c>
       <c r="D182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G182" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B183" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="C183" t="s">
+        <v>62</v>
       </c>
       <c r="D183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G183" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B184" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C184" t="s">
+        <v>61</v>
       </c>
       <c r="D184" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G184" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B185" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C185" t="s">
+        <v>61</v>
       </c>
       <c r="D185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E185" t="b">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G185" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B186" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C186" t="s">
+        <v>61</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G186" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B187" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C187" t="s">
+        <v>61</v>
       </c>
       <c r="D187" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G187" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B188" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C188" t="s">
+        <v>60</v>
       </c>
       <c r="D188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G188" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B189" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C189" t="s">
+        <v>60</v>
       </c>
       <c r="D189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G189" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B190" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="C190" t="s">
+        <v>60</v>
       </c>
       <c r="D190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>51</v>
+      </c>
+      <c r="G190" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="B191" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="C191" t="s">
+        <v>60</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>51</v>
+      </c>
+      <c r="G191" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="B192" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="C192" t="s">
+        <v>60</v>
       </c>
       <c r="D192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>51</v>
+      </c>
+      <c r="G192" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="B193" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="C193" t="s">
+        <v>60</v>
       </c>
       <c r="D193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>51</v>
+      </c>
+      <c r="G193" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2018</v>
       </c>
       <c r="B194" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="C194" t="s">
+        <v>41</v>
       </c>
       <c r="D194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2019</v>
       </c>
       <c r="B195" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="C195" t="s">
+        <v>41</v>
       </c>
       <c r="D195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2020</v>
       </c>
       <c r="B196" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="C196" t="s">
+        <v>41</v>
       </c>
       <c r="D196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2021</v>
       </c>
       <c r="B197" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="C197" t="s">
+        <v>41</v>
       </c>
       <c r="D197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2022</v>
       </c>
       <c r="B198" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="C198" t="s">
+        <v>41</v>
       </c>
       <c r="D198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2023</v>
       </c>
       <c r="B199" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="C199" t="s">
+        <v>41</v>
       </c>
       <c r="D199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
@@ -5505,15 +6150,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B598B773ED9FC644B8B740EB3205C8DA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6cfe95817d5870f6c066b2c32ab5fb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xmlns:ns3="d5cc9fc5-cf59-440a-a506-890d57680064" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a231614a4bf4996e6f4146316e2aaf8" ns2:_="" ns3:_="">
     <xsd:import namespace="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
@@ -5776,7 +6412,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
@@ -5787,15 +6423,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B298AB6-2F6D-497E-AD9E-0F97ABEC8463}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5814,19 +6451,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF8A3EC-6921-454F-A422-84606B881754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51755A17-8C52-5840-86F4-D118F73F1D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Card Metadata" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="86">
   <si>
     <t>Year</t>
   </si>
@@ -479,6 +479,24 @@
       </rPr>
       <t xml:space="preserve"> SCHOOL %</t>
     </r>
+  </si>
+  <si>
+    <t>Pupil Teacher Ratio - Elementary</t>
+  </si>
+  <si>
+    <t>Pupil Teacher Ratio - High School</t>
+  </si>
+  <si>
+    <t>PUPIL-TEACHER RATIO -ELEM DISTRICT</t>
+  </si>
+  <si>
+    <t>PUPIL-TEACHER RATIO -HS DISTRICT</t>
+  </si>
+  <si>
+    <t>PUPIL-TEACHER RATIO -HS DISTRICT - Coming Soon</t>
+  </si>
+  <si>
+    <t>PUPIL-TEACHER RATIO -ELEM DISTRICT - Coming Soon</t>
   </si>
 </sst>
 </file>
@@ -614,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -631,11 +649,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -963,44 +997,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:O17" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:O17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:Q17" totalsRowShown="0" dataDxfId="26">
+  <autoFilter ref="A1:Q17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
     <sortCondition ref="A1:A17"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="9"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H199" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H199" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H231" totalsRowShown="0" dataDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:H231" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H231">
+    <sortCondition ref="B1:B231"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{6FC8DE02-1AAB-8248-8E52-B299C7FFB44A}" name="Disaggregation Format"/>
-    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1636,11 +1675,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q2" activeCellId="1" sqref="A2:A17 Q2:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1660,9 +1699,11 @@
     <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1708,8 +1749,14 @@
       <c r="O1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -1747,8 +1794,14 @@
       <c r="N2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -1786,8 +1839,14 @@
       <c r="N3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -1825,8 +1884,14 @@
       <c r="N4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -1864,8 +1929,14 @@
       <c r="N5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -1903,8 +1974,14 @@
       <c r="N6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -1942,8 +2019,14 @@
       <c r="N7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -1984,8 +2067,14 @@
       <c r="O8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -2026,8 +2115,14 @@
       <c r="O9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -2068,8 +2163,14 @@
       <c r="O10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -2110,8 +2211,14 @@
       <c r="O11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -2157,8 +2264,14 @@
       <c r="O12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -2204,8 +2317,14 @@
       <c r="O13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -2251,8 +2370,14 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -2298,8 +2423,14 @@
       <c r="O15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -2345,8 +2476,14 @@
       <c r="O16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -2391,6 +2528,12 @@
       </c>
       <c r="O17" t="s">
         <v>63</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2405,12 +2548,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A162" sqref="A162"/>
-      <selection pane="topRight" activeCell="H154" sqref="H154"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3558,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2017</v>
       </c>
@@ -3575,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3592,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2019</v>
       </c>
@@ -3609,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -3626,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -3643,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -3660,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2023</v>
       </c>
@@ -3677,559 +3820,623 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="14">
         <v>2008</v>
       </c>
-      <c r="B72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="B72" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="F72" s="14"/>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="14">
         <v>2009</v>
       </c>
-      <c r="B73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="B73" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="F73" s="14"/>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
         <v>2010</v>
       </c>
-      <c r="B74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="B74" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="F74" s="14"/>
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
         <v>2011</v>
       </c>
-      <c r="B75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="B75" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="F75" s="14"/>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
         <v>2012</v>
       </c>
-      <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="B76" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="F76" s="14"/>
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
         <v>2013</v>
       </c>
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="B77" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="F77" s="14"/>
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="14">
         <v>2014</v>
       </c>
-      <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="B78" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="F78" s="14"/>
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="14">
         <v>2015</v>
       </c>
-      <c r="B79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="B79" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="F79" s="14"/>
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="14">
         <v>2016</v>
       </c>
-      <c r="B80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="B80" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="F80" s="14"/>
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="14">
         <v>2017</v>
       </c>
-      <c r="B81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="B81" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="F81" s="14"/>
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="14">
         <v>2018</v>
       </c>
-      <c r="B82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="B82" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="F82" s="14"/>
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="14">
         <v>2019</v>
       </c>
-      <c r="B83" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="B83" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="F83" s="14"/>
+      <c r="H83" s="14"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="14">
         <v>2020</v>
       </c>
-      <c r="B84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="B84" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="F84" s="14"/>
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
         <v>2021</v>
       </c>
-      <c r="B85" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="B85" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="F85" s="14"/>
+      <c r="H85" s="14"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
         <v>2022</v>
       </c>
-      <c r="B86" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="B86" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="F86" s="14"/>
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
         <v>2023</v>
       </c>
-      <c r="B87" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="B87" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="F87" s="14"/>
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
         <v>2008</v>
       </c>
-      <c r="B88" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="B88" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="F88" s="14"/>
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="14">
         <v>2009</v>
       </c>
-      <c r="B89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="B89" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="F89" s="14"/>
+      <c r="H89" s="14"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="14">
         <v>2010</v>
       </c>
-      <c r="B90" t="s">
-        <v>43</v>
-      </c>
-      <c r="C90" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="B90" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="F90" s="14"/>
+      <c r="H90" s="14"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="14">
         <v>2011</v>
       </c>
-      <c r="B91" t="s">
-        <v>43</v>
-      </c>
-      <c r="C91" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="B91" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="F91" s="14"/>
+      <c r="H91" s="14"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="14">
         <v>2012</v>
       </c>
-      <c r="B92" t="s">
-        <v>43</v>
-      </c>
-      <c r="C92" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="B92" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="F92" s="14"/>
+      <c r="H92" s="14"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="14">
         <v>2013</v>
       </c>
-      <c r="B93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="B93" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="F93" s="14"/>
+      <c r="H93" s="14"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="14">
         <v>2014</v>
       </c>
-      <c r="B94" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="B94" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="F94" s="14"/>
+      <c r="H94" s="14"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="14">
         <v>2015</v>
       </c>
-      <c r="B95" t="s">
-        <v>43</v>
-      </c>
-      <c r="C95" t="s">
-        <v>42</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="B95" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="F95" s="14"/>
+      <c r="H95" s="14"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="14">
         <v>2016</v>
       </c>
-      <c r="B96" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" t="s">
-        <v>42</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="B96" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="F96" s="14"/>
+      <c r="H96" s="14"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="14">
         <v>2017</v>
       </c>
-      <c r="B97" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="B97" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="F97" s="14"/>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="14">
         <v>2018</v>
       </c>
-      <c r="B98" t="s">
-        <v>43</v>
-      </c>
-      <c r="C98" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="B98" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="F98" s="14"/>
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="14">
         <v>2019</v>
       </c>
-      <c r="B99" t="s">
-        <v>43</v>
-      </c>
-      <c r="C99" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="B99" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="F99" s="14"/>
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="14">
         <v>2020</v>
       </c>
-      <c r="B100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C100" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="B100" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="F100" s="14"/>
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="14">
         <v>2021</v>
       </c>
-      <c r="B101" t="s">
-        <v>43</v>
-      </c>
-      <c r="C101" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="B101" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="F101" s="14"/>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="14">
         <v>2022</v>
       </c>
-      <c r="B102" t="s">
-        <v>43</v>
-      </c>
-      <c r="C102" t="s">
-        <v>43</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="B102" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="F102" s="14"/>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="14">
         <v>2023</v>
       </c>
-      <c r="B103" t="s">
-        <v>43</v>
-      </c>
-      <c r="C103" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="B103" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="14"/>
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2008</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
         <v>37</v>
@@ -4238,15 +4445,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2009</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
         <v>37</v>
@@ -4255,15 +4462,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2010</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
         <v>37</v>
@@ -4272,15 +4479,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2011</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
         <v>37</v>
@@ -4289,15 +4496,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2012</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s">
         <v>37</v>
@@ -4306,15 +4513,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2013</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
         <v>37</v>
@@ -4323,15 +4530,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2014</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
         <v>37</v>
@@ -4340,15 +4547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2015</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
         <v>37</v>
@@ -4357,15 +4564,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2016</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s">
         <v>37</v>
@@ -4374,15 +4581,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2017</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D113" t="s">
         <v>37</v>
@@ -4391,15 +4598,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2018</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
       </c>
       <c r="D114" t="s">
         <v>34</v>
@@ -4408,15 +4615,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2019</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
       </c>
       <c r="D115" t="s">
         <v>34</v>
@@ -4425,15 +4632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2020</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
       </c>
       <c r="D116" t="s">
         <v>34</v>
@@ -4442,15 +4649,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2021</v>
       </c>
       <c r="B117" t="s">
-        <v>57</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
       </c>
       <c r="D117" t="s">
         <v>34</v>
@@ -4459,15 +4666,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2022</v>
       </c>
       <c r="B118" t="s">
-        <v>57</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
       </c>
       <c r="D118" t="s">
         <v>34</v>
@@ -4476,15 +4683,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2023</v>
       </c>
       <c r="B119" t="s">
-        <v>57</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
       </c>
       <c r="D119" t="s">
         <v>34</v>
@@ -4493,353 +4700,287 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
+        <v>2008</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2009</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2010</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2011</v>
+      </c>
+      <c r="B123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2012</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2013</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2014</v>
+      </c>
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2015</v>
+      </c>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2016</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2017</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2018</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>2019</v>
       </c>
-      <c r="B120" t="s">
-        <v>25</v>
-      </c>
-      <c r="C120" t="s">
-        <v>25</v>
-      </c>
-      <c r="D120" t="s">
-        <v>34</v>
-      </c>
-      <c r="E120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>2020</v>
       </c>
-      <c r="B121" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="B132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
+        <v>34</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
         <v>2021</v>
       </c>
-      <c r="B122" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
         <v>2022</v>
       </c>
-      <c r="B123" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" t="s">
-        <v>25</v>
-      </c>
-      <c r="D123" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="B134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" t="s">
+        <v>34</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
         <v>2023</v>
       </c>
-      <c r="B124" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" t="s">
-        <v>34</v>
-      </c>
-      <c r="E124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>2008</v>
-      </c>
-      <c r="B125" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" t="b">
-        <v>1</v>
-      </c>
-      <c r="F125" t="s">
-        <v>39</v>
-      </c>
-      <c r="G125" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>2009</v>
-      </c>
-      <c r="B126" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" t="b">
-        <v>1</v>
-      </c>
-      <c r="F126" t="s">
-        <v>39</v>
-      </c>
-      <c r="G126" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>2010</v>
-      </c>
-      <c r="B127" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" t="b">
-        <v>1</v>
-      </c>
-      <c r="F127" t="s">
-        <v>39</v>
-      </c>
-      <c r="G127" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>2011</v>
-      </c>
-      <c r="B128" t="s">
-        <v>25</v>
-      </c>
-      <c r="C128" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" t="s">
-        <v>37</v>
-      </c>
-      <c r="E128" t="b">
-        <v>1</v>
-      </c>
-      <c r="F128" t="s">
-        <v>38</v>
-      </c>
-      <c r="G128" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>2012</v>
-      </c>
-      <c r="B129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" t="s">
-        <v>37</v>
-      </c>
-      <c r="E129" t="b">
-        <v>1</v>
-      </c>
-      <c r="F129" t="s">
-        <v>38</v>
-      </c>
-      <c r="G129" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>2013</v>
-      </c>
-      <c r="B130" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" t="s">
-        <v>37</v>
-      </c>
-      <c r="E130" t="b">
-        <v>1</v>
-      </c>
-      <c r="F130" t="s">
-        <v>38</v>
-      </c>
-      <c r="G130" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>2014</v>
-      </c>
-      <c r="B131" t="s">
-        <v>25</v>
-      </c>
-      <c r="C131" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" t="s">
-        <v>37</v>
-      </c>
-      <c r="E131" t="b">
-        <v>1</v>
-      </c>
-      <c r="F131" t="s">
-        <v>38</v>
-      </c>
-      <c r="G131" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>2015</v>
-      </c>
-      <c r="B132" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E132" t="b">
-        <v>1</v>
-      </c>
-      <c r="F132" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>2016</v>
-      </c>
-      <c r="B133" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" t="s">
-        <v>28</v>
-      </c>
-      <c r="D133" t="s">
-        <v>37</v>
-      </c>
-      <c r="E133" t="b">
-        <v>1</v>
-      </c>
-      <c r="F133" t="s">
-        <v>38</v>
-      </c>
-      <c r="G133" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>2017</v>
-      </c>
-      <c r="B134" t="s">
-        <v>25</v>
-      </c>
-      <c r="C134" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" t="s">
-        <v>37</v>
-      </c>
-      <c r="E134" t="b">
-        <v>1</v>
-      </c>
-      <c r="F134" t="s">
-        <v>38</v>
-      </c>
-      <c r="G134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>2018</v>
-      </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D135" t="s">
         <v>34</v>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
-      </c>
-      <c r="F135" t="s">
-        <v>40</v>
-      </c>
-      <c r="G135" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2008</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D136" t="s">
         <v>37</v>
@@ -4848,15 +4989,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2009</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D137" t="s">
         <v>37</v>
@@ -4865,15 +5006,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2010</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D138" t="s">
         <v>37</v>
@@ -4882,15 +5023,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2011</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D139" t="s">
         <v>37</v>
@@ -4899,15 +5040,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2012</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D140" t="s">
         <v>37</v>
@@ -4916,15 +5057,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2013</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D141" t="s">
         <v>37</v>
@@ -4933,15 +5074,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2014</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D142" t="s">
         <v>37</v>
@@ -4950,15 +5091,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2015</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D143" t="s">
         <v>37</v>
@@ -4967,15 +5108,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2016</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D144" t="s">
         <v>37</v>
@@ -4984,15 +5125,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2017</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D145" t="s">
         <v>37</v>
@@ -5001,15 +5142,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2018</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D146" t="s">
         <v>34</v>
@@ -5018,15 +5159,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2019</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
-      </c>
-      <c r="C147" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D147" t="s">
         <v>34</v>
@@ -5035,15 +5176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2020</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D148" t="s">
         <v>34</v>
@@ -5052,15 +5193,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2021</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
-      </c>
-      <c r="C149" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D149" t="s">
         <v>34</v>
@@ -5069,15 +5210,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2022</v>
       </c>
       <c r="B150" t="s">
-        <v>26</v>
-      </c>
-      <c r="C150" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D150" t="s">
         <v>34</v>
@@ -5086,15 +5227,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2023</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D151" t="s">
         <v>34</v>
@@ -5103,145 +5244,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
+        <v>2019</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" t="s">
+        <v>34</v>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2020</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2021</v>
+      </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2022</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2023</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" t="s">
+        <v>34</v>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
         <v>2008</v>
       </c>
-      <c r="B152" t="s">
-        <v>47</v>
-      </c>
-      <c r="C152" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" t="s">
-        <v>37</v>
-      </c>
-      <c r="E152" t="b">
-        <v>1</v>
-      </c>
-      <c r="F152" t="s">
-        <v>51</v>
-      </c>
-      <c r="G152" t="s">
-        <v>67</v>
-      </c>
-      <c r="H152" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>2009</v>
-      </c>
-      <c r="B153" t="s">
-        <v>47</v>
-      </c>
-      <c r="C153" t="s">
-        <v>48</v>
-      </c>
-      <c r="D153" t="s">
-        <v>37</v>
-      </c>
-      <c r="E153" t="b">
-        <v>1</v>
-      </c>
-      <c r="F153" t="s">
-        <v>51</v>
-      </c>
-      <c r="G153" t="s">
-        <v>67</v>
-      </c>
-      <c r="H153" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>2010</v>
-      </c>
-      <c r="B154" t="s">
-        <v>47</v>
-      </c>
-      <c r="C154" t="s">
-        <v>48</v>
-      </c>
-      <c r="D154" t="s">
-        <v>37</v>
-      </c>
-      <c r="E154" t="b">
-        <v>1</v>
-      </c>
-      <c r="F154" t="s">
-        <v>51</v>
-      </c>
-      <c r="G154" t="s">
-        <v>67</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>2011</v>
-      </c>
-      <c r="B155" t="s">
-        <v>47</v>
-      </c>
-      <c r="C155" t="s">
-        <v>48</v>
-      </c>
-      <c r="D155" t="s">
-        <v>37</v>
-      </c>
-      <c r="E155" t="b">
-        <v>1</v>
-      </c>
-      <c r="F155" t="s">
-        <v>51</v>
-      </c>
-      <c r="G155" t="s">
-        <v>67</v>
-      </c>
-      <c r="H155" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>2012</v>
-      </c>
-      <c r="B156" t="s">
-        <v>47</v>
-      </c>
-      <c r="C156" t="s">
-        <v>48</v>
-      </c>
-      <c r="D156" t="s">
-        <v>37</v>
-      </c>
-      <c r="E156" t="b">
-        <v>1</v>
-      </c>
-      <c r="F156" t="s">
-        <v>51</v>
-      </c>
-      <c r="G156" t="s">
-        <v>67</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>2013</v>
-      </c>
       <c r="B157" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D157" t="s">
         <v>37</v>
@@ -5250,24 +5346,21 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>67</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B158" t="s">
-        <v>47</v>
-      </c>
-      <c r="C158" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D158" t="s">
         <v>37</v>
@@ -5276,24 +5369,21 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>67</v>
-      </c>
-      <c r="H158" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B159" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C159" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D159" t="s">
         <v>37</v>
@@ -5302,24 +5392,21 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>67</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B160" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C160" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D160" t="s">
         <v>37</v>
@@ -5328,24 +5415,21 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>67</v>
-      </c>
-      <c r="H160" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B161" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D161" t="s">
         <v>37</v>
@@ -5354,139 +5438,136 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>67</v>
-      </c>
-      <c r="H161" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B162" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C162" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E162" t="b">
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B163" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C163" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D163" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B164" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C164" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D164" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B165" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C165" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D165" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B166" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C166" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B167" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C167" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
         <v>34</v>
@@ -5495,329 +5576,293 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
+        <v>2008</v>
+      </c>
+      <c r="B168" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" t="s">
+        <v>37</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="7">
+        <v>2009</v>
+      </c>
+      <c r="B169" t="s">
+        <v>26</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" t="s">
+        <v>37</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="7">
+        <v>2010</v>
+      </c>
+      <c r="B170" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" t="s">
+        <v>37</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="7">
+        <v>2011</v>
+      </c>
+      <c r="B171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" t="s">
+        <v>37</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B173" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" t="s">
+        <v>37</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
         <v>2014</v>
       </c>
-      <c r="B168" t="s">
-        <v>63</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D168" t="s">
-        <v>34</v>
-      </c>
-      <c r="E168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="7">
+      <c r="B174" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
         <v>2015</v>
       </c>
-      <c r="B169" t="s">
-        <v>63</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D169" t="s">
-        <v>34</v>
-      </c>
-      <c r="E169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="7">
+      <c r="B175" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175" t="s">
+        <v>37</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
         <v>2016</v>
       </c>
-      <c r="B170" t="s">
-        <v>63</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D170" t="s">
-        <v>34</v>
-      </c>
-      <c r="E170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="7">
+      <c r="B176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177">
         <v>2017</v>
       </c>
-      <c r="B171" t="s">
-        <v>63</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D171" t="s">
-        <v>34</v>
-      </c>
-      <c r="E171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="7">
+      <c r="B177" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" t="s">
+        <v>29</v>
+      </c>
+      <c r="D177" t="s">
+        <v>37</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178">
         <v>2018</v>
       </c>
-      <c r="B172" t="s">
-        <v>63</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D172" t="s">
-        <v>34</v>
-      </c>
-      <c r="E172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="8">
+      <c r="B178" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178" t="s">
+        <v>34</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179">
         <v>2019</v>
       </c>
-      <c r="B173" t="s">
-        <v>63</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D173" t="s">
-        <v>34</v>
-      </c>
-      <c r="E173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="B179" t="s">
+        <v>26</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180">
         <v>2020</v>
       </c>
-      <c r="B174" t="s">
-        <v>63</v>
-      </c>
-      <c r="C174" t="s">
-        <v>63</v>
-      </c>
-      <c r="D174" t="s">
-        <v>34</v>
-      </c>
-      <c r="E174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="B180" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181">
         <v>2021</v>
       </c>
-      <c r="B175" t="s">
-        <v>63</v>
-      </c>
-      <c r="C175" t="s">
-        <v>63</v>
-      </c>
-      <c r="D175" t="s">
-        <v>34</v>
-      </c>
-      <c r="E175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="B181" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182">
         <v>2022</v>
       </c>
-      <c r="B176" t="s">
-        <v>63</v>
-      </c>
-      <c r="C176" t="s">
-        <v>63</v>
-      </c>
-      <c r="D176" t="s">
-        <v>34</v>
-      </c>
-      <c r="E176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183">
         <v>2023</v>
       </c>
-      <c r="B177" t="s">
-        <v>63</v>
-      </c>
-      <c r="C177" t="s">
-        <v>63</v>
-      </c>
-      <c r="D177" t="s">
-        <v>34</v>
-      </c>
-      <c r="E177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="B183" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" t="s">
+        <v>34</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184">
         <v>2008</v>
       </c>
-      <c r="B178" t="s">
-        <v>60</v>
-      </c>
-      <c r="C178" t="s">
-        <v>61</v>
-      </c>
-      <c r="D178" t="s">
-        <v>37</v>
-      </c>
-      <c r="E178" t="b">
-        <v>1</v>
-      </c>
-      <c r="F178" t="s">
-        <v>51</v>
-      </c>
-      <c r="G178" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>2009</v>
-      </c>
-      <c r="B179" t="s">
-        <v>60</v>
-      </c>
-      <c r="C179" t="s">
-        <v>61</v>
-      </c>
-      <c r="D179" t="s">
-        <v>37</v>
-      </c>
-      <c r="E179" t="b">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
-        <v>51</v>
-      </c>
-      <c r="G179" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>2010</v>
-      </c>
-      <c r="B180" t="s">
-        <v>60</v>
-      </c>
-      <c r="C180" t="s">
-        <v>61</v>
-      </c>
-      <c r="D180" t="s">
-        <v>37</v>
-      </c>
-      <c r="E180" t="b">
-        <v>1</v>
-      </c>
-      <c r="F180" t="s">
-        <v>51</v>
-      </c>
-      <c r="G180" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>2011</v>
-      </c>
-      <c r="B181" t="s">
-        <v>60</v>
-      </c>
-      <c r="C181" t="s">
-        <v>61</v>
-      </c>
-      <c r="D181" t="s">
-        <v>37</v>
-      </c>
-      <c r="E181" t="b">
-        <v>1</v>
-      </c>
-      <c r="F181" t="s">
-        <v>51</v>
-      </c>
-      <c r="G181" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>2012</v>
-      </c>
-      <c r="B182" t="s">
-        <v>60</v>
-      </c>
-      <c r="C182" t="s">
-        <v>61</v>
-      </c>
-      <c r="D182" t="s">
-        <v>37</v>
-      </c>
-      <c r="E182" t="b">
-        <v>1</v>
-      </c>
-      <c r="F182" t="s">
-        <v>51</v>
-      </c>
-      <c r="G182" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>2013</v>
-      </c>
-      <c r="B183" t="s">
-        <v>60</v>
-      </c>
-      <c r="C183" t="s">
-        <v>62</v>
-      </c>
-      <c r="D183" t="s">
-        <v>37</v>
-      </c>
-      <c r="E183" t="b">
-        <v>1</v>
-      </c>
-      <c r="F183" t="s">
-        <v>51</v>
-      </c>
-      <c r="G183" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>2014</v>
-      </c>
       <c r="B184" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C184" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D184" t="s">
         <v>37</v>
@@ -5829,18 +5874,21 @@
         <v>51</v>
       </c>
       <c r="G184" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H184" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="B185" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C185" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D185" t="s">
         <v>37</v>
@@ -5852,18 +5900,21 @@
         <v>51</v>
       </c>
       <c r="G185" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H185" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="B186" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C186" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D186" t="s">
         <v>37</v>
@@ -5875,18 +5926,21 @@
         <v>51</v>
       </c>
       <c r="G186" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H186" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C187" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D187" t="s">
         <v>37</v>
@@ -5898,21 +5952,24 @@
         <v>51</v>
       </c>
       <c r="G187" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H187" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C188" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D188" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E188" t="b">
         <v>1</v>
@@ -5921,21 +5978,24 @@
         <v>51</v>
       </c>
       <c r="G188" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H188" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C189" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D189" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E189" t="b">
         <v>1</v>
@@ -5944,21 +6004,24 @@
         <v>51</v>
       </c>
       <c r="G189" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H189" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C190" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D190" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E190" t="b">
         <v>1</v>
@@ -5967,21 +6030,24 @@
         <v>51</v>
       </c>
       <c r="G190" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H190" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B191" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C191" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D191" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E191" t="b">
         <v>1</v>
@@ -5990,21 +6056,24 @@
         <v>51</v>
       </c>
       <c r="G191" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H191" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B192" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C192" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D192" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E192" t="b">
         <v>1</v>
@@ -6013,21 +6082,24 @@
         <v>51</v>
       </c>
       <c r="G192" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H192" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C193" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D193" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E193" t="b">
         <v>1</v>
@@ -6036,108 +6108,787 @@
         <v>51</v>
       </c>
       <c r="G193" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H193" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2018</v>
       </c>
       <c r="B194" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C194" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D194" t="s">
         <v>34</v>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>51</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2019</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C195" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D195" t="s">
         <v>34</v>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F195" t="s">
+        <v>51</v>
+      </c>
+      <c r="G195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2020</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C196" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D196" t="s">
         <v>34</v>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>51</v>
+      </c>
+      <c r="G196" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2021</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D197" t="s">
         <v>34</v>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>51</v>
+      </c>
+      <c r="G197" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2022</v>
       </c>
       <c r="B198" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C198" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D198" t="s">
         <v>34</v>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>51</v>
+      </c>
+      <c r="G198" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2023</v>
       </c>
       <c r="B199" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" t="s">
+        <v>49</v>
+      </c>
+      <c r="D199" t="s">
+        <v>34</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>51</v>
+      </c>
+      <c r="G199" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="15">
+        <v>2014</v>
+      </c>
+      <c r="B200" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D200" t="s">
+        <v>34</v>
+      </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="15">
+        <v>2015</v>
+      </c>
+      <c r="B201" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="15">
+        <v>2016</v>
+      </c>
+      <c r="B202" t="s">
+        <v>63</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D202" t="s">
+        <v>34</v>
+      </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="15">
+        <v>2017</v>
+      </c>
+      <c r="B203" t="s">
+        <v>63</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D203" t="s">
+        <v>34</v>
+      </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="15">
+        <v>2018</v>
+      </c>
+      <c r="B204" t="s">
+        <v>63</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>34</v>
+      </c>
+      <c r="E204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B205" t="s">
+        <v>63</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>34</v>
+      </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>2020</v>
+      </c>
+      <c r="B206" t="s">
+        <v>63</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>34</v>
+      </c>
+      <c r="E206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2021</v>
+      </c>
+      <c r="B207" t="s">
+        <v>63</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>34</v>
+      </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2022</v>
+      </c>
+      <c r="B208" t="s">
+        <v>63</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>2023</v>
+      </c>
+      <c r="B209" t="s">
+        <v>63</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>34</v>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>2008</v>
+      </c>
+      <c r="B210" t="s">
+        <v>60</v>
+      </c>
+      <c r="C210" t="s">
+        <v>61</v>
+      </c>
+      <c r="D210" t="s">
+        <v>37</v>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>51</v>
+      </c>
+      <c r="G210" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>2009</v>
+      </c>
+      <c r="B211" t="s">
+        <v>60</v>
+      </c>
+      <c r="C211" t="s">
+        <v>61</v>
+      </c>
+      <c r="D211" t="s">
+        <v>37</v>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>51</v>
+      </c>
+      <c r="G211" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>2010</v>
+      </c>
+      <c r="B212" t="s">
+        <v>60</v>
+      </c>
+      <c r="C212" t="s">
+        <v>61</v>
+      </c>
+      <c r="D212" t="s">
+        <v>37</v>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
+      </c>
+      <c r="F212" t="s">
+        <v>51</v>
+      </c>
+      <c r="G212" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>2011</v>
+      </c>
+      <c r="B213" t="s">
+        <v>60</v>
+      </c>
+      <c r="C213" t="s">
+        <v>61</v>
+      </c>
+      <c r="D213" t="s">
+        <v>37</v>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>51</v>
+      </c>
+      <c r="G213" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>2012</v>
+      </c>
+      <c r="B214" t="s">
+        <v>60</v>
+      </c>
+      <c r="C214" t="s">
+        <v>61</v>
+      </c>
+      <c r="D214" t="s">
+        <v>37</v>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
+      <c r="F214" t="s">
+        <v>51</v>
+      </c>
+      <c r="G214" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>2013</v>
+      </c>
+      <c r="B215" t="s">
+        <v>60</v>
+      </c>
+      <c r="C215" t="s">
+        <v>62</v>
+      </c>
+      <c r="D215" t="s">
+        <v>37</v>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>51</v>
+      </c>
+      <c r="G215" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>2014</v>
+      </c>
+      <c r="B216" t="s">
+        <v>60</v>
+      </c>
+      <c r="C216" t="s">
+        <v>61</v>
+      </c>
+      <c r="D216" t="s">
+        <v>37</v>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>51</v>
+      </c>
+      <c r="G216" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>2015</v>
+      </c>
+      <c r="B217" t="s">
+        <v>60</v>
+      </c>
+      <c r="C217" t="s">
+        <v>61</v>
+      </c>
+      <c r="D217" t="s">
+        <v>37</v>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
+        <v>51</v>
+      </c>
+      <c r="G217" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>2016</v>
+      </c>
+      <c r="B218" t="s">
+        <v>60</v>
+      </c>
+      <c r="C218" t="s">
+        <v>61</v>
+      </c>
+      <c r="D218" t="s">
+        <v>37</v>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
+        <v>51</v>
+      </c>
+      <c r="G218" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>2017</v>
+      </c>
+      <c r="B219" t="s">
+        <v>60</v>
+      </c>
+      <c r="C219" t="s">
+        <v>61</v>
+      </c>
+      <c r="D219" t="s">
+        <v>37</v>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
+        <v>51</v>
+      </c>
+      <c r="G219" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>2018</v>
+      </c>
+      <c r="B220" t="s">
+        <v>60</v>
+      </c>
+      <c r="C220" t="s">
+        <v>60</v>
+      </c>
+      <c r="D220" t="s">
+        <v>34</v>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
+      </c>
+      <c r="F220" t="s">
+        <v>51</v>
+      </c>
+      <c r="G220" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>2019</v>
+      </c>
+      <c r="B221" t="s">
+        <v>60</v>
+      </c>
+      <c r="C221" t="s">
+        <v>60</v>
+      </c>
+      <c r="D221" t="s">
+        <v>34</v>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
+      </c>
+      <c r="F221" t="s">
+        <v>51</v>
+      </c>
+      <c r="G221" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>2020</v>
+      </c>
+      <c r="B222" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" t="s">
+        <v>60</v>
+      </c>
+      <c r="D222" t="s">
+        <v>34</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
+      </c>
+      <c r="F222" t="s">
+        <v>51</v>
+      </c>
+      <c r="G222" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>2021</v>
+      </c>
+      <c r="B223" t="s">
+        <v>60</v>
+      </c>
+      <c r="C223" t="s">
+        <v>60</v>
+      </c>
+      <c r="D223" t="s">
+        <v>34</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
+        <v>51</v>
+      </c>
+      <c r="G223" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>2022</v>
+      </c>
+      <c r="B224" t="s">
+        <v>60</v>
+      </c>
+      <c r="C224" t="s">
+        <v>60</v>
+      </c>
+      <c r="D224" t="s">
+        <v>34</v>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>51</v>
+      </c>
+      <c r="G224" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>2023</v>
+      </c>
+      <c r="B225" t="s">
+        <v>60</v>
+      </c>
+      <c r="C225" t="s">
+        <v>60</v>
+      </c>
+      <c r="D225" t="s">
+        <v>34</v>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>51</v>
+      </c>
+      <c r="G225" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>2018</v>
+      </c>
+      <c r="B226" t="s">
         <v>41</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C226" t="s">
         <v>41</v>
       </c>
-      <c r="D199" t="s">
-        <v>34</v>
-      </c>
-      <c r="E199" t="b">
+      <c r="D226" t="s">
+        <v>34</v>
+      </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2019</v>
+      </c>
+      <c r="B227" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" t="s">
+        <v>41</v>
+      </c>
+      <c r="D227" t="s">
+        <v>34</v>
+      </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>2020</v>
+      </c>
+      <c r="B228" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" t="s">
+        <v>41</v>
+      </c>
+      <c r="D228" t="s">
+        <v>34</v>
+      </c>
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>2021</v>
+      </c>
+      <c r="B229" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229" t="s">
+        <v>41</v>
+      </c>
+      <c r="D229" t="s">
+        <v>34</v>
+      </c>
+      <c r="E229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>2022</v>
+      </c>
+      <c r="B230" t="s">
+        <v>41</v>
+      </c>
+      <c r="C230" t="s">
+        <v>41</v>
+      </c>
+      <c r="D230" t="s">
+        <v>34</v>
+      </c>
+      <c r="E230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>2023</v>
+      </c>
+      <c r="B231" t="s">
+        <v>41</v>
+      </c>
+      <c r="C231" t="s">
+        <v>41</v>
+      </c>
+      <c r="D231" t="s">
+        <v>34</v>
+      </c>
+      <c r="E231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6150,6 +6901,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B598B773ED9FC644B8B740EB3205C8DA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6cfe95817d5870f6c066b2c32ab5fb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xmlns:ns3="d5cc9fc5-cf59-440a-a506-890d57680064" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a231614a4bf4996e6f4146316e2aaf8" ns2:_="" ns3:_="">
     <xsd:import namespace="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
@@ -6412,27 +7183,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B298AB6-2F6D-497E-AD9E-0F97ABEC8463}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6449,29 +7225,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51755A17-8C52-5840-86F4-D118F73F1D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8976DDEB-18C3-304F-B737-AEA4E73D517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Card Metadata" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="100">
   <si>
     <t>Year</t>
   </si>
@@ -497,6 +497,72 @@
   </si>
   <si>
     <t>PUPIL-TEACHER RATIO -ELEM DISTRICT - Coming Soon</t>
+  </si>
+  <si>
+    <t>% Novice Teachers</t>
+  </si>
+  <si>
+    <t>% 8th Grade Passing Algebra 1</t>
+  </si>
+  <si>
+    <t>% 8TH GRADERS PASSING ALGEBRA I - SCHOOL</t>
+  </si>
+  <si>
+    <t>%8th Grade Passing Algebra 1</t>
+  </si>
+  <si>
+    <t>% FRESHMAN ON TRACK - SCHOOL</t>
+  </si>
+  <si>
+    <t>9th Grade on Track</t>
+  </si>
+  <si>
+    <t>% 9th Grade on Track</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9th Grade on Track - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% 9th Grade on Track - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <t>% Novice Teachers - High Poverty Schools</t>
+  </si>
+  <si>
+    <t>% Novice Teachers - Low Poverty Schools</t>
+  </si>
+  <si>
+    <t>Novice Teachers - Low Poverty Schools</t>
+  </si>
+  <si>
+    <t>Novice Teachers - High Poverty Schools</t>
+  </si>
+  <si>
+    <t># 9th Grade on Track</t>
   </si>
 </sst>
 </file>
@@ -632,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -650,12 +716,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -721,6 +809,27 @@
           <color theme="4" tint="0.39997558519241921"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -997,49 +1106,55 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:Q17" totalsRowShown="0" dataDxfId="26">
-  <autoFilter ref="A1:Q17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:W17" totalsRowShown="0" dataDxfId="32">
+  <autoFilter ref="A1:W17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
     <sortCondition ref="A1:A17"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="0"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H231" totalsRowShown="0" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:H231" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H272" totalsRowShown="0" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:H272" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H231">
     <sortCondition ref="B1:B231"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{6FC8DE02-1AAB-8248-8E52-B299C7FFB44A}" name="Disaggregation Format"/>
-    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1675,11 +1790,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q2" activeCellId="1" sqref="A2:A17 Q2:Q17"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W12" activeCellId="2" sqref="A12:A17 S12:T17 W12:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1693,17 +1808,24 @@
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1755,8 +1877,26 @@
       <c r="Q1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -1794,14 +1934,17 @@
       <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -1839,14 +1982,17 @@
       <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -1884,14 +2030,17 @@
       <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="W4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -1929,14 +2078,17 @@
       <c r="N5" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -1974,14 +2126,17 @@
       <c r="N6" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2019,14 +2174,17 @@
       <c r="N7" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -2067,14 +2225,20 @@
       <c r="O8" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="V8" t="s">
+        <v>90</v>
+      </c>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -2115,14 +2279,23 @@
       <c r="O9" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" t="s">
+        <v>90</v>
+      </c>
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -2163,14 +2336,23 @@
       <c r="O10" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -2211,14 +2393,23 @@
       <c r="O11" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -2264,14 +2455,27 @@
       <c r="O12" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" t="s">
         <v>80</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" t="s">
+        <v>89</v>
+      </c>
+      <c r="V12" t="s">
+        <v>91</v>
+      </c>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -2317,14 +2521,32 @@
       <c r="O13" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" t="s">
         <v>80</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="Q13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" t="s">
+        <v>92</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -2370,14 +2592,32 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>86</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" t="s">
+        <v>92</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -2423,14 +2663,32 @@
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" t="s">
+        <v>92</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -2476,14 +2734,32 @@
       <c r="O16" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" t="s">
         <v>80</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="Q16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U16" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" t="s">
+        <v>92</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -2529,11 +2805,29 @@
       <c r="O17" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" t="s">
         <v>80</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" t="s">
         <v>81</v>
+      </c>
+      <c r="R17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" t="s">
+        <v>92</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2548,12 +2842,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A162" sqref="A162"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="E256" sqref="E256:E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3701,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2017</v>
       </c>
@@ -3718,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3735,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2019</v>
       </c>
@@ -3752,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -3769,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -3786,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -3803,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2023</v>
       </c>
@@ -3820,615 +4114,551 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="14">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>2008</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" t="s">
         <v>37</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
-      <c r="F72" s="14"/>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="14">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>2009</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" t="s">
         <v>37</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="14">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>2010</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" t="s">
         <v>37</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
-      <c r="F74" s="14"/>
-      <c r="H74" s="14"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="14">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>2011</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" t="s">
         <v>37</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
-      <c r="F75" s="14"/>
-      <c r="H75" s="14"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="14">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>2012</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" t="s">
         <v>37</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
-      <c r="F76" s="14"/>
-      <c r="H76" s="14"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="14">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>2013</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" t="s">
         <v>37</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
-      <c r="F77" s="14"/>
-      <c r="H77" s="14"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="14">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>2014</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" t="s">
         <v>37</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
-      <c r="F78" s="14"/>
-      <c r="H78" s="14"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="14">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>2015</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" t="s">
         <v>37</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="H79" s="14"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="14">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>2016</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" t="s">
         <v>37</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
-      <c r="F80" s="14"/>
-      <c r="H80" s="14"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="14">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>2017</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" t="s">
         <v>37</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="14">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>2018</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" t="s">
         <v>34</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
-      <c r="F82" s="14"/>
-      <c r="H82" s="14"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="14">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>2019</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" t="s">
         <v>34</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
-      <c r="F83" s="14"/>
-      <c r="H83" s="14"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="14">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>2020</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" t="s">
         <v>34</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
-      <c r="F84" s="14"/>
-      <c r="H84" s="14"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="14">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>2021</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" t="s">
         <v>80</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" t="s">
         <v>34</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
-      <c r="F85" s="14"/>
-      <c r="H85" s="14"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="14">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>2022</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" t="s">
         <v>80</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" t="s">
         <v>34</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
-      <c r="F86" s="14"/>
-      <c r="H86" s="14"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="14">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>2023</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" t="s">
         <v>34</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="F87" s="14"/>
-      <c r="H87" s="14"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="14">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>2008</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" t="s">
         <v>81</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" t="s">
         <v>37</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
-      <c r="F88" s="14"/>
-      <c r="H88" s="14"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="14">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>2009</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" t="s">
         <v>83</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" t="s">
         <v>37</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
-      <c r="F89" s="14"/>
-      <c r="H89" s="14"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="14">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>2010</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" t="s">
         <v>37</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
-      <c r="F90" s="14"/>
-      <c r="H90" s="14"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="14">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>2011</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" t="s">
         <v>37</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
-      <c r="F91" s="14"/>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="14">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>2012</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" t="s">
         <v>37</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
-      <c r="F92" s="14"/>
-      <c r="H92" s="14"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="14">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>2013</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" t="s">
         <v>37</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
-      <c r="F93" s="14"/>
-      <c r="H93" s="14"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="14">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>2014</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" t="s">
         <v>37</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
-      <c r="F94" s="14"/>
-      <c r="H94" s="14"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="14">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>2015</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" t="s">
         <v>37</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
-      <c r="F95" s="14"/>
-      <c r="H95" s="14"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="14">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>2016</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" t="s">
         <v>37</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
-      <c r="F96" s="14"/>
-      <c r="H96" s="14"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="14">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>2017</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" t="s">
         <v>37</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
-      <c r="F97" s="14"/>
-      <c r="H97" s="14"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="14">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>2018</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" t="s">
         <v>81</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" t="s">
         <v>34</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
-      <c r="F98" s="14"/>
-      <c r="H98" s="14"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="14">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>2019</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" t="s">
         <v>81</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" t="s">
         <v>34</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
-      <c r="F99" s="14"/>
-      <c r="H99" s="14"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="14">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>2020</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" t="s">
         <v>81</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" t="s">
         <v>34</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
-      <c r="F100" s="14"/>
-      <c r="H100" s="14"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="14">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>2021</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" t="s">
         <v>81</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" t="s">
         <v>81</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" t="s">
         <v>34</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
-      <c r="F101" s="14"/>
-      <c r="H101" s="14"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="14">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>2022</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" t="s">
         <v>81</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" t="s">
         <v>34</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
-      <c r="F102" s="14"/>
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="14">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>2023</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" t="s">
         <v>81</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" t="s">
         <v>81</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" t="s">
         <v>34</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
-      <c r="F103" s="14"/>
-      <c r="H103" s="14"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2008</v>
       </c>
@@ -4445,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2009</v>
       </c>
@@ -4462,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2010</v>
       </c>
@@ -4479,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2011</v>
       </c>
@@ -4496,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2012</v>
       </c>
@@ -4513,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2013</v>
       </c>
@@ -4530,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2014</v>
       </c>
@@ -4547,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2015</v>
       </c>
@@ -4564,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2016</v>
       </c>
@@ -5359,7 +5589,7 @@
       <c r="B158" t="s">
         <v>25</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" t="s">
         <v>28</v>
       </c>
       <c r="D158" t="s">
@@ -6253,13 +6483,13 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="15">
+      <c r="A200">
         <v>2014</v>
       </c>
       <c r="B200" t="s">
         <v>63</v>
       </c>
-      <c r="C200" s="15" t="s">
+      <c r="C200" t="s">
         <v>64</v>
       </c>
       <c r="D200" t="s">
@@ -6270,13 +6500,13 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="15">
+      <c r="A201">
         <v>2015</v>
       </c>
       <c r="B201" t="s">
         <v>63</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="C201" t="s">
         <v>64</v>
       </c>
       <c r="D201" t="s">
@@ -6287,13 +6517,13 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="15">
+      <c r="A202">
         <v>2016</v>
       </c>
       <c r="B202" t="s">
         <v>63</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="C202" t="s">
         <v>64</v>
       </c>
       <c r="D202" t="s">
@@ -6304,13 +6534,13 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="15">
+      <c r="A203">
         <v>2017</v>
       </c>
       <c r="B203" t="s">
         <v>63</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="C203" t="s">
         <v>64</v>
       </c>
       <c r="D203" t="s">
@@ -6321,13 +6551,13 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="15">
+      <c r="A204">
         <v>2018</v>
       </c>
       <c r="B204" t="s">
         <v>63</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="C204" t="s">
         <v>63</v>
       </c>
       <c r="D204" t="s">
@@ -6338,13 +6568,13 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="15">
+      <c r="A205">
         <v>2019</v>
       </c>
       <c r="B205" t="s">
         <v>63</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="C205" t="s">
         <v>63</v>
       </c>
       <c r="D205" t="s">
@@ -6891,6 +7121,755 @@
       <c r="E231" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>2015</v>
+      </c>
+      <c r="B232" t="s">
+        <v>87</v>
+      </c>
+      <c r="C232" t="s">
+        <v>88</v>
+      </c>
+      <c r="D232" t="s">
+        <v>37</v>
+      </c>
+      <c r="E232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>2016</v>
+      </c>
+      <c r="B233" t="s">
+        <v>87</v>
+      </c>
+      <c r="C233" t="s">
+        <v>88</v>
+      </c>
+      <c r="D233" t="s">
+        <v>37</v>
+      </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>2017</v>
+      </c>
+      <c r="B234" t="s">
+        <v>87</v>
+      </c>
+      <c r="C234" t="s">
+        <v>88</v>
+      </c>
+      <c r="D234" t="s">
+        <v>37</v>
+      </c>
+      <c r="E234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>2018</v>
+      </c>
+      <c r="B235" t="s">
+        <v>87</v>
+      </c>
+      <c r="C235" t="s">
+        <v>89</v>
+      </c>
+      <c r="D235" t="s">
+        <v>34</v>
+      </c>
+      <c r="E235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>2019</v>
+      </c>
+      <c r="B236" t="s">
+        <v>87</v>
+      </c>
+      <c r="C236" t="s">
+        <v>87</v>
+      </c>
+      <c r="D236" t="s">
+        <v>34</v>
+      </c>
+      <c r="E236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>2020</v>
+      </c>
+      <c r="B237" t="s">
+        <v>87</v>
+      </c>
+      <c r="C237" t="s">
+        <v>87</v>
+      </c>
+      <c r="D237" t="s">
+        <v>34</v>
+      </c>
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>2021</v>
+      </c>
+      <c r="B238" t="s">
+        <v>87</v>
+      </c>
+      <c r="C238" t="s">
+        <v>87</v>
+      </c>
+      <c r="D238" t="s">
+        <v>34</v>
+      </c>
+      <c r="E238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>2022</v>
+      </c>
+      <c r="B239" t="s">
+        <v>87</v>
+      </c>
+      <c r="C239" t="s">
+        <v>87</v>
+      </c>
+      <c r="D239" t="s">
+        <v>34</v>
+      </c>
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>2023</v>
+      </c>
+      <c r="B240" t="s">
+        <v>87</v>
+      </c>
+      <c r="C240" t="s">
+        <v>87</v>
+      </c>
+      <c r="D240" t="s">
+        <v>34</v>
+      </c>
+      <c r="E240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>2019</v>
+      </c>
+      <c r="B241" t="s">
+        <v>86</v>
+      </c>
+      <c r="C241" t="s">
+        <v>86</v>
+      </c>
+      <c r="D241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>2020</v>
+      </c>
+      <c r="B242" t="s">
+        <v>86</v>
+      </c>
+      <c r="C242" t="s">
+        <v>86</v>
+      </c>
+      <c r="D242" t="s">
+        <v>34</v>
+      </c>
+      <c r="E242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>2021</v>
+      </c>
+      <c r="B243" t="s">
+        <v>86</v>
+      </c>
+      <c r="C243" t="s">
+        <v>86</v>
+      </c>
+      <c r="D243" t="s">
+        <v>34</v>
+      </c>
+      <c r="E243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>2022</v>
+      </c>
+      <c r="B244" t="s">
+        <v>86</v>
+      </c>
+      <c r="C244" t="s">
+        <v>86</v>
+      </c>
+      <c r="D244" t="s">
+        <v>34</v>
+      </c>
+      <c r="E244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>2023</v>
+      </c>
+      <c r="B245" t="s">
+        <v>86</v>
+      </c>
+      <c r="C245" t="s">
+        <v>86</v>
+      </c>
+      <c r="D245" t="s">
+        <v>34</v>
+      </c>
+      <c r="E245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>2014</v>
+      </c>
+      <c r="B246" t="s">
+        <v>92</v>
+      </c>
+      <c r="C246" t="s">
+        <v>90</v>
+      </c>
+      <c r="D246" t="s">
+        <v>37</v>
+      </c>
+      <c r="E246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>2015</v>
+      </c>
+      <c r="B247" t="s">
+        <v>92</v>
+      </c>
+      <c r="C247" t="s">
+        <v>90</v>
+      </c>
+      <c r="D247" t="s">
+        <v>37</v>
+      </c>
+      <c r="E247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>2016</v>
+      </c>
+      <c r="B248" t="s">
+        <v>92</v>
+      </c>
+      <c r="C248" t="s">
+        <v>90</v>
+      </c>
+      <c r="D248" t="s">
+        <v>37</v>
+      </c>
+      <c r="E248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>2017</v>
+      </c>
+      <c r="B249" t="s">
+        <v>92</v>
+      </c>
+      <c r="C249" t="s">
+        <v>90</v>
+      </c>
+      <c r="D249" t="s">
+        <v>37</v>
+      </c>
+      <c r="E249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>2018</v>
+      </c>
+      <c r="B250" t="s">
+        <v>92</v>
+      </c>
+      <c r="C250" t="s">
+        <v>91</v>
+      </c>
+      <c r="D250" t="s">
+        <v>34</v>
+      </c>
+      <c r="E250" t="b">
+        <v>1</v>
+      </c>
+      <c r="G250" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>2019</v>
+      </c>
+      <c r="B251" t="s">
+        <v>92</v>
+      </c>
+      <c r="C251" t="s">
+        <v>92</v>
+      </c>
+      <c r="D251" t="s">
+        <v>34</v>
+      </c>
+      <c r="E251" t="b">
+        <v>1</v>
+      </c>
+      <c r="G251" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>2020</v>
+      </c>
+      <c r="B252" t="s">
+        <v>92</v>
+      </c>
+      <c r="C252" t="s">
+        <v>92</v>
+      </c>
+      <c r="D252" t="s">
+        <v>34</v>
+      </c>
+      <c r="E252" t="b">
+        <v>1</v>
+      </c>
+      <c r="G252" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>2021</v>
+      </c>
+      <c r="B253" t="s">
+        <v>92</v>
+      </c>
+      <c r="C253" t="s">
+        <v>92</v>
+      </c>
+      <c r="D253" t="s">
+        <v>34</v>
+      </c>
+      <c r="E253" t="b">
+        <v>1</v>
+      </c>
+      <c r="G253" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>2022</v>
+      </c>
+      <c r="B254" t="s">
+        <v>92</v>
+      </c>
+      <c r="C254" t="s">
+        <v>92</v>
+      </c>
+      <c r="D254" t="s">
+        <v>34</v>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
+      <c r="G254" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>2023</v>
+      </c>
+      <c r="B255" t="s">
+        <v>92</v>
+      </c>
+      <c r="C255" t="s">
+        <v>92</v>
+      </c>
+      <c r="D255" t="s">
+        <v>34</v>
+      </c>
+      <c r="E255" t="b">
+        <v>1</v>
+      </c>
+      <c r="G255" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B256" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D256" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E256" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F256" s="14"/>
+      <c r="H256" s="14"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C257" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D257" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E257" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F257" s="14"/>
+      <c r="H257" s="14"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="14">
+        <v>2020</v>
+      </c>
+      <c r="B258" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D258" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E258" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F258" s="14"/>
+      <c r="H258" s="14"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="14">
+        <v>2021</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D259" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E259" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F259" s="14"/>
+      <c r="H259" s="14"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="14">
+        <v>2022</v>
+      </c>
+      <c r="B260" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D260" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E260" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F260" s="14"/>
+      <c r="H260" s="14"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="14">
+        <v>2023</v>
+      </c>
+      <c r="B261" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D261" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E261" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F261" s="14"/>
+      <c r="H261" s="14"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B262" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D262" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E262" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F262" s="14"/>
+      <c r="H262" s="14"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D263" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E263" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263" s="14"/>
+      <c r="H263" s="14"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="14">
+        <v>2020</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D264" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E264" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F264" s="14"/>
+      <c r="H264" s="14"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="14">
+        <v>2021</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D265" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E265" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F265" s="14"/>
+      <c r="H265" s="14"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="14">
+        <v>2022</v>
+      </c>
+      <c r="B266" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D266" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E266" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F266" s="14"/>
+      <c r="H266" s="14"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="14">
+        <v>2023</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D267" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E267" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F267" s="14"/>
+      <c r="H267" s="14"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D268" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E268" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F268" s="14"/>
+      <c r="H268" s="14"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="14">
+        <v>2020</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D269" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E269" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F269" s="14"/>
+      <c r="H269" s="14"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="14">
+        <v>2021</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D270" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E270" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F270" s="14"/>
+      <c r="H270" s="14"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="14">
+        <v>2022</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D271" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E271" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F271" s="14"/>
+      <c r="H271" s="14"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="14">
+        <v>2023</v>
+      </c>
+      <c r="B272" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D272" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E272" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F272" s="14"/>
+      <c r="H272" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6910,17 +7889,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B598B773ED9FC644B8B740EB3205C8DA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6cfe95817d5870f6c066b2c32ab5fb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xmlns:ns3="d5cc9fc5-cf59-440a-a506-890d57680064" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a231614a4bf4996e6f4146316e2aaf8" ns2:_="" ns3:_="">
     <xsd:import namespace="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
@@ -7183,6 +8151,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
   <ds:schemaRefs>
@@ -7192,23 +8171,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B298AB6-2F6D-497E-AD9E-0F97ABEC8463}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7225,4 +8187,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BA818F-7A47-D942-8B1B-143D9515ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49CA340-D0A6-384C-9222-1745A4FA0BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Card Metadata" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="174">
   <si>
     <t>Year</t>
   </si>
@@ -951,6 +951,118 @@
   </si>
   <si>
     <t>% Students enrolled in Dual Credit Coursework - All</t>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 9</t>
+  </si>
+  <si>
+    <t>Number of Students who took AP classes Grade 9 Total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Students who took AP classes Grade 9 Total</t>
+    </r>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 9 Total</t>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 10</t>
+  </si>
+  <si>
+    <t># OF GRADE 10 STUDENTS TOOK ONE OR MORE AP COURSES (SCHOOL)</t>
+  </si>
+  <si>
+    <t># OF GRADE 10 STUDENTS TOOK ONE OR MORE AP COURSES (SCHOOL) - demo</t>
+  </si>
+  <si>
+    <t>Number of Students who took AP classes Grade 10 Total</t>
+  </si>
+  <si>
+    <t>Number demo of Students who took AP classes Grade 10 Total</t>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 10 Total</t>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 11</t>
+  </si>
+  <si>
+    <t># OF GRADE 11 STUDENTS TOOK ONE OR MORE AP COURSES (SCHOOL)</t>
+  </si>
+  <si>
+    <t># OF GRADE 11 STUDENTS TOOK ONE OR MORE AP COURSES (SCHOOL) - demo</t>
+  </si>
+  <si>
+    <t>Number of Students who took AP classes Grade 11 Total</t>
+  </si>
+  <si>
+    <t>Number demo of Students who took AP classes Grade 11 Total</t>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 11 Total</t>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 12</t>
+  </si>
+  <si>
+    <t># OF GRADE 12 STUDENTS TOOK ONE OR MORE AP COURSES (SCHOOL)</t>
+  </si>
+  <si>
+    <t># OF GRADE 12 STUDENTS TOOK ONE OR MORE AP COURSES (SCHOOL) - demo</t>
+  </si>
+  <si>
+    <t>Number of Students who took AP classes Grade 12 Total</t>
+  </si>
+  <si>
+    <t>Number demo of Students who took AP classes Grade 12 Total</t>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 12 Total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Students who took AP classes Grade 9 - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 10 - demo</t>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 11 - demo</t>
+  </si>
+  <si>
+    <t># Students who took AP classes Grade 12 - demo</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1132,11 +1244,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1157,37 +1271,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1571,6 +1654,65 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1599,66 +1741,70 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:AH17" totalsRowShown="0" dataDxfId="43">
-  <autoFilter ref="A1:AH17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:AL17" totalsRowShown="0" dataDxfId="38">
+  <autoFilter ref="A1:AL17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
     <sortCondition ref="A1:A17"/>
   </sortState>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="25"/>
-    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="24"/>
-    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="21"/>
-    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="18"/>
-    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="17"/>
-    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="11"/>
-    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="9"/>
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{62431BD2-7051-FC48-BD9B-525CBF545DDD}" name="# Students who took AP classes Grade 9" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{73C469BE-B611-0145-B886-AAA2CB70EAE8}" name="# Students who took AP classes Grade 10" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{CFE88FEF-98CA-654A-B3B8-05790EA4E553}" name="# Students who took AP classes Grade 11" dataDxfId="1"/>
+    <tableColumn id="38" xr3:uid="{CB531B3F-8204-2644-91D3-88ACB4BFD0A7}" name="# Students who took AP classes Grade 12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H323" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H323" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H353" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46">
+  <autoFilter ref="A1:H353" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H323">
     <sortCondition ref="B1:B323"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="40"/>
     <tableColumn id="7" xr3:uid="{6FC8DE02-1AAB-8248-8E52-B299C7FFB44A}" name="Disaggregation Format"/>
-    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2294,11 +2440,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH17"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH15" sqref="AH15:AH17"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2336,9 +2482,11 @@
     <col min="31" max="32" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="40.5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="41" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="56.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2441,8 +2589,20 @@
       <c r="AH1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -2486,8 +2646,12 @@
       <c r="Q2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -2531,8 +2695,12 @@
       <c r="Q3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -2576,8 +2744,12 @@
       <c r="Q4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -2621,8 +2793,12 @@
       <c r="Q5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -2666,8 +2842,12 @@
       <c r="Q6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2711,8 +2891,12 @@
       <c r="Q7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -2762,8 +2946,12 @@
       <c r="V8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -2816,8 +3004,12 @@
       <c r="V9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -2882,8 +3074,18 @@
       <c r="AF10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK10" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL10" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -2948,8 +3150,18 @@
       <c r="AF11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK11" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL11" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -3028,8 +3240,20 @@
       <c r="AF12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI12" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ12" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK12" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL12" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -3114,8 +3338,20 @@
       <c r="AF13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI13" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ13" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK13" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL13" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -3200,8 +3436,20 @@
       <c r="AF14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI14" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ14" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK14" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL14" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -3292,8 +3540,20 @@
       <c r="AH15" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ15" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK15" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL15" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -3396,8 +3656,20 @@
       <c r="AH16" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI16" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ16" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK16" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL16" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -3496,6 +3768,18 @@
       </c>
       <c r="AH17" t="s">
         <v>147</v>
+      </c>
+      <c r="AI17" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ17" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK17" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL17" s="16" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3510,12 +3794,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:H323"/>
+  <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A320" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A162" sqref="A162"/>
-      <selection pane="topRight" activeCell="D86" sqref="D86"/>
+      <selection pane="topRight" activeCell="G351" sqref="G351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9453,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2021</v>
       </c>
@@ -9470,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -9487,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2023</v>
       </c>
@@ -9503,6 +9787,668 @@
       <c r="E323" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B324" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C324" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D324" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E324" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F324" s="16"/>
+      <c r="G324" t="s">
+        <v>150</v>
+      </c>
+      <c r="H324" s="16"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B325" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C325" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D325" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E325" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F325" s="16"/>
+      <c r="G325" t="s">
+        <v>170</v>
+      </c>
+      <c r="H325" s="16"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B326" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C326" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D326" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E326" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F326" s="16"/>
+      <c r="G326" t="s">
+        <v>170</v>
+      </c>
+      <c r="H326" s="16"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B327" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C327" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D327" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E327" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F327" s="16"/>
+      <c r="G327" t="s">
+        <v>170</v>
+      </c>
+      <c r="H327" s="16"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B328" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C328" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D328" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E328" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F328" s="16"/>
+      <c r="G328" t="s">
+        <v>170</v>
+      </c>
+      <c r="H328" s="16"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B329" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C329" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D329" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E329" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F329" s="16"/>
+      <c r="G329" t="s">
+        <v>170</v>
+      </c>
+      <c r="H329" s="16"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B330" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C330" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D330" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E330" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F330" s="16"/>
+      <c r="G330" t="s">
+        <v>154</v>
+      </c>
+      <c r="H330" s="16"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B331" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C331" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D331" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E331" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F331" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G331" t="s">
+        <v>154</v>
+      </c>
+      <c r="H331" s="16"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B332" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C332" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D332" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E332" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F332" s="16"/>
+      <c r="G332" t="s">
+        <v>156</v>
+      </c>
+      <c r="H332" s="16"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B333" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D333" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E333" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F333" s="16"/>
+      <c r="G333" t="s">
+        <v>171</v>
+      </c>
+      <c r="H333" s="16"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B334" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D334" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E334" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F334" s="16"/>
+      <c r="G334" t="s">
+        <v>171</v>
+      </c>
+      <c r="H334" s="16"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B335" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D335" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E335" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F335" s="16"/>
+      <c r="G335" t="s">
+        <v>171</v>
+      </c>
+      <c r="H335" s="16"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B336" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D336" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E336" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F336" s="16"/>
+      <c r="G336" t="s">
+        <v>171</v>
+      </c>
+      <c r="H336" s="16"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B337" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C337" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D337" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E337" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F337" s="16"/>
+      <c r="G337" t="s">
+        <v>171</v>
+      </c>
+      <c r="H337" s="16"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B338" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C338" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D338" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E338" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F338" s="16"/>
+      <c r="G338" t="s">
+        <v>160</v>
+      </c>
+      <c r="H338" s="16"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B339" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D339" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E339" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F339" s="16"/>
+      <c r="G339" t="s">
+        <v>160</v>
+      </c>
+      <c r="H339" s="16"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B340" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C340" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D340" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E340" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F340" s="16"/>
+      <c r="G340" t="s">
+        <v>162</v>
+      </c>
+      <c r="H340" s="16"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B341" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C341" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D341" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E341" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F341" s="16"/>
+      <c r="G341" t="s">
+        <v>172</v>
+      </c>
+      <c r="H341" s="16"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B342" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C342" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D342" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E342" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F342" s="16"/>
+      <c r="G342" t="s">
+        <v>172</v>
+      </c>
+      <c r="H342" s="16"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B343" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C343" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D343" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E343" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F343" s="16"/>
+      <c r="G343" t="s">
+        <v>172</v>
+      </c>
+      <c r="H343" s="16"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B344" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C344" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D344" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E344" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F344" s="16"/>
+      <c r="G344" t="s">
+        <v>172</v>
+      </c>
+      <c r="H344" s="16"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B345" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C345" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D345" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E345" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F345" s="16"/>
+      <c r="G345" t="s">
+        <v>172</v>
+      </c>
+      <c r="H345" s="16"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B346" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C346" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D346" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E346" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F346" s="16"/>
+      <c r="G346" t="s">
+        <v>166</v>
+      </c>
+      <c r="H346" s="16"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B347" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C347" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D347" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E347" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F347" s="16"/>
+      <c r="G347" t="s">
+        <v>166</v>
+      </c>
+      <c r="H347" s="16"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C348" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D348" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E348" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F348" s="16"/>
+      <c r="G348" t="s">
+        <v>168</v>
+      </c>
+      <c r="H348" s="16"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B349" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C349" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D349" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E349" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F349" s="16"/>
+      <c r="G349" t="s">
+        <v>173</v>
+      </c>
+      <c r="H349" s="16"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B350" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C350" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D350" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E350" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F350" s="16"/>
+      <c r="G350" t="s">
+        <v>173</v>
+      </c>
+      <c r="H350" s="16"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B351" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C351" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D351" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E351" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F351" s="16"/>
+      <c r="G351" t="s">
+        <v>173</v>
+      </c>
+      <c r="H351" s="16"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B352" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C352" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D352" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E352" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F352" s="16"/>
+      <c r="G352" t="s">
+        <v>173</v>
+      </c>
+      <c r="H352" s="16"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B353" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C353" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D353" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E353" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F353" s="16"/>
+      <c r="G353" t="s">
+        <v>173</v>
+      </c>
+      <c r="H353" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9514,12 +10460,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9786,20 +10734,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9824,18 +10779,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49CA340-D0A6-384C-9222-1745A4FA0BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F81D6B3B-0887-0246-9B8F-C93A20194320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="234">
   <si>
     <t>Year</t>
   </si>
@@ -1064,12 +1064,252 @@
   <si>
     <t># Students who took AP classes Grade 12 - demo</t>
   </si>
+  <si>
+    <t># Students who took IB classes Grade 9</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 10</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 11</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 12</t>
+  </si>
+  <si>
+    <t># OF GRADE 10 STUDENTS TOOK ONE OR MORE IB COURSES (SCHOOL)</t>
+  </si>
+  <si>
+    <t># OF GRADE 11 STUDENTS TOOK ONE OR MORE IB COURSES (SCHOOL)</t>
+  </si>
+  <si>
+    <t># OF GRADE 12 STUDENTS TOOK ONE OR MORE IB COURSES (SCHOOL)</t>
+  </si>
+  <si>
+    <t>Number of Students who took IB classes Grade 9 Total</t>
+  </si>
+  <si>
+    <t>Number of Students who took IB classes Grade 10 Total</t>
+  </si>
+  <si>
+    <t>Number of Students who took IB classes Grade 11 Total</t>
+  </si>
+  <si>
+    <t>Number of Students who took IB classes Grade 12 Total</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 9 Total</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 10 Total</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 11 Total</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 12 Total</t>
+  </si>
+  <si>
+    <t>Number demo of Students who took IB classes Grade 9 Total</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 9 - demo</t>
+  </si>
+  <si>
+    <t># OF GRADE 10 STUDENTS TOOK ONE OR MORE IB COURSES (SCHOOL) - demo</t>
+  </si>
+  <si>
+    <t>Number demo of Students who took IB classes Grade 10 Total</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 10 - demo</t>
+  </si>
+  <si>
+    <t># OF GRADE 11 STUDENTS TOOK ONE OR MORE IB COURSES (SCHOOL) - demo</t>
+  </si>
+  <si>
+    <t>Number demo of Students who took IB classes Grade 11 Total</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 11 - demo</t>
+  </si>
+  <si>
+    <t># OF GRADE 12 STUDENTS TOOK ONE OR MORE IB COURSES (SCHOOL) - demo</t>
+  </si>
+  <si>
+    <t>Number demo of Students who took IB classes Grade 12 Total</t>
+  </si>
+  <si>
+    <t># Students who took IB classes Grade 12 - demo</t>
+  </si>
+  <si>
+    <t># Out-of-Field Teachers</t>
+  </si>
+  <si>
+    <t>% Out-of-Field Teachers</t>
+  </si>
+  <si>
+    <t>TeacherOutofField</t>
+  </si>
+  <si>
+    <t>Teachers with Short-Term or Provisional License - High Poverty Schools</t>
+  </si>
+  <si>
+    <t>Teachers with Short-Term or Provisional License - Low Poverty Schools</t>
+  </si>
+  <si>
+    <t>% Teachers with Short-Term or Provisional License</t>
+  </si>
+  <si>
+    <t>% Teachers with Short-Term or Provisional License - High Poverty Schools</t>
+  </si>
+  <si>
+    <t>% Teachers with Short-Term or Provisional License - Low Poverty Schools</t>
+  </si>
+  <si>
+    <t># Teachers with Short-Term or Provisional License - High Poverty Schools</t>
+  </si>
+  <si>
+    <t># Teachers with Short-Term or Provisional License - Low Poverty Schools</t>
+  </si>
+  <si>
+    <t>% TCHRS WITH EMERGENCY OR PROVISIONAL CREDENTIALS(SCHOOL)</t>
+  </si>
+  <si>
+    <t>% EMERGENCY OR PROVISIONAL CREDENTIALS (DISTRICT HIGH POVERTY)</t>
+  </si>
+  <si>
+    <t>% EMERGENCY OR PROVISIONAL CREDENTIALS (DISTRICT LOW POVERTY)</t>
+  </si>
+  <si>
+    <t>% TCHRS WITH EMERGENCY OR PROVISIONAL CREDENTIALS(SCHOOL) - Coming Soon</t>
+  </si>
+  <si>
+    <t>% EMERGENCY OR PROVISIONAL CREDENTIALS (DISTRICT HIGH POVERTY) - Coming Soon</t>
+  </si>
+  <si>
+    <t>% EMERGENCY OR PROVISIONAL CREDENTIALS (DISTRICT LOW POVERTY) - Coming Soon</t>
+  </si>
+  <si>
+    <t>TEACHER ATTENDANCE RATE (SCHOOL)</t>
+  </si>
+  <si>
+    <t>Teacher Attendace Rate</t>
+  </si>
+  <si>
+    <t>Teacher Attendance Rate</t>
+  </si>
+  <si>
+    <t># OF PRINCIPAL TURNOVER WITHIN 6 YEARS (SCHOOL)</t>
+  </si>
+  <si>
+    <t>Principal Turnover within 6 Years</t>
+  </si>
+  <si>
+    <t>HS GRAD RATE SCHOOL %</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HS GRAD RATE SCHOOL % - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <t>HS 4-YEAR GRAD RATE SCHOOL %</t>
+  </si>
+  <si>
+    <t>HS 6-YEAR GRAD RATE SCHOOL %</t>
+  </si>
+  <si>
+    <t>High School 4-Year Graduation Rate - Total</t>
+  </si>
+  <si>
+    <t>High School 6-Year Graduation Rate - Total</t>
+  </si>
+  <si>
+    <t>High School 6-Year Graduation Rate</t>
+  </si>
+  <si>
+    <t>High School 4-Year Graduation Rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HS 4-YEAR GRAD RATE SCHOOL % - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">High School 4-Year Graduation Rate - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HS 6-YEAR GRAD RATE SCHOOL % - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">High School 6-Year Graduation Rate - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <t>COUNTY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,8 +1364,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,6 +1387,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E4F5"/>
+        <bgColor rgb="FFC0E4F5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1225,7 +1476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1244,13 +1495,180 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1654,65 +2072,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1741,70 +2100,85 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:AL17" totalsRowShown="0" dataDxfId="38">
-  <autoFilter ref="A1:AL17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:BA17" totalsRowShown="0" dataDxfId="62">
+  <autoFilter ref="A1:BA17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
     <sortCondition ref="A1:A17"/>
   </sortState>
-  <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="20"/>
-    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="19"/>
-    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{62431BD2-7051-FC48-BD9B-525CBF545DDD}" name="# Students who took AP classes Grade 9" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{73C469BE-B611-0145-B886-AAA2CB70EAE8}" name="# Students who took AP classes Grade 10" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{CFE88FEF-98CA-654A-B3B8-05790EA4E553}" name="# Students who took AP classes Grade 11" dataDxfId="1"/>
-    <tableColumn id="38" xr3:uid="{CB531B3F-8204-2644-91D3-88ACB4BFD0A7}" name="# Students who took AP classes Grade 12" dataDxfId="0"/>
+  <tableColumns count="53">
+    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="59"/>
+    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="44"/>
+    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="43"/>
+    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="40"/>
+    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="39"/>
+    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="38"/>
+    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="37"/>
+    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="36"/>
+    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="35"/>
+    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="34"/>
+    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="33"/>
+    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="31"/>
+    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="30"/>
+    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="29"/>
+    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="28"/>
+    <tableColumn id="35" xr3:uid="{62431BD2-7051-FC48-BD9B-525CBF545DDD}" name="# Students who took AP classes Grade 9" dataDxfId="27"/>
+    <tableColumn id="36" xr3:uid="{73C469BE-B611-0145-B886-AAA2CB70EAE8}" name="# Students who took AP classes Grade 10" dataDxfId="26"/>
+    <tableColumn id="37" xr3:uid="{CFE88FEF-98CA-654A-B3B8-05790EA4E553}" name="# Students who took AP classes Grade 11" dataDxfId="25"/>
+    <tableColumn id="38" xr3:uid="{CB531B3F-8204-2644-91D3-88ACB4BFD0A7}" name="# Students who took AP classes Grade 12" dataDxfId="24"/>
+    <tableColumn id="39" xr3:uid="{97ED4799-6B71-FF44-A7E9-0D6FEC826075}" name="# Students who took IB classes Grade 9" dataDxfId="23"/>
+    <tableColumn id="40" xr3:uid="{F30102B8-881A-CA42-88CE-89D1D66A2AFB}" name="# Students who took IB classes Grade 10" dataDxfId="22"/>
+    <tableColumn id="41" xr3:uid="{99E2E959-F950-414B-BBF3-82CF023E0766}" name="# Students who took IB classes Grade 11" dataDxfId="21"/>
+    <tableColumn id="42" xr3:uid="{E9437747-1EEE-D94C-8B2E-5EB4508C3746}" name="# Students who took IB classes Grade 12" dataDxfId="20"/>
+    <tableColumn id="43" xr3:uid="{3CBA554F-964A-B546-B1CB-F3FFBC958E43}" name="# Out-of-Field Teachers" dataDxfId="19"/>
+    <tableColumn id="44" xr3:uid="{C4CCD547-D042-A040-8E97-CD2FA1F749A9}" name="% Out-of-Field Teachers" dataDxfId="18"/>
+    <tableColumn id="45" xr3:uid="{DC129293-5D55-4C48-A979-6304ABE3CAB9}" name="% Teachers with Short-Term or Provisional License" dataDxfId="17"/>
+    <tableColumn id="46" xr3:uid="{69922C1F-B1F6-AA41-8916-728215E1A659}" name="% Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="16"/>
+    <tableColumn id="47" xr3:uid="{CB9F66DB-18B6-4A41-A560-2737C375BEAA}" name="% Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="15"/>
+    <tableColumn id="48" xr3:uid="{FA593E29-37FA-2F49-B1E2-8A20B24707C0}" name="# Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="14"/>
+    <tableColumn id="49" xr3:uid="{F17AD799-AAF2-CA4B-9052-79526ED68F55}" name="# Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="13"/>
+    <tableColumn id="50" xr3:uid="{95D43F71-6E78-7545-8A4C-AE8258AA92BA}" name="Teacher Attendance Rate" dataDxfId="12"/>
+    <tableColumn id="51" xr3:uid="{35904462-8ACF-104B-8595-F9EDDB9D005D}" name="Principal Turnover within 6 Years" dataDxfId="11"/>
+    <tableColumn id="52" xr3:uid="{37C54579-1382-4047-B32E-9B6DCF4C6D1A}" name="High School 4-Year Graduation Rate" dataDxfId="10"/>
+    <tableColumn id="53" xr3:uid="{76C7C142-3803-C743-ACB8-2AC253A56510}" name="High School 6-Year Graduation Rate" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H353" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A1:H353" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H468" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H468" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H323">
     <sortCondition ref="B1:B323"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{6FC8DE02-1AAB-8248-8E52-B299C7FFB44A}" name="Disaggregation Format"/>
-    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2440,11 +2814,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:BA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI23" sqref="AI23"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2484,9 +2858,21 @@
     <col min="34" max="34" width="41" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="42.5" bestFit="1" customWidth="1"/>
     <col min="36" max="38" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="61" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2601,8 +2987,53 @@
       <c r="AL1" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -2626,7 +3057,7 @@
         <v>53</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>48</v>
@@ -2646,12 +3077,20 @@
       <c r="Q2" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AS2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -2675,7 +3114,7 @@
         <v>53</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>48</v>
@@ -2695,12 +3134,20 @@
       <c r="Q3" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AS3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -2724,7 +3171,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>48</v>
@@ -2744,12 +3191,20 @@
       <c r="Q4" t="s">
         <v>83</v>
       </c>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AS4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -2773,7 +3228,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>48</v>
@@ -2793,12 +3248,20 @@
       <c r="Q5" t="s">
         <v>83</v>
       </c>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AS5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -2822,7 +3285,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>48</v>
@@ -2842,12 +3305,20 @@
       <c r="Q6" t="s">
         <v>83</v>
       </c>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AS6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2871,7 +3342,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>48</v>
@@ -2891,12 +3362,20 @@
       <c r="Q7" t="s">
         <v>84</v>
       </c>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AS7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -2920,7 +3399,7 @@
         <v>53</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>48</v>
@@ -2946,12 +3425,23 @@
       <c r="V8" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AS8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -2975,7 +3465,7 @@
         <v>53</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>48</v>
@@ -3004,12 +3494,23 @@
       <c r="V9" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AS9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -3033,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>48</v>
@@ -3074,18 +3575,38 @@
       <c r="AF10" t="s">
         <v>124</v>
       </c>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16" t="s">
+      <c r="AJ10" t="s">
         <v>153</v>
       </c>
-      <c r="AK10" s="16" t="s">
+      <c r="AK10" t="s">
         <v>159</v>
       </c>
-      <c r="AL10" s="16" t="s">
+      <c r="AL10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -3109,7 +3630,7 @@
         <v>53</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>48</v>
@@ -3150,18 +3671,38 @@
       <c r="AF11" t="s">
         <v>124</v>
       </c>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16" t="s">
+      <c r="AJ11" t="s">
         <v>153</v>
       </c>
-      <c r="AK11" s="16" t="s">
+      <c r="AK11" t="s">
         <v>159</v>
       </c>
-      <c r="AL11" s="16" t="s">
+      <c r="AL11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -3240,20 +3781,50 @@
       <c r="AF12" t="s">
         <v>128</v>
       </c>
-      <c r="AI12" s="16" t="s">
+      <c r="AI12" t="s">
         <v>149</v>
       </c>
-      <c r="AJ12" s="16" t="s">
+      <c r="AJ12" t="s">
         <v>155</v>
       </c>
-      <c r="AK12" s="16" t="s">
+      <c r="AK12" t="s">
         <v>161</v>
       </c>
-      <c r="AL12" s="16" t="s">
+      <c r="AL12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -3338,20 +3909,53 @@
       <c r="AF13" t="s">
         <v>119</v>
       </c>
-      <c r="AI13" s="16" t="s">
+      <c r="AI13" t="s">
         <v>151</v>
       </c>
-      <c r="AJ13" s="16" t="s">
+      <c r="AJ13" t="s">
         <v>157</v>
       </c>
-      <c r="AK13" s="16" t="s">
+      <c r="AK13" t="s">
         <v>163</v>
       </c>
-      <c r="AL13" s="16" t="s">
+      <c r="AL13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -3436,20 +4040,53 @@
       <c r="AF14" t="s">
         <v>119</v>
       </c>
-      <c r="AI14" s="16" t="s">
+      <c r="AI14" t="s">
         <v>151</v>
       </c>
-      <c r="AJ14" s="16" t="s">
+      <c r="AJ14" t="s">
         <v>157</v>
       </c>
-      <c r="AK14" s="16" t="s">
+      <c r="AK14" t="s">
         <v>163</v>
       </c>
-      <c r="AL14" s="16" t="s">
+      <c r="AL14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -3540,20 +4177,53 @@
       <c r="AH15" t="s">
         <v>147</v>
       </c>
-      <c r="AI15" s="16" t="s">
+      <c r="AI15" t="s">
         <v>151</v>
       </c>
-      <c r="AJ15" s="16" t="s">
+      <c r="AJ15" t="s">
         <v>157</v>
       </c>
-      <c r="AK15" s="16" t="s">
+      <c r="AK15" t="s">
         <v>163</v>
       </c>
-      <c r="AL15" s="16" t="s">
+      <c r="AL15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -3656,20 +4326,53 @@
       <c r="AH16" t="s">
         <v>147</v>
       </c>
-      <c r="AI16" s="16" t="s">
+      <c r="AI16" t="s">
         <v>151</v>
       </c>
-      <c r="AJ16" s="16" t="s">
+      <c r="AJ16" t="s">
         <v>157</v>
       </c>
-      <c r="AK16" s="16" t="s">
+      <c r="AK16" t="s">
         <v>163</v>
       </c>
-      <c r="AL16" s="16" t="s">
+      <c r="AL16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -3769,18 +4472,63 @@
       <c r="AH17" t="s">
         <v>147</v>
       </c>
-      <c r="AI17" s="16" t="s">
+      <c r="AI17" t="s">
         <v>151</v>
       </c>
-      <c r="AJ17" s="16" t="s">
+      <c r="AJ17" t="s">
         <v>157</v>
       </c>
-      <c r="AK17" s="16" t="s">
+      <c r="AK17" t="s">
         <v>163</v>
       </c>
-      <c r="AL17" s="16" t="s">
+      <c r="AL17" t="s">
         <v>169</v>
       </c>
+      <c r="AM17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AZ19" s="18"/>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AP26" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3794,12 +4542,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:H353"/>
+  <dimension ref="A1:H468"/>
   <sheetViews>
-    <sheetView topLeftCell="A320" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A436" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A162" sqref="A162"/>
-      <selection pane="topRight" activeCell="G351" sqref="G351"/>
+      <selection pane="topRight" activeCell="C446" sqref="C446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9737,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2021</v>
       </c>
@@ -9754,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -9771,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2023</v>
       </c>
@@ -9788,667 +10536,2725 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A324" s="16">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324">
         <v>2018</v>
       </c>
-      <c r="B324" s="17" t="s">
+      <c r="B324" t="s">
         <v>148</v>
       </c>
-      <c r="C324" s="16" t="s">
+      <c r="C324" t="s">
         <v>149</v>
       </c>
-      <c r="D324" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E324" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F324" s="16"/>
+      <c r="D324" t="s">
+        <v>34</v>
+      </c>
+      <c r="E324" t="b">
+        <v>1</v>
+      </c>
       <c r="G324" t="s">
         <v>150</v>
       </c>
-      <c r="H324" s="16"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A325" s="16">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325">
         <v>2019</v>
       </c>
-      <c r="B325" s="17" t="s">
+      <c r="B325" t="s">
         <v>148</v>
       </c>
-      <c r="C325" s="16" t="s">
+      <c r="C325" t="s">
         <v>151</v>
       </c>
-      <c r="D325" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E325" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F325" s="16"/>
+      <c r="D325" t="s">
+        <v>34</v>
+      </c>
+      <c r="E325" t="b">
+        <v>1</v>
+      </c>
       <c r="G325" t="s">
         <v>170</v>
       </c>
-      <c r="H325" s="16"/>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A326" s="16">
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326">
         <v>2020</v>
       </c>
-      <c r="B326" s="17" t="s">
+      <c r="B326" t="s">
         <v>148</v>
       </c>
-      <c r="C326" s="16" t="s">
+      <c r="C326" t="s">
         <v>151</v>
       </c>
-      <c r="D326" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E326" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F326" s="16"/>
+      <c r="D326" t="s">
+        <v>34</v>
+      </c>
+      <c r="E326" t="b">
+        <v>1</v>
+      </c>
       <c r="G326" t="s">
         <v>170</v>
       </c>
-      <c r="H326" s="16"/>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A327" s="16">
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327">
         <v>2021</v>
       </c>
-      <c r="B327" s="17" t="s">
+      <c r="B327" t="s">
         <v>148</v>
       </c>
-      <c r="C327" s="16" t="s">
+      <c r="C327" t="s">
         <v>151</v>
       </c>
-      <c r="D327" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E327" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F327" s="16"/>
+      <c r="D327" t="s">
+        <v>34</v>
+      </c>
+      <c r="E327" t="b">
+        <v>1</v>
+      </c>
       <c r="G327" t="s">
         <v>170</v>
       </c>
-      <c r="H327" s="16"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328" s="16">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328">
         <v>2022</v>
       </c>
-      <c r="B328" s="17" t="s">
+      <c r="B328" t="s">
         <v>148</v>
       </c>
-      <c r="C328" s="16" t="s">
+      <c r="C328" t="s">
         <v>151</v>
       </c>
-      <c r="D328" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E328" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F328" s="16"/>
+      <c r="D328" t="s">
+        <v>34</v>
+      </c>
+      <c r="E328" t="b">
+        <v>1</v>
+      </c>
       <c r="G328" t="s">
         <v>170</v>
       </c>
-      <c r="H328" s="16"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" s="16">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329">
         <v>2023</v>
       </c>
-      <c r="B329" s="17" t="s">
+      <c r="B329" t="s">
         <v>148</v>
       </c>
-      <c r="C329" s="16" t="s">
+      <c r="C329" t="s">
         <v>151</v>
       </c>
-      <c r="D329" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E329" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F329" s="16"/>
+      <c r="D329" t="s">
+        <v>34</v>
+      </c>
+      <c r="E329" t="b">
+        <v>1</v>
+      </c>
       <c r="G329" t="s">
         <v>170</v>
       </c>
-      <c r="H329" s="16"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A330" s="16">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330">
         <v>2016</v>
       </c>
-      <c r="B330" s="17" t="s">
+      <c r="B330" t="s">
         <v>152</v>
       </c>
-      <c r="C330" s="16" t="s">
+      <c r="C330" t="s">
         <v>153</v>
       </c>
-      <c r="D330" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E330" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F330" s="16"/>
+      <c r="D330" t="s">
+        <v>37</v>
+      </c>
+      <c r="E330" t="b">
+        <v>1</v>
+      </c>
       <c r="G330" t="s">
         <v>154</v>
       </c>
-      <c r="H330" s="16"/>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A331" s="16">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331">
         <v>2017</v>
       </c>
-      <c r="B331" s="17" t="s">
+      <c r="B331" t="s">
         <v>152</v>
       </c>
-      <c r="C331" s="16" t="s">
+      <c r="C331" t="s">
         <v>153</v>
       </c>
-      <c r="D331" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E331" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F331" s="16" t="b">
+      <c r="D331" t="s">
+        <v>37</v>
+      </c>
+      <c r="E331" t="b">
+        <v>1</v>
+      </c>
+      <c r="F331" t="b">
         <v>1</v>
       </c>
       <c r="G331" t="s">
         <v>154</v>
       </c>
-      <c r="H331" s="16"/>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A332" s="16">
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332">
         <v>2018</v>
       </c>
-      <c r="B332" s="17" t="s">
+      <c r="B332" t="s">
         <v>152</v>
       </c>
-      <c r="C332" s="16" t="s">
+      <c r="C332" t="s">
         <v>155</v>
       </c>
-      <c r="D332" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E332" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F332" s="16"/>
+      <c r="D332" t="s">
+        <v>34</v>
+      </c>
+      <c r="E332" t="b">
+        <v>1</v>
+      </c>
       <c r="G332" t="s">
         <v>156</v>
       </c>
-      <c r="H332" s="16"/>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A333" s="16">
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A333">
         <v>2019</v>
       </c>
-      <c r="B333" s="17" t="s">
+      <c r="B333" t="s">
         <v>152</v>
       </c>
-      <c r="C333" s="16" t="s">
+      <c r="C333" t="s">
         <v>157</v>
       </c>
-      <c r="D333" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E333" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F333" s="16"/>
+      <c r="D333" t="s">
+        <v>34</v>
+      </c>
+      <c r="E333" t="b">
+        <v>1</v>
+      </c>
       <c r="G333" t="s">
         <v>171</v>
       </c>
-      <c r="H333" s="16"/>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A334" s="16">
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334">
         <v>2020</v>
       </c>
-      <c r="B334" s="17" t="s">
+      <c r="B334" t="s">
         <v>152</v>
       </c>
-      <c r="C334" s="16" t="s">
+      <c r="C334" t="s">
         <v>157</v>
       </c>
-      <c r="D334" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E334" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F334" s="16"/>
+      <c r="D334" t="s">
+        <v>34</v>
+      </c>
+      <c r="E334" t="b">
+        <v>1</v>
+      </c>
       <c r="G334" t="s">
         <v>171</v>
       </c>
-      <c r="H334" s="16"/>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A335" s="16">
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A335">
         <v>2021</v>
       </c>
-      <c r="B335" s="17" t="s">
+      <c r="B335" t="s">
         <v>152</v>
       </c>
-      <c r="C335" s="16" t="s">
+      <c r="C335" t="s">
         <v>157</v>
       </c>
-      <c r="D335" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E335" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F335" s="16"/>
+      <c r="D335" t="s">
+        <v>34</v>
+      </c>
+      <c r="E335" t="b">
+        <v>1</v>
+      </c>
       <c r="G335" t="s">
         <v>171</v>
       </c>
-      <c r="H335" s="16"/>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" s="16">
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A336">
         <v>2022</v>
       </c>
-      <c r="B336" s="17" t="s">
+      <c r="B336" t="s">
         <v>152</v>
       </c>
-      <c r="C336" s="16" t="s">
+      <c r="C336" t="s">
         <v>157</v>
       </c>
-      <c r="D336" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E336" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F336" s="16"/>
+      <c r="D336" t="s">
+        <v>34</v>
+      </c>
+      <c r="E336" t="b">
+        <v>1</v>
+      </c>
       <c r="G336" t="s">
         <v>171</v>
       </c>
-      <c r="H336" s="16"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337" s="16">
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337">
         <v>2023</v>
       </c>
-      <c r="B337" s="17" t="s">
+      <c r="B337" t="s">
         <v>152</v>
       </c>
-      <c r="C337" s="16" t="s">
+      <c r="C337" t="s">
         <v>157</v>
       </c>
-      <c r="D337" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E337" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F337" s="16"/>
+      <c r="D337" t="s">
+        <v>34</v>
+      </c>
+      <c r="E337" t="b">
+        <v>1</v>
+      </c>
       <c r="G337" t="s">
         <v>171</v>
       </c>
-      <c r="H337" s="16"/>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" s="16">
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338">
         <v>2016</v>
       </c>
-      <c r="B338" s="17" t="s">
+      <c r="B338" t="s">
         <v>158</v>
       </c>
-      <c r="C338" s="16" t="s">
+      <c r="C338" t="s">
         <v>159</v>
       </c>
-      <c r="D338" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E338" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F338" s="16"/>
+      <c r="D338" t="s">
+        <v>37</v>
+      </c>
+      <c r="E338" t="b">
+        <v>1</v>
+      </c>
       <c r="G338" t="s">
         <v>160</v>
       </c>
-      <c r="H338" s="16"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" s="16">
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339">
         <v>2017</v>
       </c>
-      <c r="B339" s="17" t="s">
+      <c r="B339" t="s">
         <v>158</v>
       </c>
-      <c r="C339" s="16" t="s">
+      <c r="C339" t="s">
         <v>159</v>
       </c>
-      <c r="D339" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E339" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F339" s="16"/>
+      <c r="D339" t="s">
+        <v>37</v>
+      </c>
+      <c r="E339" t="b">
+        <v>1</v>
+      </c>
       <c r="G339" t="s">
         <v>160</v>
       </c>
-      <c r="H339" s="16"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="16">
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340">
         <v>2018</v>
       </c>
-      <c r="B340" s="17" t="s">
+      <c r="B340" t="s">
         <v>158</v>
       </c>
-      <c r="C340" s="16" t="s">
+      <c r="C340" t="s">
         <v>161</v>
       </c>
-      <c r="D340" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E340" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F340" s="16"/>
+      <c r="D340" t="s">
+        <v>34</v>
+      </c>
+      <c r="E340" t="b">
+        <v>1</v>
+      </c>
       <c r="G340" t="s">
         <v>162</v>
       </c>
-      <c r="H340" s="16"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="16">
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341">
         <v>2019</v>
       </c>
-      <c r="B341" s="17" t="s">
+      <c r="B341" t="s">
         <v>158</v>
       </c>
-      <c r="C341" s="16" t="s">
+      <c r="C341" t="s">
         <v>163</v>
       </c>
-      <c r="D341" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E341" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F341" s="16"/>
+      <c r="D341" t="s">
+        <v>34</v>
+      </c>
+      <c r="E341" t="b">
+        <v>1</v>
+      </c>
       <c r="G341" t="s">
         <v>172</v>
       </c>
-      <c r="H341" s="16"/>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" s="16">
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342">
         <v>2020</v>
       </c>
-      <c r="B342" s="17" t="s">
+      <c r="B342" t="s">
         <v>158</v>
       </c>
-      <c r="C342" s="16" t="s">
+      <c r="C342" t="s">
         <v>163</v>
       </c>
-      <c r="D342" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E342" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F342" s="16"/>
+      <c r="D342" t="s">
+        <v>34</v>
+      </c>
+      <c r="E342" t="b">
+        <v>1</v>
+      </c>
       <c r="G342" t="s">
         <v>172</v>
       </c>
-      <c r="H342" s="16"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A343" s="16">
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343">
         <v>2021</v>
       </c>
-      <c r="B343" s="17" t="s">
+      <c r="B343" t="s">
         <v>158</v>
       </c>
-      <c r="C343" s="16" t="s">
+      <c r="C343" t="s">
         <v>163</v>
       </c>
-      <c r="D343" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E343" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F343" s="16"/>
+      <c r="D343" t="s">
+        <v>34</v>
+      </c>
+      <c r="E343" t="b">
+        <v>1</v>
+      </c>
       <c r="G343" t="s">
         <v>172</v>
       </c>
-      <c r="H343" s="16"/>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A344" s="16">
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344">
         <v>2022</v>
       </c>
-      <c r="B344" s="17" t="s">
+      <c r="B344" t="s">
         <v>158</v>
       </c>
-      <c r="C344" s="16" t="s">
+      <c r="C344" t="s">
         <v>163</v>
       </c>
-      <c r="D344" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E344" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F344" s="16"/>
+      <c r="D344" t="s">
+        <v>34</v>
+      </c>
+      <c r="E344" t="b">
+        <v>1</v>
+      </c>
       <c r="G344" t="s">
         <v>172</v>
       </c>
-      <c r="H344" s="16"/>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A345" s="16">
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345">
         <v>2023</v>
       </c>
-      <c r="B345" s="17" t="s">
+      <c r="B345" t="s">
         <v>158</v>
       </c>
-      <c r="C345" s="16" t="s">
+      <c r="C345" t="s">
         <v>163</v>
       </c>
-      <c r="D345" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E345" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F345" s="16"/>
+      <c r="D345" t="s">
+        <v>34</v>
+      </c>
+      <c r="E345" t="b">
+        <v>1</v>
+      </c>
       <c r="G345" t="s">
         <v>172</v>
       </c>
-      <c r="H345" s="16"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" s="16">
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346">
         <v>2016</v>
       </c>
-      <c r="B346" s="17" t="s">
+      <c r="B346" t="s">
         <v>164</v>
       </c>
-      <c r="C346" s="16" t="s">
+      <c r="C346" t="s">
         <v>165</v>
       </c>
-      <c r="D346" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E346" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F346" s="16"/>
+      <c r="D346" t="s">
+        <v>37</v>
+      </c>
+      <c r="E346" t="b">
+        <v>1</v>
+      </c>
       <c r="G346" t="s">
         <v>166</v>
       </c>
-      <c r="H346" s="16"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" s="16">
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347">
         <v>2017</v>
       </c>
-      <c r="B347" s="17" t="s">
+      <c r="B347" t="s">
         <v>164</v>
       </c>
-      <c r="C347" s="16" t="s">
+      <c r="C347" t="s">
         <v>165</v>
       </c>
-      <c r="D347" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E347" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F347" s="16"/>
+      <c r="D347" t="s">
+        <v>37</v>
+      </c>
+      <c r="E347" t="b">
+        <v>1</v>
+      </c>
       <c r="G347" t="s">
         <v>166</v>
       </c>
-      <c r="H347" s="16"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" s="16">
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348">
         <v>2018</v>
       </c>
-      <c r="B348" s="17" t="s">
+      <c r="B348" t="s">
         <v>164</v>
       </c>
-      <c r="C348" s="16" t="s">
+      <c r="C348" t="s">
         <v>167</v>
       </c>
-      <c r="D348" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E348" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F348" s="16"/>
+      <c r="D348" t="s">
+        <v>34</v>
+      </c>
+      <c r="E348" t="b">
+        <v>1</v>
+      </c>
       <c r="G348" t="s">
         <v>168</v>
       </c>
-      <c r="H348" s="16"/>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349" s="16">
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349">
         <v>2019</v>
       </c>
-      <c r="B349" s="17" t="s">
+      <c r="B349" t="s">
         <v>164</v>
       </c>
-      <c r="C349" s="16" t="s">
+      <c r="C349" t="s">
         <v>169</v>
       </c>
-      <c r="D349" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E349" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F349" s="16"/>
+      <c r="D349" t="s">
+        <v>34</v>
+      </c>
+      <c r="E349" t="b">
+        <v>1</v>
+      </c>
       <c r="G349" t="s">
         <v>173</v>
       </c>
-      <c r="H349" s="16"/>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A350" s="16">
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350">
         <v>2020</v>
       </c>
-      <c r="B350" s="17" t="s">
+      <c r="B350" t="s">
         <v>164</v>
       </c>
-      <c r="C350" s="16" t="s">
+      <c r="C350" t="s">
         <v>169</v>
       </c>
-      <c r="D350" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E350" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F350" s="16"/>
+      <c r="D350" t="s">
+        <v>34</v>
+      </c>
+      <c r="E350" t="b">
+        <v>1</v>
+      </c>
       <c r="G350" t="s">
         <v>173</v>
       </c>
-      <c r="H350" s="16"/>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A351" s="16">
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351">
         <v>2021</v>
       </c>
-      <c r="B351" s="17" t="s">
+      <c r="B351" t="s">
         <v>164</v>
       </c>
-      <c r="C351" s="16" t="s">
+      <c r="C351" t="s">
         <v>169</v>
       </c>
-      <c r="D351" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E351" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F351" s="16"/>
+      <c r="D351" t="s">
+        <v>34</v>
+      </c>
+      <c r="E351" t="b">
+        <v>1</v>
+      </c>
       <c r="G351" t="s">
         <v>173</v>
       </c>
-      <c r="H351" s="16"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A352" s="16">
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352">
         <v>2022</v>
       </c>
-      <c r="B352" s="17" t="s">
+      <c r="B352" t="s">
         <v>164</v>
       </c>
-      <c r="C352" s="16" t="s">
+      <c r="C352" t="s">
         <v>169</v>
       </c>
-      <c r="D352" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E352" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F352" s="16"/>
+      <c r="D352" t="s">
+        <v>34</v>
+      </c>
+      <c r="E352" t="b">
+        <v>1</v>
+      </c>
       <c r="G352" t="s">
         <v>173</v>
       </c>
-      <c r="H352" s="16"/>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A353" s="16">
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353">
         <v>2023</v>
       </c>
-      <c r="B353" s="17" t="s">
+      <c r="B353" t="s">
         <v>164</v>
       </c>
-      <c r="C353" s="16" t="s">
+      <c r="C353" t="s">
         <v>169</v>
       </c>
-      <c r="D353" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E353" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F353" s="16"/>
+      <c r="D353" t="s">
+        <v>34</v>
+      </c>
+      <c r="E353" t="b">
+        <v>1</v>
+      </c>
       <c r="G353" t="s">
         <v>173</v>
       </c>
-      <c r="H353" s="16"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>2018</v>
+      </c>
+      <c r="B354" t="s">
+        <v>174</v>
+      </c>
+      <c r="C354" t="s">
+        <v>181</v>
+      </c>
+      <c r="D354" t="s">
+        <v>34</v>
+      </c>
+      <c r="E354" t="b">
+        <v>1</v>
+      </c>
+      <c r="G354" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>2019</v>
+      </c>
+      <c r="B355" t="s">
+        <v>174</v>
+      </c>
+      <c r="C355" t="s">
+        <v>185</v>
+      </c>
+      <c r="D355" t="s">
+        <v>34</v>
+      </c>
+      <c r="E355" t="b">
+        <v>1</v>
+      </c>
+      <c r="G355" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>2020</v>
+      </c>
+      <c r="B356" t="s">
+        <v>174</v>
+      </c>
+      <c r="C356" t="s">
+        <v>185</v>
+      </c>
+      <c r="D356" t="s">
+        <v>34</v>
+      </c>
+      <c r="E356" t="b">
+        <v>1</v>
+      </c>
+      <c r="G356" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>2021</v>
+      </c>
+      <c r="B357" t="s">
+        <v>174</v>
+      </c>
+      <c r="C357" t="s">
+        <v>185</v>
+      </c>
+      <c r="D357" t="s">
+        <v>34</v>
+      </c>
+      <c r="E357" t="b">
+        <v>1</v>
+      </c>
+      <c r="G357" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>2022</v>
+      </c>
+      <c r="B358" t="s">
+        <v>174</v>
+      </c>
+      <c r="C358" t="s">
+        <v>185</v>
+      </c>
+      <c r="D358" t="s">
+        <v>34</v>
+      </c>
+      <c r="E358" t="b">
+        <v>1</v>
+      </c>
+      <c r="G358" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>2023</v>
+      </c>
+      <c r="B359" t="s">
+        <v>174</v>
+      </c>
+      <c r="C359" t="s">
+        <v>185</v>
+      </c>
+      <c r="D359" t="s">
+        <v>34</v>
+      </c>
+      <c r="E359" t="b">
+        <v>1</v>
+      </c>
+      <c r="G359" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>2016</v>
+      </c>
+      <c r="B360" t="s">
+        <v>175</v>
+      </c>
+      <c r="C360" t="s">
+        <v>178</v>
+      </c>
+      <c r="D360" t="s">
+        <v>37</v>
+      </c>
+      <c r="E360" t="b">
+        <v>1</v>
+      </c>
+      <c r="G360" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>2017</v>
+      </c>
+      <c r="B361" t="s">
+        <v>175</v>
+      </c>
+      <c r="C361" t="s">
+        <v>178</v>
+      </c>
+      <c r="D361" t="s">
+        <v>37</v>
+      </c>
+      <c r="E361" t="b">
+        <v>1</v>
+      </c>
+      <c r="G361" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>2018</v>
+      </c>
+      <c r="B362" t="s">
+        <v>175</v>
+      </c>
+      <c r="C362" t="s">
+        <v>182</v>
+      </c>
+      <c r="D362" t="s">
+        <v>34</v>
+      </c>
+      <c r="E362" t="b">
+        <v>1</v>
+      </c>
+      <c r="G362" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>2019</v>
+      </c>
+      <c r="B363" t="s">
+        <v>175</v>
+      </c>
+      <c r="C363" t="s">
+        <v>186</v>
+      </c>
+      <c r="D363" t="s">
+        <v>34</v>
+      </c>
+      <c r="E363" t="b">
+        <v>1</v>
+      </c>
+      <c r="G363" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>2020</v>
+      </c>
+      <c r="B364" t="s">
+        <v>175</v>
+      </c>
+      <c r="C364" t="s">
+        <v>186</v>
+      </c>
+      <c r="D364" t="s">
+        <v>34</v>
+      </c>
+      <c r="E364" t="b">
+        <v>1</v>
+      </c>
+      <c r="G364" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>2021</v>
+      </c>
+      <c r="B365" t="s">
+        <v>175</v>
+      </c>
+      <c r="C365" t="s">
+        <v>186</v>
+      </c>
+      <c r="D365" t="s">
+        <v>34</v>
+      </c>
+      <c r="E365" t="b">
+        <v>1</v>
+      </c>
+      <c r="G365" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>2022</v>
+      </c>
+      <c r="B366" t="s">
+        <v>175</v>
+      </c>
+      <c r="C366" t="s">
+        <v>186</v>
+      </c>
+      <c r="D366" t="s">
+        <v>34</v>
+      </c>
+      <c r="E366" t="b">
+        <v>1</v>
+      </c>
+      <c r="G366" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>2023</v>
+      </c>
+      <c r="B367" t="s">
+        <v>175</v>
+      </c>
+      <c r="C367" t="s">
+        <v>186</v>
+      </c>
+      <c r="D367" t="s">
+        <v>34</v>
+      </c>
+      <c r="E367" t="b">
+        <v>1</v>
+      </c>
+      <c r="G367" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>2016</v>
+      </c>
+      <c r="B368" t="s">
+        <v>176</v>
+      </c>
+      <c r="C368" t="s">
+        <v>179</v>
+      </c>
+      <c r="D368" t="s">
+        <v>37</v>
+      </c>
+      <c r="E368" t="b">
+        <v>1</v>
+      </c>
+      <c r="G368" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>2017</v>
+      </c>
+      <c r="B369" t="s">
+        <v>176</v>
+      </c>
+      <c r="C369" t="s">
+        <v>179</v>
+      </c>
+      <c r="D369" t="s">
+        <v>37</v>
+      </c>
+      <c r="E369" t="b">
+        <v>1</v>
+      </c>
+      <c r="G369" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>2018</v>
+      </c>
+      <c r="B370" t="s">
+        <v>176</v>
+      </c>
+      <c r="C370" t="s">
+        <v>183</v>
+      </c>
+      <c r="D370" t="s">
+        <v>34</v>
+      </c>
+      <c r="E370" t="b">
+        <v>1</v>
+      </c>
+      <c r="G370" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>2019</v>
+      </c>
+      <c r="B371" t="s">
+        <v>176</v>
+      </c>
+      <c r="C371" t="s">
+        <v>187</v>
+      </c>
+      <c r="D371" t="s">
+        <v>34</v>
+      </c>
+      <c r="E371" t="b">
+        <v>1</v>
+      </c>
+      <c r="G371" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>2020</v>
+      </c>
+      <c r="B372" t="s">
+        <v>176</v>
+      </c>
+      <c r="C372" t="s">
+        <v>187</v>
+      </c>
+      <c r="D372" t="s">
+        <v>34</v>
+      </c>
+      <c r="E372" t="b">
+        <v>1</v>
+      </c>
+      <c r="G372" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>2021</v>
+      </c>
+      <c r="B373" t="s">
+        <v>176</v>
+      </c>
+      <c r="C373" t="s">
+        <v>187</v>
+      </c>
+      <c r="D373" t="s">
+        <v>34</v>
+      </c>
+      <c r="E373" t="b">
+        <v>1</v>
+      </c>
+      <c r="G373" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>2022</v>
+      </c>
+      <c r="B374" t="s">
+        <v>176</v>
+      </c>
+      <c r="C374" t="s">
+        <v>187</v>
+      </c>
+      <c r="D374" t="s">
+        <v>34</v>
+      </c>
+      <c r="E374" t="b">
+        <v>1</v>
+      </c>
+      <c r="G374" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>2023</v>
+      </c>
+      <c r="B375" t="s">
+        <v>176</v>
+      </c>
+      <c r="C375" t="s">
+        <v>187</v>
+      </c>
+      <c r="D375" t="s">
+        <v>34</v>
+      </c>
+      <c r="E375" t="b">
+        <v>1</v>
+      </c>
+      <c r="G375" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>2016</v>
+      </c>
+      <c r="B376" t="s">
+        <v>177</v>
+      </c>
+      <c r="C376" t="s">
+        <v>180</v>
+      </c>
+      <c r="D376" t="s">
+        <v>37</v>
+      </c>
+      <c r="E376" t="b">
+        <v>1</v>
+      </c>
+      <c r="G376" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>2017</v>
+      </c>
+      <c r="B377" t="s">
+        <v>177</v>
+      </c>
+      <c r="C377" t="s">
+        <v>180</v>
+      </c>
+      <c r="D377" t="s">
+        <v>37</v>
+      </c>
+      <c r="E377" t="b">
+        <v>1</v>
+      </c>
+      <c r="G377" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>2018</v>
+      </c>
+      <c r="B378" t="s">
+        <v>177</v>
+      </c>
+      <c r="C378" t="s">
+        <v>184</v>
+      </c>
+      <c r="D378" t="s">
+        <v>34</v>
+      </c>
+      <c r="E378" t="b">
+        <v>1</v>
+      </c>
+      <c r="G378" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>2019</v>
+      </c>
+      <c r="B379" t="s">
+        <v>177</v>
+      </c>
+      <c r="C379" t="s">
+        <v>188</v>
+      </c>
+      <c r="D379" t="s">
+        <v>34</v>
+      </c>
+      <c r="E379" t="b">
+        <v>1</v>
+      </c>
+      <c r="G379" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>2020</v>
+      </c>
+      <c r="B380" t="s">
+        <v>177</v>
+      </c>
+      <c r="C380" t="s">
+        <v>188</v>
+      </c>
+      <c r="D380" t="s">
+        <v>34</v>
+      </c>
+      <c r="E380" t="b">
+        <v>1</v>
+      </c>
+      <c r="G380" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>2021</v>
+      </c>
+      <c r="B381" t="s">
+        <v>177</v>
+      </c>
+      <c r="C381" t="s">
+        <v>188</v>
+      </c>
+      <c r="D381" t="s">
+        <v>34</v>
+      </c>
+      <c r="E381" t="b">
+        <v>1</v>
+      </c>
+      <c r="G381" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>2022</v>
+      </c>
+      <c r="B382" t="s">
+        <v>177</v>
+      </c>
+      <c r="C382" t="s">
+        <v>188</v>
+      </c>
+      <c r="D382" t="s">
+        <v>34</v>
+      </c>
+      <c r="E382" t="b">
+        <v>1</v>
+      </c>
+      <c r="G382" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>2023</v>
+      </c>
+      <c r="B383" t="s">
+        <v>177</v>
+      </c>
+      <c r="C383" t="s">
+        <v>188</v>
+      </c>
+      <c r="D383" t="s">
+        <v>34</v>
+      </c>
+      <c r="E383" t="b">
+        <v>1</v>
+      </c>
+      <c r="G383" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>2023</v>
+      </c>
+      <c r="B384" t="s">
+        <v>200</v>
+      </c>
+      <c r="C384" t="s">
+        <v>200</v>
+      </c>
+      <c r="D384" t="s">
+        <v>202</v>
+      </c>
+      <c r="E384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>2023</v>
+      </c>
+      <c r="B385" t="s">
+        <v>201</v>
+      </c>
+      <c r="C385" t="s">
+        <v>201</v>
+      </c>
+      <c r="D385" t="s">
+        <v>202</v>
+      </c>
+      <c r="E385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>2019</v>
+      </c>
+      <c r="B386" t="s">
+        <v>205</v>
+      </c>
+      <c r="C386" t="s">
+        <v>205</v>
+      </c>
+      <c r="D386" t="s">
+        <v>34</v>
+      </c>
+      <c r="E386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>2020</v>
+      </c>
+      <c r="B387" t="s">
+        <v>205</v>
+      </c>
+      <c r="C387" t="s">
+        <v>205</v>
+      </c>
+      <c r="D387" t="s">
+        <v>34</v>
+      </c>
+      <c r="E387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>2021</v>
+      </c>
+      <c r="B388" t="s">
+        <v>205</v>
+      </c>
+      <c r="C388" t="s">
+        <v>205</v>
+      </c>
+      <c r="D388" t="s">
+        <v>34</v>
+      </c>
+      <c r="E388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>2022</v>
+      </c>
+      <c r="B389" t="s">
+        <v>205</v>
+      </c>
+      <c r="C389" t="s">
+        <v>205</v>
+      </c>
+      <c r="D389" t="s">
+        <v>34</v>
+      </c>
+      <c r="E389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>2023</v>
+      </c>
+      <c r="B390" t="s">
+        <v>205</v>
+      </c>
+      <c r="C390" t="s">
+        <v>205</v>
+      </c>
+      <c r="D390" t="s">
+        <v>34</v>
+      </c>
+      <c r="E390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>2019</v>
+      </c>
+      <c r="B391" t="s">
+        <v>206</v>
+      </c>
+      <c r="C391" t="s">
+        <v>206</v>
+      </c>
+      <c r="D391" t="s">
+        <v>34</v>
+      </c>
+      <c r="E391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>2020</v>
+      </c>
+      <c r="B392" t="s">
+        <v>206</v>
+      </c>
+      <c r="C392" t="s">
+        <v>206</v>
+      </c>
+      <c r="D392" t="s">
+        <v>34</v>
+      </c>
+      <c r="E392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>2021</v>
+      </c>
+      <c r="B393" t="s">
+        <v>206</v>
+      </c>
+      <c r="C393" t="s">
+        <v>206</v>
+      </c>
+      <c r="D393" t="s">
+        <v>34</v>
+      </c>
+      <c r="E393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>2022</v>
+      </c>
+      <c r="B394" t="s">
+        <v>206</v>
+      </c>
+      <c r="C394" t="s">
+        <v>206</v>
+      </c>
+      <c r="D394" t="s">
+        <v>34</v>
+      </c>
+      <c r="E394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>2023</v>
+      </c>
+      <c r="B395" t="s">
+        <v>206</v>
+      </c>
+      <c r="C395" t="s">
+        <v>206</v>
+      </c>
+      <c r="D395" t="s">
+        <v>34</v>
+      </c>
+      <c r="E395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>2019</v>
+      </c>
+      <c r="B396" t="s">
+        <v>207</v>
+      </c>
+      <c r="C396" t="s">
+        <v>207</v>
+      </c>
+      <c r="D396" t="s">
+        <v>34</v>
+      </c>
+      <c r="E396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>2020</v>
+      </c>
+      <c r="B397" t="s">
+        <v>207</v>
+      </c>
+      <c r="C397" t="s">
+        <v>207</v>
+      </c>
+      <c r="D397" t="s">
+        <v>34</v>
+      </c>
+      <c r="E397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>2021</v>
+      </c>
+      <c r="B398" t="s">
+        <v>207</v>
+      </c>
+      <c r="C398" t="s">
+        <v>207</v>
+      </c>
+      <c r="D398" t="s">
+        <v>34</v>
+      </c>
+      <c r="E398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>2022</v>
+      </c>
+      <c r="B399" t="s">
+        <v>207</v>
+      </c>
+      <c r="C399" t="s">
+        <v>207</v>
+      </c>
+      <c r="D399" t="s">
+        <v>34</v>
+      </c>
+      <c r="E399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>2023</v>
+      </c>
+      <c r="B400" t="s">
+        <v>207</v>
+      </c>
+      <c r="C400" t="s">
+        <v>207</v>
+      </c>
+      <c r="D400" t="s">
+        <v>34</v>
+      </c>
+      <c r="E400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>2018</v>
+      </c>
+      <c r="B401" t="s">
+        <v>208</v>
+      </c>
+      <c r="C401" t="s">
+        <v>203</v>
+      </c>
+      <c r="D401" t="s">
+        <v>34</v>
+      </c>
+      <c r="E401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>2018</v>
+      </c>
+      <c r="B402" t="s">
+        <v>209</v>
+      </c>
+      <c r="C402" t="s">
+        <v>204</v>
+      </c>
+      <c r="D402" t="s">
+        <v>34</v>
+      </c>
+      <c r="E402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>2008</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
+      <c r="C403" t="s">
+        <v>210</v>
+      </c>
+      <c r="D403" t="s">
+        <v>37</v>
+      </c>
+      <c r="E403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>2009</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
+      <c r="C404" t="s">
+        <v>210</v>
+      </c>
+      <c r="D404" t="s">
+        <v>37</v>
+      </c>
+      <c r="E404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>2010</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
+      <c r="C405" t="s">
+        <v>210</v>
+      </c>
+      <c r="D405" t="s">
+        <v>37</v>
+      </c>
+      <c r="E405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>2011</v>
+      </c>
+      <c r="B406" t="s">
+        <v>205</v>
+      </c>
+      <c r="C406" t="s">
+        <v>210</v>
+      </c>
+      <c r="D406" t="s">
+        <v>37</v>
+      </c>
+      <c r="E406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>2012</v>
+      </c>
+      <c r="B407" t="s">
+        <v>205</v>
+      </c>
+      <c r="C407" t="s">
+        <v>210</v>
+      </c>
+      <c r="D407" t="s">
+        <v>37</v>
+      </c>
+      <c r="E407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>2013</v>
+      </c>
+      <c r="B408" t="s">
+        <v>205</v>
+      </c>
+      <c r="C408" t="s">
+        <v>213</v>
+      </c>
+      <c r="D408" t="s">
+        <v>37</v>
+      </c>
+      <c r="E408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>2014</v>
+      </c>
+      <c r="B409" t="s">
+        <v>205</v>
+      </c>
+      <c r="C409" t="s">
+        <v>210</v>
+      </c>
+      <c r="D409" t="s">
+        <v>37</v>
+      </c>
+      <c r="E409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>2015</v>
+      </c>
+      <c r="B410" t="s">
+        <v>205</v>
+      </c>
+      <c r="C410" t="s">
+        <v>210</v>
+      </c>
+      <c r="D410" t="s">
+        <v>37</v>
+      </c>
+      <c r="E410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>2008</v>
+      </c>
+      <c r="B411" t="s">
+        <v>207</v>
+      </c>
+      <c r="C411" t="s">
+        <v>212</v>
+      </c>
+      <c r="D411" t="s">
+        <v>37</v>
+      </c>
+      <c r="E411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>2009</v>
+      </c>
+      <c r="B412" t="s">
+        <v>207</v>
+      </c>
+      <c r="C412" t="s">
+        <v>212</v>
+      </c>
+      <c r="D412" t="s">
+        <v>37</v>
+      </c>
+      <c r="E412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>2010</v>
+      </c>
+      <c r="B413" t="s">
+        <v>207</v>
+      </c>
+      <c r="C413" t="s">
+        <v>212</v>
+      </c>
+      <c r="D413" t="s">
+        <v>37</v>
+      </c>
+      <c r="E413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>2011</v>
+      </c>
+      <c r="B414" t="s">
+        <v>207</v>
+      </c>
+      <c r="C414" t="s">
+        <v>212</v>
+      </c>
+      <c r="D414" t="s">
+        <v>37</v>
+      </c>
+      <c r="E414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>2012</v>
+      </c>
+      <c r="B415" t="s">
+        <v>207</v>
+      </c>
+      <c r="C415" t="s">
+        <v>212</v>
+      </c>
+      <c r="D415" t="s">
+        <v>37</v>
+      </c>
+      <c r="E415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>2013</v>
+      </c>
+      <c r="B416" t="s">
+        <v>207</v>
+      </c>
+      <c r="C416" t="s">
+        <v>215</v>
+      </c>
+      <c r="D416" t="s">
+        <v>37</v>
+      </c>
+      <c r="E416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>2014</v>
+      </c>
+      <c r="B417" t="s">
+        <v>207</v>
+      </c>
+      <c r="C417" t="s">
+        <v>212</v>
+      </c>
+      <c r="D417" t="s">
+        <v>37</v>
+      </c>
+      <c r="E417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>2015</v>
+      </c>
+      <c r="B418" t="s">
+        <v>207</v>
+      </c>
+      <c r="C418" t="s">
+        <v>212</v>
+      </c>
+      <c r="D418" t="s">
+        <v>37</v>
+      </c>
+      <c r="E418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>2008</v>
+      </c>
+      <c r="B419" t="s">
+        <v>206</v>
+      </c>
+      <c r="C419" t="s">
+        <v>211</v>
+      </c>
+      <c r="D419" t="s">
+        <v>37</v>
+      </c>
+      <c r="E419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>2009</v>
+      </c>
+      <c r="B420" t="s">
+        <v>206</v>
+      </c>
+      <c r="C420" t="s">
+        <v>211</v>
+      </c>
+      <c r="D420" t="s">
+        <v>37</v>
+      </c>
+      <c r="E420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>2010</v>
+      </c>
+      <c r="B421" t="s">
+        <v>206</v>
+      </c>
+      <c r="C421" t="s">
+        <v>211</v>
+      </c>
+      <c r="D421" t="s">
+        <v>37</v>
+      </c>
+      <c r="E421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>2011</v>
+      </c>
+      <c r="B422" t="s">
+        <v>206</v>
+      </c>
+      <c r="C422" t="s">
+        <v>211</v>
+      </c>
+      <c r="D422" t="s">
+        <v>37</v>
+      </c>
+      <c r="E422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>2012</v>
+      </c>
+      <c r="B423" t="s">
+        <v>206</v>
+      </c>
+      <c r="C423" t="s">
+        <v>211</v>
+      </c>
+      <c r="D423" t="s">
+        <v>37</v>
+      </c>
+      <c r="E423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>2013</v>
+      </c>
+      <c r="B424" t="s">
+        <v>206</v>
+      </c>
+      <c r="C424" t="s">
+        <v>214</v>
+      </c>
+      <c r="D424" t="s">
+        <v>37</v>
+      </c>
+      <c r="E424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>2014</v>
+      </c>
+      <c r="B425" t="s">
+        <v>206</v>
+      </c>
+      <c r="C425" t="s">
+        <v>211</v>
+      </c>
+      <c r="D425" t="s">
+        <v>37</v>
+      </c>
+      <c r="E425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>2015</v>
+      </c>
+      <c r="B426" t="s">
+        <v>206</v>
+      </c>
+      <c r="C426" t="s">
+        <v>211</v>
+      </c>
+      <c r="D426" t="s">
+        <v>37</v>
+      </c>
+      <c r="E426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>2016</v>
+      </c>
+      <c r="B427" t="s">
+        <v>218</v>
+      </c>
+      <c r="C427" t="s">
+        <v>216</v>
+      </c>
+      <c r="D427" t="s">
+        <v>37</v>
+      </c>
+      <c r="E427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>2017</v>
+      </c>
+      <c r="B428" t="s">
+        <v>218</v>
+      </c>
+      <c r="C428" t="s">
+        <v>216</v>
+      </c>
+      <c r="D428" t="s">
+        <v>37</v>
+      </c>
+      <c r="E428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>2018</v>
+      </c>
+      <c r="B429" t="s">
+        <v>218</v>
+      </c>
+      <c r="C429" t="s">
+        <v>217</v>
+      </c>
+      <c r="D429" t="s">
+        <v>34</v>
+      </c>
+      <c r="E429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>2019</v>
+      </c>
+      <c r="B430" t="s">
+        <v>218</v>
+      </c>
+      <c r="C430" t="s">
+        <v>217</v>
+      </c>
+      <c r="D430" t="s">
+        <v>34</v>
+      </c>
+      <c r="E430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>2020</v>
+      </c>
+      <c r="B431" t="s">
+        <v>218</v>
+      </c>
+      <c r="C431" t="s">
+        <v>217</v>
+      </c>
+      <c r="D431" t="s">
+        <v>34</v>
+      </c>
+      <c r="E431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>2021</v>
+      </c>
+      <c r="B432" t="s">
+        <v>218</v>
+      </c>
+      <c r="C432" t="s">
+        <v>217</v>
+      </c>
+      <c r="D432" t="s">
+        <v>34</v>
+      </c>
+      <c r="E432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>2022</v>
+      </c>
+      <c r="B433" t="s">
+        <v>218</v>
+      </c>
+      <c r="C433" t="s">
+        <v>217</v>
+      </c>
+      <c r="D433" t="s">
+        <v>34</v>
+      </c>
+      <c r="E433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>2023</v>
+      </c>
+      <c r="B434" t="s">
+        <v>218</v>
+      </c>
+      <c r="C434" t="s">
+        <v>217</v>
+      </c>
+      <c r="D434" t="s">
+        <v>34</v>
+      </c>
+      <c r="E434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>2014</v>
+      </c>
+      <c r="B435" t="s">
+        <v>220</v>
+      </c>
+      <c r="C435" t="s">
+        <v>219</v>
+      </c>
+      <c r="D435" t="s">
+        <v>37</v>
+      </c>
+      <c r="E435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>2015</v>
+      </c>
+      <c r="B436" t="s">
+        <v>220</v>
+      </c>
+      <c r="C436" t="s">
+        <v>219</v>
+      </c>
+      <c r="D436" t="s">
+        <v>37</v>
+      </c>
+      <c r="E436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>2016</v>
+      </c>
+      <c r="B437" t="s">
+        <v>220</v>
+      </c>
+      <c r="C437" t="s">
+        <v>219</v>
+      </c>
+      <c r="D437" t="s">
+        <v>37</v>
+      </c>
+      <c r="E437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>2017</v>
+      </c>
+      <c r="B438" t="s">
+        <v>220</v>
+      </c>
+      <c r="C438" t="s">
+        <v>219</v>
+      </c>
+      <c r="D438" t="s">
+        <v>37</v>
+      </c>
+      <c r="E438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>2018</v>
+      </c>
+      <c r="B439" t="s">
+        <v>220</v>
+      </c>
+      <c r="C439" t="s">
+        <v>220</v>
+      </c>
+      <c r="D439" t="s">
+        <v>34</v>
+      </c>
+      <c r="E439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>2019</v>
+      </c>
+      <c r="B440" t="s">
+        <v>220</v>
+      </c>
+      <c r="C440" t="s">
+        <v>220</v>
+      </c>
+      <c r="D440" t="s">
+        <v>34</v>
+      </c>
+      <c r="E440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>2020</v>
+      </c>
+      <c r="B441" t="s">
+        <v>220</v>
+      </c>
+      <c r="C441" t="s">
+        <v>220</v>
+      </c>
+      <c r="D441" t="s">
+        <v>34</v>
+      </c>
+      <c r="E441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>2021</v>
+      </c>
+      <c r="B442" t="s">
+        <v>220</v>
+      </c>
+      <c r="C442" t="s">
+        <v>220</v>
+      </c>
+      <c r="D442" t="s">
+        <v>34</v>
+      </c>
+      <c r="E442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>2022</v>
+      </c>
+      <c r="B443" t="s">
+        <v>220</v>
+      </c>
+      <c r="C443" t="s">
+        <v>220</v>
+      </c>
+      <c r="D443" t="s">
+        <v>34</v>
+      </c>
+      <c r="E443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>2023</v>
+      </c>
+      <c r="B444" t="s">
+        <v>220</v>
+      </c>
+      <c r="C444" t="s">
+        <v>220</v>
+      </c>
+      <c r="D444" t="s">
+        <v>34</v>
+      </c>
+      <c r="E444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>2008</v>
+      </c>
+      <c r="B445" t="s">
+        <v>228</v>
+      </c>
+      <c r="C445" t="s">
+        <v>221</v>
+      </c>
+      <c r="D445" t="s">
+        <v>37</v>
+      </c>
+      <c r="E445" t="b">
+        <v>1</v>
+      </c>
+      <c r="G445" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>2009</v>
+      </c>
+      <c r="B446" t="s">
+        <v>228</v>
+      </c>
+      <c r="C446" t="s">
+        <v>221</v>
+      </c>
+      <c r="D446" t="s">
+        <v>37</v>
+      </c>
+      <c r="E446" t="b">
+        <v>1</v>
+      </c>
+      <c r="G446" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>2010</v>
+      </c>
+      <c r="B447" t="s">
+        <v>228</v>
+      </c>
+      <c r="C447" t="s">
+        <v>221</v>
+      </c>
+      <c r="D447" t="s">
+        <v>37</v>
+      </c>
+      <c r="E447" t="b">
+        <v>1</v>
+      </c>
+      <c r="G447" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>2011</v>
+      </c>
+      <c r="B448" t="s">
+        <v>228</v>
+      </c>
+      <c r="C448" t="s">
+        <v>221</v>
+      </c>
+      <c r="D448" t="s">
+        <v>37</v>
+      </c>
+      <c r="E448" t="b">
+        <v>1</v>
+      </c>
+      <c r="G448" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>2012</v>
+      </c>
+      <c r="B449" t="s">
+        <v>228</v>
+      </c>
+      <c r="C449" t="s">
+        <v>223</v>
+      </c>
+      <c r="D449" t="s">
+        <v>37</v>
+      </c>
+      <c r="E449" t="b">
+        <v>1</v>
+      </c>
+      <c r="G449" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>2013</v>
+      </c>
+      <c r="B450" t="s">
+        <v>228</v>
+      </c>
+      <c r="C450" t="s">
+        <v>223</v>
+      </c>
+      <c r="D450" t="s">
+        <v>37</v>
+      </c>
+      <c r="E450" t="b">
+        <v>1</v>
+      </c>
+      <c r="G450" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>2014</v>
+      </c>
+      <c r="B451" t="s">
+        <v>228</v>
+      </c>
+      <c r="C451" t="s">
+        <v>223</v>
+      </c>
+      <c r="D451" t="s">
+        <v>37</v>
+      </c>
+      <c r="E451" t="b">
+        <v>1</v>
+      </c>
+      <c r="G451" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>2015</v>
+      </c>
+      <c r="B452" t="s">
+        <v>228</v>
+      </c>
+      <c r="C452" t="s">
+        <v>223</v>
+      </c>
+      <c r="D452" t="s">
+        <v>37</v>
+      </c>
+      <c r="E452" t="b">
+        <v>1</v>
+      </c>
+      <c r="G452" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>2016</v>
+      </c>
+      <c r="B453" t="s">
+        <v>228</v>
+      </c>
+      <c r="C453" t="s">
+        <v>223</v>
+      </c>
+      <c r="D453" t="s">
+        <v>37</v>
+      </c>
+      <c r="E453" t="b">
+        <v>1</v>
+      </c>
+      <c r="G453" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>2017</v>
+      </c>
+      <c r="B454" t="s">
+        <v>228</v>
+      </c>
+      <c r="C454" t="s">
+        <v>223</v>
+      </c>
+      <c r="D454" t="s">
+        <v>37</v>
+      </c>
+      <c r="E454" t="b">
+        <v>1</v>
+      </c>
+      <c r="G454" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>2018</v>
+      </c>
+      <c r="B455" t="s">
+        <v>228</v>
+      </c>
+      <c r="C455" t="s">
+        <v>225</v>
+      </c>
+      <c r="D455" t="s">
+        <v>34</v>
+      </c>
+      <c r="E455" t="b">
+        <v>1</v>
+      </c>
+      <c r="G455" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>2019</v>
+      </c>
+      <c r="B456" t="s">
+        <v>228</v>
+      </c>
+      <c r="C456" t="s">
+        <v>225</v>
+      </c>
+      <c r="D456" t="s">
+        <v>34</v>
+      </c>
+      <c r="E456" t="b">
+        <v>1</v>
+      </c>
+      <c r="G456" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>2020</v>
+      </c>
+      <c r="B457" t="s">
+        <v>228</v>
+      </c>
+      <c r="C457" t="s">
+        <v>225</v>
+      </c>
+      <c r="D457" t="s">
+        <v>34</v>
+      </c>
+      <c r="E457" t="b">
+        <v>1</v>
+      </c>
+      <c r="G457" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>2021</v>
+      </c>
+      <c r="B458" t="s">
+        <v>228</v>
+      </c>
+      <c r="C458" t="s">
+        <v>225</v>
+      </c>
+      <c r="D458" t="s">
+        <v>34</v>
+      </c>
+      <c r="E458" t="b">
+        <v>1</v>
+      </c>
+      <c r="G458" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>2022</v>
+      </c>
+      <c r="B459" t="s">
+        <v>228</v>
+      </c>
+      <c r="C459" t="s">
+        <v>225</v>
+      </c>
+      <c r="D459" t="s">
+        <v>34</v>
+      </c>
+      <c r="E459" t="b">
+        <v>1</v>
+      </c>
+      <c r="G459" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>2023</v>
+      </c>
+      <c r="B460" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C460" t="s">
+        <v>225</v>
+      </c>
+      <c r="D460" t="s">
+        <v>34</v>
+      </c>
+      <c r="E460" t="b">
+        <v>1</v>
+      </c>
+      <c r="G460" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>2016</v>
+      </c>
+      <c r="B461" t="s">
+        <v>227</v>
+      </c>
+      <c r="C461" t="s">
+        <v>224</v>
+      </c>
+      <c r="D461" t="s">
+        <v>37</v>
+      </c>
+      <c r="E461" t="b">
+        <v>1</v>
+      </c>
+      <c r="G461" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>2017</v>
+      </c>
+      <c r="B462" t="s">
+        <v>227</v>
+      </c>
+      <c r="C462" t="s">
+        <v>224</v>
+      </c>
+      <c r="D462" t="s">
+        <v>37</v>
+      </c>
+      <c r="E462" t="b">
+        <v>1</v>
+      </c>
+      <c r="G462" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>2018</v>
+      </c>
+      <c r="B463" t="s">
+        <v>227</v>
+      </c>
+      <c r="C463" t="s">
+        <v>226</v>
+      </c>
+      <c r="D463" t="s">
+        <v>34</v>
+      </c>
+      <c r="E463" t="b">
+        <v>1</v>
+      </c>
+      <c r="G463" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>2019</v>
+      </c>
+      <c r="B464" t="s">
+        <v>227</v>
+      </c>
+      <c r="C464" t="s">
+        <v>226</v>
+      </c>
+      <c r="D464" t="s">
+        <v>34</v>
+      </c>
+      <c r="E464" t="b">
+        <v>1</v>
+      </c>
+      <c r="G464" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>2020</v>
+      </c>
+      <c r="B465" t="s">
+        <v>227</v>
+      </c>
+      <c r="C465" t="s">
+        <v>226</v>
+      </c>
+      <c r="D465" t="s">
+        <v>34</v>
+      </c>
+      <c r="E465" t="b">
+        <v>1</v>
+      </c>
+      <c r="G465" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>2021</v>
+      </c>
+      <c r="B466" t="s">
+        <v>227</v>
+      </c>
+      <c r="C466" t="s">
+        <v>226</v>
+      </c>
+      <c r="D466" t="s">
+        <v>34</v>
+      </c>
+      <c r="E466" t="b">
+        <v>1</v>
+      </c>
+      <c r="G466" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>2022</v>
+      </c>
+      <c r="B467" t="s">
+        <v>227</v>
+      </c>
+      <c r="C467" t="s">
+        <v>226</v>
+      </c>
+      <c r="D467" t="s">
+        <v>34</v>
+      </c>
+      <c r="E467" t="b">
+        <v>1</v>
+      </c>
+      <c r="G467" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>2023</v>
+      </c>
+      <c r="B468" t="s">
+        <v>227</v>
+      </c>
+      <c r="C468" t="s">
+        <v>226</v>
+      </c>
+      <c r="D468" t="s">
+        <v>34</v>
+      </c>
+      <c r="E468" t="b">
+        <v>1</v>
+      </c>
+      <c r="G468" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10460,17 +13266,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B598B773ED9FC644B8B740EB3205C8DA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6cfe95817d5870f6c066b2c32ab5fb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xmlns:ns3="d5cc9fc5-cf59-440a-a506-890d57680064" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a231614a4bf4996e6f4146316e2aaf8" ns2:_="" ns3:_="">
     <xsd:import namespace="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
@@ -10733,7 +13528,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10742,24 +13537,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
-    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B298AB6-2F6D-497E-AD9E-0F97ABEC8463}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10778,10 +13567,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F81D6B3B-0887-0246-9B8F-C93A20194320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D43A490-C16F-CE42-B7A0-3CDA643084BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="256">
   <si>
     <t>Year</t>
   </si>
@@ -1303,6 +1303,72 @@
   </si>
   <si>
     <t>COUNTY</t>
+  </si>
+  <si>
+    <t># of GRADE 10 STUDENTS TOOK ONE OR MORE AP EXAMS (SCHOOL)</t>
+  </si>
+  <si>
+    <t># of GRADE 10 STUDENTS PASSED ONE OR MORE AP EXAMS (SCHOOL)</t>
+  </si>
+  <si>
+    <t># of GRADE 11 STUDENTS TOOK ONE OR MORE AP EXAMS (SCHOOL)</t>
+  </si>
+  <si>
+    <t># of GRADE 11 STUDENTS PASSED ONE OR MORE AP EXAMS (SCHOOL)</t>
+  </si>
+  <si>
+    <t># of GRADE 12 STUDENTS TOOK ONE OR MORE AP EXAMS (SCHOOL)</t>
+  </si>
+  <si>
+    <t># of GRADE 12 STUDENTS PASSED ONE OR MORE AP EXAMS (SCHOOL)</t>
+  </si>
+  <si>
+    <t>Number of students who took one ore more AP Exams Grade 10</t>
+  </si>
+  <si>
+    <t>Number of students who passed one ore more AP Exams Grade 10</t>
+  </si>
+  <si>
+    <t>Number of students who took one ore more AP Exams Grade 11</t>
+  </si>
+  <si>
+    <t>Number of students who passed one ore more AP Exams Grade 11</t>
+  </si>
+  <si>
+    <t>Number of students who took one ore more AP Exams Grade 12</t>
+  </si>
+  <si>
+    <t>Number of students who passed one ore more AP Exams Grade 12</t>
+  </si>
+  <si>
+    <t>Number of students who took one ore more AP Exams Grade 9</t>
+  </si>
+  <si>
+    <t>Number of students who passed one ore more AP Exams Grade 9</t>
+  </si>
+  <si>
+    <t>Number of students who took one or more AP Exams Grade 9</t>
+  </si>
+  <si>
+    <t>Number of students who passed one or more AP Exams Grade 9</t>
+  </si>
+  <si>
+    <t>Number of students who passed one or more AP Exams Grade 10</t>
+  </si>
+  <si>
+    <t>Number of students who passed one or more AP Exams Grade 11</t>
+  </si>
+  <si>
+    <t>Number of students who took one or more AP Exams Grade 10</t>
+  </si>
+  <si>
+    <t>Number of students who took one or more AP Exams Grade 11</t>
+  </si>
+  <si>
+    <t>Number of students who took one or more AP Exams Grade 12</t>
+  </si>
+  <si>
+    <t>Number of students who passed one or more AP Exams Grade 12</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1500,11 +1566,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="71">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1556,6 +1624,64 @@
           <color theme="4" tint="0.39997558519241921"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2100,73 +2226,89 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:BA17" totalsRowShown="0" dataDxfId="62">
-  <autoFilter ref="A1:BA17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:BI17" totalsRowShown="0" dataDxfId="70">
+  <autoFilter ref="A1:BI17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
     <sortCondition ref="A1:A17"/>
   </sortState>
-  <tableColumns count="53">
-    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="59"/>
-    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="58"/>
-    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="44"/>
-    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="43"/>
-    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="42"/>
-    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="41"/>
-    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="40"/>
-    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="39"/>
-    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="38"/>
-    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="37"/>
-    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="36"/>
-    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="35"/>
-    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="34"/>
-    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="33"/>
-    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="32"/>
-    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="31"/>
-    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="30"/>
-    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="29"/>
-    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="28"/>
-    <tableColumn id="35" xr3:uid="{62431BD2-7051-FC48-BD9B-525CBF545DDD}" name="# Students who took AP classes Grade 9" dataDxfId="27"/>
-    <tableColumn id="36" xr3:uid="{73C469BE-B611-0145-B886-AAA2CB70EAE8}" name="# Students who took AP classes Grade 10" dataDxfId="26"/>
-    <tableColumn id="37" xr3:uid="{CFE88FEF-98CA-654A-B3B8-05790EA4E553}" name="# Students who took AP classes Grade 11" dataDxfId="25"/>
-    <tableColumn id="38" xr3:uid="{CB531B3F-8204-2644-91D3-88ACB4BFD0A7}" name="# Students who took AP classes Grade 12" dataDxfId="24"/>
-    <tableColumn id="39" xr3:uid="{97ED4799-6B71-FF44-A7E9-0D6FEC826075}" name="# Students who took IB classes Grade 9" dataDxfId="23"/>
-    <tableColumn id="40" xr3:uid="{F30102B8-881A-CA42-88CE-89D1D66A2AFB}" name="# Students who took IB classes Grade 10" dataDxfId="22"/>
-    <tableColumn id="41" xr3:uid="{99E2E959-F950-414B-BBF3-82CF023E0766}" name="# Students who took IB classes Grade 11" dataDxfId="21"/>
-    <tableColumn id="42" xr3:uid="{E9437747-1EEE-D94C-8B2E-5EB4508C3746}" name="# Students who took IB classes Grade 12" dataDxfId="20"/>
-    <tableColumn id="43" xr3:uid="{3CBA554F-964A-B546-B1CB-F3FFBC958E43}" name="# Out-of-Field Teachers" dataDxfId="19"/>
-    <tableColumn id="44" xr3:uid="{C4CCD547-D042-A040-8E97-CD2FA1F749A9}" name="% Out-of-Field Teachers" dataDxfId="18"/>
-    <tableColumn id="45" xr3:uid="{DC129293-5D55-4C48-A979-6304ABE3CAB9}" name="% Teachers with Short-Term or Provisional License" dataDxfId="17"/>
-    <tableColumn id="46" xr3:uid="{69922C1F-B1F6-AA41-8916-728215E1A659}" name="% Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="16"/>
-    <tableColumn id="47" xr3:uid="{CB9F66DB-18B6-4A41-A560-2737C375BEAA}" name="% Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="15"/>
-    <tableColumn id="48" xr3:uid="{FA593E29-37FA-2F49-B1E2-8A20B24707C0}" name="# Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="14"/>
-    <tableColumn id="49" xr3:uid="{F17AD799-AAF2-CA4B-9052-79526ED68F55}" name="# Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="13"/>
-    <tableColumn id="50" xr3:uid="{95D43F71-6E78-7545-8A4C-AE8258AA92BA}" name="Teacher Attendance Rate" dataDxfId="12"/>
-    <tableColumn id="51" xr3:uid="{35904462-8ACF-104B-8595-F9EDDB9D005D}" name="Principal Turnover within 6 Years" dataDxfId="11"/>
-    <tableColumn id="52" xr3:uid="{37C54579-1382-4047-B32E-9B6DCF4C6D1A}" name="High School 4-Year Graduation Rate" dataDxfId="10"/>
-    <tableColumn id="53" xr3:uid="{76C7C142-3803-C743-ACB8-2AC253A56510}" name="High School 6-Year Graduation Rate" dataDxfId="9"/>
+  <tableColumns count="61">
+    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="62"/>
+    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="56"/>
+    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="55"/>
+    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="53"/>
+    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="52"/>
+    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="51"/>
+    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="50"/>
+    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="49"/>
+    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="48"/>
+    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="47"/>
+    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="46"/>
+    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="45"/>
+    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="44"/>
+    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="43"/>
+    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="42"/>
+    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="41"/>
+    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="40"/>
+    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="39"/>
+    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="38"/>
+    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="37"/>
+    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="36"/>
+    <tableColumn id="35" xr3:uid="{62431BD2-7051-FC48-BD9B-525CBF545DDD}" name="# Students who took AP classes Grade 9" dataDxfId="35"/>
+    <tableColumn id="36" xr3:uid="{73C469BE-B611-0145-B886-AAA2CB70EAE8}" name="# Students who took AP classes Grade 10" dataDxfId="34"/>
+    <tableColumn id="37" xr3:uid="{CFE88FEF-98CA-654A-B3B8-05790EA4E553}" name="# Students who took AP classes Grade 11" dataDxfId="33"/>
+    <tableColumn id="38" xr3:uid="{CB531B3F-8204-2644-91D3-88ACB4BFD0A7}" name="# Students who took AP classes Grade 12" dataDxfId="32"/>
+    <tableColumn id="39" xr3:uid="{97ED4799-6B71-FF44-A7E9-0D6FEC826075}" name="# Students who took IB classes Grade 9" dataDxfId="31"/>
+    <tableColumn id="40" xr3:uid="{F30102B8-881A-CA42-88CE-89D1D66A2AFB}" name="# Students who took IB classes Grade 10" dataDxfId="30"/>
+    <tableColumn id="41" xr3:uid="{99E2E959-F950-414B-BBF3-82CF023E0766}" name="# Students who took IB classes Grade 11" dataDxfId="29"/>
+    <tableColumn id="42" xr3:uid="{E9437747-1EEE-D94C-8B2E-5EB4508C3746}" name="# Students who took IB classes Grade 12" dataDxfId="28"/>
+    <tableColumn id="43" xr3:uid="{3CBA554F-964A-B546-B1CB-F3FFBC958E43}" name="# Out-of-Field Teachers" dataDxfId="27"/>
+    <tableColumn id="44" xr3:uid="{C4CCD547-D042-A040-8E97-CD2FA1F749A9}" name="% Out-of-Field Teachers" dataDxfId="26"/>
+    <tableColumn id="45" xr3:uid="{DC129293-5D55-4C48-A979-6304ABE3CAB9}" name="% Teachers with Short-Term or Provisional License" dataDxfId="25"/>
+    <tableColumn id="46" xr3:uid="{69922C1F-B1F6-AA41-8916-728215E1A659}" name="% Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="24"/>
+    <tableColumn id="47" xr3:uid="{CB9F66DB-18B6-4A41-A560-2737C375BEAA}" name="% Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="23"/>
+    <tableColumn id="48" xr3:uid="{FA593E29-37FA-2F49-B1E2-8A20B24707C0}" name="# Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="22"/>
+    <tableColumn id="49" xr3:uid="{F17AD799-AAF2-CA4B-9052-79526ED68F55}" name="# Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="21"/>
+    <tableColumn id="50" xr3:uid="{95D43F71-6E78-7545-8A4C-AE8258AA92BA}" name="Teacher Attendance Rate" dataDxfId="20"/>
+    <tableColumn id="51" xr3:uid="{35904462-8ACF-104B-8595-F9EDDB9D005D}" name="Principal Turnover within 6 Years" dataDxfId="19"/>
+    <tableColumn id="52" xr3:uid="{37C54579-1382-4047-B32E-9B6DCF4C6D1A}" name="High School 4-Year Graduation Rate" dataDxfId="18"/>
+    <tableColumn id="53" xr3:uid="{76C7C142-3803-C743-ACB8-2AC253A56510}" name="High School 6-Year Graduation Rate" dataDxfId="17"/>
+    <tableColumn id="54" xr3:uid="{D57E1850-D7FE-9141-B5FF-8D139A17D39D}" name="Number of students who took one or more AP Exams Grade 9" dataDxfId="16"/>
+    <tableColumn id="55" xr3:uid="{D85884E7-853A-2E46-93D7-579975E2D930}" name="Number of students who passed one or more AP Exams Grade 9" dataDxfId="15"/>
+    <tableColumn id="56" xr3:uid="{24D843C3-F6B3-4A48-8E47-DCCC0C37AB56}" name="Number of students who took one or more AP Exams Grade 10" dataDxfId="14"/>
+    <tableColumn id="57" xr3:uid="{C1215080-ECBF-3A40-951A-7496839DDC04}" name="Number of students who passed one or more AP Exams Grade 10" dataDxfId="13"/>
+    <tableColumn id="58" xr3:uid="{5305A7BA-20A4-B64A-BEE0-7EBE5CA1285E}" name="Number of students who took one or more AP Exams Grade 11" dataDxfId="12">
+      <calculatedColumnFormula>REPLACE(BD2,FIND("10",BD2),2,"11")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="59" xr3:uid="{95397CC1-7B04-4B4A-A1EE-AB2A5546B55E}" name="Number of students who passed one or more AP Exams Grade 11" dataDxfId="11">
+      <calculatedColumnFormula>REPLACE(BE2,FIND("10",BE2),2,"11")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="60" xr3:uid="{09F63790-ADCE-6E4A-A471-0A5D1D8214A2}" name="Number of students who took one or more AP Exams Grade 12" dataDxfId="10">
+      <calculatedColumnFormula>REPLACE(BF2,FIND("11",BF2),2,"12")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="61" xr3:uid="{EF07B6AA-C8A6-FC44-BFD2-653A0B6E2A86}" name="Number of students who passed one or more AP Exams Grade 12" dataDxfId="9">
+      <calculatedColumnFormula>REPLACE(BG2,FIND("11",BG2),2,"12")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H468" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H468" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H526" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H526" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H323">
     <sortCondition ref="B1:B323"/>
   </sortState>
@@ -2814,11 +2956,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA26"/>
+  <dimension ref="A1:BI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22:I23"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD10" activeCellId="1" sqref="A10:A17 BD10:BE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2870,9 +3012,16 @@
     <col min="51" max="51" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="38.5" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="33" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="54.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3032,8 +3181,32 @@
       <c r="BA1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -3089,8 +3262,16 @@
       <c r="AZ2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -3146,8 +3327,16 @@
       <c r="AZ3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -3203,8 +3392,16 @@
       <c r="AZ4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="19"/>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -3260,8 +3457,16 @@
       <c r="AZ5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -3317,8 +3522,16 @@
       <c r="AZ6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -3374,8 +3587,16 @@
       <c r="AZ7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -3440,8 +3661,16 @@
       <c r="AZ8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="19"/>
+      <c r="BG8" s="19"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -3509,8 +3738,16 @@
       <c r="AZ9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19"/>
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -3605,8 +3842,30 @@
       <c r="BA10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE10" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF10" s="19" t="str">
+        <f>REPLACE(BD10,FIND("10",BD10),2,"11")</f>
+        <v># of GRADE 11 STUDENTS TOOK ONE OR MORE AP EXAMS (SCHOOL)</v>
+      </c>
+      <c r="BG10" s="19" t="str">
+        <f>REPLACE(BE10,FIND("10",BE10),2,"11")</f>
+        <v># of GRADE 11 STUDENTS PASSED ONE OR MORE AP EXAMS (SCHOOL)</v>
+      </c>
+      <c r="BH10" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="BI10" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -3701,8 +3960,30 @@
       <c r="BA11" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE11" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF11" s="19" t="str">
+        <f t="shared" ref="BF11:BF17" si="0">REPLACE(BD11,FIND("10",BD11),2,"11")</f>
+        <v># of GRADE 11 STUDENTS TOOK ONE OR MORE AP EXAMS (SCHOOL)</v>
+      </c>
+      <c r="BG11" s="19" t="str">
+        <f t="shared" ref="BG11:BG17" si="1">REPLACE(BE11,FIND("10",BE11),2,"11")</f>
+        <v># of GRADE 11 STUDENTS PASSED ONE OR MORE AP EXAMS (SCHOOL)</v>
+      </c>
+      <c r="BH11" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="BI11" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -3823,8 +4104,30 @@
       <c r="BA12" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Number of students who took one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BG12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Number of students who passed one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BH12" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI12" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -3954,8 +4257,34 @@
       <c r="BA13" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB13" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Number of students who took one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BG13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Number of students who passed one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BH13" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI13" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -4085,8 +4414,34 @@
       <c r="BA14" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB14" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Number of students who took one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BG14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Number of students who passed one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BH14" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI14" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -4222,8 +4577,34 @@
       <c r="BA15" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB15" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Number of students who took one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BG15" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Number of students who passed one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BH15" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI15" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -4371,8 +4752,34 @@
       <c r="BA16" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB16" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Number of students who took one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BG16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Number of students who passed one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BH16" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI16" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -4523,17 +4930,46 @@
       <c r="BA17" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB17" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Number of students who took one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BG17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Number of students who passed one ore more AP Exams Grade 11</v>
+      </c>
+      <c r="BH17" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI17" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="AZ19" s="18"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="AP26" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="BH10:BI17" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4542,12 +4978,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:H468"/>
+  <dimension ref="A1:H526"/>
   <sheetViews>
-    <sheetView topLeftCell="A436" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A483" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A162" sqref="A162"/>
-      <selection pane="topRight" activeCell="C446" sqref="C446"/>
+      <selection pane="topRight" activeCell="C506" sqref="C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13176,7 +13612,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2020</v>
       </c>
@@ -13196,7 +13632,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2021</v>
       </c>
@@ -13216,7 +13652,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2022</v>
       </c>
@@ -13236,7 +13672,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2023</v>
       </c>
@@ -13255,6 +13691,1108 @@
       <c r="G468" t="s">
         <v>232</v>
       </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A469" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B469" t="s">
+        <v>249</v>
+      </c>
+      <c r="C469" t="s">
+        <v>247</v>
+      </c>
+      <c r="D469" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E469" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F469" s="19"/>
+      <c r="H469" s="19"/>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A470" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B470" t="s">
+        <v>249</v>
+      </c>
+      <c r="C470" t="s">
+        <v>247</v>
+      </c>
+      <c r="D470" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E470" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F470" s="19"/>
+      <c r="H470" s="19"/>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A471" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B471" t="s">
+        <v>249</v>
+      </c>
+      <c r="C471" t="s">
+        <v>247</v>
+      </c>
+      <c r="D471" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E471" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F471" s="19"/>
+      <c r="H471" s="19"/>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A472" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B472" t="s">
+        <v>249</v>
+      </c>
+      <c r="C472" t="s">
+        <v>247</v>
+      </c>
+      <c r="D472" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E472" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F472" s="19"/>
+      <c r="H472" s="19"/>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A473" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B473" t="s">
+        <v>249</v>
+      </c>
+      <c r="C473" t="s">
+        <v>247</v>
+      </c>
+      <c r="D473" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E473" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F473" s="19"/>
+      <c r="H473" s="19"/>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A474" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B474" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C474" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D474" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E474" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F474" s="19"/>
+      <c r="H474" s="19"/>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A475" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B475" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C475" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D475" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E475" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F475" s="19"/>
+      <c r="H475" s="19"/>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A476" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B476" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C476" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D476" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E476" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F476" s="19"/>
+      <c r="H476" s="19"/>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A477" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B477" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C477" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D477" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E477" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F477" s="19"/>
+      <c r="H477" s="19"/>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A478" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B478" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C478" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D478" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E478" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F478" s="19"/>
+      <c r="H478" s="19"/>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A479" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B479" t="s">
+        <v>250</v>
+      </c>
+      <c r="C479" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D479" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E479" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F479" s="19"/>
+      <c r="H479" s="19"/>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A480" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B480" t="s">
+        <v>250</v>
+      </c>
+      <c r="C480" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D480" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E480" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F480" s="19"/>
+      <c r="H480" s="19"/>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A481" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B481" t="s">
+        <v>250</v>
+      </c>
+      <c r="C481" t="s">
+        <v>241</v>
+      </c>
+      <c r="D481" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E481" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F481" s="19"/>
+      <c r="H481" s="19"/>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A482" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B482" t="s">
+        <v>250</v>
+      </c>
+      <c r="C482" t="s">
+        <v>241</v>
+      </c>
+      <c r="D482" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E482" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F482" s="19"/>
+      <c r="H482" s="19"/>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A483" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B483" t="s">
+        <v>250</v>
+      </c>
+      <c r="C483" t="s">
+        <v>241</v>
+      </c>
+      <c r="D483" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E483" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F483" s="19"/>
+      <c r="H483" s="19"/>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A484" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B484" t="s">
+        <v>250</v>
+      </c>
+      <c r="C484" t="s">
+        <v>241</v>
+      </c>
+      <c r="D484" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E484" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F484" s="19"/>
+      <c r="H484" s="19"/>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A485" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B485" t="s">
+        <v>250</v>
+      </c>
+      <c r="C485" t="s">
+        <v>241</v>
+      </c>
+      <c r="D485" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E485" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F485" s="19"/>
+      <c r="H485" s="19"/>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A486" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B486" t="s">
+        <v>250</v>
+      </c>
+      <c r="C486" t="s">
+        <v>241</v>
+      </c>
+      <c r="D486" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E486" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F486" s="19"/>
+      <c r="H486" s="19"/>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A487" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B487" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C487" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D487" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E487" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F487" s="19"/>
+      <c r="H487" s="19"/>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A488" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B488" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C488" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D488" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E488" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F488" s="19"/>
+      <c r="H488" s="19"/>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A489" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B489" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C489" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D489" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E489" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F489" s="19"/>
+      <c r="H489" s="19"/>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A490" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B490" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C490" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D490" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E490" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F490" s="19"/>
+      <c r="H490" s="19"/>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A491" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B491" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C491" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D491" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E491" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F491" s="19"/>
+      <c r="H491" s="19"/>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A492" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B492" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C492" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D492" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E492" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F492" s="19"/>
+      <c r="H492" s="19"/>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A493" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B493" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C493" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D493" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E493" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F493" s="19"/>
+      <c r="H493" s="19"/>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A494" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B494" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C494" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D494" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E494" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F494" s="19"/>
+      <c r="H494" s="19"/>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A495" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B495" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C495" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D495" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E495" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F495" s="19"/>
+      <c r="H495" s="19"/>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B496" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C496" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D496" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E496" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F496" s="19"/>
+      <c r="H496" s="19"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B497" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C497" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D497" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E497" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F497" s="19"/>
+      <c r="H497" s="19"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A498" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B498" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C498" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D498" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E498" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F498" s="19"/>
+      <c r="H498" s="19"/>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A499" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B499" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C499" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D499" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E499" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F499" s="19"/>
+      <c r="H499" s="19"/>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A500" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B500" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C500" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D500" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E500" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F500" s="19"/>
+      <c r="H500" s="19"/>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A501" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B501" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C501" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D501" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E501" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F501" s="19"/>
+      <c r="H501" s="19"/>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A502" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B502" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C502" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D502" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E502" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F502" s="19"/>
+      <c r="H502" s="19"/>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B503" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C503" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D503" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E503" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F503" s="19"/>
+      <c r="H503" s="19"/>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B504" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C504" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D504" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E504" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F504" s="19"/>
+      <c r="H504" s="19"/>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B505" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C505" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D505" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E505" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F505" s="19"/>
+      <c r="H505" s="19"/>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B506" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C506" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D506" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E506" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F506" s="19"/>
+      <c r="H506" s="19"/>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B507" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C507" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D507" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E507" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F507" s="19"/>
+      <c r="H507" s="19"/>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A508" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B508" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C508" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D508" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E508" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F508" s="19"/>
+      <c r="H508" s="19"/>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A509" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B509" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C509" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D509" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E509" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F509" s="19"/>
+      <c r="H509" s="19"/>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B510" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C510" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D510" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E510" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F510" s="19"/>
+      <c r="H510" s="19"/>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B511" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C511" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D511" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E511" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F511" s="19"/>
+      <c r="H511" s="19"/>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B512" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C512" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D512" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E512" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F512" s="19"/>
+      <c r="H512" s="19"/>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B513" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C513" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D513" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E513" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F513" s="19"/>
+      <c r="H513" s="19"/>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B514" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C514" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D514" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E514" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F514" s="19"/>
+      <c r="H514" s="19"/>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B515" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C515" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D515" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E515" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F515" s="19"/>
+      <c r="H515" s="19"/>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B516" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C516" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D516" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E516" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F516" s="19"/>
+      <c r="H516" s="19"/>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B517" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C517" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D517" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E517" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F517" s="19"/>
+      <c r="H517" s="19"/>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B518" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C518" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D518" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E518" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F518" s="19"/>
+      <c r="H518" s="19"/>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A519" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B519" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C519" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D519" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E519" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F519" s="19"/>
+      <c r="H519" s="19"/>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A520" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B520" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C520" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D520" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E520" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F520" s="19"/>
+      <c r="H520" s="19"/>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A521" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B521" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C521" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D521" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E521" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F521" s="19"/>
+      <c r="H521" s="19"/>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A522" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B522" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C522" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D522" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E522" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F522" s="19"/>
+      <c r="H522" s="19"/>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A523" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B523" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C523" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D523" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E523" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F523" s="19"/>
+      <c r="H523" s="19"/>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A524" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B524" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C524" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D524" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E524" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F524" s="19"/>
+      <c r="H524" s="19"/>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A525" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B525" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C525" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D525" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E525" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F525" s="19"/>
+      <c r="H525" s="19"/>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A526" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B526" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C526" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D526" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E526" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F526" s="19"/>
+      <c r="H526" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13266,6 +14804,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B598B773ED9FC644B8B740EB3205C8DA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6cfe95817d5870f6c066b2c32ab5fb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xmlns:ns3="d5cc9fc5-cf59-440a-a506-890d57680064" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a231614a4bf4996e6f4146316e2aaf8" ns2:_="" ns3:_="">
     <xsd:import namespace="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
@@ -13528,27 +15086,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B298AB6-2F6D-497E-AD9E-0F97ABEC8463}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13565,29 +15128,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
-    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4044659-AB15-E64C-A056-768AA7658491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53CC54CE-CF44-B449-B462-B8F40993CAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Card Metadata" sheetId="3" r:id="rId1"/>
     <sheet name="Name Crosswalk" sheetId="1" r:id="rId2"/>
     <sheet name="Details" sheetId="2" r:id="rId3"/>
-    <sheet name="ISBE Ask-For List" sheetId="4" r:id="rId4"/>
-    <sheet name="Notes" sheetId="5" r:id="rId5"/>
+    <sheet name="Notes" sheetId="5" r:id="rId4"/>
+    <sheet name="ISBE Ask-For List" sheetId="4" r:id="rId5"/>
     <sheet name="Missing Metrics" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="433">
   <si>
     <t>Year</t>
   </si>
@@ -1784,12 +1784,170 @@
   <si>
     <t>% All students IAR ELA Level 1 - Grade 2</t>
   </si>
+  <si>
+    <t>IAR ELA No Participation Rate</t>
+  </si>
+  <si>
+    <t>IAR Math No Participation Rate</t>
+  </si>
+  <si>
+    <t>Equity Journey Continuum</t>
+  </si>
+  <si>
+    <t>Students taking one or more early college courses</t>
+  </si>
+  <si>
+    <t>K-12</t>
+  </si>
+  <si>
+    <t>% OF GRADUATES ENROLLED IN COMMUNITY COLLEGE REMEDIAL COURSES (SCHOOL)</t>
+  </si>
+  <si>
+    <t>Community College Remediation %</t>
+  </si>
+  <si>
+    <t>Community College Remediation Reading %</t>
+  </si>
+  <si>
+    <t>Community College Remediation Math %</t>
+  </si>
+  <si>
+    <t>Community College Remediation Communication</t>
+  </si>
+  <si>
+    <t>% Community College Remediation</t>
+  </si>
+  <si>
+    <t>% Community College Remediation - Reading</t>
+  </si>
+  <si>
+    <t>% Community College Remediation - Math</t>
+  </si>
+  <si>
+    <t>% Community College Remediation - Communication</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 12 months</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 12 months - Pubic Institition</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 12 months - Private Institution</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 12 months - Four-year Institution</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 12 months - Two-year Institution</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 12 months - Trade/Vocational School</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 16 months</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 16 months - Pubic Institition</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 16 months - Private Institution</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 16 months - Four-year Institution</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 16 months - Two-year Institution</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 16 months - Trade/Vocational School</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 12 months - Public Institition</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in a Postsecondary Institution within 16 months - Public Institition</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in Post Secondary Institution  within 16 months</t>
+  </si>
+  <si>
+    <t>% Graduates enrolled in Post Secondary Institution  within 12 months</t>
+  </si>
+  <si>
+    <t>% GRADUATES ENROLLED IN COLLEGE WITHIN 16 MONTHS - SCHOOL</t>
+  </si>
+  <si>
+    <t>% GRADUATES ENROLLED IN COLLEGE WITHIN 12 MONTHS - SCHOOL</t>
+  </si>
+  <si>
+    <t>student access to school counselors</t>
+  </si>
+  <si>
+    <t>National Comparisons</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>2016-2018</t>
+  </si>
+  <si>
+    <t>All "Coming Soon" metrics</t>
+  </si>
+  <si>
+    <t>2008-2016</t>
+  </si>
+  <si>
+    <t>CTE Enrollment vs. CTE Participation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Career and Technical Education Enrollment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a legacy measure that is the number of students who enrolled in at least one course that is state approved as a CTE course in at least one CIP, whether it was assigned by an EFE or not. A student is assigned to the last home school in which he/she was enrolled for the school year. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Career and Technical Education Participant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a Grade 9 to 12 student who has enrolled in at least one CTE course during the school year and has a course outcome of Pass, Fail, or Incomplete</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1849,8 +2007,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,6 +2044,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0E4F5"/>
         <bgColor rgb="FFC0E4F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1956,7 +2133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1980,11 +2157,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="139">
+  <dxfs count="156">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6FAF4"/>
+          <bgColor rgb="FFF6FAF4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2036,6 +2225,118 @@
           <color theme="4" tint="0.39997558519241921"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3106,163 +3407,190 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:EA17" totalsRowShown="0" dataDxfId="138">
-  <autoFilter ref="A1:EA17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:EQ17" totalsRowShown="0" dataDxfId="155">
+  <autoFilter ref="A1:EQ17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
     <sortCondition ref="A1:A17"/>
   </sortState>
-  <tableColumns count="131">
-    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="136"/>
-    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="135"/>
-    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="134"/>
-    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="132"/>
-    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="131"/>
-    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="130"/>
-    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="128"/>
-    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="127"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="125"/>
-    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="124"/>
-    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="123"/>
-    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="122"/>
-    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="121"/>
-    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="120"/>
-    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="119"/>
-    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="118"/>
-    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="117"/>
-    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="116"/>
-    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="115"/>
-    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="114"/>
-    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="113"/>
-    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="112"/>
-    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="111"/>
-    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="110"/>
-    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="109"/>
-    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="108"/>
-    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="107"/>
-    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="106"/>
-    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="105"/>
-    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="104"/>
-    <tableColumn id="35" xr3:uid="{62431BD2-7051-FC48-BD9B-525CBF545DDD}" name="# Students who took AP classes Grade 9" dataDxfId="103"/>
-    <tableColumn id="36" xr3:uid="{73C469BE-B611-0145-B886-AAA2CB70EAE8}" name="# Students who took AP classes Grade 10" dataDxfId="102"/>
-    <tableColumn id="37" xr3:uid="{CFE88FEF-98CA-654A-B3B8-05790EA4E553}" name="# Students who took AP classes Grade 11" dataDxfId="101"/>
-    <tableColumn id="38" xr3:uid="{CB531B3F-8204-2644-91D3-88ACB4BFD0A7}" name="# Students who took AP classes Grade 12" dataDxfId="100"/>
-    <tableColumn id="39" xr3:uid="{97ED4799-6B71-FF44-A7E9-0D6FEC826075}" name="# Students who took IB classes Grade 9" dataDxfId="99"/>
-    <tableColumn id="40" xr3:uid="{F30102B8-881A-CA42-88CE-89D1D66A2AFB}" name="# Students who took IB classes Grade 10" dataDxfId="98"/>
-    <tableColumn id="41" xr3:uid="{99E2E959-F950-414B-BBF3-82CF023E0766}" name="# Students who took IB classes Grade 11" dataDxfId="97"/>
-    <tableColumn id="42" xr3:uid="{E9437747-1EEE-D94C-8B2E-5EB4508C3746}" name="# Students who took IB classes Grade 12" dataDxfId="96"/>
-    <tableColumn id="43" xr3:uid="{3CBA554F-964A-B546-B1CB-F3FFBC958E43}" name="# Out-of-Field Teachers" dataDxfId="95"/>
-    <tableColumn id="44" xr3:uid="{C4CCD547-D042-A040-8E97-CD2FA1F749A9}" name="% Out-of-Field Teachers" dataDxfId="94"/>
+  <tableColumns count="147">
+    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="152"/>
+    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="151"/>
+    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="149"/>
+    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="148"/>
+    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="147"/>
+    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="146"/>
+    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="145"/>
+    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="144"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="143"/>
+    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="142"/>
+    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="141"/>
+    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="140"/>
+    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="139"/>
+    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="138"/>
+    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="137"/>
+    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="136"/>
+    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="135"/>
+    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="134"/>
+    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="133"/>
+    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="132"/>
+    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="131"/>
+    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="130"/>
+    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="129"/>
+    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="128"/>
+    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="127"/>
+    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="126"/>
+    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="125"/>
+    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="124"/>
+    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="123"/>
+    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="122"/>
+    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="121"/>
+    <tableColumn id="35" xr3:uid="{62431BD2-7051-FC48-BD9B-525CBF545DDD}" name="# Students who took AP classes Grade 9" dataDxfId="120"/>
+    <tableColumn id="36" xr3:uid="{73C469BE-B611-0145-B886-AAA2CB70EAE8}" name="# Students who took AP classes Grade 10" dataDxfId="119"/>
+    <tableColumn id="37" xr3:uid="{CFE88FEF-98CA-654A-B3B8-05790EA4E553}" name="# Students who took AP classes Grade 11" dataDxfId="118"/>
+    <tableColumn id="38" xr3:uid="{CB531B3F-8204-2644-91D3-88ACB4BFD0A7}" name="# Students who took AP classes Grade 12" dataDxfId="117"/>
+    <tableColumn id="39" xr3:uid="{97ED4799-6B71-FF44-A7E9-0D6FEC826075}" name="# Students who took IB classes Grade 9" dataDxfId="116"/>
+    <tableColumn id="40" xr3:uid="{F30102B8-881A-CA42-88CE-89D1D66A2AFB}" name="# Students who took IB classes Grade 10" dataDxfId="115"/>
+    <tableColumn id="41" xr3:uid="{99E2E959-F950-414B-BBF3-82CF023E0766}" name="# Students who took IB classes Grade 11" dataDxfId="114"/>
+    <tableColumn id="42" xr3:uid="{E9437747-1EEE-D94C-8B2E-5EB4508C3746}" name="# Students who took IB classes Grade 12" dataDxfId="113"/>
+    <tableColumn id="43" xr3:uid="{3CBA554F-964A-B546-B1CB-F3FFBC958E43}" name="# Out-of-Field Teachers" dataDxfId="112"/>
+    <tableColumn id="44" xr3:uid="{C4CCD547-D042-A040-8E97-CD2FA1F749A9}" name="% Out-of-Field Teachers" dataDxfId="111"/>
     <tableColumn id="62" xr3:uid="{5293548B-85DC-4D43-B151-9861D89C3752}" name="# Out-of-Field Teachers - High Poverty Schools"/>
     <tableColumn id="63" xr3:uid="{D2C92466-3D16-2D4B-A12B-9A8ABB3ED364}" name="% Out-of-Field Teachers - High Poverty Schools"/>
-    <tableColumn id="64" xr3:uid="{0F0B2BE2-813C-4144-812C-BE2D5CAF20F8}" name="# Out-of-Field Teachers - Low Poverty Schools" dataDxfId="93"/>
-    <tableColumn id="65" xr3:uid="{FFA97492-5178-024F-ABCD-F128D0C3C118}" name="% Out-of-Field Teachers - Low Poverty Schools" dataDxfId="92"/>
-    <tableColumn id="45" xr3:uid="{DC129293-5D55-4C48-A979-6304ABE3CAB9}" name="% Teachers with Short-Term or Provisional License" dataDxfId="91"/>
-    <tableColumn id="46" xr3:uid="{69922C1F-B1F6-AA41-8916-728215E1A659}" name="% Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="90"/>
-    <tableColumn id="47" xr3:uid="{CB9F66DB-18B6-4A41-A560-2737C375BEAA}" name="% Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="89"/>
-    <tableColumn id="48" xr3:uid="{FA593E29-37FA-2F49-B1E2-8A20B24707C0}" name="# Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="88"/>
-    <tableColumn id="49" xr3:uid="{F17AD799-AAF2-CA4B-9052-79526ED68F55}" name="# Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="87"/>
-    <tableColumn id="50" xr3:uid="{95D43F71-6E78-7545-8A4C-AE8258AA92BA}" name="Teacher Attendance Rate" dataDxfId="86"/>
-    <tableColumn id="51" xr3:uid="{35904462-8ACF-104B-8595-F9EDDB9D005D}" name="Principal Turnover within 6 Years" dataDxfId="85"/>
-    <tableColumn id="52" xr3:uid="{37C54579-1382-4047-B32E-9B6DCF4C6D1A}" name="High School 4-Year Graduation Rate" dataDxfId="84"/>
-    <tableColumn id="53" xr3:uid="{76C7C142-3803-C743-ACB8-2AC253A56510}" name="High School 6-Year Graduation Rate" dataDxfId="83"/>
-    <tableColumn id="54" xr3:uid="{D57E1850-D7FE-9141-B5FF-8D139A17D39D}" name="Number of students who took one or more AP Exams Grade 9" dataDxfId="82"/>
-    <tableColumn id="55" xr3:uid="{D85884E7-853A-2E46-93D7-579975E2D930}" name="Number of students who passed one or more AP Exams Grade 9" dataDxfId="81"/>
-    <tableColumn id="56" xr3:uid="{24D843C3-F6B3-4A48-8E47-DCCC0C37AB56}" name="Number of students who took one or more AP Exams Grade 10" dataDxfId="80"/>
-    <tableColumn id="57" xr3:uid="{C1215080-ECBF-3A40-951A-7496839DDC04}" name="Number of students who passed one or more AP Exams Grade 10" dataDxfId="79"/>
-    <tableColumn id="58" xr3:uid="{5305A7BA-20A4-B64A-BEE0-7EBE5CA1285E}" name="Number of students who took one or more AP Exams Grade 11" dataDxfId="78"/>
-    <tableColumn id="59" xr3:uid="{95397CC1-7B04-4B4A-A1EE-AB2A5546B55E}" name="Number of students who passed one or more AP Exams Grade 11" dataDxfId="77"/>
-    <tableColumn id="60" xr3:uid="{09F63790-ADCE-6E4A-A471-0A5D1D8214A2}" name="Number of students who took one or more AP Exams Grade 12" dataDxfId="76"/>
-    <tableColumn id="61" xr3:uid="{EF07B6AA-C8A6-FC44-BFD2-653A0B6E2A86}" name="Number of students who passed one or more AP Exams Grade 12" dataDxfId="75"/>
-    <tableColumn id="66" xr3:uid="{AC007116-4637-644E-AF02-A7AB5D5EADD6}" name="% All students IAR ELA Level 1 - Grade 3" dataDxfId="74"/>
-    <tableColumn id="67" xr3:uid="{6DAFBA42-AD9C-E14A-96FB-288D8BCA99E7}" name="% All students IAR ELA Level 2 - Grade 3" dataDxfId="73"/>
-    <tableColumn id="68" xr3:uid="{2E7A55B0-50B2-1348-9EF5-E0436300315C}" name="% All students IAR ELA Level 3 - Grade 3" dataDxfId="72"/>
-    <tableColumn id="69" xr3:uid="{3B2446EE-A403-8149-8093-69085337F1D6}" name="% All students IAR ELA Level 4 - Grade 3" dataDxfId="71"/>
-    <tableColumn id="70" xr3:uid="{13CB50EE-75B6-AD43-9ED6-31F97F3DFE85}" name="% All students IAR ELA Level 5 - Grade 3" dataDxfId="70"/>
-    <tableColumn id="71" xr3:uid="{FB4CBEC1-BD67-ED47-BD98-9A65971E4BA9}" name="% All students IAR Mathematics Level 1 - Grade 3" dataDxfId="69"/>
-    <tableColumn id="72" xr3:uid="{BAF1E93D-139D-B94F-9700-0FD86F22AF28}" name="% All students IAR Mathematics Level 2 - Grade 3" dataDxfId="68"/>
-    <tableColumn id="73" xr3:uid="{7CD72569-ABF3-4646-B51A-2145BED1C25D}" name="% All students IAR Mathematics Level 3 - Grade 3" dataDxfId="67"/>
-    <tableColumn id="74" xr3:uid="{D6FD88CB-214D-6E43-946E-6311DA9131CC}" name="% All students IAR Mathematics Level 4 - Grade 3" dataDxfId="66"/>
-    <tableColumn id="75" xr3:uid="{9A177942-E27F-614F-B30D-3C3E30D447EE}" name="% All students IAR Mathematics Level 5 - Grade 3" dataDxfId="65"/>
-    <tableColumn id="76" xr3:uid="{F27CFC65-3F0D-7345-AC77-D090538A32D7}" name="% All students IAR ELA Level 1 - Grade 4" dataDxfId="64"/>
-    <tableColumn id="77" xr3:uid="{B4CD64F1-783A-0D4E-BB22-9AC26FC31535}" name="% All students IAR ELA Level 2 - Grade 4" dataDxfId="63"/>
-    <tableColumn id="78" xr3:uid="{3DDE4D53-B2E8-844E-B0CB-563F26DCCBAF}" name="% All students IAR ELA Level 3 - Grade 4" dataDxfId="62"/>
-    <tableColumn id="79" xr3:uid="{B4F28FE8-5C67-AA4A-961F-4637D4DA5263}" name="% All students IAR ELA Level 4 - Grade 4" dataDxfId="61"/>
-    <tableColumn id="80" xr3:uid="{3B600242-98E2-1D4E-9DAA-FDA6A4D0CAE7}" name="% All students IAR ELA Level 5 - Grade 4" dataDxfId="60"/>
-    <tableColumn id="81" xr3:uid="{93D0B95A-07C7-CA42-ADA3-F494E1E89CC6}" name="% All students IAR Mathematics Level 1 - Grade 4" dataDxfId="59"/>
-    <tableColumn id="82" xr3:uid="{DA3B88D8-9F1B-0D43-A00A-0E00A0E101E4}" name="% All students IAR Mathematics Level 2 - Grade 4" dataDxfId="58"/>
-    <tableColumn id="83" xr3:uid="{CFB9A658-C262-A24D-BDBC-A2FA6764B041}" name="% All students IAR Mathematics Level 3 - Grade 4" dataDxfId="57"/>
-    <tableColumn id="84" xr3:uid="{170D49FE-6CD9-2349-8C42-D35123081DAA}" name="% All students IAR Mathematics Level 4 - Grade 4" dataDxfId="56"/>
-    <tableColumn id="85" xr3:uid="{90D4AF95-5666-AA4E-896A-BEFE87C9CA9A}" name="% All students IAR Mathematics Level 5 - Grade 4" dataDxfId="55"/>
-    <tableColumn id="86" xr3:uid="{F01BCEF8-4268-804D-B91E-4DF5945E471F}" name="% All students IAR ELA Level 1 - Grade 5" dataDxfId="54"/>
-    <tableColumn id="87" xr3:uid="{3D948EEB-557F-D548-A8E8-483E928D37C0}" name="% All students IAR ELA Level 2 - Grade 5" dataDxfId="53"/>
-    <tableColumn id="88" xr3:uid="{046CB80A-00D6-5548-8953-4988F3849A8E}" name="% All students IAR ELA Level 3 - Grade 5" dataDxfId="52"/>
-    <tableColumn id="89" xr3:uid="{FD0B5F84-667C-7C4C-965B-B019DF711FFA}" name="% All students IAR ELA Level 4 - Grade 5" dataDxfId="51"/>
-    <tableColumn id="90" xr3:uid="{B280A1EC-2EEE-B94B-BB08-C9C8B4E61414}" name="% All students IAR ELA Level 5 - Grade 5" dataDxfId="50"/>
-    <tableColumn id="91" xr3:uid="{623688F4-27B9-6747-877A-5CD58CD88AD3}" name="% All students IAR Mathematics Level 1 - Grade 5" dataDxfId="49"/>
-    <tableColumn id="92" xr3:uid="{7B942C5F-3AA9-8D48-A248-FA33E13B784D}" name="% All students IAR Mathematics Level 2 - Grade 5" dataDxfId="48"/>
-    <tableColumn id="93" xr3:uid="{19970012-6DDA-3F4F-8C3E-18848326B806}" name="% All students IAR Mathematics Level 3 - Grade 5" dataDxfId="47"/>
-    <tableColumn id="94" xr3:uid="{580D40AB-E7AD-FE44-8761-A7AF851155D2}" name="% All students IAR Mathematics Level 4 - Grade 5" dataDxfId="46"/>
-    <tableColumn id="95" xr3:uid="{979CB1A3-9B4D-B140-A5C9-511186C63C1F}" name="% All students IAR Mathematics Level 5 - Grade 5" dataDxfId="45"/>
-    <tableColumn id="96" xr3:uid="{62252DFA-08F6-744C-9EF9-CFAAE16CF3EF}" name="% All students IAR ELA Level 1 - Grade 6" dataDxfId="44"/>
-    <tableColumn id="97" xr3:uid="{2BFED3F3-04A5-C141-97FF-8BFEAC349211}" name="% All students IAR ELA Level 2 - Grade 6" dataDxfId="43"/>
-    <tableColumn id="98" xr3:uid="{57BF687F-8D34-A241-92C4-151F13501BDA}" name="% All students IAR ELA Level 3 - Grade 6" dataDxfId="42"/>
-    <tableColumn id="99" xr3:uid="{0B1FAB00-E606-9A48-8F9B-1695CDA4141D}" name="% All students IAR ELA Level 4 - Grade 6" dataDxfId="41"/>
-    <tableColumn id="100" xr3:uid="{7CB31A98-CDE5-204A-B623-3FFD055EE8F7}" name="% All students IAR ELA Level 5 - Grade 6" dataDxfId="40"/>
-    <tableColumn id="101" xr3:uid="{905AE3BB-8EC2-2941-B07D-D10CA53C067C}" name="% All students IAR Mathematics Level 1 - Grade 6" dataDxfId="39"/>
-    <tableColumn id="102" xr3:uid="{A0E6A805-C151-3043-8AD6-9ECFC583B49D}" name="% All students IAR Mathematics Level 2 - Grade 6" dataDxfId="38"/>
-    <tableColumn id="103" xr3:uid="{8D82CF0D-C030-684A-8F41-EBF7273C86DC}" name="% All students IAR Mathematics Level 3 - Grade 6" dataDxfId="37"/>
-    <tableColumn id="104" xr3:uid="{8E92DDD0-DE8C-3A48-80BC-0CE584B61CDE}" name="% All students IAR Mathematics Level 4 - Grade 6" dataDxfId="36"/>
-    <tableColumn id="105" xr3:uid="{746F5E03-2EF7-6A45-957C-6217D5777E5C}" name="% All students IAR Mathematics Level 5 - Grade 6" dataDxfId="35"/>
-    <tableColumn id="106" xr3:uid="{1853EBFD-EE25-454A-A5C2-26503987C863}" name="% All students IAR ELA Level 1 - Grade 7" dataDxfId="34"/>
-    <tableColumn id="107" xr3:uid="{FF34E160-7F90-B249-B977-3F31414D9339}" name="% All students IAR ELA Level 2 - Grade 7" dataDxfId="33"/>
-    <tableColumn id="108" xr3:uid="{F5F03D9E-403D-6D47-9C82-225F85BA0BED}" name="% All students IAR ELA Level 3 - Grade 7" dataDxfId="32"/>
-    <tableColumn id="109" xr3:uid="{3E5AB0C7-8DDF-DA4D-BA96-0BD2DFA7F3CE}" name="% All students IAR ELA Level 4 - Grade 7" dataDxfId="31"/>
-    <tableColumn id="110" xr3:uid="{4623F40F-2BA1-2D44-926D-6E0E9E6F3FB6}" name="% All students IAR ELA Level 5 - Grade 7" dataDxfId="30"/>
-    <tableColumn id="111" xr3:uid="{4DD0BB9E-1366-0E41-9087-DACC5328CE35}" name="% All students IAR Mathematics Level 1 - Grade 7" dataDxfId="29"/>
-    <tableColumn id="112" xr3:uid="{51FA4D64-56A2-E740-9159-D9240599CA42}" name="% All students IAR Mathematics Level 2 - Grade 7" dataDxfId="28"/>
-    <tableColumn id="113" xr3:uid="{C31DA806-5B12-EC4F-A04D-3047FA120396}" name="% All students IAR Mathematics Level 3 - Grade 7" dataDxfId="27"/>
-    <tableColumn id="114" xr3:uid="{42BEADD7-CFCC-364A-A1C0-ED82BE268096}" name="% All students IAR Mathematics Level 4 - Grade 7" dataDxfId="26"/>
-    <tableColumn id="115" xr3:uid="{50F32122-C218-2848-9B5E-7B3FCF3F89E2}" name="% All students IAR Mathematics Level 5 - Grade 7" dataDxfId="25"/>
-    <tableColumn id="116" xr3:uid="{E359B9F7-D5AD-E349-A55F-38877DA01441}" name="% All students IAR ELA Level 1 - Grade 8" dataDxfId="24"/>
-    <tableColumn id="117" xr3:uid="{FD9292BF-E7B0-CD42-B60B-371D6D7EED97}" name="% All students IAR ELA Level 2 - Grade 8" dataDxfId="23"/>
-    <tableColumn id="118" xr3:uid="{3ECE2E11-420D-7A46-97EB-6D24DB8D1332}" name="% All students IAR ELA Level 3 - Grade 8" dataDxfId="22"/>
-    <tableColumn id="119" xr3:uid="{14FBB02E-019C-AF4C-9180-F1B3FA3CEC25}" name="% All students IAR ELA Level 4 - Grade 8" dataDxfId="21"/>
-    <tableColumn id="120" xr3:uid="{10A0A9E8-635A-854D-A028-98D894FEFFF2}" name="% All students IAR ELA Level 5 - Grade 8" dataDxfId="20"/>
-    <tableColumn id="121" xr3:uid="{F06B2FE3-9314-EC48-B76D-D29D98F93819}" name="% All students IAR Mathematics Level 1 - Grade 8" dataDxfId="19"/>
-    <tableColumn id="122" xr3:uid="{651BBD41-9898-A245-B250-1A0421718DFD}" name="% All students IAR Mathematics Level 2 - Grade 8" dataDxfId="18"/>
-    <tableColumn id="123" xr3:uid="{2D222852-7268-B148-94DE-2955439FC0D9}" name="% All students IAR Mathematics Level 3 - Grade 8" dataDxfId="17"/>
-    <tableColumn id="124" xr3:uid="{C55FA655-B4FA-B34D-BF96-7A4F914BC92D}" name="% All students IAR Mathematics Level 4 - Grade 8" dataDxfId="16"/>
-    <tableColumn id="125" xr3:uid="{70713A34-CC75-9A40-A064-F7B004C6C343}" name="% All students IAR Mathematics Level 5 - Grade 8" dataDxfId="15"/>
-    <tableColumn id="126" xr3:uid="{7E050A4E-1F41-9A40-B006-6ECAFD6B4D58}" name="# Students IAR Math Participation" dataDxfId="14"/>
-    <tableColumn id="127" xr3:uid="{A948F730-D175-A44A-9DFB-6527B8339E63}" name="% Students IAR Math Participation" dataDxfId="13"/>
-    <tableColumn id="128" xr3:uid="{5E037E5B-E65C-BE42-9FC4-08954641058A}" name="# Students IAR ELA Participation" dataDxfId="12"/>
-    <tableColumn id="129" xr3:uid="{26522368-F055-4447-AE58-9C126D1EA1C7}" name="% Students IAR ELA Participation" dataDxfId="11"/>
-    <tableColumn id="130" xr3:uid="{9B2AEA67-E6CC-CB45-83A8-8C23034BE63D}" name="IAR ELA No Participation Rate - Total" dataDxfId="10"/>
-    <tableColumn id="131" xr3:uid="{625AFF90-E4E5-034B-A879-E2B5760AC282}" name="IAR Math No Participation Rate - Total" dataDxfId="9"/>
+    <tableColumn id="64" xr3:uid="{0F0B2BE2-813C-4144-812C-BE2D5CAF20F8}" name="# Out-of-Field Teachers - Low Poverty Schools" dataDxfId="110"/>
+    <tableColumn id="65" xr3:uid="{FFA97492-5178-024F-ABCD-F128D0C3C118}" name="% Out-of-Field Teachers - Low Poverty Schools" dataDxfId="109"/>
+    <tableColumn id="45" xr3:uid="{DC129293-5D55-4C48-A979-6304ABE3CAB9}" name="% Teachers with Short-Term or Provisional License" dataDxfId="108"/>
+    <tableColumn id="46" xr3:uid="{69922C1F-B1F6-AA41-8916-728215E1A659}" name="% Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="107"/>
+    <tableColumn id="47" xr3:uid="{CB9F66DB-18B6-4A41-A560-2737C375BEAA}" name="% Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="106"/>
+    <tableColumn id="48" xr3:uid="{FA593E29-37FA-2F49-B1E2-8A20B24707C0}" name="# Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="105"/>
+    <tableColumn id="49" xr3:uid="{F17AD799-AAF2-CA4B-9052-79526ED68F55}" name="# Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="104"/>
+    <tableColumn id="50" xr3:uid="{95D43F71-6E78-7545-8A4C-AE8258AA92BA}" name="Teacher Attendance Rate" dataDxfId="103"/>
+    <tableColumn id="51" xr3:uid="{35904462-8ACF-104B-8595-F9EDDB9D005D}" name="Principal Turnover within 6 Years" dataDxfId="102"/>
+    <tableColumn id="52" xr3:uid="{37C54579-1382-4047-B32E-9B6DCF4C6D1A}" name="High School 4-Year Graduation Rate" dataDxfId="101"/>
+    <tableColumn id="53" xr3:uid="{76C7C142-3803-C743-ACB8-2AC253A56510}" name="High School 6-Year Graduation Rate" dataDxfId="100"/>
+    <tableColumn id="54" xr3:uid="{D57E1850-D7FE-9141-B5FF-8D139A17D39D}" name="Number of students who took one or more AP Exams Grade 9" dataDxfId="99"/>
+    <tableColumn id="55" xr3:uid="{D85884E7-853A-2E46-93D7-579975E2D930}" name="Number of students who passed one or more AP Exams Grade 9" dataDxfId="98"/>
+    <tableColumn id="56" xr3:uid="{24D843C3-F6B3-4A48-8E47-DCCC0C37AB56}" name="Number of students who took one or more AP Exams Grade 10" dataDxfId="97"/>
+    <tableColumn id="57" xr3:uid="{C1215080-ECBF-3A40-951A-7496839DDC04}" name="Number of students who passed one or more AP Exams Grade 10" dataDxfId="96"/>
+    <tableColumn id="58" xr3:uid="{5305A7BA-20A4-B64A-BEE0-7EBE5CA1285E}" name="Number of students who took one or more AP Exams Grade 11" dataDxfId="95"/>
+    <tableColumn id="59" xr3:uid="{95397CC1-7B04-4B4A-A1EE-AB2A5546B55E}" name="Number of students who passed one or more AP Exams Grade 11" dataDxfId="94"/>
+    <tableColumn id="60" xr3:uid="{09F63790-ADCE-6E4A-A471-0A5D1D8214A2}" name="Number of students who took one or more AP Exams Grade 12" dataDxfId="93"/>
+    <tableColumn id="61" xr3:uid="{EF07B6AA-C8A6-FC44-BFD2-653A0B6E2A86}" name="Number of students who passed one or more AP Exams Grade 12" dataDxfId="92"/>
+    <tableColumn id="66" xr3:uid="{AC007116-4637-644E-AF02-A7AB5D5EADD6}" name="% All students IAR ELA Level 1 - Grade 3" dataDxfId="91"/>
+    <tableColumn id="67" xr3:uid="{6DAFBA42-AD9C-E14A-96FB-288D8BCA99E7}" name="% All students IAR ELA Level 2 - Grade 3" dataDxfId="90"/>
+    <tableColumn id="68" xr3:uid="{2E7A55B0-50B2-1348-9EF5-E0436300315C}" name="% All students IAR ELA Level 3 - Grade 3" dataDxfId="89"/>
+    <tableColumn id="69" xr3:uid="{3B2446EE-A403-8149-8093-69085337F1D6}" name="% All students IAR ELA Level 4 - Grade 3" dataDxfId="88"/>
+    <tableColumn id="70" xr3:uid="{13CB50EE-75B6-AD43-9ED6-31F97F3DFE85}" name="% All students IAR ELA Level 5 - Grade 3" dataDxfId="87"/>
+    <tableColumn id="71" xr3:uid="{FB4CBEC1-BD67-ED47-BD98-9A65971E4BA9}" name="% All students IAR Mathematics Level 1 - Grade 3" dataDxfId="86"/>
+    <tableColumn id="72" xr3:uid="{BAF1E93D-139D-B94F-9700-0FD86F22AF28}" name="% All students IAR Mathematics Level 2 - Grade 3" dataDxfId="85"/>
+    <tableColumn id="73" xr3:uid="{7CD72569-ABF3-4646-B51A-2145BED1C25D}" name="% All students IAR Mathematics Level 3 - Grade 3" dataDxfId="84"/>
+    <tableColumn id="74" xr3:uid="{D6FD88CB-214D-6E43-946E-6311DA9131CC}" name="% All students IAR Mathematics Level 4 - Grade 3" dataDxfId="83"/>
+    <tableColumn id="75" xr3:uid="{9A177942-E27F-614F-B30D-3C3E30D447EE}" name="% All students IAR Mathematics Level 5 - Grade 3" dataDxfId="82"/>
+    <tableColumn id="76" xr3:uid="{F27CFC65-3F0D-7345-AC77-D090538A32D7}" name="% All students IAR ELA Level 1 - Grade 4" dataDxfId="81"/>
+    <tableColumn id="77" xr3:uid="{B4CD64F1-783A-0D4E-BB22-9AC26FC31535}" name="% All students IAR ELA Level 2 - Grade 4" dataDxfId="80"/>
+    <tableColumn id="78" xr3:uid="{3DDE4D53-B2E8-844E-B0CB-563F26DCCBAF}" name="% All students IAR ELA Level 3 - Grade 4" dataDxfId="79"/>
+    <tableColumn id="79" xr3:uid="{B4F28FE8-5C67-AA4A-961F-4637D4DA5263}" name="% All students IAR ELA Level 4 - Grade 4" dataDxfId="78"/>
+    <tableColumn id="80" xr3:uid="{3B600242-98E2-1D4E-9DAA-FDA6A4D0CAE7}" name="% All students IAR ELA Level 5 - Grade 4" dataDxfId="77"/>
+    <tableColumn id="81" xr3:uid="{93D0B95A-07C7-CA42-ADA3-F494E1E89CC6}" name="% All students IAR Mathematics Level 1 - Grade 4" dataDxfId="76"/>
+    <tableColumn id="82" xr3:uid="{DA3B88D8-9F1B-0D43-A00A-0E00A0E101E4}" name="% All students IAR Mathematics Level 2 - Grade 4" dataDxfId="75"/>
+    <tableColumn id="83" xr3:uid="{CFB9A658-C262-A24D-BDBC-A2FA6764B041}" name="% All students IAR Mathematics Level 3 - Grade 4" dataDxfId="74"/>
+    <tableColumn id="84" xr3:uid="{170D49FE-6CD9-2349-8C42-D35123081DAA}" name="% All students IAR Mathematics Level 4 - Grade 4" dataDxfId="73"/>
+    <tableColumn id="85" xr3:uid="{90D4AF95-5666-AA4E-896A-BEFE87C9CA9A}" name="% All students IAR Mathematics Level 5 - Grade 4" dataDxfId="72"/>
+    <tableColumn id="86" xr3:uid="{F01BCEF8-4268-804D-B91E-4DF5945E471F}" name="% All students IAR ELA Level 1 - Grade 5" dataDxfId="71"/>
+    <tableColumn id="87" xr3:uid="{3D948EEB-557F-D548-A8E8-483E928D37C0}" name="% All students IAR ELA Level 2 - Grade 5" dataDxfId="70"/>
+    <tableColumn id="88" xr3:uid="{046CB80A-00D6-5548-8953-4988F3849A8E}" name="% All students IAR ELA Level 3 - Grade 5" dataDxfId="69"/>
+    <tableColumn id="89" xr3:uid="{FD0B5F84-667C-7C4C-965B-B019DF711FFA}" name="% All students IAR ELA Level 4 - Grade 5" dataDxfId="68"/>
+    <tableColumn id="90" xr3:uid="{B280A1EC-2EEE-B94B-BB08-C9C8B4E61414}" name="% All students IAR ELA Level 5 - Grade 5" dataDxfId="67"/>
+    <tableColumn id="91" xr3:uid="{623688F4-27B9-6747-877A-5CD58CD88AD3}" name="% All students IAR Mathematics Level 1 - Grade 5" dataDxfId="66"/>
+    <tableColumn id="92" xr3:uid="{7B942C5F-3AA9-8D48-A248-FA33E13B784D}" name="% All students IAR Mathematics Level 2 - Grade 5" dataDxfId="65"/>
+    <tableColumn id="93" xr3:uid="{19970012-6DDA-3F4F-8C3E-18848326B806}" name="% All students IAR Mathematics Level 3 - Grade 5" dataDxfId="64"/>
+    <tableColumn id="94" xr3:uid="{580D40AB-E7AD-FE44-8761-A7AF851155D2}" name="% All students IAR Mathematics Level 4 - Grade 5" dataDxfId="63"/>
+    <tableColumn id="95" xr3:uid="{979CB1A3-9B4D-B140-A5C9-511186C63C1F}" name="% All students IAR Mathematics Level 5 - Grade 5" dataDxfId="62"/>
+    <tableColumn id="96" xr3:uid="{62252DFA-08F6-744C-9EF9-CFAAE16CF3EF}" name="% All students IAR ELA Level 1 - Grade 6" dataDxfId="61"/>
+    <tableColumn id="97" xr3:uid="{2BFED3F3-04A5-C141-97FF-8BFEAC349211}" name="% All students IAR ELA Level 2 - Grade 6" dataDxfId="60"/>
+    <tableColumn id="98" xr3:uid="{57BF687F-8D34-A241-92C4-151F13501BDA}" name="% All students IAR ELA Level 3 - Grade 6" dataDxfId="59"/>
+    <tableColumn id="99" xr3:uid="{0B1FAB00-E606-9A48-8F9B-1695CDA4141D}" name="% All students IAR ELA Level 4 - Grade 6" dataDxfId="58"/>
+    <tableColumn id="100" xr3:uid="{7CB31A98-CDE5-204A-B623-3FFD055EE8F7}" name="% All students IAR ELA Level 5 - Grade 6" dataDxfId="57"/>
+    <tableColumn id="101" xr3:uid="{905AE3BB-8EC2-2941-B07D-D10CA53C067C}" name="% All students IAR Mathematics Level 1 - Grade 6" dataDxfId="56"/>
+    <tableColumn id="102" xr3:uid="{A0E6A805-C151-3043-8AD6-9ECFC583B49D}" name="% All students IAR Mathematics Level 2 - Grade 6" dataDxfId="55"/>
+    <tableColumn id="103" xr3:uid="{8D82CF0D-C030-684A-8F41-EBF7273C86DC}" name="% All students IAR Mathematics Level 3 - Grade 6" dataDxfId="54"/>
+    <tableColumn id="104" xr3:uid="{8E92DDD0-DE8C-3A48-80BC-0CE584B61CDE}" name="% All students IAR Mathematics Level 4 - Grade 6" dataDxfId="53"/>
+    <tableColumn id="105" xr3:uid="{746F5E03-2EF7-6A45-957C-6217D5777E5C}" name="% All students IAR Mathematics Level 5 - Grade 6" dataDxfId="52"/>
+    <tableColumn id="106" xr3:uid="{1853EBFD-EE25-454A-A5C2-26503987C863}" name="% All students IAR ELA Level 1 - Grade 7" dataDxfId="51"/>
+    <tableColumn id="107" xr3:uid="{FF34E160-7F90-B249-B977-3F31414D9339}" name="% All students IAR ELA Level 2 - Grade 7" dataDxfId="50"/>
+    <tableColumn id="108" xr3:uid="{F5F03D9E-403D-6D47-9C82-225F85BA0BED}" name="% All students IAR ELA Level 3 - Grade 7" dataDxfId="49"/>
+    <tableColumn id="109" xr3:uid="{3E5AB0C7-8DDF-DA4D-BA96-0BD2DFA7F3CE}" name="% All students IAR ELA Level 4 - Grade 7" dataDxfId="48"/>
+    <tableColumn id="110" xr3:uid="{4623F40F-2BA1-2D44-926D-6E0E9E6F3FB6}" name="% All students IAR ELA Level 5 - Grade 7" dataDxfId="47"/>
+    <tableColumn id="111" xr3:uid="{4DD0BB9E-1366-0E41-9087-DACC5328CE35}" name="% All students IAR Mathematics Level 1 - Grade 7" dataDxfId="46"/>
+    <tableColumn id="112" xr3:uid="{51FA4D64-56A2-E740-9159-D9240599CA42}" name="% All students IAR Mathematics Level 2 - Grade 7" dataDxfId="45"/>
+    <tableColumn id="113" xr3:uid="{C31DA806-5B12-EC4F-A04D-3047FA120396}" name="% All students IAR Mathematics Level 3 - Grade 7" dataDxfId="44"/>
+    <tableColumn id="114" xr3:uid="{42BEADD7-CFCC-364A-A1C0-ED82BE268096}" name="% All students IAR Mathematics Level 4 - Grade 7" dataDxfId="43"/>
+    <tableColumn id="115" xr3:uid="{50F32122-C218-2848-9B5E-7B3FCF3F89E2}" name="% All students IAR Mathematics Level 5 - Grade 7" dataDxfId="42"/>
+    <tableColumn id="116" xr3:uid="{E359B9F7-D5AD-E349-A55F-38877DA01441}" name="% All students IAR ELA Level 1 - Grade 8" dataDxfId="41"/>
+    <tableColumn id="117" xr3:uid="{FD9292BF-E7B0-CD42-B60B-371D6D7EED97}" name="% All students IAR ELA Level 2 - Grade 8" dataDxfId="40"/>
+    <tableColumn id="118" xr3:uid="{3ECE2E11-420D-7A46-97EB-6D24DB8D1332}" name="% All students IAR ELA Level 3 - Grade 8" dataDxfId="39"/>
+    <tableColumn id="119" xr3:uid="{14FBB02E-019C-AF4C-9180-F1B3FA3CEC25}" name="% All students IAR ELA Level 4 - Grade 8" dataDxfId="38"/>
+    <tableColumn id="120" xr3:uid="{10A0A9E8-635A-854D-A028-98D894FEFFF2}" name="% All students IAR ELA Level 5 - Grade 8" dataDxfId="37"/>
+    <tableColumn id="121" xr3:uid="{F06B2FE3-9314-EC48-B76D-D29D98F93819}" name="% All students IAR Mathematics Level 1 - Grade 8" dataDxfId="36"/>
+    <tableColumn id="122" xr3:uid="{651BBD41-9898-A245-B250-1A0421718DFD}" name="% All students IAR Mathematics Level 2 - Grade 8" dataDxfId="35"/>
+    <tableColumn id="123" xr3:uid="{2D222852-7268-B148-94DE-2955439FC0D9}" name="% All students IAR Mathematics Level 3 - Grade 8" dataDxfId="34"/>
+    <tableColumn id="124" xr3:uid="{C55FA655-B4FA-B34D-BF96-7A4F914BC92D}" name="% All students IAR Mathematics Level 4 - Grade 8" dataDxfId="33"/>
+    <tableColumn id="125" xr3:uid="{70713A34-CC75-9A40-A064-F7B004C6C343}" name="% All students IAR Mathematics Level 5 - Grade 8" dataDxfId="32"/>
+    <tableColumn id="126" xr3:uid="{7E050A4E-1F41-9A40-B006-6ECAFD6B4D58}" name="# Students IAR Math Participation" dataDxfId="31"/>
+    <tableColumn id="127" xr3:uid="{A948F730-D175-A44A-9DFB-6527B8339E63}" name="% Students IAR Math Participation" dataDxfId="30"/>
+    <tableColumn id="128" xr3:uid="{5E037E5B-E65C-BE42-9FC4-08954641058A}" name="# Students IAR ELA Participation" dataDxfId="29"/>
+    <tableColumn id="129" xr3:uid="{26522368-F055-4447-AE58-9C126D1EA1C7}" name="% Students IAR ELA Participation" dataDxfId="28"/>
+    <tableColumn id="130" xr3:uid="{9B2AEA67-E6CC-CB45-83A8-8C23034BE63D}" name="IAR ELA No Participation Rate" dataDxfId="27"/>
+    <tableColumn id="131" xr3:uid="{625AFF90-E4E5-034B-A879-E2B5760AC282}" name="IAR Math No Participation Rate" dataDxfId="26"/>
+    <tableColumn id="132" xr3:uid="{29B89C6C-9339-404A-AF82-DB0D3A222F3F}" name="% Community College Remediation" dataDxfId="25"/>
+    <tableColumn id="133" xr3:uid="{DBC9D35A-12A7-024D-AD84-BAE3D1E852F5}" name="% Community College Remediation - Reading" dataDxfId="24"/>
+    <tableColumn id="134" xr3:uid="{F16A3308-5B9F-5C49-BC36-E58E6F759587}" name="% Community College Remediation - Math" dataDxfId="23"/>
+    <tableColumn id="135" xr3:uid="{EBD68FC6-33A5-0449-9DDE-ED4341B71BBC}" name="% Community College Remediation - Communication" dataDxfId="22"/>
+    <tableColumn id="136" xr3:uid="{7677EA77-55C0-6340-A86D-25BCFB0B1AD7}" name="% Graduates enrolled in a Postsecondary Institution within 12 months" dataDxfId="21"/>
+    <tableColumn id="137" xr3:uid="{754A2BDC-3313-CE40-9F3F-2BD573EA75EB}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Public Institition" dataDxfId="20"/>
+    <tableColumn id="138" xr3:uid="{B198F225-9C72-564B-AD78-59AB07AFA5D8}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Private Institution" dataDxfId="19"/>
+    <tableColumn id="139" xr3:uid="{874B7093-79B7-984C-936B-FE7084604594}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Four-year Institution" dataDxfId="18"/>
+    <tableColumn id="140" xr3:uid="{B4DF4D71-019B-8A46-9A8B-5654791E6C34}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Two-year Institution" dataDxfId="17"/>
+    <tableColumn id="141" xr3:uid="{189D99CA-793F-634D-A81E-7155132D48C2}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Trade/Vocational School" dataDxfId="16"/>
+    <tableColumn id="142" xr3:uid="{57A98670-CF80-EA41-844D-B0365140F834}" name="% Graduates enrolled in a Postsecondary Institution within 16 months" dataDxfId="15"/>
+    <tableColumn id="143" xr3:uid="{CEA01699-9998-2B44-999D-252443994649}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Public Institition" dataDxfId="14"/>
+    <tableColumn id="144" xr3:uid="{772E6547-222F-3E4B-9068-1C3A9D1A53C8}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Private Institution" dataDxfId="13"/>
+    <tableColumn id="145" xr3:uid="{86412A3B-196A-4841-9A44-312EF6D68C3E}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Four-year Institution" dataDxfId="12"/>
+    <tableColumn id="146" xr3:uid="{E38AABD2-67F1-964D-BED3-9330423809BA}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Two-year Institution" dataDxfId="11"/>
+    <tableColumn id="147" xr3:uid="{0C630235-9E1C-A045-9C59-D9DCEAF08337}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Trade/Vocational School" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H794" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H794" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H890" totalsRowShown="0" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:H890" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H323">
     <sortCondition ref="B1:B323"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{6FC8DE02-1AAB-8248-8E52-B299C7FFB44A}" name="Disaggregation Format"/>
-    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F1FC7976-8703-F741-A840-3B88EF6176BE}" name="Table5" displayName="Table5" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{F1FC7976-8703-F741-A840-3B88EF6176BE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A8B448A4-30B1-C440-902C-9B91549BC0DA}" name="Metric"/>
+    <tableColumn id="2" xr3:uid="{BECACC40-0E74-FD4D-AC89-15309A97E5C1}" name="Years"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3898,11 +4226,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA26"/>
+  <dimension ref="A1:EQ26"/>
   <sheetViews>
-    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR33" sqref="AR33"/>
+    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE9" sqref="BE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3962,9 +4290,26 @@
     <col min="63" max="63" width="55.1640625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="52.5" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="68" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="59" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="74.83203125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="76.83203125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="59" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="74.83203125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="76.83203125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="79.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:147" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4353,13 +4698,61 @@
         <v>326</v>
       </c>
       <c r="DZ1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="EA1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:131" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>403</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>404</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>405</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>406</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>407</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>419</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>410</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>411</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>412</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>413</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>420</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>415</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>416</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>417</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -4416,7 +4809,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -4473,7 +4866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -4530,7 +4923,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -4587,7 +4980,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -4644,7 +5037,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -4701,7 +5094,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -4766,8 +5159,14 @@
       <c r="BD8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="9" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EF8" t="s">
+        <v>424</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -4835,8 +5234,14 @@
       <c r="BD9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="10" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EF9" t="s">
+        <v>424</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -4949,8 +5354,17 @@
       <c r="BM10" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="11" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EB10" t="s">
+        <v>398</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>424</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -5063,8 +5477,17 @@
       <c r="BM11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="12" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EB11" t="s">
+        <v>398</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>424</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -5203,8 +5626,26 @@
       <c r="BM12" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="13" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EB12" t="s">
+        <v>399</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>400</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>401</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>402</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>422</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -5550,8 +5991,56 @@
       <c r="DY13" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="14" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EB13" t="s">
+        <v>403</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>404</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>405</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>406</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>407</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>408</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>410</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>411</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>412</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>413</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>414</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>415</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>416</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>417</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -5705,8 +6194,56 @@
       <c r="BM14" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="15" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EB14" t="s">
+        <v>403</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>404</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>405</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>406</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>407</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>419</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>410</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>411</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>412</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>413</v>
+      </c>
+      <c r="EM14" t="s">
+        <v>420</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>415</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>416</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>417</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -6058,8 +6595,56 @@
       <c r="DY15" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="16" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EB15" t="s">
+        <v>403</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>404</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>405</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>406</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>407</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>419</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>410</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>411</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>412</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>413</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>420</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>415</v>
+      </c>
+      <c r="EO15" t="s">
+        <v>416</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>417</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -6429,8 +7014,56 @@
       <c r="EA16" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="17" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EB16" t="s">
+        <v>403</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>404</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>405</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>406</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>407</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>419</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>410</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>411</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>412</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>413</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>420</v>
+      </c>
+      <c r="EN16" t="s">
+        <v>415</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>416</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>417</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -6815,11 +7448,59 @@
       <c r="EA17" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="19" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="EB17" t="s">
+        <v>403</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>404</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>405</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>406</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>407</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>419</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>410</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>411</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>412</v>
+      </c>
+      <c r="EL17" t="s">
+        <v>413</v>
+      </c>
+      <c r="EM17" t="s">
+        <v>420</v>
+      </c>
+      <c r="EN17" t="s">
+        <v>415</v>
+      </c>
+      <c r="EO17" t="s">
+        <v>416</v>
+      </c>
+      <c r="EP17" t="s">
+        <v>417</v>
+      </c>
+      <c r="EQ17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:147" x14ac:dyDescent="0.2">
       <c r="BD19" s="18"/>
     </row>
-    <row r="26" spans="1:131" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:147" x14ac:dyDescent="0.2">
       <c r="AP26" s="16"/>
     </row>
   </sheetData>
@@ -6834,12 +7515,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:H794"/>
+  <dimension ref="A1:H890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A773" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A792" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A162" sqref="A162"/>
-      <selection pane="topRight" activeCell="B787" sqref="B787"/>
+      <selection pane="topRight" activeCell="C885" sqref="C885"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22051,7 +22732,7 @@
         <v>2022</v>
       </c>
       <c r="B791" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C791" t="s">
         <v>387</v>
@@ -22071,7 +22752,7 @@
         <v>2023</v>
       </c>
       <c r="B792" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C792" t="s">
         <v>387</v>
@@ -22091,7 +22772,7 @@
         <v>2022</v>
       </c>
       <c r="B793" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C793" t="s">
         <v>388</v>
@@ -22111,7 +22792,7 @@
         <v>2023</v>
       </c>
       <c r="B794" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C794" t="s">
         <v>388</v>
@@ -22124,6 +22805,1638 @@
       </c>
       <c r="G794" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>2016</v>
+      </c>
+      <c r="B795" t="s">
+        <v>398</v>
+      </c>
+      <c r="C795" t="s">
+        <v>403</v>
+      </c>
+      <c r="D795" t="s">
+        <v>34</v>
+      </c>
+      <c r="E795" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>2017</v>
+      </c>
+      <c r="B796" t="s">
+        <v>398</v>
+      </c>
+      <c r="C796" t="s">
+        <v>403</v>
+      </c>
+      <c r="D796" t="s">
+        <v>34</v>
+      </c>
+      <c r="E796" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>2018</v>
+      </c>
+      <c r="B797" t="s">
+        <v>399</v>
+      </c>
+      <c r="C797" t="s">
+        <v>403</v>
+      </c>
+      <c r="D797" t="s">
+        <v>34</v>
+      </c>
+      <c r="E797" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>2019</v>
+      </c>
+      <c r="B798" t="s">
+        <v>403</v>
+      </c>
+      <c r="C798" t="s">
+        <v>403</v>
+      </c>
+      <c r="D798" t="s">
+        <v>34</v>
+      </c>
+      <c r="E798" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>2020</v>
+      </c>
+      <c r="B799" t="s">
+        <v>403</v>
+      </c>
+      <c r="C799" t="s">
+        <v>403</v>
+      </c>
+      <c r="D799" t="s">
+        <v>34</v>
+      </c>
+      <c r="E799" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>2021</v>
+      </c>
+      <c r="B800" t="s">
+        <v>403</v>
+      </c>
+      <c r="C800" t="s">
+        <v>403</v>
+      </c>
+      <c r="D800" t="s">
+        <v>34</v>
+      </c>
+      <c r="E800" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>2022</v>
+      </c>
+      <c r="B801" t="s">
+        <v>403</v>
+      </c>
+      <c r="C801" t="s">
+        <v>403</v>
+      </c>
+      <c r="D801" t="s">
+        <v>34</v>
+      </c>
+      <c r="E801" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>2023</v>
+      </c>
+      <c r="B802" t="s">
+        <v>403</v>
+      </c>
+      <c r="C802" t="s">
+        <v>403</v>
+      </c>
+      <c r="D802" t="s">
+        <v>34</v>
+      </c>
+      <c r="E802" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>2018</v>
+      </c>
+      <c r="B803" t="s">
+        <v>400</v>
+      </c>
+      <c r="C803" t="s">
+        <v>404</v>
+      </c>
+      <c r="D803" t="s">
+        <v>34</v>
+      </c>
+      <c r="E803" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>2019</v>
+      </c>
+      <c r="B804" t="s">
+        <v>404</v>
+      </c>
+      <c r="C804" t="s">
+        <v>404</v>
+      </c>
+      <c r="D804" t="s">
+        <v>34</v>
+      </c>
+      <c r="E804" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>2020</v>
+      </c>
+      <c r="B805" t="s">
+        <v>404</v>
+      </c>
+      <c r="C805" t="s">
+        <v>404</v>
+      </c>
+      <c r="D805" t="s">
+        <v>34</v>
+      </c>
+      <c r="E805" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>2021</v>
+      </c>
+      <c r="B806" t="s">
+        <v>404</v>
+      </c>
+      <c r="C806" t="s">
+        <v>404</v>
+      </c>
+      <c r="D806" t="s">
+        <v>34</v>
+      </c>
+      <c r="E806" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>2022</v>
+      </c>
+      <c r="B807" t="s">
+        <v>404</v>
+      </c>
+      <c r="C807" t="s">
+        <v>404</v>
+      </c>
+      <c r="D807" t="s">
+        <v>34</v>
+      </c>
+      <c r="E807" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>2023</v>
+      </c>
+      <c r="B808" t="s">
+        <v>404</v>
+      </c>
+      <c r="C808" t="s">
+        <v>404</v>
+      </c>
+      <c r="D808" t="s">
+        <v>34</v>
+      </c>
+      <c r="E808" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>2018</v>
+      </c>
+      <c r="B809" t="s">
+        <v>401</v>
+      </c>
+      <c r="C809" t="s">
+        <v>405</v>
+      </c>
+      <c r="D809" t="s">
+        <v>34</v>
+      </c>
+      <c r="E809" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>2019</v>
+      </c>
+      <c r="B810" t="s">
+        <v>405</v>
+      </c>
+      <c r="C810" t="s">
+        <v>405</v>
+      </c>
+      <c r="D810" t="s">
+        <v>34</v>
+      </c>
+      <c r="E810" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>2020</v>
+      </c>
+      <c r="B811" t="s">
+        <v>405</v>
+      </c>
+      <c r="C811" t="s">
+        <v>405</v>
+      </c>
+      <c r="D811" t="s">
+        <v>34</v>
+      </c>
+      <c r="E811" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>2021</v>
+      </c>
+      <c r="B812" t="s">
+        <v>405</v>
+      </c>
+      <c r="C812" t="s">
+        <v>405</v>
+      </c>
+      <c r="D812" t="s">
+        <v>34</v>
+      </c>
+      <c r="E812" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>2022</v>
+      </c>
+      <c r="B813" t="s">
+        <v>405</v>
+      </c>
+      <c r="C813" t="s">
+        <v>405</v>
+      </c>
+      <c r="D813" t="s">
+        <v>34</v>
+      </c>
+      <c r="E813" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>2023</v>
+      </c>
+      <c r="B814" t="s">
+        <v>405</v>
+      </c>
+      <c r="C814" t="s">
+        <v>405</v>
+      </c>
+      <c r="D814" t="s">
+        <v>34</v>
+      </c>
+      <c r="E814" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>2018</v>
+      </c>
+      <c r="B815" t="s">
+        <v>402</v>
+      </c>
+      <c r="C815" t="s">
+        <v>406</v>
+      </c>
+      <c r="D815" t="s">
+        <v>34</v>
+      </c>
+      <c r="E815" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>2019</v>
+      </c>
+      <c r="B816" t="s">
+        <v>406</v>
+      </c>
+      <c r="C816" t="s">
+        <v>406</v>
+      </c>
+      <c r="D816" t="s">
+        <v>34</v>
+      </c>
+      <c r="E816" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>2020</v>
+      </c>
+      <c r="B817" t="s">
+        <v>406</v>
+      </c>
+      <c r="C817" t="s">
+        <v>406</v>
+      </c>
+      <c r="D817" t="s">
+        <v>34</v>
+      </c>
+      <c r="E817" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>2021</v>
+      </c>
+      <c r="B818" t="s">
+        <v>406</v>
+      </c>
+      <c r="C818" t="s">
+        <v>406</v>
+      </c>
+      <c r="D818" t="s">
+        <v>34</v>
+      </c>
+      <c r="E818" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>2022</v>
+      </c>
+      <c r="B819" t="s">
+        <v>406</v>
+      </c>
+      <c r="C819" t="s">
+        <v>406</v>
+      </c>
+      <c r="D819" t="s">
+        <v>34</v>
+      </c>
+      <c r="E819" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>2023</v>
+      </c>
+      <c r="B820" t="s">
+        <v>406</v>
+      </c>
+      <c r="C820" t="s">
+        <v>406</v>
+      </c>
+      <c r="D820" t="s">
+        <v>34</v>
+      </c>
+      <c r="E820" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A821" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B821" t="s">
+        <v>407</v>
+      </c>
+      <c r="C821" t="s">
+        <v>407</v>
+      </c>
+      <c r="D821" t="s">
+        <v>34</v>
+      </c>
+      <c r="E821" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A822" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B822" t="s">
+        <v>407</v>
+      </c>
+      <c r="C822" t="s">
+        <v>407</v>
+      </c>
+      <c r="D822" t="s">
+        <v>34</v>
+      </c>
+      <c r="E822" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A823" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B823" t="s">
+        <v>407</v>
+      </c>
+      <c r="C823" t="s">
+        <v>407</v>
+      </c>
+      <c r="D823" t="s">
+        <v>34</v>
+      </c>
+      <c r="E823" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A824" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B824" t="s">
+        <v>407</v>
+      </c>
+      <c r="C824" t="s">
+        <v>407</v>
+      </c>
+      <c r="D824" t="s">
+        <v>34</v>
+      </c>
+      <c r="E824" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A825" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B825" t="s">
+        <v>407</v>
+      </c>
+      <c r="C825" t="s">
+        <v>407</v>
+      </c>
+      <c r="D825" t="s">
+        <v>34</v>
+      </c>
+      <c r="E825" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A826" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B826" t="s">
+        <v>408</v>
+      </c>
+      <c r="C826" t="s">
+        <v>408</v>
+      </c>
+      <c r="D826" t="s">
+        <v>34</v>
+      </c>
+      <c r="E826" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A827" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B827" t="s">
+        <v>419</v>
+      </c>
+      <c r="C827" t="s">
+        <v>419</v>
+      </c>
+      <c r="D827" t="s">
+        <v>34</v>
+      </c>
+      <c r="E827" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A828" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B828" t="s">
+        <v>419</v>
+      </c>
+      <c r="C828" t="s">
+        <v>419</v>
+      </c>
+      <c r="D828" t="s">
+        <v>34</v>
+      </c>
+      <c r="E828" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A829" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B829" t="s">
+        <v>419</v>
+      </c>
+      <c r="C829" t="s">
+        <v>419</v>
+      </c>
+      <c r="D829" t="s">
+        <v>34</v>
+      </c>
+      <c r="E829" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A830" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B830" t="s">
+        <v>419</v>
+      </c>
+      <c r="C830" t="s">
+        <v>419</v>
+      </c>
+      <c r="D830" t="s">
+        <v>34</v>
+      </c>
+      <c r="E830" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A831" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B831" t="s">
+        <v>409</v>
+      </c>
+      <c r="C831" t="s">
+        <v>409</v>
+      </c>
+      <c r="D831" t="s">
+        <v>34</v>
+      </c>
+      <c r="E831" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A832" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B832" t="s">
+        <v>409</v>
+      </c>
+      <c r="C832" t="s">
+        <v>409</v>
+      </c>
+      <c r="D832" t="s">
+        <v>34</v>
+      </c>
+      <c r="E832" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A833" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B833" t="s">
+        <v>409</v>
+      </c>
+      <c r="C833" t="s">
+        <v>409</v>
+      </c>
+      <c r="D833" t="s">
+        <v>34</v>
+      </c>
+      <c r="E833" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A834" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B834" t="s">
+        <v>409</v>
+      </c>
+      <c r="C834" t="s">
+        <v>409</v>
+      </c>
+      <c r="D834" t="s">
+        <v>34</v>
+      </c>
+      <c r="E834" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A835" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B835" t="s">
+        <v>409</v>
+      </c>
+      <c r="C835" t="s">
+        <v>409</v>
+      </c>
+      <c r="D835" t="s">
+        <v>34</v>
+      </c>
+      <c r="E835" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A836" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B836" t="s">
+        <v>410</v>
+      </c>
+      <c r="C836" t="s">
+        <v>410</v>
+      </c>
+      <c r="D836" t="s">
+        <v>34</v>
+      </c>
+      <c r="E836" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A837" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B837" t="s">
+        <v>410</v>
+      </c>
+      <c r="C837" t="s">
+        <v>410</v>
+      </c>
+      <c r="D837" t="s">
+        <v>34</v>
+      </c>
+      <c r="E837" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A838" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B838" t="s">
+        <v>410</v>
+      </c>
+      <c r="C838" t="s">
+        <v>410</v>
+      </c>
+      <c r="D838" t="s">
+        <v>34</v>
+      </c>
+      <c r="E838" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A839" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B839" t="s">
+        <v>410</v>
+      </c>
+      <c r="C839" t="s">
+        <v>410</v>
+      </c>
+      <c r="D839" t="s">
+        <v>34</v>
+      </c>
+      <c r="E839" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A840" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B840" t="s">
+        <v>410</v>
+      </c>
+      <c r="C840" t="s">
+        <v>410</v>
+      </c>
+      <c r="D840" t="s">
+        <v>34</v>
+      </c>
+      <c r="E840" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A841" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B841" t="s">
+        <v>411</v>
+      </c>
+      <c r="C841" t="s">
+        <v>411</v>
+      </c>
+      <c r="D841" t="s">
+        <v>34</v>
+      </c>
+      <c r="E841" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A842" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B842" t="s">
+        <v>411</v>
+      </c>
+      <c r="C842" t="s">
+        <v>411</v>
+      </c>
+      <c r="D842" t="s">
+        <v>34</v>
+      </c>
+      <c r="E842" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A843" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B843" t="s">
+        <v>411</v>
+      </c>
+      <c r="C843" t="s">
+        <v>411</v>
+      </c>
+      <c r="D843" t="s">
+        <v>34</v>
+      </c>
+      <c r="E843" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A844" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B844" t="s">
+        <v>411</v>
+      </c>
+      <c r="C844" t="s">
+        <v>411</v>
+      </c>
+      <c r="D844" t="s">
+        <v>34</v>
+      </c>
+      <c r="E844" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A845" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B845" t="s">
+        <v>411</v>
+      </c>
+      <c r="C845" t="s">
+        <v>411</v>
+      </c>
+      <c r="D845" t="s">
+        <v>34</v>
+      </c>
+      <c r="E845" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A846" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B846" t="s">
+        <v>412</v>
+      </c>
+      <c r="C846" t="s">
+        <v>412</v>
+      </c>
+      <c r="D846" t="s">
+        <v>34</v>
+      </c>
+      <c r="E846" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A847" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B847" t="s">
+        <v>412</v>
+      </c>
+      <c r="C847" t="s">
+        <v>412</v>
+      </c>
+      <c r="D847" t="s">
+        <v>34</v>
+      </c>
+      <c r="E847" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A848" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B848" t="s">
+        <v>412</v>
+      </c>
+      <c r="C848" t="s">
+        <v>412</v>
+      </c>
+      <c r="D848" t="s">
+        <v>34</v>
+      </c>
+      <c r="E848" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A849" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B849" t="s">
+        <v>412</v>
+      </c>
+      <c r="C849" t="s">
+        <v>412</v>
+      </c>
+      <c r="D849" t="s">
+        <v>34</v>
+      </c>
+      <c r="E849" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A850" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B850" t="s">
+        <v>412</v>
+      </c>
+      <c r="C850" t="s">
+        <v>412</v>
+      </c>
+      <c r="D850" t="s">
+        <v>34</v>
+      </c>
+      <c r="E850" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A851" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B851" t="s">
+        <v>413</v>
+      </c>
+      <c r="C851" t="s">
+        <v>413</v>
+      </c>
+      <c r="D851" t="s">
+        <v>34</v>
+      </c>
+      <c r="E851" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A852" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B852" t="s">
+        <v>413</v>
+      </c>
+      <c r="C852" t="s">
+        <v>413</v>
+      </c>
+      <c r="D852" t="s">
+        <v>34</v>
+      </c>
+      <c r="E852" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A853" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B853" t="s">
+        <v>413</v>
+      </c>
+      <c r="C853" t="s">
+        <v>413</v>
+      </c>
+      <c r="D853" t="s">
+        <v>34</v>
+      </c>
+      <c r="E853" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A854" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B854" t="s">
+        <v>413</v>
+      </c>
+      <c r="C854" t="s">
+        <v>413</v>
+      </c>
+      <c r="D854" t="s">
+        <v>34</v>
+      </c>
+      <c r="E854" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A855" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B855" t="s">
+        <v>413</v>
+      </c>
+      <c r="C855" t="s">
+        <v>413</v>
+      </c>
+      <c r="D855" t="s">
+        <v>34</v>
+      </c>
+      <c r="E855" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A856" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B856" t="s">
+        <v>414</v>
+      </c>
+      <c r="C856" t="s">
+        <v>414</v>
+      </c>
+      <c r="D856" t="s">
+        <v>34</v>
+      </c>
+      <c r="E856" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A857" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B857" t="s">
+        <v>420</v>
+      </c>
+      <c r="C857" t="s">
+        <v>420</v>
+      </c>
+      <c r="D857" t="s">
+        <v>34</v>
+      </c>
+      <c r="E857" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A858" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B858" t="s">
+        <v>420</v>
+      </c>
+      <c r="C858" t="s">
+        <v>420</v>
+      </c>
+      <c r="D858" t="s">
+        <v>34</v>
+      </c>
+      <c r="E858" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A859" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B859" t="s">
+        <v>420</v>
+      </c>
+      <c r="C859" t="s">
+        <v>420</v>
+      </c>
+      <c r="D859" t="s">
+        <v>34</v>
+      </c>
+      <c r="E859" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A860" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B860" t="s">
+        <v>420</v>
+      </c>
+      <c r="C860" t="s">
+        <v>420</v>
+      </c>
+      <c r="D860" t="s">
+        <v>34</v>
+      </c>
+      <c r="E860" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A861" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B861" t="s">
+        <v>415</v>
+      </c>
+      <c r="C861" t="s">
+        <v>415</v>
+      </c>
+      <c r="D861" t="s">
+        <v>34</v>
+      </c>
+      <c r="E861" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A862" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B862" t="s">
+        <v>415</v>
+      </c>
+      <c r="C862" t="s">
+        <v>415</v>
+      </c>
+      <c r="D862" t="s">
+        <v>34</v>
+      </c>
+      <c r="E862" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A863" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B863" t="s">
+        <v>415</v>
+      </c>
+      <c r="C863" t="s">
+        <v>415</v>
+      </c>
+      <c r="D863" t="s">
+        <v>34</v>
+      </c>
+      <c r="E863" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A864" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B864" t="s">
+        <v>415</v>
+      </c>
+      <c r="C864" t="s">
+        <v>415</v>
+      </c>
+      <c r="D864" t="s">
+        <v>34</v>
+      </c>
+      <c r="E864" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A865" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B865" t="s">
+        <v>415</v>
+      </c>
+      <c r="C865" t="s">
+        <v>415</v>
+      </c>
+      <c r="D865" t="s">
+        <v>34</v>
+      </c>
+      <c r="E865" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A866" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B866" t="s">
+        <v>416</v>
+      </c>
+      <c r="C866" t="s">
+        <v>416</v>
+      </c>
+      <c r="D866" t="s">
+        <v>34</v>
+      </c>
+      <c r="E866" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A867" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B867" t="s">
+        <v>416</v>
+      </c>
+      <c r="C867" t="s">
+        <v>416</v>
+      </c>
+      <c r="D867" t="s">
+        <v>34</v>
+      </c>
+      <c r="E867" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A868" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B868" t="s">
+        <v>416</v>
+      </c>
+      <c r="C868" t="s">
+        <v>416</v>
+      </c>
+      <c r="D868" t="s">
+        <v>34</v>
+      </c>
+      <c r="E868" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A869" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B869" t="s">
+        <v>416</v>
+      </c>
+      <c r="C869" t="s">
+        <v>416</v>
+      </c>
+      <c r="D869" t="s">
+        <v>34</v>
+      </c>
+      <c r="E869" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A870" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B870" t="s">
+        <v>416</v>
+      </c>
+      <c r="C870" t="s">
+        <v>416</v>
+      </c>
+      <c r="D870" t="s">
+        <v>34</v>
+      </c>
+      <c r="E870" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A871" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B871" t="s">
+        <v>417</v>
+      </c>
+      <c r="C871" t="s">
+        <v>417</v>
+      </c>
+      <c r="D871" t="s">
+        <v>34</v>
+      </c>
+      <c r="E871" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A872" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B872" t="s">
+        <v>417</v>
+      </c>
+      <c r="C872" t="s">
+        <v>417</v>
+      </c>
+      <c r="D872" t="s">
+        <v>34</v>
+      </c>
+      <c r="E872" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A873" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B873" t="s">
+        <v>417</v>
+      </c>
+      <c r="C873" t="s">
+        <v>417</v>
+      </c>
+      <c r="D873" t="s">
+        <v>34</v>
+      </c>
+      <c r="E873" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A874" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B874" t="s">
+        <v>417</v>
+      </c>
+      <c r="C874" t="s">
+        <v>417</v>
+      </c>
+      <c r="D874" t="s">
+        <v>34</v>
+      </c>
+      <c r="E874" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A875" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B875" t="s">
+        <v>417</v>
+      </c>
+      <c r="C875" t="s">
+        <v>417</v>
+      </c>
+      <c r="D875" t="s">
+        <v>34</v>
+      </c>
+      <c r="E875" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A876" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B876" t="s">
+        <v>418</v>
+      </c>
+      <c r="C876" t="s">
+        <v>418</v>
+      </c>
+      <c r="D876" t="s">
+        <v>34</v>
+      </c>
+      <c r="E876" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A877" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B877" t="s">
+        <v>418</v>
+      </c>
+      <c r="C877" t="s">
+        <v>418</v>
+      </c>
+      <c r="D877" t="s">
+        <v>34</v>
+      </c>
+      <c r="E877" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A878" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B878" t="s">
+        <v>418</v>
+      </c>
+      <c r="C878" t="s">
+        <v>418</v>
+      </c>
+      <c r="D878" t="s">
+        <v>34</v>
+      </c>
+      <c r="E878" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A879" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B879" t="s">
+        <v>418</v>
+      </c>
+      <c r="C879" t="s">
+        <v>418</v>
+      </c>
+      <c r="D879" t="s">
+        <v>34</v>
+      </c>
+      <c r="E879" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A880" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B880" t="s">
+        <v>418</v>
+      </c>
+      <c r="C880" t="s">
+        <v>418</v>
+      </c>
+      <c r="D880" t="s">
+        <v>34</v>
+      </c>
+      <c r="E880" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>2018</v>
+      </c>
+      <c r="B881" t="s">
+        <v>407</v>
+      </c>
+      <c r="C881" t="s">
+        <v>422</v>
+      </c>
+      <c r="D881" t="s">
+        <v>34</v>
+      </c>
+      <c r="E881" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>2018</v>
+      </c>
+      <c r="B882" t="s">
+        <v>413</v>
+      </c>
+      <c r="C882" t="s">
+        <v>421</v>
+      </c>
+      <c r="D882" t="s">
+        <v>34</v>
+      </c>
+      <c r="E882" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>2014</v>
+      </c>
+      <c r="B883" t="s">
+        <v>407</v>
+      </c>
+      <c r="C883" t="s">
+        <v>424</v>
+      </c>
+      <c r="D883" t="s">
+        <v>34</v>
+      </c>
+      <c r="E883" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>2015</v>
+      </c>
+      <c r="B884" t="s">
+        <v>407</v>
+      </c>
+      <c r="C884" t="s">
+        <v>424</v>
+      </c>
+      <c r="D884" t="s">
+        <v>34</v>
+      </c>
+      <c r="E884" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>2016</v>
+      </c>
+      <c r="B885" t="s">
+        <v>407</v>
+      </c>
+      <c r="C885" t="s">
+        <v>424</v>
+      </c>
+      <c r="D885" t="s">
+        <v>34</v>
+      </c>
+      <c r="E885" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>2017</v>
+      </c>
+      <c r="B886" t="s">
+        <v>407</v>
+      </c>
+      <c r="C886" t="s">
+        <v>424</v>
+      </c>
+      <c r="D886" t="s">
+        <v>34</v>
+      </c>
+      <c r="E886" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>2014</v>
+      </c>
+      <c r="B887" t="s">
+        <v>413</v>
+      </c>
+      <c r="C887" t="s">
+        <v>423</v>
+      </c>
+      <c r="D887" t="s">
+        <v>34</v>
+      </c>
+      <c r="E887" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>2015</v>
+      </c>
+      <c r="B888" t="s">
+        <v>413</v>
+      </c>
+      <c r="C888" t="s">
+        <v>423</v>
+      </c>
+      <c r="D888" t="s">
+        <v>34</v>
+      </c>
+      <c r="E888" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>2016</v>
+      </c>
+      <c r="B889" t="s">
+        <v>413</v>
+      </c>
+      <c r="C889" t="s">
+        <v>423</v>
+      </c>
+      <c r="D889" t="s">
+        <v>34</v>
+      </c>
+      <c r="E889" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>2017</v>
+      </c>
+      <c r="B890" t="s">
+        <v>413</v>
+      </c>
+      <c r="C890" t="s">
+        <v>423</v>
+      </c>
+      <c r="D890" t="s">
+        <v>34</v>
+      </c>
+      <c r="E890" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22137,35 +24450,107 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8521E5FD-ABD7-A144-B5B7-B0A36A8953CC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB1C15B-5597-114F-BDFB-8D8FF2D17734}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB1C15B-5597-114F-BDFB-8D8FF2D17734}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8521E5FD-ABD7-A144-B5B7-B0A36A8953CC}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6016504-2F1C-6243-97B3-0CBED110888D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="209" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22190,32 +24575,41 @@
         <v>262</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>#REF!="In Progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B598B773ED9FC644B8B740EB3205C8DA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6cfe95817d5870f6c066b2c32ab5fb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xmlns:ns3="d5cc9fc5-cf59-440a-a506-890d57680064" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a231614a4bf4996e6f4146316e2aaf8" ns2:_="" ns3:_="">
     <xsd:import namespace="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
@@ -22478,32 +24872,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5cc9fc5-cf59-440a-a506-890d57680064">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B298AB6-2F6D-497E-AD9E-0F97ABEC8463}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22520,4 +24909,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53CC54CE-CF44-B449-B462-B8F40993CAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CE1A7B-C1FF-0E4D-A343-F3B08A888AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Card Metadata" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5090" uniqueCount="607">
   <si>
     <t>Year</t>
   </si>
@@ -1942,12 +1942,534 @@
       <t xml:space="preserve"> is a Grade 9 to 12 student who has enrolled in at least one CTE course during the school year and has a course outcome of Pass, Fail, or Incomplete</t>
     </r>
   </si>
+  <si>
+    <t># CRDC Total Enrollment</t>
+  </si>
+  <si>
+    <t># CRDC In-School Suspensions</t>
+  </si>
+  <si>
+    <t>% CRDC In-School Suspensions</t>
+  </si>
+  <si>
+    <t># CRDC Out-of-School Suspensions</t>
+  </si>
+  <si>
+    <t>% CRDC Out-of-School Suspensions</t>
+  </si>
+  <si>
+    <t># CRDC Expulsions</t>
+  </si>
+  <si>
+    <t>% CRDC Expulsions</t>
+  </si>
+  <si>
+    <t># CRDC School Related Arrests</t>
+  </si>
+  <si>
+    <t>% CRDC School Related Arrests</t>
+  </si>
+  <si>
+    <t># CRDC Referral to Law Enforcement</t>
+  </si>
+  <si>
+    <t>% CRDC Referral to Law Enforcement</t>
+  </si>
+  <si>
+    <t># CRDC Chronic Absenteeism</t>
+  </si>
+  <si>
+    <t>% CRDC Chronic Absenteeism</t>
+  </si>
+  <si>
+    <t># CRDC Incidents of Violence</t>
+  </si>
+  <si>
+    <t>% CRDC Incidents of Violence</t>
+  </si>
+  <si>
+    <t># CRDC Enrolled PreK</t>
+  </si>
+  <si>
+    <t>% CRDC Enrolled PreK</t>
+  </si>
+  <si>
+    <t># CRDC Advanced Placement Coursework</t>
+  </si>
+  <si>
+    <t>% CRDC Advanced Placement Coursework</t>
+  </si>
+  <si>
+    <t># CRDC IB Course</t>
+  </si>
+  <si>
+    <t>% CRDC IB Course</t>
+  </si>
+  <si>
+    <t># CRDC Dual Credit Courses</t>
+  </si>
+  <si>
+    <t>% CRDC Dual Credeit Courses</t>
+  </si>
+  <si>
+    <t># CRDC Firearm Incident</t>
+  </si>
+  <si>
+    <t># CRDC Homicide Incident</t>
+  </si>
+  <si>
+    <t># CRDC Total Enrollment (2018)</t>
+  </si>
+  <si>
+    <t># CRDC In-School Suspensions (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC In-School Suspensions (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Out-of-School Suspensions (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC Out-of-School Suspensions (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Expulsions (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC Expulsions (2018)</t>
+  </si>
+  <si>
+    <t># CRDC School Related Arrests (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC School Related Arrests (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Referral to Law Enforcement (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC Referral to Law Enforcement (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Chronic Absenteeism (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC Chronic Absenteeism (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Incidents of Violence (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC Incidents of Violence (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Enrolled PreK (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC Enrolled PreK (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Advanced Placement Coursework (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC Advanced Placement Coursework (2018)</t>
+  </si>
+  <si>
+    <t># CRDC IB Course (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC IB Course (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Dual Credit Courses (2018)</t>
+  </si>
+  <si>
+    <t>% CRDC Dual Credeit Courses (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Firearm Incident (2018)</t>
+  </si>
+  <si>
+    <t># CRDC Homicide Incident (2018)</t>
+  </si>
+  <si>
+    <t>2015-2016</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>CRDC Years</t>
+  </si>
+  <si>
+    <t>% CRDC Dual Credit Courses</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Released in the upcoming report card</t>
+  </si>
+  <si>
+    <t>duplicate of dual credit section</t>
+  </si>
+  <si>
+    <t># Students with Discipline Incidents</t>
+  </si>
+  <si>
+    <t># Discipline Incidents</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - 9-12</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Tobacco</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Alcohol</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Drug Offenses</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Violence with Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Violence without Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Dangerous Weapon: Firearm</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Dangerous Weapon: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Reason: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Duration less than 1 day</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Duration 1-2 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Duration 2-3 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Duration 3-4 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Duration 4-10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Duration more than 10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Grades K - 8</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Grades 9 - 12</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Tobacco</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Alcohol</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Drug Offenses</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Violence with Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Violence without Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Dangerous Weapon: Firearm</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Dangerous Weapon: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Reason: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Duration less than 1 day</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Duration 1-2 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Duration 2-3 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Duration 3-4 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Duration 4-10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - Duration more than 10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Grades K - 8</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Grades 9 - 12</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Tobacco</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Alcohol</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Drug Offenses</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Violence with Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Violence without Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Dangerous Weapon: Firearm</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Dangerous Weapon: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Reason: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration less than 1 day</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration 1-2 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration 2-3 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration 3-4 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration 4-10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration more than 10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Grades K - 8</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Grades 9 - 12</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Tobacco</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Alcohol</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Drug Offenses</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Violence with Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Violence without Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Dangerous Weapon: Firearm</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Dangerous Weapon: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Reason: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Duration less than 1 day</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Duration 1-2 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Duration 2-3 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Duration 3-4 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Duration 4-10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - Duration more than 10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Grades K - 8</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Grades 9 - 12</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Tobacco</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Alcohol</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Drug Offenses</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Violence with Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Violence without Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Dangerous Weapon: Firearm</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Dangerous Weapon: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Reason: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Duration less than 1 day</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Duration 1-2 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Duration 2-3 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Duration 1-2 days2</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Duration 4-10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Duration more than 10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Grades K - 8</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Grades 9 - 12</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Tobacco</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Alcohol</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Drug Offenses</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Violence with Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Violence without Physical Injury</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Dangerous Weapon: Firearm</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Dangerous Weapon: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Reason: Other</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Duration less than 1 day</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Duration 1-2 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Duration 2-3 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Duration 3-4 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Duration 4-10 days</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - Duration more than 10 days</t>
+  </si>
+  <si>
+    <t># Students with Discipline Incidents - Expulsion: Received Educational Srvcs</t>
+  </si>
+  <si>
+    <t># Students with Discipline Incidents - Expulsion: Did not Receive Educational Srvcs</t>
+  </si>
+  <si>
+    <t># Students with Discipline Incidents - In-school Suspension</t>
+  </si>
+  <si>
+    <t># Students with Discipline Incidents - Out-of-School Suspension</t>
+  </si>
+  <si>
+    <t># Students with Discipline Incidents - Removal</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - Duration 3-4 days</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - demo</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Received Educational Srvcs - demo</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - demo</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - In-school Suspension - demo</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Out-of-School Suspension - demo</t>
+  </si>
+  <si>
+    <t># Discipline Incidents - Removal - demo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2008,20 +2530,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2046,14 +2561,8 @@
         <bgColor rgb="FFC0E4F5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2129,11 +2638,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF43AEE2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF43AEE2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF43AEE2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2157,23 +2690,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6FAF4"/>
-          <bgColor rgb="FFF6FAF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="287">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2225,6 +2756,930 @@
           <color theme="4" tint="0.39997558519241921"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3407,179 +4862,311 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:EQ17" totalsRowShown="0" dataDxfId="155">
-  <autoFilter ref="A1:EQ17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}" name="Table1" displayName="Table1" ref="A1:JS17" totalsRowShown="0" dataDxfId="286">
+  <autoFilter ref="A1:JS17" xr:uid="{B5918521-6A40-A04C-A021-2946602B8D6D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
     <sortCondition ref="A1:A17"/>
   </sortState>
-  <tableColumns count="147">
-    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="152"/>
-    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="151"/>
-    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="148"/>
-    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="147"/>
-    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="146"/>
-    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="145"/>
-    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="144"/>
-    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="143"/>
-    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="141"/>
-    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="140"/>
-    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="139"/>
-    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="138"/>
-    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="137"/>
-    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="136"/>
-    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="135"/>
-    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="134"/>
-    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="133"/>
-    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="132"/>
-    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="131"/>
-    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="130"/>
-    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="129"/>
-    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="128"/>
-    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="127"/>
-    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="126"/>
-    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="125"/>
-    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="124"/>
-    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="123"/>
-    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="122"/>
-    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="121"/>
-    <tableColumn id="35" xr3:uid="{62431BD2-7051-FC48-BD9B-525CBF545DDD}" name="# Students who took AP classes Grade 9" dataDxfId="120"/>
-    <tableColumn id="36" xr3:uid="{73C469BE-B611-0145-B886-AAA2CB70EAE8}" name="# Students who took AP classes Grade 10" dataDxfId="119"/>
-    <tableColumn id="37" xr3:uid="{CFE88FEF-98CA-654A-B3B8-05790EA4E553}" name="# Students who took AP classes Grade 11" dataDxfId="118"/>
-    <tableColumn id="38" xr3:uid="{CB531B3F-8204-2644-91D3-88ACB4BFD0A7}" name="# Students who took AP classes Grade 12" dataDxfId="117"/>
-    <tableColumn id="39" xr3:uid="{97ED4799-6B71-FF44-A7E9-0D6FEC826075}" name="# Students who took IB classes Grade 9" dataDxfId="116"/>
-    <tableColumn id="40" xr3:uid="{F30102B8-881A-CA42-88CE-89D1D66A2AFB}" name="# Students who took IB classes Grade 10" dataDxfId="115"/>
-    <tableColumn id="41" xr3:uid="{99E2E959-F950-414B-BBF3-82CF023E0766}" name="# Students who took IB classes Grade 11" dataDxfId="114"/>
-    <tableColumn id="42" xr3:uid="{E9437747-1EEE-D94C-8B2E-5EB4508C3746}" name="# Students who took IB classes Grade 12" dataDxfId="113"/>
-    <tableColumn id="43" xr3:uid="{3CBA554F-964A-B546-B1CB-F3FFBC958E43}" name="# Out-of-Field Teachers" dataDxfId="112"/>
-    <tableColumn id="44" xr3:uid="{C4CCD547-D042-A040-8E97-CD2FA1F749A9}" name="% Out-of-Field Teachers" dataDxfId="111"/>
+  <tableColumns count="279">
+    <tableColumn id="1" xr3:uid="{6DA6945B-9D7D-0142-A374-7C4A97BBBBAB}" name="Year" dataDxfId="285"/>
+    <tableColumn id="2" xr3:uid="{1617EDAF-51CD-413F-9022-F6E4C97C233F}" name="RCDTS" dataDxfId="284"/>
+    <tableColumn id="3" xr3:uid="{A67D85A4-5303-744E-B7CD-31ECBC6CE0A7}" name="Type" dataDxfId="283"/>
+    <tableColumn id="13" xr3:uid="{C8F50192-B0A1-D84D-96D9-819955E9CE26}" name="District Type" dataDxfId="282"/>
+    <tableColumn id="14" xr3:uid="{A7661728-A363-9840-8182-CBC0352B14C6}" name="School Type" dataDxfId="281"/>
+    <tableColumn id="4" xr3:uid="{94336B41-A312-184A-9F00-C5E1720E28AF}" name="School Name" dataDxfId="280"/>
+    <tableColumn id="5" xr3:uid="{7516DA0D-E868-1941-B0D3-80B0E523A018}" name="District Name" dataDxfId="279"/>
+    <tableColumn id="10" xr3:uid="{DCD59F4B-C55C-2846-9070-7F8CC6CA2F51}" name="City" dataDxfId="278"/>
+    <tableColumn id="11" xr3:uid="{AB642454-853E-F049-84B7-745455B992F3}" name="County" dataDxfId="277"/>
+    <tableColumn id="9" xr3:uid="{5B5F7B45-CEFB-EE48-90E0-380BD11BD347}" name="Student Enrollment" dataDxfId="276"/>
+    <tableColumn id="6" xr3:uid="{DC5BC21C-5B26-D441-96D3-64D606494C9A}" name="Student Attendance Rate" dataDxfId="275"/>
+    <tableColumn id="7" xr3:uid="{16C5B399-2D53-AF41-815C-1F7C3259622D}" name="Student Chronic Truancy Rate" dataDxfId="274"/>
+    <tableColumn id="8" xr3:uid="{E3173650-9CBD-2046-9561-EC76593F21A4}" name="Chronic Absenteeism" dataDxfId="273"/>
+    <tableColumn id="12" xr3:uid="{A5C89E32-E6C7-354A-AD94-8B9E7BF5BEAF}" name="Total Teacher FTE" dataDxfId="272"/>
+    <tableColumn id="15" xr3:uid="{91CEEB72-10AD-5347-AD91-C2EA26951FFD}" name="Teacher Retention Rate" dataDxfId="271"/>
+    <tableColumn id="16" xr3:uid="{B95926A8-CE9E-5E4C-8517-F53E1DD6BB12}" name="Pupil Teacher Ratio - Elementary" dataDxfId="270"/>
+    <tableColumn id="17" xr3:uid="{66E6EF1B-5F71-724F-BE1B-2EAE768FA6E4}" name="Pupil Teacher Ratio - High School" dataDxfId="269"/>
+    <tableColumn id="18" xr3:uid="{FF7C5CB9-8A3F-654A-AAC2-F90DDD57691C}" name="% Novice Teachers" dataDxfId="268"/>
+    <tableColumn id="21" xr3:uid="{14F53AE3-04FD-0049-9CD6-2E8BE716335E}" name="% Novice Teachers - High Poverty Schools" dataDxfId="267"/>
+    <tableColumn id="22" xr3:uid="{1A89C2C1-D5B1-D84E-AF9A-AFFF73A90C04}" name="% Novice Teachers - Low Poverty Schools" dataDxfId="266"/>
+    <tableColumn id="19" xr3:uid="{31BB3C4C-CD8A-9848-85A3-6A3A4A977857}" name="% 8th Grade Passing Algebra 1" dataDxfId="265"/>
+    <tableColumn id="20" xr3:uid="{7DC2CAA5-3B64-9C42-8E87-31C44668510E}" name="% 9th Grade on Track" dataDxfId="264"/>
+    <tableColumn id="23" xr3:uid="{AD3426F6-72EB-7A4F-BA71-66C2A3294CCF}" name="# 9th Grade on Track" dataDxfId="263"/>
+    <tableColumn id="24" xr3:uid="{7124EEF3-D182-7A4B-A827-DEC5EE0B1591}" name="# CTE Enrollment" dataDxfId="262"/>
+    <tableColumn id="25" xr3:uid="{0206B422-7E9A-AF41-A20D-0A4445D084F7}" name="# CTE Participants" dataDxfId="261"/>
+    <tableColumn id="26" xr3:uid="{74152CBC-6192-FA44-8D72-64E4E7284B17}" name="4-Year Graduation Rate (Perkins)" dataDxfId="260"/>
+    <tableColumn id="27" xr3:uid="{E91D57BE-E786-0E41-A6C9-D40C584A25B7}" name="Postsecondary Placement Rate (Perkins)" dataDxfId="259"/>
+    <tableColumn id="28" xr3:uid="{61C1EAC6-2067-F84E-B17C-A8B628C30DA0}" name="Nontraditional Program Enrollment Rate (Perkins)" dataDxfId="258"/>
+    <tableColumn id="29" xr3:uid="{612816CA-7F21-1C4E-9A0F-5C68D82ADF7D}" name="# Students who took Dual Credit classes Grade 9" dataDxfId="257"/>
+    <tableColumn id="30" xr3:uid="{5753F583-62B9-8A44-A3EC-546C676CE502}" name="# Students who took Dual Credit classes Grade 10" dataDxfId="256"/>
+    <tableColumn id="31" xr3:uid="{99388DA0-03B4-324C-93D0-00C4E7DFFD44}" name="# Students who took Dual Credit classes Grade 11" dataDxfId="255"/>
+    <tableColumn id="32" xr3:uid="{100FC056-2E22-0C4B-9AAC-CCBAF3958BB5}" name="# Students who took Dual Credit classes Grade 12" dataDxfId="254"/>
+    <tableColumn id="33" xr3:uid="{7148123E-CBBF-7A4C-A783-2B28AF22F11E}" name="# Students enrolled in Dual Credit Coursework" dataDxfId="253"/>
+    <tableColumn id="34" xr3:uid="{9282E612-FE85-D14F-B5B4-F790B296E915}" name="% Students enrolled in Dual Credit Coursework" dataDxfId="252"/>
+    <tableColumn id="35" xr3:uid="{62431BD2-7051-FC48-BD9B-525CBF545DDD}" name="# Students who took AP classes Grade 9" dataDxfId="251"/>
+    <tableColumn id="36" xr3:uid="{73C469BE-B611-0145-B886-AAA2CB70EAE8}" name="# Students who took AP classes Grade 10" dataDxfId="250"/>
+    <tableColumn id="37" xr3:uid="{CFE88FEF-98CA-654A-B3B8-05790EA4E553}" name="# Students who took AP classes Grade 11" dataDxfId="249"/>
+    <tableColumn id="38" xr3:uid="{CB531B3F-8204-2644-91D3-88ACB4BFD0A7}" name="# Students who took AP classes Grade 12" dataDxfId="248"/>
+    <tableColumn id="39" xr3:uid="{97ED4799-6B71-FF44-A7E9-0D6FEC826075}" name="# Students who took IB classes Grade 9" dataDxfId="247"/>
+    <tableColumn id="40" xr3:uid="{F30102B8-881A-CA42-88CE-89D1D66A2AFB}" name="# Students who took IB classes Grade 10" dataDxfId="246"/>
+    <tableColumn id="41" xr3:uid="{99E2E959-F950-414B-BBF3-82CF023E0766}" name="# Students who took IB classes Grade 11" dataDxfId="245"/>
+    <tableColumn id="42" xr3:uid="{E9437747-1EEE-D94C-8B2E-5EB4508C3746}" name="# Students who took IB classes Grade 12" dataDxfId="244"/>
+    <tableColumn id="43" xr3:uid="{3CBA554F-964A-B546-B1CB-F3FFBC958E43}" name="# Out-of-Field Teachers" dataDxfId="243"/>
+    <tableColumn id="44" xr3:uid="{C4CCD547-D042-A040-8E97-CD2FA1F749A9}" name="% Out-of-Field Teachers" dataDxfId="242"/>
     <tableColumn id="62" xr3:uid="{5293548B-85DC-4D43-B151-9861D89C3752}" name="# Out-of-Field Teachers - High Poverty Schools"/>
     <tableColumn id="63" xr3:uid="{D2C92466-3D16-2D4B-A12B-9A8ABB3ED364}" name="% Out-of-Field Teachers - High Poverty Schools"/>
-    <tableColumn id="64" xr3:uid="{0F0B2BE2-813C-4144-812C-BE2D5CAF20F8}" name="# Out-of-Field Teachers - Low Poverty Schools" dataDxfId="110"/>
-    <tableColumn id="65" xr3:uid="{FFA97492-5178-024F-ABCD-F128D0C3C118}" name="% Out-of-Field Teachers - Low Poverty Schools" dataDxfId="109"/>
-    <tableColumn id="45" xr3:uid="{DC129293-5D55-4C48-A979-6304ABE3CAB9}" name="% Teachers with Short-Term or Provisional License" dataDxfId="108"/>
-    <tableColumn id="46" xr3:uid="{69922C1F-B1F6-AA41-8916-728215E1A659}" name="% Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="107"/>
-    <tableColumn id="47" xr3:uid="{CB9F66DB-18B6-4A41-A560-2737C375BEAA}" name="% Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="106"/>
-    <tableColumn id="48" xr3:uid="{FA593E29-37FA-2F49-B1E2-8A20B24707C0}" name="# Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="105"/>
-    <tableColumn id="49" xr3:uid="{F17AD799-AAF2-CA4B-9052-79526ED68F55}" name="# Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="104"/>
-    <tableColumn id="50" xr3:uid="{95D43F71-6E78-7545-8A4C-AE8258AA92BA}" name="Teacher Attendance Rate" dataDxfId="103"/>
-    <tableColumn id="51" xr3:uid="{35904462-8ACF-104B-8595-F9EDDB9D005D}" name="Principal Turnover within 6 Years" dataDxfId="102"/>
-    <tableColumn id="52" xr3:uid="{37C54579-1382-4047-B32E-9B6DCF4C6D1A}" name="High School 4-Year Graduation Rate" dataDxfId="101"/>
-    <tableColumn id="53" xr3:uid="{76C7C142-3803-C743-ACB8-2AC253A56510}" name="High School 6-Year Graduation Rate" dataDxfId="100"/>
-    <tableColumn id="54" xr3:uid="{D57E1850-D7FE-9141-B5FF-8D139A17D39D}" name="Number of students who took one or more AP Exams Grade 9" dataDxfId="99"/>
-    <tableColumn id="55" xr3:uid="{D85884E7-853A-2E46-93D7-579975E2D930}" name="Number of students who passed one or more AP Exams Grade 9" dataDxfId="98"/>
-    <tableColumn id="56" xr3:uid="{24D843C3-F6B3-4A48-8E47-DCCC0C37AB56}" name="Number of students who took one or more AP Exams Grade 10" dataDxfId="97"/>
-    <tableColumn id="57" xr3:uid="{C1215080-ECBF-3A40-951A-7496839DDC04}" name="Number of students who passed one or more AP Exams Grade 10" dataDxfId="96"/>
-    <tableColumn id="58" xr3:uid="{5305A7BA-20A4-B64A-BEE0-7EBE5CA1285E}" name="Number of students who took one or more AP Exams Grade 11" dataDxfId="95"/>
-    <tableColumn id="59" xr3:uid="{95397CC1-7B04-4B4A-A1EE-AB2A5546B55E}" name="Number of students who passed one or more AP Exams Grade 11" dataDxfId="94"/>
-    <tableColumn id="60" xr3:uid="{09F63790-ADCE-6E4A-A471-0A5D1D8214A2}" name="Number of students who took one or more AP Exams Grade 12" dataDxfId="93"/>
-    <tableColumn id="61" xr3:uid="{EF07B6AA-C8A6-FC44-BFD2-653A0B6E2A86}" name="Number of students who passed one or more AP Exams Grade 12" dataDxfId="92"/>
-    <tableColumn id="66" xr3:uid="{AC007116-4637-644E-AF02-A7AB5D5EADD6}" name="% All students IAR ELA Level 1 - Grade 3" dataDxfId="91"/>
-    <tableColumn id="67" xr3:uid="{6DAFBA42-AD9C-E14A-96FB-288D8BCA99E7}" name="% All students IAR ELA Level 2 - Grade 3" dataDxfId="90"/>
-    <tableColumn id="68" xr3:uid="{2E7A55B0-50B2-1348-9EF5-E0436300315C}" name="% All students IAR ELA Level 3 - Grade 3" dataDxfId="89"/>
-    <tableColumn id="69" xr3:uid="{3B2446EE-A403-8149-8093-69085337F1D6}" name="% All students IAR ELA Level 4 - Grade 3" dataDxfId="88"/>
-    <tableColumn id="70" xr3:uid="{13CB50EE-75B6-AD43-9ED6-31F97F3DFE85}" name="% All students IAR ELA Level 5 - Grade 3" dataDxfId="87"/>
-    <tableColumn id="71" xr3:uid="{FB4CBEC1-BD67-ED47-BD98-9A65971E4BA9}" name="% All students IAR Mathematics Level 1 - Grade 3" dataDxfId="86"/>
-    <tableColumn id="72" xr3:uid="{BAF1E93D-139D-B94F-9700-0FD86F22AF28}" name="% All students IAR Mathematics Level 2 - Grade 3" dataDxfId="85"/>
-    <tableColumn id="73" xr3:uid="{7CD72569-ABF3-4646-B51A-2145BED1C25D}" name="% All students IAR Mathematics Level 3 - Grade 3" dataDxfId="84"/>
-    <tableColumn id="74" xr3:uid="{D6FD88CB-214D-6E43-946E-6311DA9131CC}" name="% All students IAR Mathematics Level 4 - Grade 3" dataDxfId="83"/>
-    <tableColumn id="75" xr3:uid="{9A177942-E27F-614F-B30D-3C3E30D447EE}" name="% All students IAR Mathematics Level 5 - Grade 3" dataDxfId="82"/>
-    <tableColumn id="76" xr3:uid="{F27CFC65-3F0D-7345-AC77-D090538A32D7}" name="% All students IAR ELA Level 1 - Grade 4" dataDxfId="81"/>
-    <tableColumn id="77" xr3:uid="{B4CD64F1-783A-0D4E-BB22-9AC26FC31535}" name="% All students IAR ELA Level 2 - Grade 4" dataDxfId="80"/>
-    <tableColumn id="78" xr3:uid="{3DDE4D53-B2E8-844E-B0CB-563F26DCCBAF}" name="% All students IAR ELA Level 3 - Grade 4" dataDxfId="79"/>
-    <tableColumn id="79" xr3:uid="{B4F28FE8-5C67-AA4A-961F-4637D4DA5263}" name="% All students IAR ELA Level 4 - Grade 4" dataDxfId="78"/>
-    <tableColumn id="80" xr3:uid="{3B600242-98E2-1D4E-9DAA-FDA6A4D0CAE7}" name="% All students IAR ELA Level 5 - Grade 4" dataDxfId="77"/>
-    <tableColumn id="81" xr3:uid="{93D0B95A-07C7-CA42-ADA3-F494E1E89CC6}" name="% All students IAR Mathematics Level 1 - Grade 4" dataDxfId="76"/>
-    <tableColumn id="82" xr3:uid="{DA3B88D8-9F1B-0D43-A00A-0E00A0E101E4}" name="% All students IAR Mathematics Level 2 - Grade 4" dataDxfId="75"/>
-    <tableColumn id="83" xr3:uid="{CFB9A658-C262-A24D-BDBC-A2FA6764B041}" name="% All students IAR Mathematics Level 3 - Grade 4" dataDxfId="74"/>
-    <tableColumn id="84" xr3:uid="{170D49FE-6CD9-2349-8C42-D35123081DAA}" name="% All students IAR Mathematics Level 4 - Grade 4" dataDxfId="73"/>
-    <tableColumn id="85" xr3:uid="{90D4AF95-5666-AA4E-896A-BEFE87C9CA9A}" name="% All students IAR Mathematics Level 5 - Grade 4" dataDxfId="72"/>
-    <tableColumn id="86" xr3:uid="{F01BCEF8-4268-804D-B91E-4DF5945E471F}" name="% All students IAR ELA Level 1 - Grade 5" dataDxfId="71"/>
-    <tableColumn id="87" xr3:uid="{3D948EEB-557F-D548-A8E8-483E928D37C0}" name="% All students IAR ELA Level 2 - Grade 5" dataDxfId="70"/>
-    <tableColumn id="88" xr3:uid="{046CB80A-00D6-5548-8953-4988F3849A8E}" name="% All students IAR ELA Level 3 - Grade 5" dataDxfId="69"/>
-    <tableColumn id="89" xr3:uid="{FD0B5F84-667C-7C4C-965B-B019DF711FFA}" name="% All students IAR ELA Level 4 - Grade 5" dataDxfId="68"/>
-    <tableColumn id="90" xr3:uid="{B280A1EC-2EEE-B94B-BB08-C9C8B4E61414}" name="% All students IAR ELA Level 5 - Grade 5" dataDxfId="67"/>
-    <tableColumn id="91" xr3:uid="{623688F4-27B9-6747-877A-5CD58CD88AD3}" name="% All students IAR Mathematics Level 1 - Grade 5" dataDxfId="66"/>
-    <tableColumn id="92" xr3:uid="{7B942C5F-3AA9-8D48-A248-FA33E13B784D}" name="% All students IAR Mathematics Level 2 - Grade 5" dataDxfId="65"/>
-    <tableColumn id="93" xr3:uid="{19970012-6DDA-3F4F-8C3E-18848326B806}" name="% All students IAR Mathematics Level 3 - Grade 5" dataDxfId="64"/>
-    <tableColumn id="94" xr3:uid="{580D40AB-E7AD-FE44-8761-A7AF851155D2}" name="% All students IAR Mathematics Level 4 - Grade 5" dataDxfId="63"/>
-    <tableColumn id="95" xr3:uid="{979CB1A3-9B4D-B140-A5C9-511186C63C1F}" name="% All students IAR Mathematics Level 5 - Grade 5" dataDxfId="62"/>
-    <tableColumn id="96" xr3:uid="{62252DFA-08F6-744C-9EF9-CFAAE16CF3EF}" name="% All students IAR ELA Level 1 - Grade 6" dataDxfId="61"/>
-    <tableColumn id="97" xr3:uid="{2BFED3F3-04A5-C141-97FF-8BFEAC349211}" name="% All students IAR ELA Level 2 - Grade 6" dataDxfId="60"/>
-    <tableColumn id="98" xr3:uid="{57BF687F-8D34-A241-92C4-151F13501BDA}" name="% All students IAR ELA Level 3 - Grade 6" dataDxfId="59"/>
-    <tableColumn id="99" xr3:uid="{0B1FAB00-E606-9A48-8F9B-1695CDA4141D}" name="% All students IAR ELA Level 4 - Grade 6" dataDxfId="58"/>
-    <tableColumn id="100" xr3:uid="{7CB31A98-CDE5-204A-B623-3FFD055EE8F7}" name="% All students IAR ELA Level 5 - Grade 6" dataDxfId="57"/>
-    <tableColumn id="101" xr3:uid="{905AE3BB-8EC2-2941-B07D-D10CA53C067C}" name="% All students IAR Mathematics Level 1 - Grade 6" dataDxfId="56"/>
-    <tableColumn id="102" xr3:uid="{A0E6A805-C151-3043-8AD6-9ECFC583B49D}" name="% All students IAR Mathematics Level 2 - Grade 6" dataDxfId="55"/>
-    <tableColumn id="103" xr3:uid="{8D82CF0D-C030-684A-8F41-EBF7273C86DC}" name="% All students IAR Mathematics Level 3 - Grade 6" dataDxfId="54"/>
-    <tableColumn id="104" xr3:uid="{8E92DDD0-DE8C-3A48-80BC-0CE584B61CDE}" name="% All students IAR Mathematics Level 4 - Grade 6" dataDxfId="53"/>
-    <tableColumn id="105" xr3:uid="{746F5E03-2EF7-6A45-957C-6217D5777E5C}" name="% All students IAR Mathematics Level 5 - Grade 6" dataDxfId="52"/>
-    <tableColumn id="106" xr3:uid="{1853EBFD-EE25-454A-A5C2-26503987C863}" name="% All students IAR ELA Level 1 - Grade 7" dataDxfId="51"/>
-    <tableColumn id="107" xr3:uid="{FF34E160-7F90-B249-B977-3F31414D9339}" name="% All students IAR ELA Level 2 - Grade 7" dataDxfId="50"/>
-    <tableColumn id="108" xr3:uid="{F5F03D9E-403D-6D47-9C82-225F85BA0BED}" name="% All students IAR ELA Level 3 - Grade 7" dataDxfId="49"/>
-    <tableColumn id="109" xr3:uid="{3E5AB0C7-8DDF-DA4D-BA96-0BD2DFA7F3CE}" name="% All students IAR ELA Level 4 - Grade 7" dataDxfId="48"/>
-    <tableColumn id="110" xr3:uid="{4623F40F-2BA1-2D44-926D-6E0E9E6F3FB6}" name="% All students IAR ELA Level 5 - Grade 7" dataDxfId="47"/>
-    <tableColumn id="111" xr3:uid="{4DD0BB9E-1366-0E41-9087-DACC5328CE35}" name="% All students IAR Mathematics Level 1 - Grade 7" dataDxfId="46"/>
-    <tableColumn id="112" xr3:uid="{51FA4D64-56A2-E740-9159-D9240599CA42}" name="% All students IAR Mathematics Level 2 - Grade 7" dataDxfId="45"/>
-    <tableColumn id="113" xr3:uid="{C31DA806-5B12-EC4F-A04D-3047FA120396}" name="% All students IAR Mathematics Level 3 - Grade 7" dataDxfId="44"/>
-    <tableColumn id="114" xr3:uid="{42BEADD7-CFCC-364A-A1C0-ED82BE268096}" name="% All students IAR Mathematics Level 4 - Grade 7" dataDxfId="43"/>
-    <tableColumn id="115" xr3:uid="{50F32122-C218-2848-9B5E-7B3FCF3F89E2}" name="% All students IAR Mathematics Level 5 - Grade 7" dataDxfId="42"/>
-    <tableColumn id="116" xr3:uid="{E359B9F7-D5AD-E349-A55F-38877DA01441}" name="% All students IAR ELA Level 1 - Grade 8" dataDxfId="41"/>
-    <tableColumn id="117" xr3:uid="{FD9292BF-E7B0-CD42-B60B-371D6D7EED97}" name="% All students IAR ELA Level 2 - Grade 8" dataDxfId="40"/>
-    <tableColumn id="118" xr3:uid="{3ECE2E11-420D-7A46-97EB-6D24DB8D1332}" name="% All students IAR ELA Level 3 - Grade 8" dataDxfId="39"/>
-    <tableColumn id="119" xr3:uid="{14FBB02E-019C-AF4C-9180-F1B3FA3CEC25}" name="% All students IAR ELA Level 4 - Grade 8" dataDxfId="38"/>
-    <tableColumn id="120" xr3:uid="{10A0A9E8-635A-854D-A028-98D894FEFFF2}" name="% All students IAR ELA Level 5 - Grade 8" dataDxfId="37"/>
-    <tableColumn id="121" xr3:uid="{F06B2FE3-9314-EC48-B76D-D29D98F93819}" name="% All students IAR Mathematics Level 1 - Grade 8" dataDxfId="36"/>
-    <tableColumn id="122" xr3:uid="{651BBD41-9898-A245-B250-1A0421718DFD}" name="% All students IAR Mathematics Level 2 - Grade 8" dataDxfId="35"/>
-    <tableColumn id="123" xr3:uid="{2D222852-7268-B148-94DE-2955439FC0D9}" name="% All students IAR Mathematics Level 3 - Grade 8" dataDxfId="34"/>
-    <tableColumn id="124" xr3:uid="{C55FA655-B4FA-B34D-BF96-7A4F914BC92D}" name="% All students IAR Mathematics Level 4 - Grade 8" dataDxfId="33"/>
-    <tableColumn id="125" xr3:uid="{70713A34-CC75-9A40-A064-F7B004C6C343}" name="% All students IAR Mathematics Level 5 - Grade 8" dataDxfId="32"/>
-    <tableColumn id="126" xr3:uid="{7E050A4E-1F41-9A40-B006-6ECAFD6B4D58}" name="# Students IAR Math Participation" dataDxfId="31"/>
-    <tableColumn id="127" xr3:uid="{A948F730-D175-A44A-9DFB-6527B8339E63}" name="% Students IAR Math Participation" dataDxfId="30"/>
-    <tableColumn id="128" xr3:uid="{5E037E5B-E65C-BE42-9FC4-08954641058A}" name="# Students IAR ELA Participation" dataDxfId="29"/>
-    <tableColumn id="129" xr3:uid="{26522368-F055-4447-AE58-9C126D1EA1C7}" name="% Students IAR ELA Participation" dataDxfId="28"/>
-    <tableColumn id="130" xr3:uid="{9B2AEA67-E6CC-CB45-83A8-8C23034BE63D}" name="IAR ELA No Participation Rate" dataDxfId="27"/>
-    <tableColumn id="131" xr3:uid="{625AFF90-E4E5-034B-A879-E2B5760AC282}" name="IAR Math No Participation Rate" dataDxfId="26"/>
-    <tableColumn id="132" xr3:uid="{29B89C6C-9339-404A-AF82-DB0D3A222F3F}" name="% Community College Remediation" dataDxfId="25"/>
-    <tableColumn id="133" xr3:uid="{DBC9D35A-12A7-024D-AD84-BAE3D1E852F5}" name="% Community College Remediation - Reading" dataDxfId="24"/>
-    <tableColumn id="134" xr3:uid="{F16A3308-5B9F-5C49-BC36-E58E6F759587}" name="% Community College Remediation - Math" dataDxfId="23"/>
-    <tableColumn id="135" xr3:uid="{EBD68FC6-33A5-0449-9DDE-ED4341B71BBC}" name="% Community College Remediation - Communication" dataDxfId="22"/>
-    <tableColumn id="136" xr3:uid="{7677EA77-55C0-6340-A86D-25BCFB0B1AD7}" name="% Graduates enrolled in a Postsecondary Institution within 12 months" dataDxfId="21"/>
-    <tableColumn id="137" xr3:uid="{754A2BDC-3313-CE40-9F3F-2BD573EA75EB}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Public Institition" dataDxfId="20"/>
-    <tableColumn id="138" xr3:uid="{B198F225-9C72-564B-AD78-59AB07AFA5D8}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Private Institution" dataDxfId="19"/>
-    <tableColumn id="139" xr3:uid="{874B7093-79B7-984C-936B-FE7084604594}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Four-year Institution" dataDxfId="18"/>
-    <tableColumn id="140" xr3:uid="{B4DF4D71-019B-8A46-9A8B-5654791E6C34}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Two-year Institution" dataDxfId="17"/>
-    <tableColumn id="141" xr3:uid="{189D99CA-793F-634D-A81E-7155132D48C2}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Trade/Vocational School" dataDxfId="16"/>
-    <tableColumn id="142" xr3:uid="{57A98670-CF80-EA41-844D-B0365140F834}" name="% Graduates enrolled in a Postsecondary Institution within 16 months" dataDxfId="15"/>
-    <tableColumn id="143" xr3:uid="{CEA01699-9998-2B44-999D-252443994649}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Public Institition" dataDxfId="14"/>
-    <tableColumn id="144" xr3:uid="{772E6547-222F-3E4B-9068-1C3A9D1A53C8}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Private Institution" dataDxfId="13"/>
-    <tableColumn id="145" xr3:uid="{86412A3B-196A-4841-9A44-312EF6D68C3E}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Four-year Institution" dataDxfId="12"/>
-    <tableColumn id="146" xr3:uid="{E38AABD2-67F1-964D-BED3-9330423809BA}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Two-year Institution" dataDxfId="11"/>
-    <tableColumn id="147" xr3:uid="{0C630235-9E1C-A045-9C59-D9DCEAF08337}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Trade/Vocational School" dataDxfId="10"/>
+    <tableColumn id="64" xr3:uid="{0F0B2BE2-813C-4144-812C-BE2D5CAF20F8}" name="# Out-of-Field Teachers - Low Poverty Schools" dataDxfId="241"/>
+    <tableColumn id="65" xr3:uid="{FFA97492-5178-024F-ABCD-F128D0C3C118}" name="% Out-of-Field Teachers - Low Poverty Schools" dataDxfId="240"/>
+    <tableColumn id="45" xr3:uid="{DC129293-5D55-4C48-A979-6304ABE3CAB9}" name="% Teachers with Short-Term or Provisional License" dataDxfId="239"/>
+    <tableColumn id="46" xr3:uid="{69922C1F-B1F6-AA41-8916-728215E1A659}" name="% Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="238"/>
+    <tableColumn id="47" xr3:uid="{CB9F66DB-18B6-4A41-A560-2737C375BEAA}" name="% Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="237"/>
+    <tableColumn id="48" xr3:uid="{FA593E29-37FA-2F49-B1E2-8A20B24707C0}" name="# Teachers with Short-Term or Provisional License - High Poverty Schools" dataDxfId="236"/>
+    <tableColumn id="49" xr3:uid="{F17AD799-AAF2-CA4B-9052-79526ED68F55}" name="# Teachers with Short-Term or Provisional License - Low Poverty Schools" dataDxfId="235"/>
+    <tableColumn id="50" xr3:uid="{95D43F71-6E78-7545-8A4C-AE8258AA92BA}" name="Teacher Attendance Rate" dataDxfId="234"/>
+    <tableColumn id="51" xr3:uid="{35904462-8ACF-104B-8595-F9EDDB9D005D}" name="Principal Turnover within 6 Years" dataDxfId="233"/>
+    <tableColumn id="52" xr3:uid="{37C54579-1382-4047-B32E-9B6DCF4C6D1A}" name="High School 4-Year Graduation Rate" dataDxfId="232"/>
+    <tableColumn id="53" xr3:uid="{76C7C142-3803-C743-ACB8-2AC253A56510}" name="High School 6-Year Graduation Rate" dataDxfId="231"/>
+    <tableColumn id="54" xr3:uid="{D57E1850-D7FE-9141-B5FF-8D139A17D39D}" name="Number of students who took one or more AP Exams Grade 9" dataDxfId="230"/>
+    <tableColumn id="55" xr3:uid="{D85884E7-853A-2E46-93D7-579975E2D930}" name="Number of students who passed one or more AP Exams Grade 9" dataDxfId="229"/>
+    <tableColumn id="56" xr3:uid="{24D843C3-F6B3-4A48-8E47-DCCC0C37AB56}" name="Number of students who took one or more AP Exams Grade 10" dataDxfId="228"/>
+    <tableColumn id="57" xr3:uid="{C1215080-ECBF-3A40-951A-7496839DDC04}" name="Number of students who passed one or more AP Exams Grade 10" dataDxfId="227"/>
+    <tableColumn id="58" xr3:uid="{5305A7BA-20A4-B64A-BEE0-7EBE5CA1285E}" name="Number of students who took one or more AP Exams Grade 11" dataDxfId="226"/>
+    <tableColumn id="59" xr3:uid="{95397CC1-7B04-4B4A-A1EE-AB2A5546B55E}" name="Number of students who passed one or more AP Exams Grade 11" dataDxfId="225"/>
+    <tableColumn id="60" xr3:uid="{09F63790-ADCE-6E4A-A471-0A5D1D8214A2}" name="Number of students who took one or more AP Exams Grade 12" dataDxfId="224"/>
+    <tableColumn id="61" xr3:uid="{EF07B6AA-C8A6-FC44-BFD2-653A0B6E2A86}" name="Number of students who passed one or more AP Exams Grade 12" dataDxfId="223"/>
+    <tableColumn id="66" xr3:uid="{AC007116-4637-644E-AF02-A7AB5D5EADD6}" name="% All students IAR ELA Level 1 - Grade 3" dataDxfId="222"/>
+    <tableColumn id="67" xr3:uid="{6DAFBA42-AD9C-E14A-96FB-288D8BCA99E7}" name="% All students IAR ELA Level 2 - Grade 3" dataDxfId="221"/>
+    <tableColumn id="68" xr3:uid="{2E7A55B0-50B2-1348-9EF5-E0436300315C}" name="% All students IAR ELA Level 3 - Grade 3" dataDxfId="220"/>
+    <tableColumn id="69" xr3:uid="{3B2446EE-A403-8149-8093-69085337F1D6}" name="% All students IAR ELA Level 4 - Grade 3" dataDxfId="219"/>
+    <tableColumn id="70" xr3:uid="{13CB50EE-75B6-AD43-9ED6-31F97F3DFE85}" name="% All students IAR ELA Level 5 - Grade 3" dataDxfId="218"/>
+    <tableColumn id="71" xr3:uid="{FB4CBEC1-BD67-ED47-BD98-9A65971E4BA9}" name="% All students IAR Mathematics Level 1 - Grade 3" dataDxfId="217"/>
+    <tableColumn id="72" xr3:uid="{BAF1E93D-139D-B94F-9700-0FD86F22AF28}" name="% All students IAR Mathematics Level 2 - Grade 3" dataDxfId="216"/>
+    <tableColumn id="73" xr3:uid="{7CD72569-ABF3-4646-B51A-2145BED1C25D}" name="% All students IAR Mathematics Level 3 - Grade 3" dataDxfId="215"/>
+    <tableColumn id="74" xr3:uid="{D6FD88CB-214D-6E43-946E-6311DA9131CC}" name="% All students IAR Mathematics Level 4 - Grade 3" dataDxfId="214"/>
+    <tableColumn id="75" xr3:uid="{9A177942-E27F-614F-B30D-3C3E30D447EE}" name="% All students IAR Mathematics Level 5 - Grade 3" dataDxfId="213"/>
+    <tableColumn id="76" xr3:uid="{F27CFC65-3F0D-7345-AC77-D090538A32D7}" name="% All students IAR ELA Level 1 - Grade 4" dataDxfId="212"/>
+    <tableColumn id="77" xr3:uid="{B4CD64F1-783A-0D4E-BB22-9AC26FC31535}" name="% All students IAR ELA Level 2 - Grade 4" dataDxfId="211"/>
+    <tableColumn id="78" xr3:uid="{3DDE4D53-B2E8-844E-B0CB-563F26DCCBAF}" name="% All students IAR ELA Level 3 - Grade 4" dataDxfId="210"/>
+    <tableColumn id="79" xr3:uid="{B4F28FE8-5C67-AA4A-961F-4637D4DA5263}" name="% All students IAR ELA Level 4 - Grade 4" dataDxfId="209"/>
+    <tableColumn id="80" xr3:uid="{3B600242-98E2-1D4E-9DAA-FDA6A4D0CAE7}" name="% All students IAR ELA Level 5 - Grade 4" dataDxfId="208"/>
+    <tableColumn id="81" xr3:uid="{93D0B95A-07C7-CA42-ADA3-F494E1E89CC6}" name="% All students IAR Mathematics Level 1 - Grade 4" dataDxfId="207"/>
+    <tableColumn id="82" xr3:uid="{DA3B88D8-9F1B-0D43-A00A-0E00A0E101E4}" name="% All students IAR Mathematics Level 2 - Grade 4" dataDxfId="206"/>
+    <tableColumn id="83" xr3:uid="{CFB9A658-C262-A24D-BDBC-A2FA6764B041}" name="% All students IAR Mathematics Level 3 - Grade 4" dataDxfId="205"/>
+    <tableColumn id="84" xr3:uid="{170D49FE-6CD9-2349-8C42-D35123081DAA}" name="% All students IAR Mathematics Level 4 - Grade 4" dataDxfId="204"/>
+    <tableColumn id="85" xr3:uid="{90D4AF95-5666-AA4E-896A-BEFE87C9CA9A}" name="% All students IAR Mathematics Level 5 - Grade 4" dataDxfId="203"/>
+    <tableColumn id="86" xr3:uid="{F01BCEF8-4268-804D-B91E-4DF5945E471F}" name="% All students IAR ELA Level 1 - Grade 5" dataDxfId="202"/>
+    <tableColumn id="87" xr3:uid="{3D948EEB-557F-D548-A8E8-483E928D37C0}" name="% All students IAR ELA Level 2 - Grade 5" dataDxfId="201"/>
+    <tableColumn id="88" xr3:uid="{046CB80A-00D6-5548-8953-4988F3849A8E}" name="% All students IAR ELA Level 3 - Grade 5" dataDxfId="200"/>
+    <tableColumn id="89" xr3:uid="{FD0B5F84-667C-7C4C-965B-B019DF711FFA}" name="% All students IAR ELA Level 4 - Grade 5" dataDxfId="199"/>
+    <tableColumn id="90" xr3:uid="{B280A1EC-2EEE-B94B-BB08-C9C8B4E61414}" name="% All students IAR ELA Level 5 - Grade 5" dataDxfId="198"/>
+    <tableColumn id="91" xr3:uid="{623688F4-27B9-6747-877A-5CD58CD88AD3}" name="% All students IAR Mathematics Level 1 - Grade 5" dataDxfId="197"/>
+    <tableColumn id="92" xr3:uid="{7B942C5F-3AA9-8D48-A248-FA33E13B784D}" name="% All students IAR Mathematics Level 2 - Grade 5" dataDxfId="196"/>
+    <tableColumn id="93" xr3:uid="{19970012-6DDA-3F4F-8C3E-18848326B806}" name="% All students IAR Mathematics Level 3 - Grade 5" dataDxfId="195"/>
+    <tableColumn id="94" xr3:uid="{580D40AB-E7AD-FE44-8761-A7AF851155D2}" name="% All students IAR Mathematics Level 4 - Grade 5" dataDxfId="194"/>
+    <tableColumn id="95" xr3:uid="{979CB1A3-9B4D-B140-A5C9-511186C63C1F}" name="% All students IAR Mathematics Level 5 - Grade 5" dataDxfId="193"/>
+    <tableColumn id="96" xr3:uid="{62252DFA-08F6-744C-9EF9-CFAAE16CF3EF}" name="% All students IAR ELA Level 1 - Grade 6" dataDxfId="192"/>
+    <tableColumn id="97" xr3:uid="{2BFED3F3-04A5-C141-97FF-8BFEAC349211}" name="% All students IAR ELA Level 2 - Grade 6" dataDxfId="191"/>
+    <tableColumn id="98" xr3:uid="{57BF687F-8D34-A241-92C4-151F13501BDA}" name="% All students IAR ELA Level 3 - Grade 6" dataDxfId="190"/>
+    <tableColumn id="99" xr3:uid="{0B1FAB00-E606-9A48-8F9B-1695CDA4141D}" name="% All students IAR ELA Level 4 - Grade 6" dataDxfId="189"/>
+    <tableColumn id="100" xr3:uid="{7CB31A98-CDE5-204A-B623-3FFD055EE8F7}" name="% All students IAR ELA Level 5 - Grade 6" dataDxfId="188"/>
+    <tableColumn id="101" xr3:uid="{905AE3BB-8EC2-2941-B07D-D10CA53C067C}" name="% All students IAR Mathematics Level 1 - Grade 6" dataDxfId="187"/>
+    <tableColumn id="102" xr3:uid="{A0E6A805-C151-3043-8AD6-9ECFC583B49D}" name="% All students IAR Mathematics Level 2 - Grade 6" dataDxfId="186"/>
+    <tableColumn id="103" xr3:uid="{8D82CF0D-C030-684A-8F41-EBF7273C86DC}" name="% All students IAR Mathematics Level 3 - Grade 6" dataDxfId="185"/>
+    <tableColumn id="104" xr3:uid="{8E92DDD0-DE8C-3A48-80BC-0CE584B61CDE}" name="% All students IAR Mathematics Level 4 - Grade 6" dataDxfId="184"/>
+    <tableColumn id="105" xr3:uid="{746F5E03-2EF7-6A45-957C-6217D5777E5C}" name="% All students IAR Mathematics Level 5 - Grade 6" dataDxfId="183"/>
+    <tableColumn id="106" xr3:uid="{1853EBFD-EE25-454A-A5C2-26503987C863}" name="% All students IAR ELA Level 1 - Grade 7" dataDxfId="182"/>
+    <tableColumn id="107" xr3:uid="{FF34E160-7F90-B249-B977-3F31414D9339}" name="% All students IAR ELA Level 2 - Grade 7" dataDxfId="181"/>
+    <tableColumn id="108" xr3:uid="{F5F03D9E-403D-6D47-9C82-225F85BA0BED}" name="% All students IAR ELA Level 3 - Grade 7" dataDxfId="180"/>
+    <tableColumn id="109" xr3:uid="{3E5AB0C7-8DDF-DA4D-BA96-0BD2DFA7F3CE}" name="% All students IAR ELA Level 4 - Grade 7" dataDxfId="179"/>
+    <tableColumn id="110" xr3:uid="{4623F40F-2BA1-2D44-926D-6E0E9E6F3FB6}" name="% All students IAR ELA Level 5 - Grade 7" dataDxfId="178"/>
+    <tableColumn id="111" xr3:uid="{4DD0BB9E-1366-0E41-9087-DACC5328CE35}" name="% All students IAR Mathematics Level 1 - Grade 7" dataDxfId="177"/>
+    <tableColumn id="112" xr3:uid="{51FA4D64-56A2-E740-9159-D9240599CA42}" name="% All students IAR Mathematics Level 2 - Grade 7" dataDxfId="176"/>
+    <tableColumn id="113" xr3:uid="{C31DA806-5B12-EC4F-A04D-3047FA120396}" name="% All students IAR Mathematics Level 3 - Grade 7" dataDxfId="175"/>
+    <tableColumn id="114" xr3:uid="{42BEADD7-CFCC-364A-A1C0-ED82BE268096}" name="% All students IAR Mathematics Level 4 - Grade 7" dataDxfId="174"/>
+    <tableColumn id="115" xr3:uid="{50F32122-C218-2848-9B5E-7B3FCF3F89E2}" name="% All students IAR Mathematics Level 5 - Grade 7" dataDxfId="173"/>
+    <tableColumn id="116" xr3:uid="{E359B9F7-D5AD-E349-A55F-38877DA01441}" name="% All students IAR ELA Level 1 - Grade 8" dataDxfId="172"/>
+    <tableColumn id="117" xr3:uid="{FD9292BF-E7B0-CD42-B60B-371D6D7EED97}" name="% All students IAR ELA Level 2 - Grade 8" dataDxfId="171"/>
+    <tableColumn id="118" xr3:uid="{3ECE2E11-420D-7A46-97EB-6D24DB8D1332}" name="% All students IAR ELA Level 3 - Grade 8" dataDxfId="170"/>
+    <tableColumn id="119" xr3:uid="{14FBB02E-019C-AF4C-9180-F1B3FA3CEC25}" name="% All students IAR ELA Level 4 - Grade 8" dataDxfId="169"/>
+    <tableColumn id="120" xr3:uid="{10A0A9E8-635A-854D-A028-98D894FEFFF2}" name="% All students IAR ELA Level 5 - Grade 8" dataDxfId="168"/>
+    <tableColumn id="121" xr3:uid="{F06B2FE3-9314-EC48-B76D-D29D98F93819}" name="% All students IAR Mathematics Level 1 - Grade 8" dataDxfId="167"/>
+    <tableColumn id="122" xr3:uid="{651BBD41-9898-A245-B250-1A0421718DFD}" name="% All students IAR Mathematics Level 2 - Grade 8" dataDxfId="166"/>
+    <tableColumn id="123" xr3:uid="{2D222852-7268-B148-94DE-2955439FC0D9}" name="% All students IAR Mathematics Level 3 - Grade 8" dataDxfId="165"/>
+    <tableColumn id="124" xr3:uid="{C55FA655-B4FA-B34D-BF96-7A4F914BC92D}" name="% All students IAR Mathematics Level 4 - Grade 8" dataDxfId="164"/>
+    <tableColumn id="125" xr3:uid="{70713A34-CC75-9A40-A064-F7B004C6C343}" name="% All students IAR Mathematics Level 5 - Grade 8" dataDxfId="163"/>
+    <tableColumn id="126" xr3:uid="{7E050A4E-1F41-9A40-B006-6ECAFD6B4D58}" name="# Students IAR Math Participation" dataDxfId="162"/>
+    <tableColumn id="127" xr3:uid="{A948F730-D175-A44A-9DFB-6527B8339E63}" name="% Students IAR Math Participation" dataDxfId="161"/>
+    <tableColumn id="128" xr3:uid="{5E037E5B-E65C-BE42-9FC4-08954641058A}" name="# Students IAR ELA Participation" dataDxfId="160"/>
+    <tableColumn id="129" xr3:uid="{26522368-F055-4447-AE58-9C126D1EA1C7}" name="% Students IAR ELA Participation" dataDxfId="159"/>
+    <tableColumn id="130" xr3:uid="{9B2AEA67-E6CC-CB45-83A8-8C23034BE63D}" name="IAR ELA No Participation Rate" dataDxfId="158"/>
+    <tableColumn id="131" xr3:uid="{625AFF90-E4E5-034B-A879-E2B5760AC282}" name="IAR Math No Participation Rate" dataDxfId="157"/>
+    <tableColumn id="132" xr3:uid="{29B89C6C-9339-404A-AF82-DB0D3A222F3F}" name="% Community College Remediation" dataDxfId="156"/>
+    <tableColumn id="133" xr3:uid="{DBC9D35A-12A7-024D-AD84-BAE3D1E852F5}" name="% Community College Remediation - Reading" dataDxfId="155"/>
+    <tableColumn id="134" xr3:uid="{F16A3308-5B9F-5C49-BC36-E58E6F759587}" name="% Community College Remediation - Math" dataDxfId="154"/>
+    <tableColumn id="135" xr3:uid="{EBD68FC6-33A5-0449-9DDE-ED4341B71BBC}" name="% Community College Remediation - Communication" dataDxfId="153"/>
+    <tableColumn id="136" xr3:uid="{7677EA77-55C0-6340-A86D-25BCFB0B1AD7}" name="% Graduates enrolled in a Postsecondary Institution within 12 months" dataDxfId="152"/>
+    <tableColumn id="137" xr3:uid="{754A2BDC-3313-CE40-9F3F-2BD573EA75EB}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Public Institition" dataDxfId="151"/>
+    <tableColumn id="138" xr3:uid="{B198F225-9C72-564B-AD78-59AB07AFA5D8}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Private Institution" dataDxfId="150"/>
+    <tableColumn id="139" xr3:uid="{874B7093-79B7-984C-936B-FE7084604594}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Four-year Institution" dataDxfId="149"/>
+    <tableColumn id="140" xr3:uid="{B4DF4D71-019B-8A46-9A8B-5654791E6C34}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Two-year Institution" dataDxfId="148"/>
+    <tableColumn id="141" xr3:uid="{189D99CA-793F-634D-A81E-7155132D48C2}" name="% Graduates enrolled in a Postsecondary Institution within 12 months - Trade/Vocational School" dataDxfId="147"/>
+    <tableColumn id="142" xr3:uid="{57A98670-CF80-EA41-844D-B0365140F834}" name="% Graduates enrolled in a Postsecondary Institution within 16 months" dataDxfId="146"/>
+    <tableColumn id="143" xr3:uid="{CEA01699-9998-2B44-999D-252443994649}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Public Institition" dataDxfId="145"/>
+    <tableColumn id="144" xr3:uid="{772E6547-222F-3E4B-9068-1C3A9D1A53C8}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Private Institution" dataDxfId="144"/>
+    <tableColumn id="145" xr3:uid="{86412A3B-196A-4841-9A44-312EF6D68C3E}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Four-year Institution" dataDxfId="143"/>
+    <tableColumn id="146" xr3:uid="{E38AABD2-67F1-964D-BED3-9330423809BA}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Two-year Institution" dataDxfId="142"/>
+    <tableColumn id="147" xr3:uid="{0C630235-9E1C-A045-9C59-D9DCEAF08337}" name="% Graduates enrolled in a Postsecondary Institution within 16 months - Trade/Vocational School" dataDxfId="141"/>
+    <tableColumn id="148" xr3:uid="{9539EB54-33B9-184A-B3D7-D9F648F60750}" name="# CRDC Total Enrollment" dataDxfId="140"/>
+    <tableColumn id="149" xr3:uid="{7D698CFC-0EC8-384E-8E2C-F4E01A385469}" name="# CRDC In-School Suspensions" dataDxfId="139"/>
+    <tableColumn id="150" xr3:uid="{9FA0B63F-C95A-1144-A9FC-244FCF204098}" name="% CRDC In-School Suspensions" dataDxfId="138"/>
+    <tableColumn id="151" xr3:uid="{93042C0B-E561-B24E-8616-684D835290EB}" name="# CRDC Out-of-School Suspensions" dataDxfId="137"/>
+    <tableColumn id="152" xr3:uid="{8DF233DF-E9C5-924D-8BC9-0D7884359DAA}" name="% CRDC Out-of-School Suspensions" dataDxfId="136"/>
+    <tableColumn id="153" xr3:uid="{EC10EA12-8FA4-A04A-96AE-36011FC824D5}" name="# CRDC Expulsions" dataDxfId="135"/>
+    <tableColumn id="154" xr3:uid="{23A18912-CBDE-5A48-A730-EFF10D81C82C}" name="% CRDC Expulsions" dataDxfId="134"/>
+    <tableColumn id="155" xr3:uid="{4A50E0C1-F52D-D34E-8335-09189B3B9559}" name="# CRDC School Related Arrests" dataDxfId="133"/>
+    <tableColumn id="156" xr3:uid="{A1556991-8E7C-9B41-B91C-325FAC05CC34}" name="% CRDC School Related Arrests" dataDxfId="132"/>
+    <tableColumn id="157" xr3:uid="{7B94698A-72C0-A049-B9B7-15F6552921C5}" name="# CRDC Referral to Law Enforcement" dataDxfId="131"/>
+    <tableColumn id="158" xr3:uid="{0C1E4729-FE28-AB4C-849E-A6092950D536}" name="% CRDC Referral to Law Enforcement" dataDxfId="130"/>
+    <tableColumn id="159" xr3:uid="{3CB3FF1C-0C77-A344-860E-1724C21896D7}" name="# CRDC Chronic Absenteeism" dataDxfId="129"/>
+    <tableColumn id="160" xr3:uid="{E3FE85C2-0EED-864D-B04A-E5966A73EC50}" name="% CRDC Chronic Absenteeism" dataDxfId="128"/>
+    <tableColumn id="161" xr3:uid="{2EA4523B-6BBE-FF4A-AE79-1613A65F0D6B}" name="# CRDC Incidents of Violence" dataDxfId="127"/>
+    <tableColumn id="162" xr3:uid="{AF1F3AAB-C767-9F49-A742-C92A969C38A1}" name="% CRDC Incidents of Violence" dataDxfId="126"/>
+    <tableColumn id="163" xr3:uid="{00627E50-9F2D-6F44-A05A-B1FF69B5E43D}" name="# CRDC Enrolled PreK" dataDxfId="125"/>
+    <tableColumn id="164" xr3:uid="{4EAF4EF0-4241-7843-9728-BE5A753E28F1}" name="% CRDC Enrolled PreK" dataDxfId="124"/>
+    <tableColumn id="165" xr3:uid="{04C8D18D-4FB1-4C44-A530-D0E0A69366B6}" name="# CRDC Advanced Placement Coursework" dataDxfId="123"/>
+    <tableColumn id="166" xr3:uid="{82376CA5-90B1-484A-9BCD-C24B3E144A77}" name="% CRDC Advanced Placement Coursework" dataDxfId="122"/>
+    <tableColumn id="167" xr3:uid="{DE418C29-41AE-EE47-AFBB-8AADE3A30B2B}" name="# CRDC IB Course" dataDxfId="121"/>
+    <tableColumn id="168" xr3:uid="{BB7882E8-DF22-C741-8353-CCA9678A1355}" name="% CRDC IB Course" dataDxfId="120"/>
+    <tableColumn id="169" xr3:uid="{F1969402-8F36-5D44-A0C3-A97C31F4F51D}" name="# CRDC Dual Credit Courses" dataDxfId="119"/>
+    <tableColumn id="170" xr3:uid="{47B478B3-D4CD-C740-A5F1-8C0449800EA1}" name="% CRDC Dual Credit Courses" dataDxfId="118"/>
+    <tableColumn id="171" xr3:uid="{29E04FB1-8356-5644-AACB-1075AE7ACE4B}" name="# CRDC Firearm Incident" dataDxfId="117"/>
+    <tableColumn id="172" xr3:uid="{94841330-AA0D-A842-8635-F672EB9C9C62}" name="# CRDC Homicide Incident" dataDxfId="116"/>
+    <tableColumn id="173" xr3:uid="{D691B2A5-D78D-5F49-A0CF-0617BE86956E}" name="# Students with Discipline Incidents" dataDxfId="115"/>
+    <tableColumn id="174" xr3:uid="{03CE7364-17B2-D34E-A3A8-FA519F041C15}" name="# Students with Discipline Incidents - Expulsion: Received Educational Srvcs" dataDxfId="114"/>
+    <tableColumn id="175" xr3:uid="{E0AB5FB2-2B53-7D4C-BF41-EF9E7F6EE349}" name="# Students with Discipline Incidents - Expulsion: Did not Receive Educational Srvcs" dataDxfId="113"/>
+    <tableColumn id="176" xr3:uid="{9354203D-8082-7849-9ED7-46DD07493A7B}" name="# Students with Discipline Incidents - In-school Suspension" dataDxfId="112"/>
+    <tableColumn id="177" xr3:uid="{BAAEA142-9751-2246-A443-B7B7B5122867}" name="# Students with Discipline Incidents - Out-of-School Suspension" dataDxfId="111"/>
+    <tableColumn id="178" xr3:uid="{435CF9BF-E2AB-3043-A907-67DC39186164}" name="# Students with Discipline Incidents - Removal" dataDxfId="110"/>
+    <tableColumn id="179" xr3:uid="{7417D374-BB30-6340-8AD9-DC9BA2297FDE}" name="# Discipline Incidents" dataDxfId="109"/>
+    <tableColumn id="180" xr3:uid="{B39F4E64-073C-A44D-8A50-7152329F4E94}" name="# Discipline Incidents - 9-12" dataDxfId="108"/>
+    <tableColumn id="182" xr3:uid="{C3931D1D-7315-1D41-A77F-6E25FE87C96B}" name="# Discipline Incidents - Tobacco" dataDxfId="107"/>
+    <tableColumn id="183" xr3:uid="{84423A45-67A3-244A-BA36-4D90A4DC1266}" name="# Discipline Incidents - Alcohol" dataDxfId="106"/>
+    <tableColumn id="184" xr3:uid="{13B837AA-8B68-6445-9E3C-7D8F4F6DF984}" name="# Discipline Incidents - Drug Offenses" dataDxfId="105"/>
+    <tableColumn id="185" xr3:uid="{0CC9B5F0-6ACA-B445-BBFA-5FB207D64728}" name="# Discipline Incidents - Violence with Physical Injury" dataDxfId="104"/>
+    <tableColumn id="186" xr3:uid="{E77C2F7E-0416-9144-B0C1-4B01C048AE7F}" name="# Discipline Incidents - Violence without Physical Injury" dataDxfId="103"/>
+    <tableColumn id="187" xr3:uid="{2EB4BA15-8033-8E45-B810-EC43DE210958}" name="# Discipline Incidents - Dangerous Weapon: Firearm" dataDxfId="102"/>
+    <tableColumn id="188" xr3:uid="{BC611E29-C2E1-1244-B4BF-06846DBF512E}" name="# Discipline Incidents - Dangerous Weapon: Other" dataDxfId="101"/>
+    <tableColumn id="189" xr3:uid="{B9120114-802D-BB4B-A9DA-C9A6A491F577}" name="# Discipline Incidents - Reason: Other" dataDxfId="100"/>
+    <tableColumn id="190" xr3:uid="{159A4AFC-599B-3C4A-B15D-A94527C073F3}" name="# Discipline Incidents - Duration less than 1 day" dataDxfId="99"/>
+    <tableColumn id="191" xr3:uid="{D3D17FA0-0C1F-DA4D-8A8B-AD683B95D3EF}" name="# Discipline Incidents - Duration 1-2 days" dataDxfId="98"/>
+    <tableColumn id="192" xr3:uid="{FB5E6A7E-EB08-C44C-B594-E2FD502FF8DF}" name="# Discipline Incidents - Duration 2-3 days" dataDxfId="97"/>
+    <tableColumn id="193" xr3:uid="{FDF09E32-6462-A444-8E2F-462175B8D9A3}" name="# Discipline Incidents - Duration 3-4 days" dataDxfId="96"/>
+    <tableColumn id="194" xr3:uid="{F90868E6-35C8-EF49-8E59-EB585AFEFDA3}" name="# Discipline Incidents - Duration 4-10 days" dataDxfId="95"/>
+    <tableColumn id="195" xr3:uid="{CFFA9F23-00E8-2340-9F7F-4C06E673CA62}" name="# Discipline Incidents - Duration more than 10 days" dataDxfId="94"/>
+    <tableColumn id="196" xr3:uid="{74D199B3-6EBF-A94A-AD64-DAA94DF7F2FF}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs" dataDxfId="93"/>
+    <tableColumn id="197" xr3:uid="{C669DD9A-E3CD-5F4C-92D9-04149D4ACF6C}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Grades K - 8" dataDxfId="92"/>
+    <tableColumn id="198" xr3:uid="{D9F516E7-6767-FD47-9F26-20EA0B9C98D7}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Grades 9 - 12" dataDxfId="91"/>
+    <tableColumn id="199" xr3:uid="{88703BC5-C0A7-9348-888C-44C47075E4BB}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Tobacco" dataDxfId="90"/>
+    <tableColumn id="200" xr3:uid="{7B7B7FF0-5988-7948-B1BB-DEE06E0C4D73}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Alcohol" dataDxfId="89"/>
+    <tableColumn id="201" xr3:uid="{6E2A6DD9-E33C-7245-90BC-BFB388851368}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Drug Offenses" dataDxfId="88"/>
+    <tableColumn id="202" xr3:uid="{A4AF21E1-0354-9D42-AB11-7F834A926C2A}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Violence with Physical Injury" dataDxfId="87"/>
+    <tableColumn id="203" xr3:uid="{8583E645-DFDD-A54D-90FD-3BC7D1F44126}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Violence without Physical Injury" dataDxfId="86"/>
+    <tableColumn id="204" xr3:uid="{833DC171-815E-EC43-A88B-30BF228AC700}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Dangerous Weapon: Firearm" dataDxfId="85"/>
+    <tableColumn id="205" xr3:uid="{BA3D4DC6-94EA-7C49-A517-4560B49071B4}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Dangerous Weapon: Other" dataDxfId="84"/>
+    <tableColumn id="206" xr3:uid="{83EEF44C-C578-E044-BF71-1B85D86947CB}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Reason: Other" dataDxfId="83"/>
+    <tableColumn id="207" xr3:uid="{EC6D3F63-F75B-7346-BE96-A97396D36C0F}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Duration less than 1 day" dataDxfId="82"/>
+    <tableColumn id="208" xr3:uid="{FBDFDA01-3A6B-EC46-A949-AB1596BF71CF}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Duration 1-2 days" dataDxfId="81"/>
+    <tableColumn id="209" xr3:uid="{FD86E6F3-07AC-0142-871E-66388D0E07C1}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Duration 2-3 days" dataDxfId="80"/>
+    <tableColumn id="210" xr3:uid="{F0C9B0DA-65BF-3342-A99C-863DAC7FBC60}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Duration 3-4 days" dataDxfId="79"/>
+    <tableColumn id="211" xr3:uid="{D563EDA4-EFC1-6045-8C0B-7E5289769E4F}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Duration 4-10 days" dataDxfId="78"/>
+    <tableColumn id="212" xr3:uid="{AC5CAA2F-C959-5245-A84B-48E957442BC7}" name="# Discipline Incidents - Expulsion: Received Educational Srvcs - Duration more than 10 days" dataDxfId="77"/>
+    <tableColumn id="213" xr3:uid="{103FA13A-4725-394B-88F1-32904A932D40}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs" dataDxfId="76"/>
+    <tableColumn id="214" xr3:uid="{AC2483D2-2B89-1D47-AE10-79C4E07AB667}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Grades K - 8" dataDxfId="75"/>
+    <tableColumn id="215" xr3:uid="{7C5ABE5C-AC8F-8944-A44C-E115E9764C15}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Grades 9 - 12" dataDxfId="74"/>
+    <tableColumn id="216" xr3:uid="{049E92B3-EF1A-BF40-BDA3-BC71C4193DEF}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Tobacco" dataDxfId="73"/>
+    <tableColumn id="217" xr3:uid="{BDE7C3B3-9217-C945-8D36-9878075DFAFB}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Alcohol" dataDxfId="72"/>
+    <tableColumn id="218" xr3:uid="{45C945A7-D54D-CB42-8373-0E4FAFD2D457}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Drug Offenses" dataDxfId="71"/>
+    <tableColumn id="219" xr3:uid="{26CFB4A9-1126-204B-A58D-2B08677A4855}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Violence with Physical Injury" dataDxfId="70"/>
+    <tableColumn id="220" xr3:uid="{822A4063-9CF6-6248-B312-D3BD21A55D1A}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Violence without Physical Injury" dataDxfId="69"/>
+    <tableColumn id="221" xr3:uid="{09A60EE4-E0E9-A74E-AF45-FD9411C6EAED}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Dangerous Weapon: Firearm" dataDxfId="68"/>
+    <tableColumn id="222" xr3:uid="{5F0BC080-6435-574F-B890-E7C2DAE43AAE}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Dangerous Weapon: Other" dataDxfId="67"/>
+    <tableColumn id="223" xr3:uid="{6030EB10-FB32-0447-A4A4-82C228B9387E}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Reason: Other" dataDxfId="66"/>
+    <tableColumn id="224" xr3:uid="{3D3E3D08-65C9-884A-9E69-3A226FE8D3AA}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration less than 1 day" dataDxfId="65"/>
+    <tableColumn id="225" xr3:uid="{1108B65C-67FA-1046-9547-B8F666C6B88D}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration 1-2 days" dataDxfId="64"/>
+    <tableColumn id="226" xr3:uid="{98B06413-D7CA-4549-B275-909E00AA4FF7}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration 2-3 days" dataDxfId="63"/>
+    <tableColumn id="227" xr3:uid="{B3D24ADE-089E-0B47-820C-BB4CD18FD511}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration 3-4 days" dataDxfId="62"/>
+    <tableColumn id="228" xr3:uid="{321957E0-83CE-0942-B6A2-57B2B57052A1}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration 4-10 days" dataDxfId="61"/>
+    <tableColumn id="229" xr3:uid="{9355F1B2-E828-2445-A668-C5DBC0AF1069}" name="# Discipline Incidents - Expulsion: Did not Receive Educational Srvcs - Duration more than 10 days" dataDxfId="60"/>
+    <tableColumn id="230" xr3:uid="{1EB8B239-4A28-834A-9E7E-7B82E73F3FF4}" name="# Discipline Incidents - In-school Suspension" dataDxfId="59"/>
+    <tableColumn id="231" xr3:uid="{96FEAB38-C757-4A4C-B7C9-B694C40FF982}" name="# Discipline Incidents - In-school Suspension - Grades K - 8" dataDxfId="58"/>
+    <tableColumn id="232" xr3:uid="{F25EDEE0-3D7F-5E4B-8811-0B7C8F3AA4A2}" name="# Discipline Incidents - In-school Suspension - Grades 9 - 12" dataDxfId="57"/>
+    <tableColumn id="233" xr3:uid="{C62EB092-D42B-4B4A-B16A-EC045ABFB5D9}" name="# Discipline Incidents - In-school Suspension - Tobacco" dataDxfId="56"/>
+    <tableColumn id="234" xr3:uid="{9414C44B-A062-2B4E-9317-A6F1C795E2E4}" name="# Discipline Incidents - In-school Suspension - Alcohol" dataDxfId="55"/>
+    <tableColumn id="235" xr3:uid="{9CD1B09D-C421-704F-AFAF-1110735F6946}" name="# Discipline Incidents - In-school Suspension - Drug Offenses" dataDxfId="54"/>
+    <tableColumn id="236" xr3:uid="{77541291-4A48-BE46-9748-F32837417481}" name="# Discipline Incidents - In-school Suspension - Violence with Physical Injury" dataDxfId="53"/>
+    <tableColumn id="237" xr3:uid="{C3F04FA3-E2E6-884A-9217-C9E4B92B6D98}" name="# Discipline Incidents - In-school Suspension - Violence without Physical Injury" dataDxfId="52"/>
+    <tableColumn id="238" xr3:uid="{8F2ED8E6-BC2F-7948-A93C-C1C1CA8CC575}" name="# Discipline Incidents - In-school Suspension - Dangerous Weapon: Firearm" dataDxfId="51"/>
+    <tableColumn id="239" xr3:uid="{D3FFEFF2-AB0B-6947-B826-94C12B999F49}" name="# Discipline Incidents - In-school Suspension - Dangerous Weapon: Other" dataDxfId="50"/>
+    <tableColumn id="240" xr3:uid="{DAD08A63-D6A4-664B-AA97-884FE5A65F99}" name="# Discipline Incidents - In-school Suspension - Reason: Other" dataDxfId="49"/>
+    <tableColumn id="241" xr3:uid="{0C129F73-C696-5348-9FC3-B245BBA61E86}" name="# Discipline Incidents - In-school Suspension - Duration less than 1 day" dataDxfId="48"/>
+    <tableColumn id="242" xr3:uid="{ACBE6515-CAE3-E948-8B8A-81D719CC4253}" name="# Discipline Incidents - In-school Suspension - Duration 1-2 days" dataDxfId="47"/>
+    <tableColumn id="243" xr3:uid="{F426FFA6-278F-484D-A02C-5A449C0B4E5A}" name="# Discipline Incidents - In-school Suspension - Duration 2-3 days" dataDxfId="46"/>
+    <tableColumn id="244" xr3:uid="{461D7FBC-1112-9040-97DD-FC7ADB3D4E91}" name="# Discipline Incidents - In-school Suspension - Duration 3-4 days" dataDxfId="45"/>
+    <tableColumn id="245" xr3:uid="{013503DE-F915-E040-A8A6-486DB6C9FA8E}" name="# Discipline Incidents - In-school Suspension - Duration 4-10 days" dataDxfId="44"/>
+    <tableColumn id="246" xr3:uid="{C573A29F-948E-1247-97FE-F663E3B935AB}" name="# Discipline Incidents - In-school Suspension - Duration more than 10 days" dataDxfId="43"/>
+    <tableColumn id="247" xr3:uid="{31A367FA-432A-C745-8567-C89586082063}" name="# Discipline Incidents - Out-of-School Suspension" dataDxfId="42"/>
+    <tableColumn id="248" xr3:uid="{7077B6FA-F020-C643-89AF-F5A90F7BCDE4}" name="# Discipline Incidents - Out-of-School Suspension - Grades K - 8" dataDxfId="41"/>
+    <tableColumn id="249" xr3:uid="{B579A371-C1F0-8C45-A326-3FEF39FA5BA6}" name="# Discipline Incidents - Out-of-School Suspension - Grades 9 - 12" dataDxfId="40"/>
+    <tableColumn id="250" xr3:uid="{422CFDA9-399F-2C4C-B9F7-68FC9997FD98}" name="# Discipline Incidents - Out-of-School Suspension - Tobacco" dataDxfId="39"/>
+    <tableColumn id="251" xr3:uid="{6AF2069E-DE18-C649-8097-50416E10161E}" name="# Discipline Incidents - Out-of-School Suspension - Alcohol" dataDxfId="38"/>
+    <tableColumn id="252" xr3:uid="{08D11E11-FC23-1F43-939C-F2C04562C0D1}" name="# Discipline Incidents - Out-of-School Suspension - Drug Offenses" dataDxfId="37"/>
+    <tableColumn id="253" xr3:uid="{A52DFE8D-F900-E64D-850F-1434C5C8D24B}" name="# Discipline Incidents - Out-of-School Suspension - Violence with Physical Injury" dataDxfId="36"/>
+    <tableColumn id="254" xr3:uid="{B37AF247-DC48-2247-811B-8EA5749E44D1}" name="# Discipline Incidents - Out-of-School Suspension - Violence without Physical Injury" dataDxfId="35"/>
+    <tableColumn id="255" xr3:uid="{DAD0CBD1-D723-CC49-A7D2-07C4B8117078}" name="# Discipline Incidents - Out-of-School Suspension - Dangerous Weapon: Firearm" dataDxfId="34"/>
+    <tableColumn id="256" xr3:uid="{A7E801F7-0382-BA47-A1F2-F2B16B0D8C2E}" name="# Discipline Incidents - Out-of-School Suspension - Dangerous Weapon: Other" dataDxfId="33"/>
+    <tableColumn id="257" xr3:uid="{FCCF9B9F-E9BF-4A49-8117-94A651C1C899}" name="# Discipline Incidents - Out-of-School Suspension - Reason: Other" dataDxfId="32"/>
+    <tableColumn id="258" xr3:uid="{B54ECA74-B2CA-1842-879D-FCCA53B3E3A9}" name="# Discipline Incidents - Out-of-School Suspension - Duration less than 1 day" dataDxfId="31"/>
+    <tableColumn id="259" xr3:uid="{A46C6811-42FC-3447-8C4A-5315ECE5D631}" name="# Discipline Incidents - Out-of-School Suspension - Duration 1-2 days" dataDxfId="30"/>
+    <tableColumn id="260" xr3:uid="{B6C439A4-0441-0144-880E-383078157897}" name="# Discipline Incidents - Out-of-School Suspension - Duration 2-3 days" dataDxfId="29"/>
+    <tableColumn id="261" xr3:uid="{75CC6375-80FC-584D-8844-0ABBDCE25A4A}" name="# Discipline Incidents - Out-of-School Suspension - Duration 3-4 days" dataDxfId="28"/>
+    <tableColumn id="262" xr3:uid="{A4D44F16-4C9D-274C-BA56-DA1BB11D1E13}" name="# Discipline Incidents - Out-of-School Suspension - Duration 4-10 days" dataDxfId="27"/>
+    <tableColumn id="263" xr3:uid="{446CE187-BA90-2E47-BFCA-0C42AE2E5BD0}" name="# Discipline Incidents - Out-of-School Suspension - Duration more than 10 days" dataDxfId="26"/>
+    <tableColumn id="264" xr3:uid="{0ECF9C4B-2A6B-854B-9E97-594281B88350}" name="# Discipline Incidents - Removal" dataDxfId="25"/>
+    <tableColumn id="265" xr3:uid="{B4CC827F-3B26-DB4F-8896-C7AB0AEEA60C}" name="# Discipline Incidents - Removal - Grades K - 8" dataDxfId="24"/>
+    <tableColumn id="266" xr3:uid="{0B574E8F-9306-C541-A7BA-391C12861449}" name="# Discipline Incidents - Removal - Grades 9 - 12" dataDxfId="23"/>
+    <tableColumn id="267" xr3:uid="{BAE4309B-741B-FF4D-B831-06C3D65949E5}" name="# Discipline Incidents - Removal - Tobacco" dataDxfId="22"/>
+    <tableColumn id="268" xr3:uid="{141B0BA0-7E05-9244-AEE7-7D432ADB6FD6}" name="# Discipline Incidents - Removal - Alcohol" dataDxfId="21"/>
+    <tableColumn id="269" xr3:uid="{6D08A587-776E-4646-B4CD-0C9598E72E5C}" name="# Discipline Incidents - Removal - Drug Offenses" dataDxfId="20"/>
+    <tableColumn id="270" xr3:uid="{00B3C68F-D284-554F-9715-0F6EBF6B891D}" name="# Discipline Incidents - Removal - Violence with Physical Injury" dataDxfId="19"/>
+    <tableColumn id="271" xr3:uid="{621624C8-9C29-754F-86BF-01DD5EDF2FC6}" name="# Discipline Incidents - Removal - Violence without Physical Injury" dataDxfId="18"/>
+    <tableColumn id="272" xr3:uid="{BBB9EBD2-9A80-6A48-A1E8-D8E7CF132C42}" name="# Discipline Incidents - Removal - Dangerous Weapon: Firearm" dataDxfId="17"/>
+    <tableColumn id="273" xr3:uid="{601F7BED-FD31-3E43-B6CF-02A983E5E68C}" name="# Discipline Incidents - Removal - Dangerous Weapon: Other" dataDxfId="16"/>
+    <tableColumn id="274" xr3:uid="{7121FE54-D2D5-2443-A434-31EBF11315D1}" name="# Discipline Incidents - Removal - Reason: Other" dataDxfId="15"/>
+    <tableColumn id="275" xr3:uid="{AE0BEC24-0E22-4748-ACB8-FE5AD4C00A44}" name="# Discipline Incidents - Removal - Duration less than 1 day" dataDxfId="14"/>
+    <tableColumn id="276" xr3:uid="{45C6BEA7-A7CB-9F48-AF4E-F1DFCF7337F7}" name="# Discipline Incidents - Removal - Duration 1-2 days" dataDxfId="13"/>
+    <tableColumn id="277" xr3:uid="{B45C77BA-8E89-B443-997B-27DCBF2AB636}" name="# Discipline Incidents - Removal - Duration 2-3 days" dataDxfId="12"/>
+    <tableColumn id="278" xr3:uid="{3D6ED016-7075-8148-9E9E-8B4B919C7B4C}" name="# Discipline Incidents - Removal - Duration 3-4 days" dataDxfId="11"/>
+    <tableColumn id="279" xr3:uid="{910DDD1F-7156-2E45-8CEA-579D740E496E}" name="# Discipline Incidents - Removal - Duration 4-10 days" dataDxfId="10"/>
+    <tableColumn id="280" xr3:uid="{77633A71-96A9-204A-B621-86EDF50B3A40}" name="# Discipline Incidents - Removal - Duration more than 10 days" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H890" totalsRowShown="0" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:H890" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H1122" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H1122" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H323">
     <sortCondition ref="B1:B323"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CF003222-4DDE-BB47-A657-1775812A7CF9}" name="Year" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{75198FC7-15E7-C749-9856-FF87007012FD}" name="Metric" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{250849D7-E98C-6047-AD29-C748E7E94296}" name="Original Metric" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2B055042-83EA-3F40-9F97-2E2C80BE4FCE}" name="Sheet" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FCF3CEDF-90EF-DD4A-BD7C-2C3BB2D372C6}" name="Disaggregated" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E905735F-4B71-1A4E-AA00-10B4AAD2B5F6}" name="Disaggregation Details" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{6FC8DE02-1AAB-8248-8E52-B299C7FFB44A}" name="Disaggregation Format"/>
-    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{89643796-F484-D048-862D-B85A1B6BB907}" name="Special Format" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3591,6 +5178,19 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A8B448A4-30B1-C440-902C-9B91549BC0DA}" name="Metric"/>
     <tableColumn id="2" xr3:uid="{BECACC40-0E74-FD4D-AC89-15309A97E5C1}" name="Years"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{858E5CCA-0F37-2049-A78A-5D51D857C8D9}" name="Table6" displayName="Table6" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{858E5CCA-0F37-2049-A78A-5D51D857C8D9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{202DB78B-E5C6-6E43-8349-25848DE45AA2}" name="Missing Metrics"/>
+    <tableColumn id="2" xr3:uid="{F2181483-F134-5449-AE83-EDA01E86B0EA}" name="Sheet"/>
+    <tableColumn id="3" xr3:uid="{1D7235C4-2032-4B45-9B6F-968F06A36C57}" name="Checked"/>
+    <tableColumn id="4" xr3:uid="{9F126E9D-C21B-5349-B4C4-ED140159D696}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4226,11 +5826,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EQ26"/>
+  <dimension ref="A1:JS26"/>
   <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE9" sqref="BE9"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="FP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FX22" sqref="FX22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4307,9 +5907,34 @@
     <col min="145" max="145" width="76.83203125" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="76.33203125" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:279" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4751,8 +6376,404 @@
       <c r="EQ1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="ER1" t="s">
+        <v>433</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>434</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>435</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>436</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>437</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>438</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>439</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>440</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>441</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>442</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>443</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>444</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>445</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>446</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>447</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>448</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>449</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>450</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>451</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>452</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>453</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>454</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>486</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>456</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>457</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>492</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>594</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>595</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>596</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>597</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>598</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>493</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>499</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>500</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>501</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>502</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>503</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>504</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>505</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>506</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>507</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>508</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>509</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>510</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>511</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>512</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>513</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>494</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>514</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>515</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>516</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>517</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>518</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>519</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>520</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>521</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>522</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>523</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>524</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>525</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>526</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>527</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>528</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>529</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>495</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>530</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>531</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>532</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>533</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>534</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>535</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>536</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>537</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>538</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>539</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>540</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>541</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>542</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>543</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>544</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>545</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>496</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>546</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>547</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>548</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>549</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>550</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>551</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>552</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>553</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>554</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>555</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>556</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>557</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>558</v>
+      </c>
+      <c r="II1" t="s">
+        <v>559</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>560</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>561</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>497</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>562</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>563</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>564</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>565</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>566</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>567</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>568</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>569</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>570</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>571</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>572</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>573</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>574</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>599</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>576</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>577</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>498</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>578</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>579</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>580</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>581</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>582</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>583</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>584</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>585</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>586</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>587</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>588</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>589</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>590</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>591</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>592</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -4809,7 +6830,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -4866,7 +6887,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -4923,7 +6944,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -4980,7 +7001,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -5037,7 +7058,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -5094,7 +7115,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -5166,7 +7187,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -5241,7 +7262,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -5364,7 +7385,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -5487,7 +7508,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="12" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -5645,7 +7666,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -6039,8 +8060,83 @@
       <c r="EQ13" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="14" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="ER13" t="s">
+        <v>433</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>434</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>435</v>
+      </c>
+      <c r="EU13" t="s">
+        <v>436</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>437</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>438</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>439</v>
+      </c>
+      <c r="EY13" t="s">
+        <v>440</v>
+      </c>
+      <c r="EZ13" t="s">
+        <v>441</v>
+      </c>
+      <c r="FA13" t="s">
+        <v>442</v>
+      </c>
+      <c r="FB13" t="s">
+        <v>443</v>
+      </c>
+      <c r="FC13" t="s">
+        <v>444</v>
+      </c>
+      <c r="FD13" t="s">
+        <v>445</v>
+      </c>
+      <c r="FE13" t="s">
+        <v>446</v>
+      </c>
+      <c r="FF13" t="s">
+        <v>447</v>
+      </c>
+      <c r="FG13" t="s">
+        <v>448</v>
+      </c>
+      <c r="FH13" t="s">
+        <v>449</v>
+      </c>
+      <c r="FI13" t="s">
+        <v>450</v>
+      </c>
+      <c r="FJ13" t="s">
+        <v>451</v>
+      </c>
+      <c r="FK13" t="s">
+        <v>452</v>
+      </c>
+      <c r="FL13" t="s">
+        <v>453</v>
+      </c>
+      <c r="FM13" t="s">
+        <v>454</v>
+      </c>
+      <c r="FN13" t="s">
+        <v>455</v>
+      </c>
+      <c r="FO13" t="s">
+        <v>456</v>
+      </c>
+      <c r="FP13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -6242,8 +8338,83 @@
       <c r="EQ14" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="15" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="ER14" t="s">
+        <v>433</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>434</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>435</v>
+      </c>
+      <c r="EU14" t="s">
+        <v>436</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>437</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>438</v>
+      </c>
+      <c r="EX14" t="s">
+        <v>439</v>
+      </c>
+      <c r="EY14" t="s">
+        <v>440</v>
+      </c>
+      <c r="EZ14" t="s">
+        <v>441</v>
+      </c>
+      <c r="FA14" t="s">
+        <v>442</v>
+      </c>
+      <c r="FB14" t="s">
+        <v>443</v>
+      </c>
+      <c r="FC14" t="s">
+        <v>444</v>
+      </c>
+      <c r="FD14" t="s">
+        <v>445</v>
+      </c>
+      <c r="FE14" t="s">
+        <v>446</v>
+      </c>
+      <c r="FF14" t="s">
+        <v>447</v>
+      </c>
+      <c r="FG14" t="s">
+        <v>448</v>
+      </c>
+      <c r="FH14" t="s">
+        <v>449</v>
+      </c>
+      <c r="FI14" t="s">
+        <v>450</v>
+      </c>
+      <c r="FJ14" t="s">
+        <v>451</v>
+      </c>
+      <c r="FK14" t="s">
+        <v>452</v>
+      </c>
+      <c r="FL14" t="s">
+        <v>453</v>
+      </c>
+      <c r="FM14" t="s">
+        <v>454</v>
+      </c>
+      <c r="FN14" t="s">
+        <v>455</v>
+      </c>
+      <c r="FO14" t="s">
+        <v>456</v>
+      </c>
+      <c r="FP14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -6643,8 +8814,83 @@
       <c r="EQ15" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="16" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="ER15" t="s">
+        <v>433</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>434</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>435</v>
+      </c>
+      <c r="EU15" t="s">
+        <v>436</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>437</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>438</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>439</v>
+      </c>
+      <c r="EY15" t="s">
+        <v>440</v>
+      </c>
+      <c r="EZ15" t="s">
+        <v>441</v>
+      </c>
+      <c r="FA15" t="s">
+        <v>442</v>
+      </c>
+      <c r="FB15" t="s">
+        <v>443</v>
+      </c>
+      <c r="FC15" t="s">
+        <v>444</v>
+      </c>
+      <c r="FD15" t="s">
+        <v>445</v>
+      </c>
+      <c r="FE15" t="s">
+        <v>446</v>
+      </c>
+      <c r="FF15" t="s">
+        <v>447</v>
+      </c>
+      <c r="FG15" t="s">
+        <v>448</v>
+      </c>
+      <c r="FH15" t="s">
+        <v>449</v>
+      </c>
+      <c r="FI15" t="s">
+        <v>450</v>
+      </c>
+      <c r="FJ15" t="s">
+        <v>451</v>
+      </c>
+      <c r="FK15" t="s">
+        <v>452</v>
+      </c>
+      <c r="FL15" t="s">
+        <v>453</v>
+      </c>
+      <c r="FM15" t="s">
+        <v>454</v>
+      </c>
+      <c r="FN15" t="s">
+        <v>455</v>
+      </c>
+      <c r="FO15" t="s">
+        <v>456</v>
+      </c>
+      <c r="FP15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -7062,8 +9308,83 @@
       <c r="EQ16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="17" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="ER16" t="s">
+        <v>433</v>
+      </c>
+      <c r="ES16" t="s">
+        <v>434</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>435</v>
+      </c>
+      <c r="EU16" t="s">
+        <v>436</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>437</v>
+      </c>
+      <c r="EW16" t="s">
+        <v>438</v>
+      </c>
+      <c r="EX16" t="s">
+        <v>439</v>
+      </c>
+      <c r="EY16" t="s">
+        <v>440</v>
+      </c>
+      <c r="EZ16" t="s">
+        <v>441</v>
+      </c>
+      <c r="FA16" t="s">
+        <v>442</v>
+      </c>
+      <c r="FB16" t="s">
+        <v>443</v>
+      </c>
+      <c r="FC16" t="s">
+        <v>444</v>
+      </c>
+      <c r="FD16" t="s">
+        <v>445</v>
+      </c>
+      <c r="FE16" t="s">
+        <v>446</v>
+      </c>
+      <c r="FF16" t="s">
+        <v>447</v>
+      </c>
+      <c r="FG16" t="s">
+        <v>448</v>
+      </c>
+      <c r="FH16" t="s">
+        <v>449</v>
+      </c>
+      <c r="FI16" t="s">
+        <v>450</v>
+      </c>
+      <c r="FJ16" t="s">
+        <v>451</v>
+      </c>
+      <c r="FK16" t="s">
+        <v>452</v>
+      </c>
+      <c r="FL16" t="s">
+        <v>453</v>
+      </c>
+      <c r="FM16" t="s">
+        <v>454</v>
+      </c>
+      <c r="FN16" t="s">
+        <v>455</v>
+      </c>
+      <c r="FO16" t="s">
+        <v>456</v>
+      </c>
+      <c r="FP16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -7496,11 +9817,407 @@
       <c r="EQ17" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="19" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="ER17" t="s">
+        <v>458</v>
+      </c>
+      <c r="ES17" t="s">
+        <v>459</v>
+      </c>
+      <c r="ET17" t="s">
+        <v>460</v>
+      </c>
+      <c r="EU17" t="s">
+        <v>461</v>
+      </c>
+      <c r="EV17" t="s">
+        <v>462</v>
+      </c>
+      <c r="EW17" t="s">
+        <v>463</v>
+      </c>
+      <c r="EX17" t="s">
+        <v>464</v>
+      </c>
+      <c r="EY17" t="s">
+        <v>465</v>
+      </c>
+      <c r="EZ17" t="s">
+        <v>466</v>
+      </c>
+      <c r="FA17" t="s">
+        <v>467</v>
+      </c>
+      <c r="FB17" t="s">
+        <v>468</v>
+      </c>
+      <c r="FC17" t="s">
+        <v>469</v>
+      </c>
+      <c r="FD17" t="s">
+        <v>470</v>
+      </c>
+      <c r="FE17" t="s">
+        <v>471</v>
+      </c>
+      <c r="FF17" t="s">
+        <v>472</v>
+      </c>
+      <c r="FG17" t="s">
+        <v>473</v>
+      </c>
+      <c r="FH17" t="s">
+        <v>474</v>
+      </c>
+      <c r="FI17" t="s">
+        <v>475</v>
+      </c>
+      <c r="FJ17" t="s">
+        <v>476</v>
+      </c>
+      <c r="FK17" t="s">
+        <v>477</v>
+      </c>
+      <c r="FL17" t="s">
+        <v>478</v>
+      </c>
+      <c r="FM17" t="s">
+        <v>479</v>
+      </c>
+      <c r="FN17" t="s">
+        <v>480</v>
+      </c>
+      <c r="FO17" t="s">
+        <v>481</v>
+      </c>
+      <c r="FP17" t="s">
+        <v>482</v>
+      </c>
+      <c r="FQ17" t="s">
+        <v>492</v>
+      </c>
+      <c r="FR17" t="s">
+        <v>594</v>
+      </c>
+      <c r="FS17" t="s">
+        <v>595</v>
+      </c>
+      <c r="FT17" t="s">
+        <v>596</v>
+      </c>
+      <c r="FU17" t="s">
+        <v>597</v>
+      </c>
+      <c r="FV17" t="s">
+        <v>598</v>
+      </c>
+      <c r="FW17" t="s">
+        <v>493</v>
+      </c>
+      <c r="FX17" t="s">
+        <v>499</v>
+      </c>
+      <c r="FY17" t="s">
+        <v>500</v>
+      </c>
+      <c r="FZ17" t="s">
+        <v>501</v>
+      </c>
+      <c r="GA17" t="s">
+        <v>502</v>
+      </c>
+      <c r="GB17" t="s">
+        <v>503</v>
+      </c>
+      <c r="GC17" t="s">
+        <v>504</v>
+      </c>
+      <c r="GD17" t="s">
+        <v>505</v>
+      </c>
+      <c r="GE17" t="s">
+        <v>506</v>
+      </c>
+      <c r="GF17" t="s">
+        <v>507</v>
+      </c>
+      <c r="GG17" t="s">
+        <v>508</v>
+      </c>
+      <c r="GH17" t="s">
+        <v>509</v>
+      </c>
+      <c r="GI17" t="s">
+        <v>510</v>
+      </c>
+      <c r="GJ17" t="s">
+        <v>511</v>
+      </c>
+      <c r="GK17" t="s">
+        <v>512</v>
+      </c>
+      <c r="GL17" t="s">
+        <v>513</v>
+      </c>
+      <c r="GM17" t="s">
+        <v>494</v>
+      </c>
+      <c r="GN17" t="s">
+        <v>514</v>
+      </c>
+      <c r="GO17" t="s">
+        <v>515</v>
+      </c>
+      <c r="GP17" t="s">
+        <v>516</v>
+      </c>
+      <c r="GQ17" t="s">
+        <v>517</v>
+      </c>
+      <c r="GR17" t="s">
+        <v>518</v>
+      </c>
+      <c r="GS17" t="s">
+        <v>519</v>
+      </c>
+      <c r="GT17" t="s">
+        <v>520</v>
+      </c>
+      <c r="GU17" t="s">
+        <v>521</v>
+      </c>
+      <c r="GV17" t="s">
+        <v>522</v>
+      </c>
+      <c r="GW17" t="s">
+        <v>523</v>
+      </c>
+      <c r="GX17" t="s">
+        <v>524</v>
+      </c>
+      <c r="GY17" t="s">
+        <v>525</v>
+      </c>
+      <c r="GZ17" t="s">
+        <v>526</v>
+      </c>
+      <c r="HA17" t="s">
+        <v>527</v>
+      </c>
+      <c r="HB17" t="s">
+        <v>528</v>
+      </c>
+      <c r="HC17" t="s">
+        <v>529</v>
+      </c>
+      <c r="HD17" t="s">
+        <v>495</v>
+      </c>
+      <c r="HE17" t="s">
+        <v>530</v>
+      </c>
+      <c r="HF17" t="s">
+        <v>531</v>
+      </c>
+      <c r="HG17" t="s">
+        <v>532</v>
+      </c>
+      <c r="HH17" t="s">
+        <v>533</v>
+      </c>
+      <c r="HI17" t="s">
+        <v>534</v>
+      </c>
+      <c r="HJ17" t="s">
+        <v>535</v>
+      </c>
+      <c r="HK17" t="s">
+        <v>536</v>
+      </c>
+      <c r="HL17" t="s">
+        <v>537</v>
+      </c>
+      <c r="HM17" t="s">
+        <v>538</v>
+      </c>
+      <c r="HN17" t="s">
+        <v>539</v>
+      </c>
+      <c r="HO17" t="s">
+        <v>540</v>
+      </c>
+      <c r="HP17" t="s">
+        <v>541</v>
+      </c>
+      <c r="HQ17" t="s">
+        <v>542</v>
+      </c>
+      <c r="HR17" t="s">
+        <v>543</v>
+      </c>
+      <c r="HS17" t="s">
+        <v>544</v>
+      </c>
+      <c r="HT17" t="s">
+        <v>545</v>
+      </c>
+      <c r="HU17" t="s">
+        <v>496</v>
+      </c>
+      <c r="HV17" t="s">
+        <v>546</v>
+      </c>
+      <c r="HW17" t="s">
+        <v>547</v>
+      </c>
+      <c r="HX17" t="s">
+        <v>548</v>
+      </c>
+      <c r="HY17" t="s">
+        <v>549</v>
+      </c>
+      <c r="HZ17" t="s">
+        <v>550</v>
+      </c>
+      <c r="IA17" t="s">
+        <v>551</v>
+      </c>
+      <c r="IB17" t="s">
+        <v>552</v>
+      </c>
+      <c r="IC17" t="s">
+        <v>553</v>
+      </c>
+      <c r="ID17" t="s">
+        <v>554</v>
+      </c>
+      <c r="IE17" t="s">
+        <v>555</v>
+      </c>
+      <c r="IF17" t="s">
+        <v>556</v>
+      </c>
+      <c r="IG17" t="s">
+        <v>557</v>
+      </c>
+      <c r="IH17" t="s">
+        <v>558</v>
+      </c>
+      <c r="II17" t="s">
+        <v>559</v>
+      </c>
+      <c r="IJ17" t="s">
+        <v>560</v>
+      </c>
+      <c r="IK17" t="s">
+        <v>561</v>
+      </c>
+      <c r="IL17" t="s">
+        <v>497</v>
+      </c>
+      <c r="IM17" t="s">
+        <v>562</v>
+      </c>
+      <c r="IN17" t="s">
+        <v>563</v>
+      </c>
+      <c r="IO17" t="s">
+        <v>564</v>
+      </c>
+      <c r="IP17" t="s">
+        <v>565</v>
+      </c>
+      <c r="IQ17" t="s">
+        <v>566</v>
+      </c>
+      <c r="IR17" t="s">
+        <v>567</v>
+      </c>
+      <c r="IS17" t="s">
+        <v>568</v>
+      </c>
+      <c r="IT17" t="s">
+        <v>569</v>
+      </c>
+      <c r="IU17" t="s">
+        <v>570</v>
+      </c>
+      <c r="IV17" t="s">
+        <v>571</v>
+      </c>
+      <c r="IW17" t="s">
+        <v>572</v>
+      </c>
+      <c r="IX17" t="s">
+        <v>573</v>
+      </c>
+      <c r="IY17" t="s">
+        <v>574</v>
+      </c>
+      <c r="IZ17" t="s">
+        <v>575</v>
+      </c>
+      <c r="JA17" t="s">
+        <v>576</v>
+      </c>
+      <c r="JB17" t="s">
+        <v>577</v>
+      </c>
+      <c r="JC17" t="s">
+        <v>498</v>
+      </c>
+      <c r="JD17" t="s">
+        <v>578</v>
+      </c>
+      <c r="JE17" t="s">
+        <v>579</v>
+      </c>
+      <c r="JF17" t="s">
+        <v>580</v>
+      </c>
+      <c r="JG17" t="s">
+        <v>581</v>
+      </c>
+      <c r="JH17" t="s">
+        <v>582</v>
+      </c>
+      <c r="JI17" t="s">
+        <v>583</v>
+      </c>
+      <c r="JJ17" t="s">
+        <v>584</v>
+      </c>
+      <c r="JK17" t="s">
+        <v>585</v>
+      </c>
+      <c r="JL17" t="s">
+        <v>586</v>
+      </c>
+      <c r="JM17" t="s">
+        <v>587</v>
+      </c>
+      <c r="JN17" t="s">
+        <v>588</v>
+      </c>
+      <c r="JO17" t="s">
+        <v>589</v>
+      </c>
+      <c r="JP17" t="s">
+        <v>590</v>
+      </c>
+      <c r="JQ17" t="s">
+        <v>591</v>
+      </c>
+      <c r="JR17" t="s">
+        <v>592</v>
+      </c>
+      <c r="JS17" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:279" x14ac:dyDescent="0.2">
       <c r="BD19" s="18"/>
     </row>
-    <row r="26" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:279" x14ac:dyDescent="0.2">
       <c r="AP26" s="16"/>
     </row>
   </sheetData>
@@ -7515,12 +10232,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:H890"/>
+  <dimension ref="A1:H1122"/>
   <sheetViews>
-    <sheetView topLeftCell="A792" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A1003" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A162" sqref="A162"/>
-      <selection pane="topRight" activeCell="C885" sqref="C885"/>
+      <selection pane="topRight" activeCell="A1024" sqref="A1024:XFD1024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24439,6 +27156,3968 @@
         <v>0</v>
       </c>
     </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>2019</v>
+      </c>
+      <c r="B891" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C891" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D891" t="s">
+        <v>34</v>
+      </c>
+      <c r="E891" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>2020</v>
+      </c>
+      <c r="B892" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C892" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D892" t="s">
+        <v>34</v>
+      </c>
+      <c r="E892" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>2021</v>
+      </c>
+      <c r="B893" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C893" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D893" t="s">
+        <v>34</v>
+      </c>
+      <c r="E893" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>2022</v>
+      </c>
+      <c r="B894" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C894" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D894" t="s">
+        <v>34</v>
+      </c>
+      <c r="E894" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>2023</v>
+      </c>
+      <c r="B895" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C895" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D895" t="s">
+        <v>34</v>
+      </c>
+      <c r="E895" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>2019</v>
+      </c>
+      <c r="B896" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C896" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D896" t="s">
+        <v>34</v>
+      </c>
+      <c r="E896" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>2020</v>
+      </c>
+      <c r="B897" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C897" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D897" t="s">
+        <v>34</v>
+      </c>
+      <c r="E897" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>2021</v>
+      </c>
+      <c r="B898" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C898" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D898" t="s">
+        <v>34</v>
+      </c>
+      <c r="E898" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>2022</v>
+      </c>
+      <c r="B899" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C899" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D899" t="s">
+        <v>34</v>
+      </c>
+      <c r="E899" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>2023</v>
+      </c>
+      <c r="B900" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C900" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D900" t="s">
+        <v>34</v>
+      </c>
+      <c r="E900" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A901" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B901" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C901" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D901" t="s">
+        <v>34</v>
+      </c>
+      <c r="E901" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A902" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B902" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C902" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D902" t="s">
+        <v>34</v>
+      </c>
+      <c r="E902" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A903" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B903" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C903" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D903" t="s">
+        <v>34</v>
+      </c>
+      <c r="E903" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A904" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B904" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C904" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D904" t="s">
+        <v>34</v>
+      </c>
+      <c r="E904" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A905" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B905" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C905" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D905" t="s">
+        <v>34</v>
+      </c>
+      <c r="E905" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A906" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B906" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C906" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D906" t="s">
+        <v>34</v>
+      </c>
+      <c r="E906" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A907" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B907" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C907" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D907" t="s">
+        <v>34</v>
+      </c>
+      <c r="E907" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A908" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B908" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C908" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D908" t="s">
+        <v>34</v>
+      </c>
+      <c r="E908" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A909" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B909" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C909" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D909" t="s">
+        <v>34</v>
+      </c>
+      <c r="E909" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A910" s="23">
+        <v>2023</v>
+      </c>
+      <c r="B910" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C910" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D910" t="s">
+        <v>34</v>
+      </c>
+      <c r="E910" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>2019</v>
+      </c>
+      <c r="B911" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C911" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D911" t="s">
+        <v>34</v>
+      </c>
+      <c r="E911" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>2020</v>
+      </c>
+      <c r="B912" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C912" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D912" t="s">
+        <v>34</v>
+      </c>
+      <c r="E912" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>2021</v>
+      </c>
+      <c r="B913" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C913" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D913" t="s">
+        <v>34</v>
+      </c>
+      <c r="E913" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>2022</v>
+      </c>
+      <c r="B914" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C914" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D914" t="s">
+        <v>34</v>
+      </c>
+      <c r="E914" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>2023</v>
+      </c>
+      <c r="B915" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C915" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D915" t="s">
+        <v>34</v>
+      </c>
+      <c r="E915" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>2019</v>
+      </c>
+      <c r="B916" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C916" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D916" t="s">
+        <v>34</v>
+      </c>
+      <c r="E916" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>2020</v>
+      </c>
+      <c r="B917" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C917" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D917" t="s">
+        <v>34</v>
+      </c>
+      <c r="E917" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>2021</v>
+      </c>
+      <c r="B918" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C918" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D918" t="s">
+        <v>34</v>
+      </c>
+      <c r="E918" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>2022</v>
+      </c>
+      <c r="B919" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C919" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D919" t="s">
+        <v>34</v>
+      </c>
+      <c r="E919" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>2023</v>
+      </c>
+      <c r="B920" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C920" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D920" t="s">
+        <v>34</v>
+      </c>
+      <c r="E920" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A921" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B921" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C921" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D921" t="s">
+        <v>34</v>
+      </c>
+      <c r="E921" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A922" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B922" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C922" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D922" t="s">
+        <v>34</v>
+      </c>
+      <c r="E922" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A923" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B923" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C923" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D923" t="s">
+        <v>34</v>
+      </c>
+      <c r="E923" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A924" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B924" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C924" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D924" t="s">
+        <v>34</v>
+      </c>
+      <c r="E924" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A925" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B925" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C925" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D925" t="s">
+        <v>34</v>
+      </c>
+      <c r="E925" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A926" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B926" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C926" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D926" t="s">
+        <v>34</v>
+      </c>
+      <c r="E926" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A927" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B927" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C927" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D927" t="s">
+        <v>34</v>
+      </c>
+      <c r="E927" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A928" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B928" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C928" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D928" t="s">
+        <v>34</v>
+      </c>
+      <c r="E928" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A929" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B929" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C929" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D929" t="s">
+        <v>34</v>
+      </c>
+      <c r="E929" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A930" s="23">
+        <v>2023</v>
+      </c>
+      <c r="B930" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C930" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D930" t="s">
+        <v>34</v>
+      </c>
+      <c r="E930" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>2019</v>
+      </c>
+      <c r="B931" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C931" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D931" t="s">
+        <v>34</v>
+      </c>
+      <c r="E931" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>2020</v>
+      </c>
+      <c r="B932" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C932" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D932" t="s">
+        <v>34</v>
+      </c>
+      <c r="E932" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>2021</v>
+      </c>
+      <c r="B933" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C933" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D933" t="s">
+        <v>34</v>
+      </c>
+      <c r="E933" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>2022</v>
+      </c>
+      <c r="B934" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C934" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D934" t="s">
+        <v>34</v>
+      </c>
+      <c r="E934" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>2023</v>
+      </c>
+      <c r="B935" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C935" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D935" t="s">
+        <v>34</v>
+      </c>
+      <c r="E935" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>2019</v>
+      </c>
+      <c r="B936" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C936" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D936" t="s">
+        <v>34</v>
+      </c>
+      <c r="E936" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>2020</v>
+      </c>
+      <c r="B937" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C937" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D937" t="s">
+        <v>34</v>
+      </c>
+      <c r="E937" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>2021</v>
+      </c>
+      <c r="B938" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C938" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D938" t="s">
+        <v>34</v>
+      </c>
+      <c r="E938" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>2022</v>
+      </c>
+      <c r="B939" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C939" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D939" t="s">
+        <v>34</v>
+      </c>
+      <c r="E939" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>2023</v>
+      </c>
+      <c r="B940" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C940" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D940" t="s">
+        <v>34</v>
+      </c>
+      <c r="E940" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A941" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B941" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C941" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D941" t="s">
+        <v>34</v>
+      </c>
+      <c r="E941" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A942" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B942" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C942" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D942" t="s">
+        <v>34</v>
+      </c>
+      <c r="E942" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A943" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B943" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C943" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D943" t="s">
+        <v>34</v>
+      </c>
+      <c r="E943" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A944" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B944" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C944" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D944" t="s">
+        <v>34</v>
+      </c>
+      <c r="E944" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A945" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B945" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C945" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D945" t="s">
+        <v>34</v>
+      </c>
+      <c r="E945" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A946" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B946" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C946" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D946" t="s">
+        <v>34</v>
+      </c>
+      <c r="E946" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A947" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B947" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C947" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D947" t="s">
+        <v>34</v>
+      </c>
+      <c r="E947" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A948" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B948" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C948" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D948" t="s">
+        <v>34</v>
+      </c>
+      <c r="E948" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A949" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B949" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C949" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D949" t="s">
+        <v>34</v>
+      </c>
+      <c r="E949" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A950" s="23">
+        <v>2023</v>
+      </c>
+      <c r="B950" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C950" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D950" t="s">
+        <v>34</v>
+      </c>
+      <c r="E950" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>2019</v>
+      </c>
+      <c r="B951" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C951" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D951" t="s">
+        <v>34</v>
+      </c>
+      <c r="E951" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>2020</v>
+      </c>
+      <c r="B952" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C952" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D952" t="s">
+        <v>34</v>
+      </c>
+      <c r="E952" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>2021</v>
+      </c>
+      <c r="B953" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C953" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D953" t="s">
+        <v>34</v>
+      </c>
+      <c r="E953" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>2022</v>
+      </c>
+      <c r="B954" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C954" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D954" t="s">
+        <v>34</v>
+      </c>
+      <c r="E954" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>2023</v>
+      </c>
+      <c r="B955" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C955" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D955" t="s">
+        <v>34</v>
+      </c>
+      <c r="E955" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>2019</v>
+      </c>
+      <c r="B956" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C956" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D956" t="s">
+        <v>34</v>
+      </c>
+      <c r="E956" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>2020</v>
+      </c>
+      <c r="B957" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C957" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D957" t="s">
+        <v>34</v>
+      </c>
+      <c r="E957" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>2021</v>
+      </c>
+      <c r="B958" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C958" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D958" t="s">
+        <v>34</v>
+      </c>
+      <c r="E958" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>2022</v>
+      </c>
+      <c r="B959" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C959" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D959" t="s">
+        <v>34</v>
+      </c>
+      <c r="E959" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>2023</v>
+      </c>
+      <c r="B960" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C960" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D960" t="s">
+        <v>34</v>
+      </c>
+      <c r="E960" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A961" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B961" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C961" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D961" t="s">
+        <v>34</v>
+      </c>
+      <c r="E961" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A962" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B962" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C962" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D962" t="s">
+        <v>34</v>
+      </c>
+      <c r="E962" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A963" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B963" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C963" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D963" t="s">
+        <v>34</v>
+      </c>
+      <c r="E963" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A964" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B964" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C964" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D964" t="s">
+        <v>34</v>
+      </c>
+      <c r="E964" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A965" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B965" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C965" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D965" t="s">
+        <v>34</v>
+      </c>
+      <c r="E965" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A966" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B966" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C966" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D966" t="s">
+        <v>34</v>
+      </c>
+      <c r="E966" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A967" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B967" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C967" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D967" t="s">
+        <v>34</v>
+      </c>
+      <c r="E967" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A968" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B968" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C968" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D968" t="s">
+        <v>34</v>
+      </c>
+      <c r="E968" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A969" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B969" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C969" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D969" t="s">
+        <v>34</v>
+      </c>
+      <c r="E969" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A970" s="23">
+        <v>2023</v>
+      </c>
+      <c r="B970" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C970" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D970" t="s">
+        <v>34</v>
+      </c>
+      <c r="E970" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>2019</v>
+      </c>
+      <c r="B971" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C971" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D971" t="s">
+        <v>34</v>
+      </c>
+      <c r="E971" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>2020</v>
+      </c>
+      <c r="B972" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C972" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D972" t="s">
+        <v>34</v>
+      </c>
+      <c r="E972" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>2021</v>
+      </c>
+      <c r="B973" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C973" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D973" t="s">
+        <v>34</v>
+      </c>
+      <c r="E973" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>2022</v>
+      </c>
+      <c r="B974" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C974" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D974" t="s">
+        <v>34</v>
+      </c>
+      <c r="E974" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>2023</v>
+      </c>
+      <c r="B975" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C975" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D975" t="s">
+        <v>34</v>
+      </c>
+      <c r="E975" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>2019</v>
+      </c>
+      <c r="B976" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C976" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D976" t="s">
+        <v>34</v>
+      </c>
+      <c r="E976" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>2020</v>
+      </c>
+      <c r="B977" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C977" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D977" t="s">
+        <v>34</v>
+      </c>
+      <c r="E977" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>2021</v>
+      </c>
+      <c r="B978" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C978" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D978" t="s">
+        <v>34</v>
+      </c>
+      <c r="E978" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>2022</v>
+      </c>
+      <c r="B979" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C979" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D979" t="s">
+        <v>34</v>
+      </c>
+      <c r="E979" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>2023</v>
+      </c>
+      <c r="B980" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C980" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D980" t="s">
+        <v>34</v>
+      </c>
+      <c r="E980" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A981" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B981" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C981" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D981" t="s">
+        <v>34</v>
+      </c>
+      <c r="E981" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A982" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B982" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C982" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D982" t="s">
+        <v>34</v>
+      </c>
+      <c r="E982" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A983" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B983" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C983" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D983" t="s">
+        <v>34</v>
+      </c>
+      <c r="E983" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A984" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B984" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C984" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D984" t="s">
+        <v>34</v>
+      </c>
+      <c r="E984" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A985" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B985" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C985" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D985" t="s">
+        <v>34</v>
+      </c>
+      <c r="E985" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A986" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B986" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C986" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D986" t="s">
+        <v>34</v>
+      </c>
+      <c r="E986" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A987" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B987" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C987" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D987" t="s">
+        <v>34</v>
+      </c>
+      <c r="E987" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A988" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B988" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C988" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D988" t="s">
+        <v>34</v>
+      </c>
+      <c r="E988" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A989" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B989" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C989" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D989" t="s">
+        <v>34</v>
+      </c>
+      <c r="E989" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A990" s="23">
+        <v>2023</v>
+      </c>
+      <c r="B990" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C990" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D990" t="s">
+        <v>34</v>
+      </c>
+      <c r="E990" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>2019</v>
+      </c>
+      <c r="B991" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C991" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D991" t="s">
+        <v>34</v>
+      </c>
+      <c r="E991" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>2020</v>
+      </c>
+      <c r="B992" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C992" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D992" t="s">
+        <v>34</v>
+      </c>
+      <c r="E992" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>2021</v>
+      </c>
+      <c r="B993" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C993" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D993" t="s">
+        <v>34</v>
+      </c>
+      <c r="E993" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>2022</v>
+      </c>
+      <c r="B994" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C994" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D994" t="s">
+        <v>34</v>
+      </c>
+      <c r="E994" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>2023</v>
+      </c>
+      <c r="B995" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C995" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D995" t="s">
+        <v>34</v>
+      </c>
+      <c r="E995" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>2019</v>
+      </c>
+      <c r="B996" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C996" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D996" t="s">
+        <v>34</v>
+      </c>
+      <c r="E996" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>2020</v>
+      </c>
+      <c r="B997" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C997" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D997" t="s">
+        <v>34</v>
+      </c>
+      <c r="E997" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>2021</v>
+      </c>
+      <c r="B998" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C998" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D998" t="s">
+        <v>34</v>
+      </c>
+      <c r="E998" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>2022</v>
+      </c>
+      <c r="B999" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C999" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D999" t="s">
+        <v>34</v>
+      </c>
+      <c r="E999" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>2023</v>
+      </c>
+      <c r="B1000" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1000" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1000" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1001" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B1001" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1001" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1001" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1002" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B1002" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1002" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1002" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1003" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B1003" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1003" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1003" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1004" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B1004" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1004" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1004" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1005" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B1005" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1005" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1005" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1006" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B1006" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1006" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1006" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1007" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B1007" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1007" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1007" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1008" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B1008" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1008" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1008" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1009" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B1009" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1009" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1009" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1010" s="23">
+        <v>2023</v>
+      </c>
+      <c r="B1010" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1010" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1010" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>2019</v>
+      </c>
+      <c r="B1011" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1011" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1011" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>2020</v>
+      </c>
+      <c r="B1012" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1012" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1012" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>2021</v>
+      </c>
+      <c r="B1013" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1013" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1013" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>2022</v>
+      </c>
+      <c r="B1014" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1014" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1014" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>2023</v>
+      </c>
+      <c r="B1015" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1015" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1015" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>2023</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1016" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>2023</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>594</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1017" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>2023</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1018" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>2023</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1019" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>2023</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1020" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>2023</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1021" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>2023</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1022" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1022" s="17" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>2023</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1023" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>2023</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1024" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>2023</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1025" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>2023</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1026" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>2023</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1027" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>2023</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1028" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>2023</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1029" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>2023</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1030" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>2023</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1031" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>2023</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1032" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>2023</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1033" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>2023</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1034" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>2023</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1035" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>2023</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1036" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>2023</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1037" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>2023</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1038" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>2023</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1039" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>2023</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1040" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>2023</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1041" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>2023</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1042" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>2023</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1043" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>2023</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1044" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>2023</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1045" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>2023</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1046" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>2023</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1047" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>2023</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1048" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>2023</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1049" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>2023</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1050" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>2023</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1051" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>2023</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1052" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>2023</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1053" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>2023</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1054" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>2023</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1055" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>2023</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1056" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>2023</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1057" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>2023</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1058" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>2023</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1059" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>2023</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1060" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>2023</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1061" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>2023</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1062" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>2023</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1063" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>2023</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1064" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>2023</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1065" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>2023</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1066" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>2023</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1067" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>2023</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1068" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>2023</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1069" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>2023</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>544</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1070" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>2023</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1071" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>2023</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1072" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1072" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>2023</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1073" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>2023</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1074" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>2023</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1075" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>2023</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1076" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>2023</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1077" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>2023</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1078" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>2023</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1079" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>2023</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1080" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>2023</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1081" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>2023</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1082" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>2023</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1083" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>2023</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1084" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>2023</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1085" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>2023</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1086" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>2023</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1087" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>2023</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1088" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>2023</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1089" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <v>2023</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1090" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <v>2023</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1091" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1092">
+        <v>2023</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1092" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <v>2023</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1093" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <v>2023</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1094" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <v>2023</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1095" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <v>2023</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1096" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <v>2023</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1097" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <v>2023</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1098" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <v>2023</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>571</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1099" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <v>2023</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <v>2023</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <v>2023</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <v>2023</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <v>2023</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <v>2023</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <v>2023</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>2023</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>2023</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>2023</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>2023</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>2023</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>2023</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>2023</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>2023</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>2023</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>2023</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>2023</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <v>2023</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <v>2023</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <v>2023</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <v>2023</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <v>2023</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>593</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1122" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24451,10 +31130,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB1C15B-5597-114F-BDFB-8D8FF2D17734}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24463,15 +31142,55 @@
     <col min="2" max="2" width="63.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="128" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>431</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>432</v>
       </c>
     </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>483</v>
+      </c>
+      <c r="E22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>484</v>
+      </c>
+      <c r="E26">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D21:E21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24547,65 +31266,88 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6016504-2F1C-6243-97B3-0CBED110888D}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="209" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>260</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>261</v>
       </c>
       <c r="B2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="C4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>425</v>
       </c>
       <c r="B5" t="s">
         <v>426</v>
       </c>
+      <c r="C5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" t="s">
+        <v>490</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>#REF!="In Progress"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -24873,6 +31615,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019" xsi:nil="true"/>
@@ -24881,15 +31632,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24912,26 +31654,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
-    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FAF407-B1B6-4FB8-B534-293B9E1D533A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA6725D-5CB1-4E78-9F97-F79E79C18DA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="49e1d5e2-6a7b-461e-a08d-88c8bb8c4019"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d5cc9fc5-cf59-440a-a506-890d57680064"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Local Historic Crosswalk.xlsx
+++ b/Local Historic Crosswalk.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontheisen/Documents/Advance Illinois/Historic Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EFF4046-439C-574B-8516-E04F4B7607C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3785F283-0602-374D-9B55-B8E6676FFD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Card Metadata" sheetId="3" r:id="rId1"/>
     <sheet name="Name Crosswalk" sheetId="1" r:id="rId2"/>
-    <sheet name="Details" sheetId="2" r:id="rId3"/>
-    <sheet name="Notes" sheetId="5" r:id="rId4"/>
-    <sheet name="ISBE Ask-For List" sheetId="4" r:id="rId5"/>
-    <sheet name="Missing Metrics" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Details" sheetId="2" r:id="rId4"/>
+    <sheet name="Notes" sheetId="5" r:id="rId5"/>
+    <sheet name="ISBE Ask-For List" sheetId="4" r:id="rId6"/>
+    <sheet name="Missing Metrics" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5478" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6260" uniqueCount="1252">
   <si>
     <t>Year</t>
   </si>
@@ -2585,6 +2586,1821 @@
   </si>
   <si>
     <t>% SAT Math Participation - demo</t>
+  </si>
+  <si>
+    <t>2017 SCHOOL COMPOSITE PERCENT OF PROFICIENCY (ELA and MATH) - 2017-COMPOSITE (SAT)</t>
+  </si>
+  <si>
+    <t>2017 SUBREGION COMPOSITE PERCENT OF PROFICIENCY (ELA and MATH) - 2017-COMPOSITE (SAT)</t>
+  </si>
+  <si>
+    <t>2017 DISTRICT COMPOSITE PERCENT OF PROFICIENCY (ELA and MATH) - 2017-COMPOSITE (SAT)</t>
+  </si>
+  <si>
+    <t>2017 STATE COMPOSITE PERCENT OF PROFICIENCY (ELA and MATH) - 2017-COMPOSITE (SAT)</t>
+  </si>
+  <si>
+    <t>2017 SCHOOL PERCENT OF PROFICIENCY IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>2017 SUBREGION PERCENT OF PROFICIENCY  IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>2017 DISTRICT PERCENT OF PROFICIENCY IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>2017 STATE PERCENT OF PROFICIENCY IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>2017 SCHOOL PERCENT OF PROFICIENCY IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>2017 SUBREGION PERCENT OF PROFICIENCY IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>2017 DISTRICT PERCENT OF PROFICIENCY IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>2017 STATE PERCENT OF PROFICIENCY IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>2017 G11 SCHOOL PERCENT OF PROFICIENCY IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>2017 G11 SUBREGION PERCENT OF PROFICIENCY  IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>2017 G11 DISTRICT PERCENT OF PROFICIENCY IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>2017 G11 STATE PERCENT OF PROFICIENCY IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>2017 G11 SCHOOL PERCENT OF PROFICIENCY IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>2017 G11 SUBREGION PERCENT OF PROFICIENCY IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>2017 G11 DISTRICT PERCENT OF PROFICIENCY IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>2017 G11 STATE PERCENT OF PROFICIENCY IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 SCHOOL TOTAL SCALE SCORE - 2017-COMPOSITE (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 SUBREGION TOTAL SCALE SCORE - 2017-COMPOSITE (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 DISTRICT TOTAL SCALE SCORE - 2017-COMPOSITE (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 STATE TOTAL SCALE SCORE - 2017-COMPOSITE (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 SCHOOL AVERAGE SCALE SCORE IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 SUBREGION AVERAGE SCALE SCORE IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 DISTRICT AVERAGE SCALE SCORE IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 STATE AVERAGE SCALE SCORE IN ELA - 2017-ELA (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 SCHOOL AVERAGE SCALE SCORE IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 SUBREGION AVERAGE SCALE SCORE IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 DISTRICT AVERAGE SCALE SCORE IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 STATE AVERAGE SCALE SCORE IN MATH - 2017-MATH (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH SCHOOL PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH SCHOOL APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH SCHOOL MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH SCHOOL EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH SUBREGION PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH SUBREGION APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH SUBREGION MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH SUBREGION EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH DISTRICT PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH DISTRICT APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH DISTRICT MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH DISTRICT EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH STATE PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH STATE APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH STATE MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA/MATH STATE EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA SCHOOL PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA SCHOOL APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA SCHOOL MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA SCHOOL EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA SUBREGION PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA SUBREGION APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA SUBREGION MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA SUBREGION EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA DISTRICT PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA DISTRICT APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA DISTRICT MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA DISTRICT EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA STATE PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA STATE APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA STATE MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 ELA STATE EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH SCHOOL PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH SCHOOL APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH SCHOOL MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH SCHOOL EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH SUBREGION PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH SUBREGION APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH SUBREGION MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH SUBREGION EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH DISTRICT PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH DISTRICT APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH DISTRICT MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH DISTRICT EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH STATE PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH STATE APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH STATE MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>2017 MATH STATE EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - ALL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - Male (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - Female (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - White (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - Black (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - Latinx (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - Asian (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - Native Hawaiian or Other Pacific Islander (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - American Indian or Alaska Native (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - Two or More Races (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - EL (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - Migrant (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - NON-IEP (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - Low Income (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION PARTIALLY MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION APPROACHING STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SUBREGION EXCEEDS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT PARTIALLY MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT APPROACHING STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA DISTRICT EXCEEDS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE PARTIALLY MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE APPROACHING STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA STATE EXCEEDS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION PARTIALLY MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION APPROACHING STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SUBREGION EXCEEDS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT PARTIALLY MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT APPROACHING STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICT MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH DISTRICTEXCEEDS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE PARTIALLY MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE APPROACHING STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE MEETS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH STATE EXCEEDS STANDARDS - NON-LOW INCOME (SAT)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Included</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL PARTIALLY MEETS STANDARDS - demo (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL APPROACHING STANDARDS - demo (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL MEETS STANDARDS - demo (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 ELA SCHOOL EXCEEDS STANDARDS - demo (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL PARTIALLY MEETS STANDARDS - demo (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL APPROACHING STANDARDS - demo (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL MEETS STANDARDS - demo (SAT)</t>
+  </si>
+  <si>
+    <t>GR11 MATH SCHOOL EXCEEDS STANDARDS - demo (SAT)</t>
   </si>
 </sst>
 </file>
@@ -2794,7 +4610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2828,6 +4644,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5676,8 +7494,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H1210" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H1210" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{10269AC0-00BF-5848-9A15-9E0890B62148}" name="Table4" displayName="Table4" ref="A1:D593" totalsRowShown="0">
+  <autoFilter ref="A1:D593" xr:uid="{10269AC0-00BF-5848-9A15-9E0890B62148}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0847F7DD-D597-DB4B-BF22-D44A8DADFC59}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{E98CC780-C824-864E-90F5-A82E5C0EC75D}" name="2017"/>
+    <tableColumn id="3" xr3:uid="{0537E8D5-E049-C949-BD3C-4F64EA73CFE1}" name="Column2">
+      <calculatedColumnFormula>IFERROR(FIND("SUBREGION",$B2),0) + IFERROR(FIND("DISTRICT",$B2),0) + IFERROR(FIND("STATE",$B2),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DC0BC97A-C5F1-2D40-B8FD-9EBEC62465D3}" name="Included"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}" name="Table44" displayName="Table44" ref="A1:H1220" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H1220" xr:uid="{AD1B13A2-FA47-5D4B-9EA5-39ACC7EE5058}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H323">
     <sortCondition ref="B1:B323"/>
   </sortState>
@@ -5695,7 +7534,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F1FC7976-8703-F741-A840-3B88EF6176BE}" name="Table5" displayName="Table5" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{F1FC7976-8703-F741-A840-3B88EF6176BE}"/>
   <tableColumns count="2">
@@ -5706,7 +7545,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{858E5CCA-0F37-2049-A78A-5D51D857C8D9}" name="Table6" displayName="Table6" ref="A1:D5" totalsRowShown="0">
   <autoFilter ref="A1:D5" xr:uid="{858E5CCA-0F37-2049-A78A-5D51D857C8D9}"/>
   <tableColumns count="4">
@@ -6351,9 +8190,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KJ19"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KF15" sqref="KF15:KF17"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="KA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JU1" sqref="JU1:KD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8371,6 +10210,36 @@
       <c r="JT11" s="10" t="s">
         <v>606</v>
       </c>
+      <c r="JU11" t="s">
+        <v>671</v>
+      </c>
+      <c r="JV11" t="s">
+        <v>675</v>
+      </c>
+      <c r="JW11" t="s">
+        <v>727</v>
+      </c>
+      <c r="JX11" t="s">
+        <v>728</v>
+      </c>
+      <c r="JY11" t="s">
+        <v>729</v>
+      </c>
+      <c r="JZ11" t="s">
+        <v>730</v>
+      </c>
+      <c r="KA11" t="s">
+        <v>743</v>
+      </c>
+      <c r="KB11" t="s">
+        <v>744</v>
+      </c>
+      <c r="KC11" t="s">
+        <v>745</v>
+      </c>
+      <c r="KD11" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="12" spans="1:296" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -11348,13 +13217,7566 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B99F5DB-CE4E-EA47-81AE-0ED9D6637B86}">
+  <dimension ref="A1:D593"/>
+  <sheetViews>
+    <sheetView zoomScale="224" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="79.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C2">
+        <f>IFERROR(FIND("SUBREGION",$B2),0) + IFERROR(FIND("DISTRICT",$B2),0) + IFERROR(FIND("STATE",$B2),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3">
+        <f>IFERROR(FIND("SUBREGION",$B3),0) + IFERROR(FIND("DISTRICT",$B3),0) + IFERROR(FIND("STATE",$B3),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">IFERROR(FIND("SUBREGION",$B4),0) + IFERROR(FIND("DISTRICT",$B4),0) + IFERROR(FIND("STATE",$B4),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>653</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>657</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>658</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>659</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>660</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>661</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>662</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>663</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>664</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>665</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>666</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>667</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>668</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>669</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>670</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>671</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>672</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>673</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>674</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>675</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>676</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>677</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>678</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>679</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>680</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>682</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>683</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>684</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>685</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>686</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>687</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>688</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>689</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>690</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>691</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>692</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>693</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>694</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>695</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>696</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>697</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>698</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>699</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>700</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>701</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>703</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>704</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>705</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>706</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>707</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>708</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>709</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>710</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>711</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>712</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>713</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C131" si="1">IFERROR(FIND("SUBREGION",$B68),0) + IFERROR(FIND("DISTRICT",$B68),0) + IFERROR(FIND("STATE",$B68),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>714</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>715</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>716</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>717</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>718</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>719</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>720</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>721</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>722</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>723</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>724</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>725</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>726</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>727</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>728</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>729</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>730</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>731</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>732</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>733</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>734</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>735</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>736</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>737</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>738</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>739</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>740</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>741</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>742</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>743</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>744</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>745</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>746</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>747</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>748</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>749</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>750</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>751</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>752</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>753</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>754</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>755</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>756</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>757</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>758</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>759</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>760</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>761</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>762</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>763</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>764</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>765</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>766</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>767</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>768</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>769</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>770</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>771</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>772</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>773</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>774</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>775</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>776</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>777</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:C195" si="2">IFERROR(FIND("SUBREGION",$B132),0) + IFERROR(FIND("DISTRICT",$B132),0) + IFERROR(FIND("STATE",$B132),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>778</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>779</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>780</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>781</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>782</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>783</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>784</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>785</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>786</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>787</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>788</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>789</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>790</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>791</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>792</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>793</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>794</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>795</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>796</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>797</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>798</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>799</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>800</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>801</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>802</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>803</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>804</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>805</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>806</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>807</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>808</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>809</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>810</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>811</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>812</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>813</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>814</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>815</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>816</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>817</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>818</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>819</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>820</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>821</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>822</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>823</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D178" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>824</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D179" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>825</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>826</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>827</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>828</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>829</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>830</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>831</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>832</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>833</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>834</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>835</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>836</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>837</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>838</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>839</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D194" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>840</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D195" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>841</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:C259" si="3">IFERROR(FIND("SUBREGION",$B196),0) + IFERROR(FIND("DISTRICT",$B196),0) + IFERROR(FIND("STATE",$B196),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D196" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>842</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D197" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>843</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>844</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>845</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>846</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>847</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>848</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>849</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>850</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>851</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>852</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>853</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>854</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>855</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D210" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>856</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D211" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>857</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D212" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>858</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D213" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>859</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>860</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>861</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>862</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>863</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>864</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>865</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>866</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>867</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>868</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>869</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>870</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>871</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D226" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>872</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D227" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>873</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D228" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>874</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D229" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>875</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>876</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>877</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>878</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>879</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>880</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>881</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>882</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>883</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>884</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>885</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>886</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>887</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D242" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>888</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D243" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>889</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D244" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>890</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D245" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>891</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>892</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>893</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>894</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>895</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>896</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>897</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>898</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>899</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>900</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>901</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>902</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>903</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D258" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>904</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D259" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>905</v>
+      </c>
+      <c r="C260">
+        <f t="shared" ref="C260:C323" si="4">IFERROR(FIND("SUBREGION",$B260),0) + IFERROR(FIND("DISTRICT",$B260),0) + IFERROR(FIND("STATE",$B260),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D260" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>906</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D261" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>907</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>908</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>909</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>910</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>911</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>912</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>913</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>914</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>915</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>916</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>917</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>918</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>919</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D274" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>920</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D275" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>921</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D276" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>922</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D277" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>923</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>924</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>925</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>926</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>927</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>928</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>929</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>930</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>931</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>932</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>933</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>934</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>935</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D290" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>936</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D291" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>937</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D292" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>938</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D293" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>939</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>940</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>941</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>942</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>943</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>944</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>945</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>946</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>947</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>948</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>949</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>950</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>951</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D306" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>952</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D307" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>953</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D308" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>954</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D309" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>955</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>956</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>957</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>958</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>959</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>960</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>961</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>962</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>963</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>964</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>965</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>966</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>967</v>
+      </c>
+      <c r="C322">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D322" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>968</v>
+      </c>
+      <c r="C323">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D323" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>969</v>
+      </c>
+      <c r="C324">
+        <f t="shared" ref="C324:C387" si="5">IFERROR(FIND("SUBREGION",$B324),0) + IFERROR(FIND("DISTRICT",$B324),0) + IFERROR(FIND("STATE",$B324),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D324" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>970</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D325" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>971</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>972</v>
+      </c>
+      <c r="C327">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>973</v>
+      </c>
+      <c r="C328">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>974</v>
+      </c>
+      <c r="C329">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>975</v>
+      </c>
+      <c r="C330">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>976</v>
+      </c>
+      <c r="C331">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>977</v>
+      </c>
+      <c r="C332">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>978</v>
+      </c>
+      <c r="C333">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>979</v>
+      </c>
+      <c r="C334">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>980</v>
+      </c>
+      <c r="C335">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>981</v>
+      </c>
+      <c r="C336">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>982</v>
+      </c>
+      <c r="C337">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>983</v>
+      </c>
+      <c r="C338">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D338" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>984</v>
+      </c>
+      <c r="C339">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D339" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>985</v>
+      </c>
+      <c r="C340">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D340" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>986</v>
+      </c>
+      <c r="C341">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D341" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>987</v>
+      </c>
+      <c r="C342">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>988</v>
+      </c>
+      <c r="C343">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>989</v>
+      </c>
+      <c r="C344">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>990</v>
+      </c>
+      <c r="C345">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>991</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>992</v>
+      </c>
+      <c r="C347">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>993</v>
+      </c>
+      <c r="C348">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>994</v>
+      </c>
+      <c r="C349">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>995</v>
+      </c>
+      <c r="C350">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>996</v>
+      </c>
+      <c r="C351">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>997</v>
+      </c>
+      <c r="C352">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>998</v>
+      </c>
+      <c r="C353">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>999</v>
+      </c>
+      <c r="C354">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D354" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C355">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D355" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C356">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D356" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C357">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D357" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C358">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C359">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C360">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C361">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C362">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C363">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C364">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C365">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C366">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C367">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C368">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C369">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C370">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D370" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C371">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D371" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C372">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D372" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C373">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D373" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C374">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C375">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C376">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C377">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C378">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C379">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C380">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C381">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C382">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C383">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C384">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C385">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C386">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D386" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C387">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D387" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C388">
+        <f t="shared" ref="C388:C451" si="6">IFERROR(FIND("SUBREGION",$B388),0) + IFERROR(FIND("DISTRICT",$B388),0) + IFERROR(FIND("STATE",$B388),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D388" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C389">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D389" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C390">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C391">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C392">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C393">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C394">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C395">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C396">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C397">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C398">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C399">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C400">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C401">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C402">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D402" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C403">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D403" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C404">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D404" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C405">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D405" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C406">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C407">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C408">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C409">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C410">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C411">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C412">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C413">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C414">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C415">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C416">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C417">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C418">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D418" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C419">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D419" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C420">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D420" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C421">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D421" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C422">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C423">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C424">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C425">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C426">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C427">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C428">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C429">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C430">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C431">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C432">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C433">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C434">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D434" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C435">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D435" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C436">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D436" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C437">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D437" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C438">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C439">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C440">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C441">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C442">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C443">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C444">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C445">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C446">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C447">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C448">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C449">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C450">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D450" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C451">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D451" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C452">
+        <f t="shared" ref="C452:C515" si="7">IFERROR(FIND("SUBREGION",$B452),0) + IFERROR(FIND("DISTRICT",$B452),0) + IFERROR(FIND("STATE",$B452),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D452" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C453">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D453" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C454">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C455">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C456">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C457">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C458">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C459">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C460">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C461">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C462">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C463">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C464">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C465">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C466">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D466" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C467">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D467" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C468">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D468" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C469">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D469" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C470">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C471">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C472">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C473">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C474">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C475">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C476">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C477">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C478">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C479">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C480">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C481">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C482">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D482" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C483">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D483" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C484">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D484" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C485">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D485" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C486">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C487">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C488">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C489">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C490">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C491">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C492">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C493">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C494">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C495">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C496">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C497">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C498">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D498" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C499">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D499" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C500">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D500" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C501">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D501" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C502">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C503">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C504">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C505">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C506">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C507">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C508">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C509">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C510">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C511">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C512">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C513">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C514">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D514" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C515">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D515" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C516">
+        <f t="shared" ref="C516:C579" si="8">IFERROR(FIND("SUBREGION",$B516),0) + IFERROR(FIND("DISTRICT",$B516),0) + IFERROR(FIND("STATE",$B516),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D516" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C517">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D517" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C518">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C519">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C520">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C521">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C522">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C523">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C524">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C525">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C526">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C527">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C528">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C529">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C530">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D530" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C531">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D531" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C532">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D532" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C533">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D533" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C534">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C535">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C536">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C537">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C538">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C539">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C540">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C541">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C542">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C543">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C544">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C545">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C546">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D546" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C547">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D547" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C548">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D548" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C549">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D549" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C550">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C551">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C552">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C553">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C554">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C555">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C556">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C557">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C558">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C559">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C560">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C561">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C562">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D562" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C563">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D563" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C564">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D564" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C565">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D565" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C566">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C567">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C568">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C569">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C570">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C571">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C572">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C573">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C574">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C575">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C576">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C577">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C578">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D578" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C579">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D579" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C580">
+        <f t="shared" ref="C580:C593" si="9">IFERROR(FIND("SUBREGION",$B580),0) + IFERROR(FIND("DISTRICT",$B580),0) + IFERROR(FIND("STATE",$B580),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D580" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C581">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D581" s="25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C582">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C583">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C584">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C585">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C586">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C587">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C588">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C589">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C590">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C591">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C592">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C593">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B090D-D7BB-374A-9D81-FFCE8C0599DD}">
-  <dimension ref="A1:H1210"/>
+  <dimension ref="A1:H1220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A860" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A1187" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A162" sqref="A162"/>
-      <selection pane="topRight" activeCell="C882" sqref="C882"/>
+      <selection pane="topRight" activeCell="G1213" sqref="G1213:G1220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33787,7 +43209,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="1201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1201">
         <v>2023</v>
       </c>
@@ -33807,7 +43229,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="1202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1202">
         <v>2018</v>
       </c>
@@ -33828,7 +43250,7 @@
         <v>demo Students SAT ELA Participation %</v>
       </c>
     </row>
-    <row r="1203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1203">
         <v>2019</v>
       </c>
@@ -33848,7 +43270,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="1204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1204">
         <v>2021</v>
       </c>
@@ -33868,7 +43290,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="1205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1205">
         <v>2022</v>
       </c>
@@ -33888,7 +43310,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="1206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1206">
         <v>2023</v>
       </c>
@@ -33908,7 +43330,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="1207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1207">
         <v>2022</v>
       </c>
@@ -33929,7 +43351,7 @@
         <v>SAT ELA No Participation Rate - demo</v>
       </c>
     </row>
-    <row r="1208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1208">
         <v>2023</v>
       </c>
@@ -33950,7 +43372,7 @@
         <v>SAT ELA No Participation Rate - demo</v>
       </c>
     </row>
-    <row r="1209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1209">
         <v>2022</v>
       </c>
@@ -33971,7 +43393,7 @@
         <v>SAT Math No Participation Rate - demo</v>
       </c>
     </row>
-    <row r="1210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1210">
         <v>2023</v>
       </c>
@@ -33991,6 +43413,220 @@
         <f>REPLACE(Table44[[#This Row],[Original Metric]],FIND("Total",Table44[[#This Row],[Original Metric]]),5,"demo")</f>
         <v>SAT Math No Participation Rate - demo</v>
       </c>
+    </row>
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1211" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>627</v>
+      </c>
+      <c r="C1211" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="D1211" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1211" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1211" s="26"/>
+      <c r="H1211" s="26"/>
+    </row>
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1212" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1212" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1212" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1212" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1212" s="26"/>
+      <c r="H1212" s="26"/>
+    </row>
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1213" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1213" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1213" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1213" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1213" s="26"/>
+      <c r="G1213" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H1213" s="26"/>
+    </row>
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1214" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1214" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1214" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1214" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1214" s="26"/>
+      <c r="G1214" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H1214" s="26"/>
+    </row>
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1215" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>633</v>
+      </c>
+      <c r="C1215" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1215" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1215" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1215" s="26"/>
+      <c r="G1215" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H1215" s="26"/>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1216" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1216" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="D1216" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1216" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1216" s="26"/>
+      <c r="G1216" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H1216" s="26"/>
+    </row>
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1217" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>635</v>
+      </c>
+      <c r="C1217" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1217" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1217" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1217" s="26"/>
+      <c r="G1217" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1217" s="26"/>
+    </row>
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1218" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>636</v>
+      </c>
+      <c r="C1218" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1218" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1218" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1218" s="26"/>
+      <c r="G1218" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H1218" s="26"/>
+    </row>
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1219" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>637</v>
+      </c>
+      <c r="C1219" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1219" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1219" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1219" s="26"/>
+      <c r="G1219" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H1219" s="26"/>
+    </row>
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1220" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1220" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1220" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1220" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1220" s="26"/>
+      <c r="G1220" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H1220" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -34002,7 +43638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB1C15B-5597-114F-BDFB-8D8FF2D17734}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -34044,7 +43680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8521E5FD-ABD7-A144-B5B7-B0A36A8953CC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -34113,7 +43749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6016504-2F1C-6243-97B3-0CBED110888D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
